--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,56 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-07-12 05:36:32</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7525753974914551</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>이슬점 포화수증기량 왜 응결</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-07-12 05:36:37</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7841136455535889</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>고기압에서 저기압 바람 방향</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>﻿선생님 바람은 고기압에서 저기압으로 공기가 이동하면서 생기는 거잖아요.. 그러면 바람의 시작점과 도착점의 기압이 같아지면 바람은 멈추게 되는건가요??</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,31 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-07-12 05:40:15</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7704534530639648</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>고기압에서는 왜 구름이 안 생기나</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>고기압과 저기압은 왜 나타나나요?</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>반가워요^^고기압과 저기압이 생겨나는 여러 가지 이유가 있지만대표적으로는 지표면의 불균등한 가열과 냉각 때문이랍니다.자세히 설명드리자면지표면의 특정한 부분이 가열되면 그 부분의 공기는 따뜻해지면서 가벼워져 상승합니다.그렇게 되면 지표면 부근은 공기가 적어지면서 저기압이 형성되는 것입니다.반대로, 지표면의 특정한 부분이 냉각되면 그 부분의 공기는 차가워지면서 무거워져 하강합니다.그렇게 되면 지표면 부근은 공기가 많아지면서 고기압이 형성되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,56 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-07-12 05:43:00</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.910151481628418</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>고기압과 저기압은 왜 나타나는가</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>고기압과 저기압은 왜 나타나나요?</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>반가워요^^고기압과 저기압이 생겨나는 여러 가지 이유가 있지만대표적으로는 지표면의 불균등한 가열과 냉각 때문이랍니다.자세히 설명드리자면지표면의 특정한 부분이 가열되면 그 부분의 공기는 따뜻해지면서 가벼워져 상승합니다.그렇게 되면 지표면 부근은 공기가 적어지면서 저기압이 형성되는 것입니다.반대로, 지표면의 특정한 부분이 냉각되면 그 부분의 공기는 차가워지면서 무거워져 하강합니다.그렇게 되면 지표면 부근은 공기가 많아지면서 고기압이 형성되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-07-12 05:43:13</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.17202328145504</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>바다는 왜 빨리 식지 않고 뜨거워지지도 않나</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>선생님 중력에대한 일과 위치에너지의 관계에서 물체를 들어올릴때 중력에 대해 한일의 양만큼 위치에너지가 증가한다란 말이 중력에 무게만큼 뚫고 올라가니까 높을수록 위치에너지가 증가한단소린가요?</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>네*^^* 정확하게 맞습니다.똑똑한 우리 친구~ 화이팅!!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -1,34 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinPython37F\notebooks\faq_chatbot_science_3rd\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BCA307-B867-4214-BD04-F6EE6034C320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>고기압에서 저기압 바람 방향</t>
+  </si>
+  <si>
+    <t>﻿선생님 바람은 고기압에서 저기압으로 공기가 이동하면서 생기는 거잖아요.. 그러면 바람의 시작점과 도착점의 기압이 같아지면 바람은 멈추게 되는건가요??</t>
+  </si>
+  <si>
+    <t>네^^ 맞습니다.</t>
+  </si>
+  <si>
+    <t>이슬점 포화수증기량 왜 응결</t>
+  </si>
+  <si>
+    <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
+  </si>
+  <si>
+    <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
+  </si>
+  <si>
+    <t>2020-07-12 05:36:32</t>
+  </si>
+  <si>
+    <t>2020-07-12 05:36:37</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +87,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,195 +389,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2020-07-12 05:32:49</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1189</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>고기압에서 저기압 바람 방향</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>﻿선생님 바람은 고기압에서 저기압으로 공기가 이동하면서 생기는 거잖아요.. 그러면 바람의 시작점과 도착점의 기압이 같아지면 바람은 멈추게 되는건가요??</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>네^^ 맞습니다.</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>0.75257539749145508</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2020-07-12 05:32:56</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1771</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>이슬점 포화수증기량 왜 응결</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2020-07-12 05:36:32</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7525753974914551</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>이슬점 포화수증기량 왜 응결</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2020-07-12 05:36:37</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7841136455535889</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>고기압에서 저기압 바람 방향</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>﻿선생님 바람은 고기압에서 저기압으로 공기가 이동하면서 생기는 거잖아요.. 그러면 바람의 시작점과 도착점의 기압이 같아지면 바람은 멈추게 되는건가요??</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>네^^ 맞습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2020-07-12 05:40:15</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7704534530639648</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>고기압에서는 왜 구름이 안 생기나</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>고기압과 저기압은 왜 나타나나요?</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>반가워요^^고기압과 저기압이 생겨나는 여러 가지 이유가 있지만대표적으로는 지표면의 불균등한 가열과 냉각 때문이랍니다.자세히 설명드리자면지표면의 특정한 부분이 가열되면 그 부분의 공기는 따뜻해지면서 가벼워져 상승합니다.그렇게 되면 지표면 부근은 공기가 적어지면서 저기압이 형성되는 것입니다.반대로, 지표면의 특정한 부분이 냉각되면 그 부분의 공기는 차가워지면서 무거워져 하강합니다.그렇게 되면 지표면 부근은 공기가 많아지면서 고기압이 형성되는 것입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2020-07-12 05:43:00</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.910151481628418</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>고기압과 저기압은 왜 나타나는가</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>고기압과 저기압은 왜 나타나나요?</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>반가워요^^고기압과 저기압이 생겨나는 여러 가지 이유가 있지만대표적으로는 지표면의 불균등한 가열과 냉각 때문이랍니다.자세히 설명드리자면지표면의 특정한 부분이 가열되면 그 부분의 공기는 따뜻해지면서 가벼워져 상승합니다.그렇게 되면 지표면 부근은 공기가 적어지면서 저기압이 형성되는 것입니다.반대로, 지표면의 특정한 부분이 냉각되면 그 부분의 공기는 차가워지면서 무거워져 하강합니다.그렇게 되면 지표면 부근은 공기가 많아지면서 고기압이 형성되는 것입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2020-07-12 05:43:13</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.17202328145504</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>바다는 왜 빨리 식지 않고 뜨거워지지도 않나</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>선생님 중력에대한 일과 위치에너지의 관계에서 물체를 들어올릴때 중력에 대해 한일의 양만큼 위치에너지가 증가한다란 말이 중력에 무게만큼 뚫고 올라가니까 높을수록 위치에너지가 증가한단소린가요?</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>네*^^* 정확하게 맞습니다.똑똑한 우리 친구~ 화이팅!!</t>
-        </is>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.78411364555358887</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -1,74 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinPython37F\notebooks\faq_chatbot_science_3rd\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BCA307-B867-4214-BD04-F6EE6034C320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>고기압에서 저기압 바람 방향</t>
-  </si>
-  <si>
-    <t>﻿선생님 바람은 고기압에서 저기압으로 공기가 이동하면서 생기는 거잖아요.. 그러면 바람의 시작점과 도착점의 기압이 같아지면 바람은 멈추게 되는건가요??</t>
-  </si>
-  <si>
-    <t>네^^ 맞습니다.</t>
-  </si>
-  <si>
-    <t>이슬점 포화수증기량 왜 응결</t>
-  </si>
-  <si>
-    <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
-  </si>
-  <si>
-    <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
-  </si>
-  <si>
-    <t>2020-07-12 05:36:32</t>
-  </si>
-  <si>
-    <t>2020-07-12 05:36:37</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,21 +53,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -389,52 +414,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1">
-        <v>0.75257539749145508</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2020-07-12 05:36:32</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0.7525753974914551</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>이슬점 포화수증기량 왜 응결</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0.78411364555358887</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-07-12 05:36:37</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7841136455535889</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>고기압에서 저기압 바람 방향</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>﻿선생님 바람은 고기압에서 저기압으로 공기가 이동하면서 생기는 거잖아요.. 그러면 바람의 시작점과 도착점의 기압이 같아지면 바람은 멈추게 되는건가요??</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-07-12 05:51:45</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6155528426170349</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>기체만 계수비가 부피비인 이유</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>선생님 기체가 아닐때는 계수의 비가 부피의 비와 달라지나요?</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>반가워요^^기체가 아닐때는부피비가 성립되지 않는답니다.즉, 계수비는 그대로이지만그것이 부피비라고 할수 없는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-07-12 05:52:01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.608353316783905</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>화학 반응식에서 계수비가 분자수비랑 같은 이유</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>화학반응식을 통해 알수 있는 점 중에 계수비랑 분자 수의 비가 있었는데 항상 계수비와 분자 수의 비는 같나요?</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>반가워요^^물질이 분자가 나타나는 반응의 경우는항상 계수 비와 분자수 비가 같답니다.</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -527,6 +527,31 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-07-12 05:59:08</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7091622352600098</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>기체반응법칙은 일정성분비법칙과 무슨 차이가 있나요</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙이 무엇인가요</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>반가워요^^일정 성분비의 법칙은 화학 반응이 일어날때반응하는 물질은 항상 일정한 질량비를 이루면서 결합한다는 뜻입니다.즉, 아무리 양이 많아도 자신이 반응하는 질량 만큼만 서로 반응한다는 법칙입니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -552,6 +552,31 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-07-12 09:14:54</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6600515842437744</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>대류가 뭔가요</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>대류가 뭐예요?</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>대류는 입자가 직접 이동하여 열을 전달하는 방법이에요. 예를 들어 에어컨을 틀면 찬 바람이 아래로 직접 이동하고, 히터를 틀면 뜨거운 바람이 위로 직접 이동해요. 이런 식으로 밀도가 큰 찬 공기가 아래로, 밀도가 작은 뜨거운 공기가 아래로 이동하면서 열을 전달하는 방법이 대류예요.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -577,6 +577,256 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-07-12 09:18:47</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6628088355064392</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>왜 낮에는 해풍이 부나요</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>﻿선생님 제가 지금 질문한 38:08 즈음에 기온이 높은낮에는 습도가 낮고, 기온이 낮은 밤에는 습도가 낮다라고 되어있는데요. 여기서 기온과 습도가 반비례한다면 왜 한국의 여름은 낮과 밤 모두 덥고 습할까요?지리적인 이유때문인가요? 공부하다가 궁금해져서질문드립니다.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>반가워요^^ 아주 좋은 질문입니다.하루 동안을 기준으로 하면하루 동안의 공기 중의 수증기량은 거의 변화가 없으므로기온에 따라서 포화 수증기량이 달라지면서습도는 달라집니다.하지만. 여름이라는 계절에는 공기중의 수증기가 워낙 많아서기온이 높든 낮든, 즉, 포화 수증기량이 달라진다고 하더라도실제 수증기량 자체가 워낙 많아서습도는 매우 높게 나타나는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-07-12 09:19:08</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6647632122039795</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>육풍과 해풍 낮에</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>﻿선생님 제가 지금 질문한 38:08 즈음에 기온이 높은낮에는 습도가 낮고, 기온이 낮은 밤에는 습도가 낮다라고 되어있는데요. 여기서 기온과 습도가 반비례한다면 왜 한국의 여름은 낮과 밤 모두 덥고 습할까요?지리적인 이유때문인가요? 공부하다가 궁금해져서질문드립니다.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>반가워요^^ 아주 좋은 질문입니다.하루 동안을 기준으로 하면하루 동안의 공기 중의 수증기량은 거의 변화가 없으므로기온에 따라서 포화 수증기량이 달라지면서습도는 달라집니다.하지만. 여름이라는 계절에는 공기중의 수증기가 워낙 많아서기온이 높든 낮든, 즉, 포화 수증기량이 달라진다고 하더라도실제 수증기량 자체가 워낙 많아서습도는 매우 높게 나타나는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-07-12 09:19:32</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7167059183120728</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>복사평형 달과 지구 온실효과 대기</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>선생님! 복사 에너지와 온실효과에 대해 잘 이해가 안 갑니다ㅜㅜ! 태양복사 에너지가 지구로 도달하게 되는건 70%정도여서 지구도 우주에 70%정도의 양을 복사해서 복사평형이 이뤄진다고 하셨는데요. 그럼 온실효과를 일으키면서 대기의 흡수와 방출을 일으키는 복사에너지는 어디서 나온건가요? 지구의 복사 에너지 30%가 여기에 쓰이는건가요? 지구의 복사 에너지는 그럼 온실효과를 일으키는(대기에서 흡수와 방출을 반복하는) 30%, 우주로 방출되는 70%로 이루어져있는건가요...? 아니면 우주로 방출되는 70%안에 온실효과를 일으키는 것도 포함되어 있는건가요?</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>아주 좋은 질문입니다.^^이 부분이 어렵지요?일단. 지구가 우주로 부터 흡수하는 것은 70%이구요이 복사 에너지를 통해 지구가 가열되고, 지구가 다시 내놓는 복사 에너지는 70%입니다.그런데, 이 과정에서 지구의 온실 기체는지구에서 복사 되어 나가는 에너지의 일부를 재흡수한답니다 예를 들어서 70%가 빠져 나가는데, 이중에서 50%를 재흡수하고이 때문에 온실기체의 온도가 올라가면서 다시 지표면을 데우교지표면에서 다시 복사 에너지가 나가고, 다시 온실기체가 흡수하여 데우고'하는 과정에서 지구의 기온을 올라가구요결국, 마지막에는 나머지 50%가 지구 바깥으로 빠져 나간답니다.결국, 전체 70%가 빠져 나간답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-07-13 01:17:44</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7673628926277161</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>하강기류면 왜 고기압이 만들어지나요?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>고기압과 저기압은 왜 나타나나요?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>반가워요^^고기압과 저기압이 생겨나는 여러 가지 이유가 있지만대표적으로는 지표면의 불균등한 가열과 냉각 때문이랍니다.자세히 설명드리자면지표면의 특정한 부분이 가열되면 그 부분의 공기는 따뜻해지면서 가벼워져 상승합니다.그렇게 되면 지표면 부근은 공기가 적어지면서 저기압이 형성되는 것입니다.반대로, 지표면의 특정한 부분이 냉각되면 그 부분의 공기는 차가워지면서 무거워져 하강합니다.그렇게 되면 지표면 부근은 공기가 많아지면서 고기압이 형성되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-07-13 01:18:01</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6009585857391357</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>지표면은 왜 빨리 뜨거워지나요</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>﻿﻿지구 온난화에 대해 설명좀 헤주세요강의를 들어도 이해가 안돼요​</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>반가워요^^지구 온난화가 어려우시죠?자세히 설명드리자면지구는 대기속의 온실 기체로 인해서 온실효과가 나타납니다.이러한 온실 효과가 나타나기 때문에지구의 연평균 기온이 생명체가 살기에 적합한 온도가 되는 것이구요그런데, 인류가 석탄이나 석유와 같은 화석 연료를 많이 쓰면서온실기체인 이산화 탄소의 양이 점점 많아지면서 대기중의 이산화 탄소의 농도가 더 높아져서 온실효과가 더 심해져서, 즉, 강화되면서지구의 평균 기온이 점점 높아진답니다.이러한 지구 온난화로 인해서 빙하가 녹고, 생태계가 파괴된답니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-07-13 02:21:40</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7260503172874451</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>단열팽창</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>선생님!단열팽창이란 열을 주고받지 않고 부피가 변하는거잖아요, 근데 왜 단열팽창 다음에 기온 하강을 하지요?</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.앞으로 업데이트 되는 12강에서 자세하 다루기는 할텐데요미리 설명드릴께요 일단. 단열 이라는 것은 외부로 부터 열이 차단된즉, 열을 주지고 않고, 받지도 않는 상태랍니다.이때, 팽창을 하게 되면분자가 바깥으로 공간을 밀고 나가면서에너지를 소모합니다.에너지를 소모하면 온도는 내려가는 것이랍니다.즉, 단열한 상태에서 팽창할때, 에너지를 소모하므로온도가 내려간다고 알아두시면 됩니다. 그래서, 단열 팽창, 기온 하강이라고 하는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-07-13 02:22:38</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6635229587554932</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>구름생성</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>온대 저기압, 저기압이 생성되는 쪽에서 왜 공기가 적어져서 저기압이 생성되는건가요??</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>반가워요^^저기압의 정의 자체간공기가 적은 곳을 뜻하는 것이랍니다.따라서 온대 저기압의 중심은 공기의 양이 주변보다 적기 때문에 저기압이 생성되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-07-13 02:22:53</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7495895028114319</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>고기압의 날씨는</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>기권과 날씨 질문 남동쪽에서 북서쪽으로 부는 바람이 있을 때고기압이 기온이 낮나요 저기압이 기온이 낮나요</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>반가워요^^지표면의 가열에 따른 기압차이가 생긴 것이라면고기압쪽의 기온이 낮고, 저기압 쪽의기온이 높답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-07-13 03:59:14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8244569301605225</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>고기압에서 저기압으로 왜 바람이 부나요</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>고기압과 저기압은 왜 나타나나요?</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>반가워요^^고기압과 저기압이 생겨나는 여러 가지 이유가 있지만대표적으로는 지표면의 불균등한 가열과 냉각 때문이랍니다.자세히 설명드리자면지표면의 특정한 부분이 가열되면 그 부분의 공기는 따뜻해지면서 가벼워져 상승합니다.그렇게 되면 지표면 부근은 공기가 적어지면서 저기압이 형성되는 것입니다.반대로, 지표면의 특정한 부분이 냉각되면 그 부분의 공기는 차가워지면서 무거워져 하강합니다.그렇게 되면 지표면 부근은 공기가 많아지면서 고기압이 형성되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:00:43</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7385685443878174</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>계수비는 부피비와 기체에서 왜 같은지 모르겠다</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>선생님 화학반응(기체)에서 부피비가 1:3이면 계수비, 일정 성분비, 분자수비도 1:3인가요?</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.기체와 기체가 반응해서 기체가 생성되는 경우부피비는 분자수비와 같아요또는 화학식의 계수비와 같답니다.따라서 기체들끼리의 반응이라면화학 반응식을 완성한 다음화학반응식에 나오는 각 물질의 화학식앞의 계수비를 부피비로 보고 계산하면 됩니다예를 들어서질소와 수소가 만나서 암모니아가 생성되는 경우화학 반응식 꾸미기를 하면N2 + 3H2 --&gt; 2NH3 이니까요화학식 앞의 계수비가  1: 3: 2이니까요질소 1부피와 수소 3부피가 결합해서암모니아 2부피가 생성됨을 알 수 있는 것이랍니다.이것은 다른 말로질소 분자 1개와 수소 분자 3개가 결합해서암모니아 분자 2개를 만들 수 있다는 뜻이지요</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -827,6 +827,1991 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:22:00</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.261600136756897</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>민경모</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>선생님 한랭전선에서는 찬 공기가 따뜻한 공기 쪽으로 가니까 기온이 높아지고 온난전선에서는 따뜻한 공기가 찬 공기쪽으로 가서 기온이 낮아져야 되는 것 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>반가워요^^한랭전선과 온난전선이 헷갈릴텐데요일단. 그림을 잘 보아야해요한랭 전선은 찬 공기가 따뜻한 공기 아래로 파고드니까요그림을 잘 보시면전선면와 지표면이 만나는 한랭 전선은전선면의 앞쪽에 생깁니다.따라서 한랭 전선의 앞쪽을 따뜻한 공기고뒤쪽은 찬공기인 것이지요그러므로 한랭 전선이 통과하면 기온이 내려갑니다. 반면, 온난 전선은 따뜻한 공기가 찬 공기 위로 타고 올라가므로그림을 잘 보시면전선면와 지표면이 만나는 온난전선은전선면의 뒤쪽에 생깁니다.따라서 온난 전선의 앞쪽은 찬 공기고뒤쪽은 따뜻한 공기인 것이지요그러므로 온난전선이 통과하면 기온이 올라갑니다. 똑똑한 우리 친구~ 이해되지요? 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:22:21</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2593275606632233</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>성선설</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>선생님~! 질문이 있어요 1.문제에서 반응 전후의 질량변화를 비교하고 이를 통해 확인할 수있는 법칙을 쓰라고 나와있으면 이 실험이 일정성분비법칙과 관련된 실헙인지, 질량보존법칙에 관련된 실험인지 모르겠어요구별할 수 있는 법이 혹시 있을까요? 2.대기와 기권의 의미를 봐도 둘이 뭐가 다른지 정확한 뜻을 모르겠어요ㅠㅠ대기가 지구를 둘러싸고 있는 기체 하나하나를 말하는 것이고, 기권은 그 기체를 통틀어서 말하는 것이라고 이해했는데 맞게 이해 한건가요? (그리구 항상 답변을 친절하고 정성스럽게 해 주셔서 감사합니다!덕분에 궁금증도 풀리고, 과학이라는 과목에 더욱 큰 재미를 느끼고 있어요❤️)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>(^______^) 열심히 공부하는 우리 친구가 쌤은 너무나 자랑스럽고 좋아요!!질문 내용 생기면 언제든지 올려주세요. 자~~ 질문 내용에 답변 들어갑니다. ㅎ 1.이것은 문제에 따라서 적용방법이 다르답니다 혹시, 예제 문제가 있으면 올려주시면 제가 그 문제를 통해서 알려드릴께요  확인 부탁드려요2. 맞아요, 이 부분 많이 헷갈려하는데요일단. 지구를 둘러싸고 있는 거대한 공기 덩어리가 대기 이구요이러한 대기로 구성된 지구계의 구성 요소를 기권이라고 합니다.즉, 기권은 대기로 이루어져 있다라고 표현하면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:22:36</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.2644184827804565</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>김수혁</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>선생님 기온이 높아지면 포화수증기량이 증가한다고 했는데 대체 왜 그러는 건지 모르겠어요 이부분 이해가 안가요 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.이 부분 어려우시죠?정확하게 설명드리자면온도가 높아질 수록 포화 수증기량이 증가하는  이유는 온도가 높아지면서 같은 공기의 질량이 차지하는 부피는 더 커지고공기 사이사이에 공간이 더 커지므로수증기가 들어갈 수 있는 공간이 넓어 지므로최대한 포함할 수 있는 수증기의 량인 포화수증기량이 온도가 높으면 더 증가하게 되는 것이랍니다.    &lt;a class="btn_plus plus" style="display: inline;" href="http://mid.ebs.co.kr/course/view?courseId=10203440&amp;left=grade#none"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:22:51</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2480261027812958</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>이중슬릿</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>예쁘신 유진 쌤!!!!! 항이뇨 호르몬은 항상 분비되고 있는 건가요?아니면 필요할 때만 분비되는 건가요?그리고!!!스컹크 방귀 기호 진짜 인가요??그리고 선생님 머리 양쪽으로 묶으셔도 이쁘실 것 같아용~~</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>반가워요*^^* 칭찬 고맙습니다.~똑똑한 우리 친구~ 정말 좋은 질문이예요항이뇨 호르몬은 계속 분비되고 있답니다.다만. 몸 속 수분이 많으면 오줌량이 많아져야 하니까요, 항이뇨 호르몬이 적게 분비되구요몸 속 수분이 적으면 오줌량이 적어져야 하니까요, 항이뇨 호르몬이 많이 분비되는 것입니다.즉, 많이 분비되느냐, 적게 분비되느냐의 차이일뿐항상 분비되고 있답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:23:08</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7423530220985413</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>초끈이론</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>강수 이론에는 빙정설, 병합설이 있는데 왜 빙정 이론, 병합 이론이 아닌가요? 100% 검증된 것이 아니기 때문에 이론이라고 하지 못하고 '설'이라고 표현한 것인가요? 그렇다면 빙정설, 병합설로 설명되지 않는 경우도 있나요??</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>반가워요^^꼭 검증이 안되서라기 보다관습적으로 빙정설, 병합설이라고 한답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:23:09</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6247808337211609</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>시험범위 아려줘</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요검정고시 준비하는 학생입니다제가 집에서 혼자 공부를 하고 있어서 모르는 문제를 여쭤볼 선생님이 안계셔서요...지금 공부하는 단원이 시험 범위인데 해설지를 봐도 모르겠어요선생님 도와주시면 안될까요?ㅠㅠ제가 썼다 지웠다를 많이 했더니 잘 안보여서 직접 그렸습니다1번,2번,3번 구하는 법을 모르겠어요!15옴 10옴 옆에 2옴이 있을 때 전압 전류를 나누는 방법이랑 전체저항 구하는 방법이요~ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>반가워요^^ 검정고시 준비하며 집에서 혼자 공부하고 있었군요정말 대견합니다.네~ 제가 도와드릴께요~저는 다른 곳에 올릴 질문을 잘못 올린 줄 알았어요.공부하다가 어려운 내용 있으면 언제든지 올려주세요, 최선을 다해서 도와드릴께요^^ 자, 그럼, 이문제 답변 들어갑니다.~~우선, 이 문제를 잘 보면저항이 직렬연결과 병렬 연결이 섞여 있습니다.이때, 1번 처럼 전체 저항을 구하려면'우선, 병렬로 연결된 15와 10의 합성 저항부터 구해야 합니다.15와 10의 병렬 연결의 합성저항을 R라고 두면 1/R=1/15+1/10  계산하면 1/R=5/30=1/6 따라서 R=6입니다.즉, 15와 10의 합성 저항은 6이 나오구요이때, 옆에 있던 2옴과 현재의 합성저항 6옴은 서로 직렬 연결이므로직렬 연결일때의 전체 저항은 더하면 됩니다.따라서 2와 6을 더하면 8옴이 나오므로1번은 옳은 내용입니다. 2번에서는 2옴에 흐르는 전류를 구해야 하는데요전류의 경우는 직렬연결인 곳에서는 전체 전류와 같은 전류가 흐릅니다.전체전류를 구하면 전체 전압을 전체 저항으로 나누면 구해지므로전체 전류는 전체 전압 8V를 전체 저항 8옴으로 나눈 것이므로 정답은 1A가 됩니다.이때 2옴인 곳은 직렬 연결이므로 이곳역시 전체 전류와 같은 1A가 흐른답니다.따라서 2번도 옳은 내용입니다. 3번은 2옴에 걸리는 전압을 구해야 하는데요2옴에 걸리는 전압은 이곳에 흐르는 전류 곱하기 저항으로 구할 수 있답니다.따라서 2옴에 흐르는 전류 1A 곱하기 저항 2옴을 하면 2V가 나옵니다.따라서 3번도 옳은 내용입니다. 이제 이해되지요? 힘내세요, 화이팅!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:23:25</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6247808337211609</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요검정고시 준비하는 학생입니다제가 집에서 혼자 공부를 하고 있어서 모르는 문제를 여쭤볼 선생님이 안계셔서요...지금 공부하는 단원이 시험 범위인데 해설지를 봐도 모르겠어요선생님 도와주시면 안될까요?ㅠㅠ제가 썼다 지웠다를 많이 했더니 잘 안보여서 직접 그렸습니다1번,2번,3번 구하는 법을 모르겠어요!15옴 10옴 옆에 2옴이 있을 때 전압 전류를 나누는 방법이랑 전체저항 구하는 방법이요~ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>반가워요^^ 검정고시 준비하며 집에서 혼자 공부하고 있었군요정말 대견합니다.네~ 제가 도와드릴께요~저는 다른 곳에 올릴 질문을 잘못 올린 줄 알았어요.공부하다가 어려운 내용 있으면 언제든지 올려주세요, 최선을 다해서 도와드릴께요^^ 자, 그럼, 이문제 답변 들어갑니다.~~우선, 이 문제를 잘 보면저항이 직렬연결과 병렬 연결이 섞여 있습니다.이때, 1번 처럼 전체 저항을 구하려면'우선, 병렬로 연결된 15와 10의 합성 저항부터 구해야 합니다.15와 10의 병렬 연결의 합성저항을 R라고 두면 1/R=1/15+1/10  계산하면 1/R=5/30=1/6 따라서 R=6입니다.즉, 15와 10의 합성 저항은 6이 나오구요이때, 옆에 있던 2옴과 현재의 합성저항 6옴은 서로 직렬 연결이므로직렬 연결일때의 전체 저항은 더하면 됩니다.따라서 2와 6을 더하면 8옴이 나오므로1번은 옳은 내용입니다. 2번에서는 2옴에 흐르는 전류를 구해야 하는데요전류의 경우는 직렬연결인 곳에서는 전체 전류와 같은 전류가 흐릅니다.전체전류를 구하면 전체 전압을 전체 저항으로 나누면 구해지므로전체 전류는 전체 전압 8V를 전체 저항 8옴으로 나눈 것이므로 정답은 1A가 됩니다.이때 2옴인 곳은 직렬 연결이므로 이곳역시 전체 전류와 같은 1A가 흐른답니다.따라서 2번도 옳은 내용입니다. 3번은 2옴에 걸리는 전압을 구해야 하는데요2옴에 걸리는 전압은 이곳에 흐르는 전류 곱하기 저항으로 구할 수 있답니다.따라서 2옴에 흐르는 전류 1A 곱하기 저항 2옴을 하면 2V가 나옵니다.따라서 3번도 옳은 내용입니다. 이제 이해되지요? 힘내세요, 화이팅!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:23:27</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1651168763637543</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>공자</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>안녕하세요 선생님 오늘 속력에 대해 공부를 하였는데 궁굼한것이있어서 질문드립니다약간 다른내용일수도 있긴한데 만약에 제가 자동차를 타고 시속30km로 달리면 자동차의 속력이 30 km/h 인가요? 아니면 저의 속력이 30km/h인가요??답변해주시면 감사하겠습니다</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 둘다 같이 움직이므로 둘다의 속력이  30km/h입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:23:28</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8594967126846313</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>태양의 위도에 따라 복사평형이 다르게 일어나나요?</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 궁금한게 또 있는데요태양은 혹시 복사평형을 이루나요?? 태양은 복사에너지를 방출만 하지 흡수를 하지 않는 것 같아서요.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>반가워요^^태양의 경우는 지구와는 조금 다른데요태양은 스스로 에너지를 만드는 천체랍니다따라서 끊임없이 복사 에너지를 만들고 이 복사 에너지를 방출한답니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:23:37</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4967352151870728</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>단열 팽창의 의미</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>단열 팽창이란 말은 공기가 주변과 열을 주고받지 않고 팽창하는 현상이라 하셨는데 어떻게 하면 공기가 주변과 열을 주고받지 않을 수 있나요??</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>반가워요^^주변에서 열이 차단되어진 상태라는 뜻도 된답니다.공기가 움직임이 생기는 경우는 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:23:39</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8917726278305054</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>화학반응식</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>화학반응식을 어떻게 해야하는지 감이 안옵니다</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>맞아요, 많이 어렵지요?일단. 강의를 한번 더 시청하시기를 권해 드리고 싶습니다.또한, 화학 반응식의 기초가 되는화학식을 먼저 익혀 두셔야 합니다.2강을 수강하시면 어느 정도 이해가 되실꺼예요힘내세요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:23:56</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6079513430595398</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>시험 100점 맞을려면</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>선생님 질량비 외워야 하나요? 시험에서 어떤 물질의 질량비를 묻나요??</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>반가워요^^시험에서 질량비를 묻는 문제가 나올때는원자의 상대적인 질량이 조건으로 나오는 경우가 대부분이랍니다.하지만. 학교 선생님의 재량에 따라서 학교 시험이 많이 결정되니까요'학교 선생님께서 수업하시면 질량비를 외우게끔 하셨다면 기본적인 내용을 암기해두시는 것이 좋은 것 같습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:24:21</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7405300140380859</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>안녕하세요, 30쪽에 4번 모르겠는데 강의 들을려면 어떻게 해야하나요?</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>반가워요^^30쪽 4번 문제를 뜻하는 군요이것은 4강을 보시면 마지막 부분에서 풀이하고 있습니다.이곳에서도 차근차근 설명드릴께요문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:24:22</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2241447567939758</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>이수진\</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요!여기서 분자의 배열 대신 입자의 배열이라고 써도 되는 건가요..??분자의 배열이랑 입자의 배열 차이점이 뭔지 잘 모르겠어요ㅜ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>반가워요^^입자는 알갱이를 뜻하구요문제나 내용이 따라서입자가 분자를 뜻하기도 하고원자를 뜻하기도 한답니다. 									  하지만, &lt;a class="btn_plus" style="display: inline;" href="http://mid.ebs.co.kr/teacher/view?teacherId=tvstsc23&amp;subjectCd=32000006#none"&gt;&lt;/a&gt;현재 질문으로 올려준 사진부분에서는 반드시"분자"라고 써야 합니다.내용으로 볼때, 물질의 성질을 가지고 있는 입자. 알갱이를 뜻하므로반드시 분자라고 해야 한답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:24:23</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6252043843269348</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>에탄올이 산소를 만나 물과 이산화탄소를 생성한느 화학식 알려주세요</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>선생님!! 메테인을 연소하면 왜 이산화탄소와 물이 생성되는 건가요??</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>반가워요^^물질의 연소 반응에서는 물질의 종류에 따라서 산소와 결합하면서 메테인처럼 이산화 탄소와 물이 생성되는 경우도 있구요철이나 구리처럼 연소하면서 산소가 결합하여산화철이나 산화구리가 생성되는 경우도 있답니다.각각의 물질이 산소에 반응하는 특성의 차이때문이지요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:24:28</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.2631536722183228</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>이스터애그</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>선생님 근데 물체가 떨어질 때 높이에 따라 위치 에너지를 다르게 가지잖아요. 그러면 위치 에너지가 높은만큼 빨리 떨어질 테니까 낮은 높이와 높은 높이에서 동시에 떨어뜨리면 동시에 착지할 가능성도 있지 않나요?</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그렇지는 않습니다.위치에너지가 많다고 더 빨리 떨어지는 것은 아니랍니다.떨어지는 속도의 변화량을 같답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:24:30</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1969568729400635</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>잉기모링</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>기체분자의 크기는 분자사이의 평균 거리에 비해 매우 작기 때문에 기체의 분자의 크기는 전체 기체의 부피에 영향을 주지 않는다 따라서 같은수의 분자가 차지하는 공간의 크기는 같은 온도와 압력 조건에서는 항상 같다라는 말이 교재에 있는데 쉽게 풀어 설명해주실수있나용?//</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>반가워요^^ 좋은 질문입니다.결론을 말씀 드리자면기체 하나하나의 크기가 워낙 작고기체는 매우 활발하게 움직이면서 공간을 많이 차지하므로기체의 종류에 상관없이같은 부피안에는 같은 수의 기체 분자가 들어간다는 뜻이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:24:38</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8481544256210327</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>민경모선생님</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>선생님 27번을 어떻게풀어야할까요..?ㅠㅜ</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>반가워요^^이 문제 많이 어려우시죠?5초동안 B가 이동한 거리를 구하려면B의 속력이 필요한데요'이때, B는 등속운동이 아니라 속력이 일정하게 증가하는 운동을 하고 있으므로B의 평균 속력을 구해야 한답니다.평균속력은 그래프에서 구해야 하는데요B는 1초에 속력이 1m/s 늘어 나고 있습니다.따라서 5초가 되면 속력이 5m/s가 되어 있지요그러면 B와 같이 처음 속력이 0이였다가 일정하게 증가해서 5초일때, 5m/s의 속력이 되었다면평균 속력을 처음속력에 나중속력을 더한 값을 2로 나누면 됩니다.따라서 5초일때의 B의 평균 속력은 (0+5)/2=2.5m/s가 됩니다.그러면, B가 5초동안 이동한 거리=평균속력X5초이므로2.5X5=12.5m가 이동한 거리입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:24:42</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>아닌데요</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:24:54</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1999969035387039</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>적위도</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>선생님, 안녕하세요. 현재 수업 잘 듣고 있습니다. 늘 열정적으로 가르쳐 주셔서 감사합니다.제가 질문드리고자 하는 점은요, 물의 질량비가 1 : 8이라고 하셨는데,물은 H2O로서 2 : 1이 맞지 않나요? 질량이라서 다르게 나타나는 것인가요?답변 부탁드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>반가워요^^이 부분이 헷갈릴텐데요물은 분자식이 H2O라서 수소 원자 2개와 산소 원자 1개가 결합하고 있는 것은 맞습니다.하지만. 수소원자와 산소 원자의 각각의 질량이 다르답니다.우리도 한 사람 한사람 몸무게가 다른 것 처럼요따라서 수소 원자는 1개가 1, 산소 원자는 1개가 16의 질량이 나가므로물을 구성하는 수소 원자가 2개므로, 물을 구성하는 수소의 질량은 2이구요물을 구성하는 산소 원자가 1개므로, 물을 구성하는 산소의 질량은 16입니다.따라서 물을 구성하는 수소와 산소의 개수가 아니구요질량의 비를 구하라고 한다면수소:산소=2:16 = 1:8 이 되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:25:05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.2261466383934021</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>유사</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>선생님 점점 높이 올라갈수록 위치에너지와 운동에너지가 같이올라가나요? 아, 그리고 무게와 힘은 같은 의미 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>반가워요^^하나씩 알려드릴께요물건을 던져 올린 물체는처음에는 속력이 빠르다가 높이 올라갈수록 속력이 줄어들지요따라서 높이 올라갈 수록운동에너지는 줄어들게 되구요높이가 높아지니까요, 위치에너지는 증가한답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:25:12</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8508615493774414</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>선생님</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>선생님 27번을 어떻게풀어야할까요..?ㅠㅜ</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>반가워요^^이 문제 많이 어려우시죠?5초동안 B가 이동한 거리를 구하려면B의 속력이 필요한데요'이때, B는 등속운동이 아니라 속력이 일정하게 증가하는 운동을 하고 있으므로B의 평균 속력을 구해야 한답니다.평균속력은 그래프에서 구해야 하는데요B는 1초에 속력이 1m/s 늘어 나고 있습니다.따라서 5초가 되면 속력이 5m/s가 되어 있지요그러면 B와 같이 처음 속력이 0이였다가 일정하게 증가해서 5초일때, 5m/s의 속력이 되었다면평균 속력을 처음속력에 나중속력을 더한 값을 2로 나누면 됩니다.따라서 5초일때의 B의 평균 속력은 (0+5)/2=2.5m/s가 됩니다.그러면, B가 5초동안 이동한 거리=평균속력X5초이므로2.5X5=12.5m가 이동한 거리입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:25:19</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.2240025252103806</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>아리베데르치</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>선생님 책이나 가방을 들고 과학에서일을했다고 표현하려면 위로 솟아올라가야하는거죠??</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.힘을 준 위쪽방향으로 책도 올라가야 과학에서는 일을 했다고 하는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:25:27</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6212586164474487</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>기압</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>장소에 따라 기압이 달라지는건 이해가 되는데 시간에 따라 기압이 달라진다..? 이건 왜 그런건지 이해가 안가네요ㅜㅜ 알려주세요!!!</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다시간에 따라서낮 시간에는 지표가 가열이 많이 되므로, 지표면쪽에서 공기가 상승하게 되므로 지표면쪽은 저기압이 되구요밤 시간에는 공기가 냉각되면서 오히려 지표면 쪽으로 모이게 되면서 고기압이 된답니다.그러니, 시간에 따라서도 기압은 달라진다고 하는 것이지요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:25:40</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7798717617988586</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>이슬점</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:25:47</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7536404132843018</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>성층권</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>선생님!! 성층권이 왜 안정한 층이예요??</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>반가워요^^안정층이라는 이유는공기가 상하로 움직이지 않고, 고요하다는 뜻인데요성층권안에서는 높은 곳이 따뜻한 공기고아래쪽이 차가운 공기니까요'따뜻한 공기는 가벼워서 차가운 공기 위에 가만히 있으므로안정한 층이라고 하는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:25:47</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.677951455116272</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>카제인나트륨</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>물에다가 탄산을 넣으면 탄산수가 되느데 그것도 화학변화 인가요???</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>아닙니다.^^탄산수는 이산화 탄소가 물에 녹기만 한걸요^^즉, 성질이 변하는 화학적인 변화가 아니라물에 녹아서 혼합물이 되는 것이므로화학변화가 아닙니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:01</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1824476420879364</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>로드롤러</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>복사평형 관련해서 질문이 있습니다복사평형은 방출하는 에너지의 양과 흡수하는 에너지의 양이 같아진다 라는 건데,복사 에너지의 흡수량과 방출량이 시간이 지나면 둘이 같아지는 이유가 뭔지 궁금합니다흡수하는 양이 많아지면 물체의 온도가 올라가므로 방출량도 많아진다는 매커니즘까진 알았는데둘이 일정하게 유지된다는 이유까진 모르겠습니다 답변 부탁드립니다아</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>반가워요^^열심히 공부하는 우리 친구~좋은 질문입니다.우선, 적외선 등으로 부터 알루미늄 컵으로 들어오는 복사 에너지의 양은 일정합니다. 예를 들어서 50이라고 하면알루미늄 컵에서는 이 50을 계속 받는 것이지요이때, 알루미늄 컵도 처음의 온도가 18도라고 하면 이 온도에 해당하는 복사 에너지를 방출합니다. 예를 들어 이양을 30이라고 할 께요이때, 처음에는 알루미늄컵이 방출하는 양이 30이였지만. 적외선 등으로 부터 받는 양이 50이므로20이 남아돌면서 온도를 높입니다.온도가 높아진 알루미늄 컵은 더 많은 복사 에너지를 방출하면서 40, 50으로 방출량이 늘면어느 정도의 온도부터는알루미늄 컵이 방출하는 양도 50, 적외선등으로 부터 받는 양, 즉, 흡수한 양도 50이되면서남는 에너지가 없어요그러니, 온도는 더 높아지지않고, 그대로이구요온도가 그대로 이므로알루미늄 컵은 계속 50을 방출하고, 적외선등으로 부터는 계속 50을 받으므로온도는 일정하게 계속유지되는 것입니다.이제 이해가 되시지요*^^*</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:01</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>숨겨진거없나요</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:21</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.2984108924865723</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>http://140.238.19.16:8000/chat_service/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>선생님 ㅠㅠㅠㅠ 여기에서 왜 b의 속력이 a의 속력에 4분에5배인지 모르겟어요</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>반가워요^^ 최*은학생~~여기라고 표현한 곳을 조금더 구체적으로 알려줄 수 있을까요?정확한 답변을 위해서 필요합니다.확인 부탁드립니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:26</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>흫륽라</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:27</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:28</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:29</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:30</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ㅏ하</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:31</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:31</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:38</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.182552844285965</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>신일</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>시간은 모르겟어서 아무거나 보낼게요! 1.선생님 근데 왜 위치에너지도 9.8 질량 높이 이고 중력에 대해 한일도 9.8 질량 높이 인데 뭔가다른건가요?2.그리고 마찰이 없는곳에서는 작용하는힘이 0이라는데왜 마찰이 없다고 힘이 0인거에요"? ps)저번 질문 이해 잘 됫어요 감사합니다!</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~하나씩 알려드릴께요.1. 이 부분은 6단원의 역학적 에너지의 전환과 보존을 잘 보시면 알 수 있는데요   물체를 들어올리면   들어올린 높이 만큼의 위치에너지가 생성 됩니다.   따라서, 중력에 대해 한 일은 그 물체의 질량에 해당하는중력 만큼 힘을 주어야 하고, 이동거리는 높이에 해당하므로  중력에 대해 한일을 구할 때, 힘X이동거리 에서  힘 대신에 9.8곱하기 질량이구요  이동거리는 높이랍니다.따라서 위치 에너지 구하는 공식과 똑같아지는 것이랍니다.  2. 보통 물체의 마찰이 있는 곳에서는 물체가 움직이려면 계속 힘을 가해야 합니다즉, 운동을 방해하는 마찰력 만큼의 힘이 계속 가해져야 하는데요마찰이 없는 곳이라면 한번 움직인 물체는 그 운동을 방해 하는 힘을 받지 않으므로계속 움직이게 된다는 뜻이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:44</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>뭐지</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:46</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>진짜</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:50</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.6158629655838013</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>없ㄴ아</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>안녕하세요ㄴ 이 맞는 이유가 뭔가요?그리고 ㄷ 은 왜 틀린건가요?</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>반가워요^^ㄴ의 경우는 암모니아 분자를 구성하는 질소와 산소의 원자 의 개수비이니까요암모니아는 NH3로 질소 원자 1개와 수소 원자 3개가 결합해서 1개의 분자가 만들어 진답니다.따라서 질소:수소=1:3으로 구성된답니다. 따라서 옳은 내용입니다.ㄷ. 질소의 질량이 14인 상태에서는 수소 3과만 결합하므로수소의 질량이 6으로 늘어나도 질소의 질량이 그대로라면결합한 수소의 질량은 3밖에는 안되니까요생성되는 암모니아의 질량은 그대로입니다. 따라서 ㄷ은 옳지 않답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:51</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ㅏㅣ패ㅓ  ㅐ레ㅐ</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:53</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">\]ㅗㅠㅎㅅ',;ㅡ </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:53</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>]ㄹ'</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:53</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:54</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:54</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.6707760691642761</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ㄱㄹ</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3/5이문제 보기 ㄱㄹ을 모르겠어요 그림을보면 분명히 전체질량이 줄었는데 왜 ㄱ 이 아니며ㄹ은 보기 자체가 이해가 안되요</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>반가워요^^23쪽 1번 문제 많이 어려우시죠? 차근 차근 설명드릴께요우선, 문제에서 탄산 칼슘과 묽은 염산이 반응하면 기체가 발생합니다. 그러나 주사기라는 닫힌 용기이므로 발생한 기체의 질량이측정되어 질량은 일정하게 유지된답니다. 따라서 반응물의 전체 질량과 생성물의 전체 질량이 같음을 이 실험에서 확인할 수 있는 것이지요.보기를 하나씩 보면ㄱ. 반응이 일어나는 동안 주사기 전체의 질량은점점 감소한다.  ☞ 옳지 않습니다.  주사기는 닫힌 용기이므로 질량은 일정하게 유지되기 때문입니다. ㄴ. 비커에 담아 실험하더라도 같은 결과를 얻을 수 있다. ☞ 옳지 않습니다.  같은 용액을 사용하여 비커 등의 열린 용기에서 실험한다면 발생한 기체가 공기 중으로 날아가므로 질량이 감소하기 때문입니다.ㄷ. 묽은 염산과 탄산 칼슘이 반응하여 발생하는기체를 주사기로 모을 수 있다.☞ 옳은 내용입니다. 닫힌 용기 이므로 기체가 주사기에 모입니다. ​ㄹ. 반응 전 묽은 염산과 탄산 칼슘의 질량을 알고 있다면 생성물의 전체 질량을 알 수 있다.☞ 옳은 내용입니다. 닫힌 용기라고 반응전과 반응후의 생성물의 전체 질량도 구할 수 있습니다. 따라서, 정답은 5번 ㄷ,ㄹ입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:54</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.6707760691642761</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ㄱ</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3/5이문제 보기 ㄱㄹ을 모르겠어요 그림을보면 분명히 전체질량이 줄었는데 왜 ㄱ 이 아니며ㄹ은 보기 자체가 이해가 안되요</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>반가워요^^23쪽 1번 문제 많이 어려우시죠? 차근 차근 설명드릴께요우선, 문제에서 탄산 칼슘과 묽은 염산이 반응하면 기체가 발생합니다. 그러나 주사기라는 닫힌 용기이므로 발생한 기체의 질량이측정되어 질량은 일정하게 유지된답니다. 따라서 반응물의 전체 질량과 생성물의 전체 질량이 같음을 이 실험에서 확인할 수 있는 것이지요.보기를 하나씩 보면ㄱ. 반응이 일어나는 동안 주사기 전체의 질량은점점 감소한다.  ☞ 옳지 않습니다.  주사기는 닫힌 용기이므로 질량은 일정하게 유지되기 때문입니다. ㄴ. 비커에 담아 실험하더라도 같은 결과를 얻을 수 있다. ☞ 옳지 않습니다.  같은 용액을 사용하여 비커 등의 열린 용기에서 실험한다면 발생한 기체가 공기 중으로 날아가므로 질량이 감소하기 때문입니다.ㄷ. 묽은 염산과 탄산 칼슘이 반응하여 발생하는기체를 주사기로 모을 수 있다.☞ 옳은 내용입니다. 닫힌 용기 이므로 기체가 주사기에 모입니다. ​ㄹ. 반응 전 묽은 염산과 탄산 칼슘의 질량을 알고 있다면 생성물의 전체 질량을 알 수 있다.☞ 옳은 내용입니다. 닫힌 용기라고 반응전과 반응후의 생성물의 전체 질량도 구할 수 있습니다. 따라서, 정답은 5번 ㄷ,ㄹ입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:55</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:55</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:55</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:55</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:56</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:56</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:56</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:56</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:57</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:57</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:57</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:57</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:58</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:58</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:58</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ㄹㄹ</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:58</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:59</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.6707760691642761</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ㄱㄹㄹ</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3/5이문제 보기 ㄱㄹ을 모르겠어요 그림을보면 분명히 전체질량이 줄었는데 왜 ㄱ 이 아니며ㄹ은 보기 자체가 이해가 안되요</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>반가워요^^23쪽 1번 문제 많이 어려우시죠? 차근 차근 설명드릴께요우선, 문제에서 탄산 칼슘과 묽은 염산이 반응하면 기체가 발생합니다. 그러나 주사기라는 닫힌 용기이므로 발생한 기체의 질량이측정되어 질량은 일정하게 유지된답니다. 따라서 반응물의 전체 질량과 생성물의 전체 질량이 같음을 이 실험에서 확인할 수 있는 것이지요.보기를 하나씩 보면ㄱ. 반응이 일어나는 동안 주사기 전체의 질량은점점 감소한다.  ☞ 옳지 않습니다.  주사기는 닫힌 용기이므로 질량은 일정하게 유지되기 때문입니다. ㄴ. 비커에 담아 실험하더라도 같은 결과를 얻을 수 있다. ☞ 옳지 않습니다.  같은 용액을 사용하여 비커 등의 열린 용기에서 실험한다면 발생한 기체가 공기 중으로 날아가므로 질량이 감소하기 때문입니다.ㄷ. 묽은 염산과 탄산 칼슘이 반응하여 발생하는기체를 주사기로 모을 수 있다.☞ 옳은 내용입니다. 닫힌 용기 이므로 기체가 주사기에 모입니다. ​ㄹ. 반응 전 묽은 염산과 탄산 칼슘의 질량을 알고 있다면 생성물의 전체 질량을 알 수 있다.☞ 옳은 내용입니다. 닫힌 용기라고 반응전과 반응후의 생성물의 전체 질량도 구할 수 있습니다. 따라서, 정답은 5번 ㄷ,ㄹ입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:26:59</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:00</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:00</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:08</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ㅎ</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:08</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ㅎ</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:08</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ㅎ</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:09</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ㅀㅀ</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:10</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ㅎ</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:10</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ㅀ</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:12</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ㅎㄹ</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:12</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:12</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ㅎㄹ</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:13</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ㅎㅀ</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:14</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ㅎ</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:27:15</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.7809783816337585</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ㄹ</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -2812,6 +2812,322 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:32:44</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:35:18</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5976929664611816</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>강수</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>소뇌는 의식적인 반응인가요?</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>반가워요^^이 부분이 어려우시죠?결론을 딱 정리해드리자면대뇌만 의식적인 반응이구요나머지 중추 신경계인소뇌, 간뇌, 중간뇌, 연수 모두 무의식적인 반응입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:35:33</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.2336401045322418</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>강수량</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4번 문제의 3번 보기에서 산소 2분자가 모두 반응하면 수증기 4분자가 생성된다는 것은 원래 수소:산소:수증기의 부피비가 2:1:2니까 수소 분자는 4분자가 모두 반응하여 4:2:4가 돼서 2:1:2가 된다는 것인가요??</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>네*^^* 정확하게 맞습니다.'잘 이해하고 있네요우리 멋진 친구~ 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:35:58</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8348746299743652</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>질량보존의법칙</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>선생님! 질량보존 법칙에서 물리변화도 질량이 보존되는데 그건 질량보존법칙이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그것도 질량 보존법칙이 성립된다고는 표현합니다. 원래 물리 변화는 물질 자체의 변화가 아니라서질량이 당연히 보존되기때문에  화학반응이 일어날때도 질량이 보존된다는 의미에서질량 보존 법칙을 정의할때화학 반응이  , 반응물의 전체 질량은 반응 후에도 보존된다고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:36:29</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8929702639579773</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>화학반응식</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>화학반응식을 어떻게 해야하는지 감이 안옵니다</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>맞아요, 많이 어렵지요?일단. 강의를 한번 더 시청하시기를 권해 드리고 싶습니다.또한, 화학 반응식의 기초가 되는화학식을 먼저 익혀 두셔야 합니다.2강을 수강하시면 어느 정도 이해가 되실꺼예요힘내세요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:44:25</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7428092360496521</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>단열 팽창</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>압축이 되면 왜 온도가 올라가고 팽창하면 왜 온도가 내려가는지 잘 이해되지 않네요 ㅜㅜ그리고 온도가 올라가면 왜 페트병의 내부가 깨끗해 지는지도 잘 모르겠습니다. 설명 부탁드려요ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>반가워요^^단열 변화는 참 신기하게도외부의 열이 차단된 상태에서 부피 변화만으로 온도가 변한답니다.외부에서 압축을 하면기체가 움직이던 공간이 좁아지면서 기체가 에너지를 소모하지 않으므로 온도가 올라가구요부피가 팽창하면기체가 더 많이 움직이면서 퍼져 나가므로 에너지를 소모하여 온도가 내려간답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:47:28</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.5854341983795166</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>구름의 두가지 형태중에 공기의 상승 정도가 급해서 쌓인 형태를 한 구름을 뭐라고 해?</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>선생님!! 공기덩어리가 상승할 때 구름이 바로 만들어지는 경우도 있나요??</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>반가워요^^공기 덩어리가 상승하면서 단열 팽창. 기온 하강, 이슬점 도달, 구름 생성의 과정을 거칩니다.이때, 공기의 상승 속도가 빠르다면이 모든 과정이 빠르게 일어나면서 구름이 생성된답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:47:37</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7798717617988586</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>이슬점</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:47:44</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.5937594175338745</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>적운형 구름의 정의가 뭐야?</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>안녕하세요! 인강을 듣다가 궁금한 점이 생겨서 질문해요!그 공기가 강하게 상승하면 적운형 구름, 약하게 상승하면 층운형 구름이라고 하셨는데, 그럼 겨울에는 적운형 구름이 더 많고, 여름에는 츤운형 구름이 더 많은가요??</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 꼭 그렇지는 않답니다.오히려, 여름에 지표면의 가열이 더 급하게 되면서공기가 더 빠르게 상승하여 적운형 구름이 많이 생기고소나기가 잘 온답니다. 그러나. 겨울에는 날씨가 건조해서 수증기 자체가 많이 없으므로'구름이 잘 생기지 않는 것이구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:47:56</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7248369455337524</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>적운형 구름은?</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>왜 한랭전선의 구름이 적운형이고 온난전선의 구름이 측운형인가여?글구 왜 적운형구름은 소나기를 내리고 측운형의 구름은 이슬비를 내리나요?간단하게 설명해주세여^^</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~정말 좋은 질문입니다.사실, 적운형 구름은 공기의 상승이 빠른 경우 생기고층운형 구름을 공기의 상승이 느린 경우 생긴답니다.한랭 전선의 경우, 찬공기가 따뜻한 공기를 파고 들면서 따뜻한 공기를 툭툭 치면서 빠르게 상승시키는 효과가 있습니다따라서 적운형의 구름을 만든답니다.반면에서  온난 전선의 경우, 따뜻한 공기가 차가운 공기 위를 서서히 타고 올라가면서 느리게 상승하는 효과가 있습니다따라서 층운형의 구름을 만든답니다. 적운형의 구름은 작은 물방울이 갑자기 커지면서 생겨나므로 굵은 빗방울인 소나기가 내리구요층운형의 구름은 아주 천천히 물방울이 생기므로 작고 가는 이슬비가 내리는 것입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:48:21</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7913858890533447</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>공기의 상승이 느릴 때 생성되는 구름이 뭐야?</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>선생님 제가 공부하고 있는 책에서는 공기가 한군데로 모여들 때도 공기가 상승해 구름이 생성된다고 되어있는데 그건 왜 그런 거에요???</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>반가워요^^공기는 이러저리 이동합니다그리고, 양이 많은 곳에서는 적은 곳으로 흘러가구요따라서 공기가 많이 모인 곳이있다면공기가 적은 주변으로 이동하기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:56:41</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.8077030181884766</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>대류권은 높이 올라갈수록 기온이 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>대류가 뭐예요?</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>대류는 입자가 직접 이동하여 열을 전달하는 방법이에요. 예를 들어 에어컨을 틀면 찬 바람이 아래로 직접 이동하고, 히터를 틀면 뜨거운 바람이 위로 직접 이동해요. 이런 식으로 밀도가 큰 찬 공기가 아래로, 밀도가 작은 뜨거운 공기가 아래로 이동하면서 열을 전달하는 방법이 대류예요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2020-07-13 04:56:43</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -3116,13 +3116,1392 @@
       <c r="B109" t="n">
         <v>0.2018313854932785</v>
       </c>
-      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
           <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2020-07-13 05:32:31</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9082084894180298</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>일정성분비 법칙이뭔가요?</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙이 무엇인가요</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>반가워요^^일정 성분비의 법칙은 화학 반응이 일어날때반응하는 물질은 항상 일정한 질량비를 이루면서 결합한다는 뜻입니다.즉, 아무리 양이 많아도 자신이 반응하는 질량 만큼만 서로 반응한다는 법칙입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2020-07-13 05:32:55</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.6247808337211609</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>시험 범위 어디까지인가요?</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요검정고시 준비하는 학생입니다제가 집에서 혼자 공부를 하고 있어서 모르는 문제를 여쭤볼 선생님이 안계셔서요...지금 공부하는 단원이 시험 범위인데 해설지를 봐도 모르겠어요선생님 도와주시면 안될까요?ㅠㅠ제가 썼다 지웠다를 많이 했더니 잘 안보여서 직접 그렸습니다1번,2번,3번 구하는 법을 모르겠어요!15옴 10옴 옆에 2옴이 있을 때 전압 전류를 나누는 방법이랑 전체저항 구하는 방법이요~ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>반가워요^^ 검정고시 준비하며 집에서 혼자 공부하고 있었군요정말 대견합니다.네~ 제가 도와드릴께요~저는 다른 곳에 올릴 질문을 잘못 올린 줄 알았어요.공부하다가 어려운 내용 있으면 언제든지 올려주세요, 최선을 다해서 도와드릴께요^^ 자, 그럼, 이문제 답변 들어갑니다.~~우선, 이 문제를 잘 보면저항이 직렬연결과 병렬 연결이 섞여 있습니다.이때, 1번 처럼 전체 저항을 구하려면'우선, 병렬로 연결된 15와 10의 합성 저항부터 구해야 합니다.15와 10의 병렬 연결의 합성저항을 R라고 두면 1/R=1/15+1/10  계산하면 1/R=5/30=1/6 따라서 R=6입니다.즉, 15와 10의 합성 저항은 6이 나오구요이때, 옆에 있던 2옴과 현재의 합성저항 6옴은 서로 직렬 연결이므로직렬 연결일때의 전체 저항은 더하면 됩니다.따라서 2와 6을 더하면 8옴이 나오므로1번은 옳은 내용입니다. 2번에서는 2옴에 흐르는 전류를 구해야 하는데요전류의 경우는 직렬연결인 곳에서는 전체 전류와 같은 전류가 흐릅니다.전체전류를 구하면 전체 전압을 전체 저항으로 나누면 구해지므로전체 전류는 전체 전압 8V를 전체 저항 8옴으로 나눈 것이므로 정답은 1A가 됩니다.이때 2옴인 곳은 직렬 연결이므로 이곳역시 전체 전류와 같은 1A가 흐른답니다.따라서 2번도 옳은 내용입니다. 3번은 2옴에 걸리는 전압을 구해야 하는데요2옴에 걸리는 전압은 이곳에 흐르는 전류 곱하기 저항으로 구할 수 있답니다.따라서 2옴에 흐르는 전류 1A 곱하기 저항 2옴을 하면 2V가 나옵니다.따라서 3번도 옳은 내용입니다. 이제 이해되지요? 힘내세요, 화이팅!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2020-07-13 05:33:19</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5646389722824097</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>시흥은행중학교</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>강의가 50강중 2강만 올려져있는데요.  나머지는 어떻게 듣나요?</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>반갑습니다.^^현재 강의가 제작중에 있습니다.매주 업데이트 예정입니다.최대한 빠르게 업데이트 될 수 있도록 노력하겠습니다.고맙습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2020-07-13 05:35:41</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6345100402832031</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>단열팽창할 때 에너지를 잃나요?</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>선생님!단열팽창이란 열을 주고받지 않고 부피가 변하는거잖아요, 근데 왜 단열팽창 다음에 기온 하강을 하지요?</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.앞으로 업데이트 되는 12강에서 자세하 다루기는 할텐데요미리 설명드릴께요 일단. 단열 이라는 것은 외부로 부터 열이 차단된즉, 열을 주지고 않고, 받지도 않는 상태랍니다.이때, 팽창을 하게 되면분자가 바깥으로 공간을 밀고 나가면서에너지를 소모합니다.에너지를 소모하면 온도는 내려가는 것이랍니다.즉, 단열한 상태에서 팽창할때, 에너지를 소모하므로온도가 내려간다고 알아두시면 됩니다. 그래서, 단열 팽창, 기온 하강이라고 하는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2020-07-13 05:36:39</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.6177514791488647</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>공기가 상승하면서 받는 압력이 줄어들어 팽창하지 않나요?</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>선생님!! 공기덩어리가 상승할 때 구름이 바로 만들어지는 경우도 있나요??</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>반가워요^^공기 덩어리가 상승하면서 단열 팽창. 기온 하강, 이슬점 도달, 구름 생성의 과정을 거칩니다.이때, 공기의 상승 속도가 빠르다면이 모든 과정이 빠르게 일어나면서 구름이 생성된답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2020-07-13 05:37:09</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7672653794288635</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>저위도 지역의 구름은 왜 짧은가요?</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>선생님!! 저위도지역에서는 구름이 0도보다 높은곳에 있으니까 고위도,중위도 지역보다 구름이 더 아래에 있어요??</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그렇지는 않습니다.저위도 지역은 지표면쪽 기온이 워낙 높아서공기가 높은 곳으로 상승을 해도 기온이 낮아지는 폭이 느리답니다.따라서 구름이 0도 이상에서 생기는 것일뿐높이까지 낮은 것을 아닙니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2020-07-13 05:38:35</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.6118935346603394</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>압력이 줄어들면 부피는 팽창하나요?</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>왜 공기가 올라갈수록 압력이 작아지나요?</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>반가워요^^지표면 위쪽으로 올라갈 수록공기의 양이 줄어든답니다.이때, 기압은 공기가 충돌하면서 만들어 내기 때문에공기가 적으면 기압도 낮아지는 것이랍니다따라서 위쪽으로 갈 수록공기의 양이 적어지고기압도 낮아지는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2020-07-13 05:39:24</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7798683643341064</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>감사합니다!</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>﻿선생님 너무 강의가 재미있고 좋아요!~~감사해요^^~~~​</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>멋진 우리 친구(^__________^)고맙습니다.칭찬에 힘입어, 더좋은 더 재미있는 더 많은 도움을 드리는 강의 말들께요아자아자 화이팅!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2020-07-13 05:42:18</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2020-07-13 05:56:03</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:04:17</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.6645370125770569</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>------------l                ll   o      o    ll       &amp;       ll-----------l        lㅡㅡㅡㅡㅡㅡㅡㅡ))))) 재                        밌                       어                      용믿고보는유진쌤강읳ㅎ</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>와와~~ 글자로 멋진 이모티 그림도 나오네요^^멋진 우리 친구~ 고마워요!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:04:22</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:04:25</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.2078281044960022</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>다음 강의는 언제 나오나요??</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>반가워요^^현재 열심히 제작 중에 있답니다.빠르게 업데이트 될 수 있도록 노력하겠습니다.'열공하는 우리 친구~~ 화이팅(^________^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:06:30</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.6394227147102356</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>시험 답 알려줘</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>과학 힘들지만 극복하고 노력할려고 애쓰는중입니다 ㅠㅠ선생님 강의 잘들었어요 ㅎㅎ혹시 워크북(실전책)은 강의끝나고 바로바로 푸는것이 좋을까요 아니면 시험대비용으로 푸는것이 적절할까요?</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>반가워요^^"과학 힘들지만 극복하고 노력할려고 애쓰는중입니다~" 라는 학생의 각오~정말 감동입니다.네~ 맞아요, 노력하고 애쓰다 보면 반드시 잘 하게 된답니다쌤이 곁에서 열심히 도와드릴께요꼭 좋은 결과 있을 꺼예요.그리고, 실전 워크북은 강의 끝나고 바로 풀어보면 좋구요또, 시험때도 다시 모아서 풀어보면 좋답니다.선생님도 중학교때, 한 문제집을 여러번 풀었는데요문제집에 바로 표시해버리면 다시 풀때 불편하니까요 종이에다가 풀이나 답을 써가면서 같은 문제집을 여러번 풀었답니다. 우리 친구도 이 방법으로 여러번 풀어보면 좋을 것 같아요.멋진 우리 친구~~ 응원합니다!!!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:06:48</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.840429425239563</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>질량보존법칙이란</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>선생님! 질량보존 법칙에서 물리변화도 질량이 보존되는데 그건 질량보존법칙이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그것도 질량 보존법칙이 성립된다고는 표현합니다. 원래 물리 변화는 물질 자체의 변화가 아니라서질량이 당연히 보존되기때문에  화학반응이 일어날때도 질량이 보존된다는 의미에서질량 보존 법칙을 정의할때화학 반응이  , 반응물의 전체 질량은 반응 후에도 보존된다고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:06:55</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.6081045269966125</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>시험 문제수</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>화학반응식에서 계수를 맞춰줄때 예를 들어 1 -&gt; 2 + 3이면              2 -&gt; 4 + 6 이라고 써도 시험에서 안틀리나요??</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 일반적으로는  1 -&gt; 2 + 3라고 표기해야 합니다.' 2 -&gt; 4 + 6 이라고 쓰면 틀린 것은 아니지만정확한 표기가 아닙니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:07:08</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.5102405548095703</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>객관식 갯수</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>메테인연소를 나타낸 화학 반응식에서  반응 전후의 산소 분자개수는 서로 다르다고 하는데 반응물과 생성물의 분자의 수가 같은데 왜 다르나요?</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>반가워요^^메테인이 연소하고 하면이산화탄소와 수증기가 생깁니다.즉, 메테인과 산소가 반응물이고이산화 탄소와 수증기가 생성물이므로분자의 종류가 완전히 달라진답니다.따라서 분자의 수가 변하는지 아닌지는 아무 의미가 없습니다.전혀 새로운 분자가 생겨나므로반응전과 반응후에 같은 분자가 없답니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:07:12</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:07:19</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.170139878988266</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>이거 엉망이노</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>﻿선생님 온난 전선보다 이동속도가 빠른 한랭전선이 온난전선과 만나 겹쳐져서 생긴 전선이 폐색전선 이잖아요,그러면 속도가 더 빠른 한랭전선이 추월해서 폐색전선이 깨지기도 하나요?? 그리고 이런 시베리아기단, 오호츠크해 기단등 이러한 기단들은 1년 내내 사라지지 않고 존재하나요?? 2개다 답변해 주세요^^ ﻿</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다. 하나씩 답변들어갑니다. 1. 한랭 전선이 온난전선을 만나는 순간 차가운 공기와따뜻한 공기가 섞여 버리므로 한랭전선과 온난 전선을 더이상 이동하지 않고공기가 섞여 버린답니다. 따라서 추월하여 한랭전선이 앞서나가거나 하지는 않습니다.  2. 완전히 사리지는 것은 아니지만. 세력이 약해졌다가  우리나라에 영향을 끼치는 그 계절에 세력이 커지는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:07:22</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>,,,</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:08:44</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.621356725692749</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1기압은</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>장소에 따라 기압이 달라지는건 이해가 되는데 시간에 따라 기압이 달라진다..? 이건 왜 그런건지 이해가 안가네요ㅜㅜ 알려주세요!!!</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다시간에 따라서낮 시간에는 지표가 가열이 많이 되므로, 지표면쪽에서 공기가 상승하게 되므로 지표면쪽은 저기압이 되구요밤 시간에는 공기가 냉각되면서 오히려 지표면 쪽으로 모이게 되면서 고기압이 된답니다.그러니, 시간에 따라서도 기압은 달라진다고 하는 것이지요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:01</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.2100842595100403</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ㅋㅋ 바보</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>선생님 \(^o^)/ 뉴런과학3 교재 9페이지에 2번에서그림상으로 봤을때는 원자의 배열이 변한것 같아보이는데왜 ㄷ이 틀린건가요???ㅠ_ㅠ 그냥 외워야 하는건가요???=_= 알려주세염ㅠㅠ아!그리고 과학노트정리를 하는것이 좋은가요??아님 안하고 교재만 보며 공부하는 것이 더 좋은가요??만약 노트정리를 하는것이 좋다고 하면 어떻게해야하는지 알려 주실수 있나여???♥♥항상좋은강의 감사합니다!!힘내세요☆☆﻿</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>반가워요^^9쪽의 2번은 검은색 알갱이가 원자로 보이지요?그런데, 검은색 알갱이는 분자이구요주변의 물분자와 함께 섞이는 현상을 보여주는 것이랍니다.즉, 설탕이 물에 녹아 들어가는 물리 변화를 나타내는 그림이랍니다.^^ 교재를 보면 복잡해서 과학 노트를 잘 정리해 두면 좋은데요사실, 과학 노트는 간단한 정리, 그것도 핵심을 잘 파악해서 잘 정리해 두는 것입니다.  그런데, 과학 노트 뿐만 아니라 전체적으로 과학공부를 잘하는 방법을 알고 있는 것이 중요합니다과학 공부 방법만 잘 알아도,  효과적인 학습이 될 수 있는데요.꼭 잘하게 될꺼예요, 힘내세요. 우선, 과학의 경우는 과목의 특성상 원리를 이해하는 부분이 많이 필요해요 따라서, 첫번째로는, 학교 선생님이나 ebs강의를 통해서 원리를 반드시 이해해두셔야해요, 이때, 어떤 원리가 나오면, 일단은 그림과 사진 자료 혹은 비슷한 예, 또는 관련된 식을 풀면서 원리를 이해하시는 것이 우선이구요 두번째로는 이렇게 원리가 이해 된 다음에는 꼭 그 내용을 암기해 두셔야 한답니다. 물론, 과학이 암기과목은 아닙니다. 하지만, 이해와 암기가 병행되어야만 좋은 성적을 기대해 볼 수 있어요. 이때, 쉽게 익히기 위해서는 강의중에 중요한 부분은 형광펜으로 표시를 해두는 거예요,,따라서, 시간이 지나서 다른건 잊어버려도 이부분은 다시 한번 더 기억해 낼수 있도록이요^^ 그리고, 마지막으로는 내용을 얼마나 잘 알고 있는지를 확인하기 위해서는 반드시 내용과 관련된 단원의 문제를 풀어보셔야 하는데요, 이때, 문제를 풀다가 틀린 문제가 있다면 어떤 부분에서 틀렸는지를 확인하면서 내가 가진 잘못된 개념을 고쳐 나가고, 맞는 문제라면 내용을 다시한번 확실하게 익히는 시간을 꼭 가져야 한답니다. 이렇게 차근차근 한단계씩 여러번 반복하다보면 공부에 자신감도 생기고 시험도 잘 볼 수 있을 꺼예요 화이팅(^^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:06</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.6537271738052368</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>쌤</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>쌤 내일 저 뭐 먹을지 골라주세요!1.햄버거2.족발3.치킨4.짬뽕5.짜장면6.분식7.피자 뭐 먹을지 너무 고민되요;</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>앗, 저녁 시간이 지나버렸네요^^무엇으로 먹었나요? 쌤은 짬뽕이 먹고 픈데요 ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:09</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7415363788604736</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>안녕하세요, 30쪽에 4번 모르겠는데 강의 들을려면 어떻게 해야하나요?</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>반가워요^^30쪽 4번 문제를 뜻하는 군요이것은 4강을 보시면 마지막 부분에서 풀이하고 있습니다.이곳에서도 차근차근 설명드릴께요문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:13</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:13</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:16</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.2486493140459061</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>난리났노</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>원자가 이온이 될 때, 어떤 원리로 전자가 원자 안으로들어오거나 빠져나갈 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>반가워요^^이것은 옥텟규칙 때문인데요원자의 구조는 깊이 들어가면전자 껍질로 이루어져 있습니다.이때, 원자핵 바로 옆의 첫번째 전자 껍질에는 2개의 전자두번째 부터는 8개의 전자가 들어있으면 안정적입니다.즉, 2.8.8.8.8,,의 순서로요그런데, 원소 주기율표의 원자들이 가진 전자를 보면최외각 전자에 1개가 있으면1개를 버리고 양이온이 되면서 가장 바깥 껍질의 전자를 8개가 되어 안정한 상태를 이루려고 한답니다.이러한 원리로 원자는 전자를 잃거나 얻으면서 이온이 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:17</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:17</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>이기</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:26</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:26</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:26</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:27</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:27</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:27</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:28</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:28</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:28</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:29</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:29</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:30</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ㄺ</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:31</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ㄺ</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:09:33</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.6063039898872375</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ㄹㄴㄹㄴㄹㄴㄹㅇㄴㅁㄹ </t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>안녕하세요ㄴ 이 맞는 이유가 뭔가요?그리고 ㄷ 은 왜 틀린건가요?</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>반가워요^^ㄴ의 경우는 암모니아 분자를 구성하는 질소와 산소의 원자 의 개수비이니까요암모니아는 NH3로 질소 원자 1개와 수소 원자 3개가 결합해서 1개의 분자가 만들어 진답니다.따라서 질소:수소=1:3으로 구성된답니다. 따라서 옳은 내용입니다.ㄷ. 질소의 질량이 14인 상태에서는 수소 3과만 결합하므로수소의 질량이 6으로 늘어나도 질소의 질량이 그대로라면결합한 수소의 질량은 3밖에는 안되니까요생성되는 암모니아의 질량은 그대로입니다. 따라서 ㄷ은 옳지 않답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:10:40</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7415474653244019</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>안녕하세요, 30쪽에 4번 모르겠는데 강의 들을려면 어떻게 해야하나요?</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>반가워요^^30쪽 4번 문제를 뜻하는 군요이것은 4강을 보시면 마지막 부분에서 풀이하고 있습니다.이곳에서도 차근차근 설명드릴께요문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:12:19</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:13:00</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.5348917245864868</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>시험문제 몇문제</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>쌤~ 2단원 시험대비 문제 풀어볼려고 하는데 첨부파일이 없네요ㅠㅠ 제가 못찾는건가요..ㅎㅎ 확인해보세요!!</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>앗 ㅎㅎ그러네요~~지금 첨부파일 바로 올렸습니다.고마워요(^_______^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:14:09</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.898173987865448</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>화학 반응식이 뭐니?</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>화학반응식을 어떻게 해야하는지 감이 안옵니다</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>맞아요, 많이 어렵지요?일단. 강의를 한번 더 시청하시기를 권해 드리고 싶습니다.또한, 화학 반응식의 기초가 되는화학식을 먼저 익혀 두셔야 합니다.2강을 수강하시면 어느 정도 이해가 되실꺼예요힘내세요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:14:40</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7235424518585205</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>이거 만든사람 누구에요?</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>키가 작은 사람과 큰 사람이 있으면 키가 큰 사람이 세포수가 더 많다는 것이죠?</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>반가워요^^네 아무래도 몸집이 큰 사람이 세포수가 더 많답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:16:01</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7052204608917236</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>수소+산소-&gt;수증기 이거 화학식으로 바꿔줘</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>선생님 질문이 있어요!화학식이랑 분자식이 같은말인가요?</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>반가워요^^화학식, 분자식이 어려우실꺼예요.중2때 공부하긴 했는데, 헷갈리지죠?차근 차근 설명드릴께요일단, 분자식은 화학식의 한 부분입니다.   물질을 원소기호와 숫자로 표시한 것이 화학식인데요. 물질 중에는 분자를 가지는 물질도 있고, 분자를 가지지 않는 물질도 있습니다.  분자를 가지는 물질은 화학식을 다른 말로 분자식이라고 하구요  분자를 가지지않는 물질은 분자식이라고 쓸수 없어서 화학식이라고 쓰는 것이랍니다 예를 들어서, 산소, 질소, 수소와 같은 기체 물질은 분자가 있고원자 2개가 만나서 분자 1개를 만들므로산소는 O2, 질소는 N2, 수소는 H2 라고 분자식을 쓰고, 이것을 화학식이라고도 부른답니다.하지만, 탄소의 경우는 탄소 원자들이 계속해서 연결되어 탄소물질을 만들므로따로 분자가 없고, 탄소가 반복되어 연결되어 있으므로탄소 C하나만으로 탄소의 화학식을 표현하는 것이랍니다.즉, 탄소는 따로 분자가 없으므로 분자식을 쓸수 없고, 대신 화학식이라고 표현하는 것입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:16:18</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.2240316569805145</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>오오</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>염화은↓이게 무슨 말이죠//??</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>반가워요^^화학식 옆의 화살표가 궁금하지요, 화살표는  염화은↓처럼 아래쪽으로도 있지만 ↑화살표도 있답니다.그 이유를 설명드리자면화살표가 아래로 ↓ 가있는 것은이것은 생성된 물질이 앙금이라는 뜻입니다.앙금을 가라앉으니까요, 앙금을 표시하기 위해서 생성물 중의 앙금에 ↓ 화살표를 옆에 쓴답니다.반면, 화살표가 위로 올라가는 ↑화살표는이때는 생성물에 기체가 생성되어 날라간다는 의미에서생성물의 기체 옆에 ↑화살표를 붙인답니다.    따라서기체인 이산화 탄소에는 ↑ 이 표시된 것이구요 앙금인 염화은이나 탄산 칼슘과 황산 바륨에는 ↓가 표시된 것이예요</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:16:32</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>잘 모르겠어요</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:17:27</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7020981907844543</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>포화수증기가 뭘까?</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>선생님 그럼 안개가 생기는 이유가 수증기를 포화 수증기량까지 가져서 생기는 건가요?</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~ 좋은 질문입니다.안개가 생기는 이유는지표면의 기온이 낮아지면서포화 수증기량이 줄어들어서현재 수증기량 만으로도 포화상태가 되면서 현재 기온이 바로 이슬점이 되어 수증기가 물방울로 응결하는 것입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:27:27</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7418363094329834</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>안녕하세요, 30쪽에 4번 모르겠는데 강의 들을려면 어떻게 해야하나요?</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>반가워요^^30쪽 4번 문제를 뜻하는 군요이것은 4강을 보시면 마지막 부분에서 풀이하고 있습니다.이곳에서도 차근차근 설명드릴께요문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:33:01</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.8970062136650085</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>안녕하세요, 30쪽에 4번 모르겠는데 강의 들을려면 어떻게</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>안녕하세요. 강의 1월 중에는 볼 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>반가워요^^네~~이제 강의가 조금씩 더 많이 업로드될꺼예요조금만 기다려주세요.열공하는 우리 친구~ 화이팅입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:33:27</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.8845428228378296</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>안녕하세요, 30쪽에 4번 모르겠는데 강의 들을려면 어떻게 해야하나</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>안녕하세요, 30쪽에 4번 모르겠는데 강의 들을려면 어떻게 해야하나요?</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>반가워요^^30쪽 4번 문제를 뜻하는 군요이것은 4강을 보시면 마지막 부분에서 풀이하고 있습니다.이곳에서도 차근차근 설명드릴께요문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:33:39</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.8974812626838684</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>안녕하세요, 30쪽에 4번 모르겠는데 강의 들을려면 어떻게 해야하나요?</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>안녕하세요. 강의 1월 중에는 볼 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>반가워요^^네~~이제 강의가 조금씩 더 많이 업로드될꺼예요조금만 기다려주세요.열공하는 우리 친구~ 화이팅입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:33:49</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.2126792669296265</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dkssudgktpdt, </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>﻿﻿문제집 33쪽 4 (3)번 수소,산소,수증기의 부피비는  2:1 :2로, 같은 부피가 아닌데 왜 '부피 1 속에 포함된 분자 수가 같다'가 옳은 보기인가요?</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>반가워요^^부피비는 다르지만각각의 종류마다 한 부피에 들어 있는 분자수는 같기 때문입니다.즉, 수소가 2부피지만.수소 1부피에 들어 있는 수소 분자의 수나산소 1부피에 들어 있는 산소 분자의 수나수증기 1부피에 들어 잇는 수증기 분자의 수는 같다는 것입니다이때, 수소 2부피라면 산소 1부피보다 분자의 수가 2배로 많겠지요부피가 늘어났으니까요</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2020-07-13 06:49:59</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
         <is>
           <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
         </is>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -4507,6 +4507,56 @@
         </is>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2020-07-13 07:03:14</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.6990673542022705</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>에너지를 방출하는 반응</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 화학반응이 일어나면 에너지가 방출할때도 있고 흡수할때도 있는데 화학반응이 일어날 때에는 에너지가 출입한다라고 하면 틀린게 아닌가요?? 둘다 된다라고 해야되지 않나요??</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>반가워요^^화학 반응이 일어날 때 열에너지가 출입한다는 뜻은열에너지가 나갈 수도 있고, 들어올 수도 있다는 뜻이므로에너지가 방출되기도하고, 에너지를 흡수하기도 한다는 뜻이라서옳은 문장입니다.다만. 두 경우는 모두 포함해서 설명했을 뿐이랍니다.한 반응에서 에너지의 흡수와 방출이 같이 일어난다는 뜻은 아니므로혼돈하지 마시구요*^^*</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2020-07-13 07:03:47</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.8409867882728577</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>질량 보존 법칙</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>선생님! 질량보존 법칙에서 물리변화도 질량이 보존되는데 그건 질량보존법칙이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그것도 질량 보존법칙이 성립된다고는 표현합니다. 원래 물리 변화는 물질 자체의 변화가 아니라서질량이 당연히 보존되기때문에  화학반응이 일어날때도 질량이 보존된다는 의미에서질량 보존 법칙을 정의할때화학 반응이  , 반응물의 전체 질량은 반응 후에도 보존된다고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -4557,6 +4557,31 @@
         </is>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2020-07-13 07:04:08</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.6972593069076538</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>기권</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>대기랑 기권은 서로 무슨 차이가 있나요?</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>반가워요^^대기는 지구를 둘러싸고 있는 공기를 뜻하구요기권은 대기가 차지하는 전체 영역을 전부 뜻하는 것입니다.^^</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -4582,6 +4582,256 @@
         </is>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2020-07-13 08:34:19</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7798717617988586</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>이슬점</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2020-07-13 10:04:10</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.784293532371521</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>탄산음료 기포발생은 무슨변화?</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>선생님 탄산음료의 마개를 열면 기체가 발생한다는 것은 물리변화인가요?그렇다면 왜그런가요... 모르겟어요 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>반가워요^^사이다나 콜라 같은 탄산음료를 따르면 기체가 발생하는 것은 물리 변화입니다.탄산 음료속에는 물과 이산화 탄소, 설탕등이 녹아 있는데요'이때, 탄산음료를 따르면그 속에 녹아 있던 이산화 탄소가 빠져 나오면서 기체가 생기는 것이랍니다.즉, 녹아 있던 기체가 빠져 나오므로, 물리변화입니다. ​ 사실, 기체가 생긴다고 모두 화학 변화는 아니랍니다. 화학 변화는 물질의 성질이 변하면서 새로운 물질인 기체가 생겨나야 화학 변화랍니다.기체가 발생하더라도새로운 성질의 기체가 만들어지지 않으면 물리변화입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2020-07-13 10:04:10</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.6249933838844299</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>친구야 안녕</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>교재 13쪽 1번)) 달걀이 익는것이 왜 화학변화인가요????</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.달걀이 익게 되면색깔도 변하고 맛도 달라지고 향도 달라진답니다.즉, 성질이 다른 물질로 변한 경우가 되므로화학변화입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2020-07-13 10:05:58</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.2672810256481171</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>고생이 많다</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>선생님 ㄹ과 ㅁ 어떻게 수소와 0.1인가요? 답지를 보아도 이해가 안되네요ㅜ</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>반가워요^^문제 속에 힌트가 있어요수소 0.3과 산소 2.4가 반응해서 남는 기체가 없었다는 것은수소 0.3과 산소 2.4가 완전히 반응했다는 것으로수소:산소=0.3:2.4=1:8의 질량비로 결합하는 것을 알 수 있어요그런데, 수소 0.2와 산소 0.8을 넣으면산소는 0.8이 다 반응하지만수소는 0.2중에서 0.1만 반응해서수소:산소=0.1:0.8=1:8로 반응하게 된답니다.따라서 남는 기체는 수소 0.1입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2020-07-13 10:07:43</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.4842940866947174</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>성에 끼는건 어떤상태변화?</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2란성 상둥이가 수정란 두개에 각각 수정된다고 하는데 수정란은 생리할떄마다 하나만 나오는거 아닌가요?? 두개가 같이 나올수있어요?</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>반가워요^^우리 친구 말이 맞습니다.원래 수정란을 한달에 1개씩 배출 되는 데요가끔 수정란이 2개 이상 배출되면서 이렇게 이란성 쌍둥이가 생긴답니다.다만 이런 일이 흔하지는 않아서쌍둥이가 많지는 않답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2020-07-13 10:08:04</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7643603086471558</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>서리 끼는건 무슨변화</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>화학변화를 이해 못하겠어여</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>반가워요^^물리변화와 화학 변화를 비교하면서 알아두면 좋답니다.이 부분 헷갈리실텐데요일단. 물질이 변하면서 성질이 다른 새로운 물질이 생성되면화학 변화입니다.질문한 내용을 보니 새로운 기체가 생성되었다는 것이므로즉, 성질이 다른 새로운 기체가 생성되었다는 말이므로화학 변화입니다.일반적으로 물질이 반응하면서 기체가 생성되는 반응은 보통 화학 변화입니다.하지만. 물이 끓어서 기체 수증기가 되는즉, 액체가 기체로 상태변화하면서 기체가 되는 경우는 물리 변화지만과산화수소수가 분해되어 물과 산소라는 기체가 생성되는 경우는 화학 변화랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2020-07-13 10:28:02</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.6175071001052856</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>설탕물 에너지 출입</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>선생님~ 에너지 출입이 화학반응에서만 일어나는 건가요? 물리변화가 일어나는 과저에서는 에너지가 출입하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구정말좋은 질문입니다.화학 변화 뿐만 아니라 물리 변화에서도 에너지의 출입이 있습니다.예를 들어서 얼음이 녹아서 물이라는 상태변화(물리변화)가 일어날때도열에너지를 흡수한답니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2020-07-13 11:45:31</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>..?</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2020-07-13 11:46:11</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.8313089609146118</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>넌 뭘 보고 질문을 찾는 거야..</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>계속 질문해서 죄송합니다</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>괜찮아요~~언제든지 질문해주세요(^^) 네, 맞습니다 16쪽 14번은 화학 반응식을 쓰는 것이니까요정답이     입니다. (^^()</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2020-07-13 12:09:05</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7266332507133484</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>같은 종류의 화합물은 성분 원소의 질량비가 항상 일정해?</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>선생님, 화합물을 이루는 성분원소의 질량비를 외워야 하나요?학교시험에 질량비를 외워야 풀 수 있는 문제도 종종나오나요?</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>반가워요^^ 학교에 따라 사정이 다르기 때문에학교 시험 문제에 관련된 사항을 학교 과학쌤께 문의하시는 것이 가장 좋을 것 같아요</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -4832,6 +4832,3834 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2020-07-13 13:03:36</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.8590332865715027</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>입자수의 비랑 분자수의 비랑 같은 건가요?</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>﻿선생님!! 화학 반응식에서 알수 있는 것에서 계수비랑 입자수의비랑 분자수의비랑 부피비랑은 다 같은 말인가요? 4개의 비는 모두 같나요??</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>반가워요^^ 똑똑한 우리 친구~정말 좋은 질문입니다.화학반응식에서 반응물과 생성물이 모두 기체인 경우에는계수비랑 입자수의비랑 분자수의비랑 부피비가 모두 같다고 보면 됩니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2020-07-13 13:03:37</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2020-07-13 13:28:56</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.6875097751617432</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>오로라</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>선생님 왜 오로라는 고위도 지역에서만 관측할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>반가워요^^자세히 설명드릴께요오로라는 태양으로 부터 밀려드는 전기를 띤 입자가지구의 가장 바깥쪽 기층인 열권의 대기와 부딪히면서불꽃을 내는 현상이랍니다.이러한 불꽃이 전체적으로 커튼 모양으로 반짝이기도 하고 밤하늘에 아름답에 일렁이기도 하는데요이것이 오로라랍니다. 지구는 자전축이 기울어져 있다보니극지방처럼 추운 지역까지는 태양으로 부터 대전 입자가 날아들구요중위도지방에는 거의 대전 입자가 날아들지 않으므로고위도 이상의 극지방에서만 오로라를 볼 수 있는 것이랍니다 .</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2020-07-13 13:29:16</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7001686692237854</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>구름</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>선생님 구름 발생실험에서 뿌옇게 생기는건 구름이라고 말할수있나요?</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.뿌옇게 생긴것이 물방울이므로실제 자연의 구름에 비유됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2020-07-13 13:54:38</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.6621094942092896</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>시발련아</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>정확히 수축, 이완이 뭔 뜻이죱?</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>반가워요^^수축은 줄어든다는 뜻이구요이완은 늘어난다는 뜻입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2020-07-13 13:54:57</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.1693828403949738</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>느금마</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>﻿안녕하세요 쌤ㅠㅠ일과 에너지를 3번 돌려봤는데도 이해가 안가요ㅠㅠㅠ한 일이 0인 경우에서 상자를 들고 가만히 있으면 이동거리가 0이라그런건데 힘의 방향과 이동거리의 방향이 수직이여도 한 일이 0이면 상자를 들고 앞으로 가도 한 일이 0 인건가요?  그리고 상자를 들고 가만히 있으면 한 일이 0인데 위치에너지에서는 돌멩이를 들면 일을 한거라고 하셨는데 이부분이 가장 헷갈려서 전체적으로 혼동이 왔어요ㅠㅠㅠㅠ 저좀 도와주세요ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>반갑습니다^^맞아요, 이부분 많이  어렵지요?차근 차근 설명드릴께요.일단. 과학에서의 일의 정의를 먼저 정확히 확인해야 하는데요과학에서의 일은 우리가 하나의 약속으로 정한 것이다 보니, 어렵게 느껴질꺼예요우선, 과학에서의 일은 힘을 주고, 힘의 방향으로 이동거리가 발생했을 때힘 곱하기 이동거리로 구할 수 있어야 과학에서의 일이랍니다. 따라서, 힘의 방향과 이동 거리의 방향이 수직이면과학에서의 일의 정의에따른 공식에 대입해서 구할 수가 없어서과학에서의 일이 아니구요힘을 주었지만. 이동거리가 0이면 곱해도 0이므로  과학에서의 일이 아닙니다.'즉, 실제 생활속에서는 일을 했다고 할 수 있는 상황 이지만우리가 정한 약속,과학에서의 일의 정의에 적합하지 않아서 과학에서는 한 일이 0이라고 한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2020-07-13 13:54:57</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2020-07-13 13:55:38</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.5190509557723999</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>니앰미 보지</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>선생님! 궁금한 것이 있는데요 토리첼리의 실험에서 수조에 담긴 수은이 위로 올라가지 않는것은 대기압 때문이 아니라 중력때문이라고 볼 수는 없는건가요??</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>반가워요^^중력은 모든 곳에서 다 작용하고 있구요중력 이외의 기체의 압력 때문이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2020-07-13 14:36:41</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.8217315673828125</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>지구가 대기 때문에 에너지를 지구에 바로 방출하지 않고 자구를</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>​4개의층중한개도없으면지구는어떠게돼나요?​</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>반가워요^^​4개의 층중 한개도 없으면? 글쎄요~ 일단. 지구라는 행성의 모습이나 특징이 달라지겠지요?우리 친구의 상상력을 한번 펼쳐보세요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2020-07-13 14:37:20</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.8706867694854736</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">지구가 대기때문에 태양으로 </t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>선생님! 그러면 태양 에너지를 잘 못받는 태양 반대편의 지구 온도는 어떻게 되는 건가요??</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>반가워요^^지구의 반대편을 밤이 되면서 온도가 내려가지만대기가 낮동안 받은 에너지를 품고 있기 때문에온도가 내려가지만 급격하게 내려가지는 않는답니다.그리고, 지구의 자전에 의해서 다시 태양쪽으로 위치하게 되면 기온이 올라가는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2020-07-13 14:39:00</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.6495856046676636</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">지구가 대기때문에 에너지를 바로 방출하지 않고 지구를 데운 후에 방출한다고 했잖아요 그런데 온도가 높아질 수록 복사에너지도 커지는데 그러면 복사평형아 </t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>태양복사에너지가 70이 들어오고, 지구복사에너지가 70만큼 방출되어서 복사 평형이 일어나는데, 지구복사에너지가방출하는 에너지는 우주로 방출하는 것과 지표로 방출하는 것을합쳐서 70이라고 하나요?? 그래서 더 높은 온도에서 복사 평형이일어나는거죠??</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>네^^ 우리 친구의 생각이 정확하게 맞습니다.화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2020-07-13 14:39:53</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2020-07-13 14:39:58</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.510556697845459</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">온도가 높을 수옥 </t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>선생님 질문입니다!오존층은 왜 올라가면 기온을 증가시키나요?열을 붙잡아서 올라갈수록 더 온도가 올라가나요?</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>반가워요^^자세히 설명드리자면사실, 오존층이 없다면자외선을 전혀 흡수할 수 없답니다.따라서 80km까지는 지표면의 열에의해서만 영향을 받으므로높이 올라갈수록, 즉, 지표면에서 멀어질 수록 온도가 내려가는 분포를 하는 것이랍니다.그런데, 성층권안의 오존층에서 자외선을 흡수하고,아무래도 오존층의 위쪽에서 더 많은 자외선을 흡수하게 되므로아래쪽 보다는 위쪽으로 갈수록 더 온도가 높아진답니다. 결국. 성층권안에서 오존층의 가열로 인하여 위쪽까지 뜨거운 열기가 전달되므로성층권 내부에서는 위쪽으로 올라갈 수록 기온이 올라가는 구조를 이루고 있답니다. 그리고, 이러한 오존층의 영향이 성층권안에서 끝나므로성층권의 기온 분포에만 영향을 주는 것이랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2020-07-13 14:40:57</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7197171449661255</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>온도가 높을 수록 방출하는 복사에너지가 많아지는데 지구가 대기때문에 데워지잖아요 그러면 복사평형이 깨지는 것 아닌가요?</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>태양복사에너지가 70이 들어오고, 지구복사에너지가 70만큼 방출되어서 복사 평형이 일어나는데, 지구복사에너지가방출하는 에너지는 우주로 방출하는 것과 지표로 방출하는 것을합쳐서 70이라고 하나요?? 그래서 더 높은 온도에서 복사 평형이일어나는거죠??</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>네^^ 우리 친구의 생각이 정확하게 맞습니다.화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2020-07-13 14:42:38</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.5852565169334412</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>왜 달은 복사평형이 더 낮은 온도에서 이루어지나요?</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>선생님 왜 멀리 있다고 해서(복사평형에 도달하는 시간이 느린건 알겠는데요) 그렇다고 해서 올라가는 온도의 최대치, 즉 복사평형이 이루어지는 온도는 왜 내려가는지 이해가 안가요!!</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>반가워요^^정말 좋은 질문입니다.거리가 멀게 되면 도달하는 복사 에너지의 양도 적도복사 에너지가 도달하는 시간도 더 느리답니다.따라서, 복사평형에 도달하는 시간도 더 늦고온도도 더 낮은 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2020-07-13 14:58:44</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.6633614301681519</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>온난전선</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>선생님 한랭전선에서는 찬 공기가 따뜻한 공기 쪽으로 가니까 기온이 높아지고 온난전선에서는 따뜻한 공기가 찬 공기쪽으로 가서 기온이 낮아져야 되는 것 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>반가워요^^한랭전선과 온난전선이 헷갈릴텐데요일단. 그림을 잘 보아야해요한랭 전선은 찬 공기가 따뜻한 공기 아래로 파고드니까요그림을 잘 보시면전선면와 지표면이 만나는 한랭 전선은전선면의 앞쪽에 생깁니다.따라서 한랭 전선의 앞쪽을 따뜻한 공기고뒤쪽은 찬공기인 것이지요그러므로 한랭 전선이 통과하면 기온이 내려갑니다. 반면, 온난 전선은 따뜻한 공기가 찬 공기 위로 타고 올라가므로그림을 잘 보시면전선면와 지표면이 만나는 온난전선은전선면의 뒤쪽에 생깁니다.따라서 온난 전선의 앞쪽은 찬 공기고뒤쪽은 따뜻한 공기인 것이지요그러므로 온난전선이 통과하면 기온이 올라갑니다. 똑똑한 우리 친구~ 이해되지요? 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2020-07-13 15:01:21</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.890998363494873</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>화학변화가 변하는것은</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>화학변화를 이해 못하겠어여</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>반가워요^^물리변화와 화학 변화를 비교하면서 알아두면 좋답니다.이 부분 헷갈리실텐데요일단. 물질이 변하면서 성질이 다른 새로운 물질이 생성되면화학 변화입니다.질문한 내용을 보니 새로운 기체가 생성되었다는 것이므로즉, 성질이 다른 새로운 기체가 생성되었다는 말이므로화학 변화입니다.일반적으로 물질이 반응하면서 기체가 생성되는 반응은 보통 화학 변화입니다.하지만. 물이 끓어서 기체 수증기가 되는즉, 액체가 기체로 상태변화하면서 기체가 되는 경우는 물리 변화지만과산화수소수가 분해되어 물과 산소라는 기체가 생성되는 경우는 화학 변화랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2020-07-13 16:16:56</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.5877171754837036</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>구름의 생성과정</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>선생님 문제를 풀다가 궁금하게 생겨서 질문 합니답^^  지표면의 일부가 불균등하게 가열될 떄도 구름이 생성되는지가 왜 맞는 보기인지 궁금합니다.^^</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>반가워요^^구름은 공기가 상승할 때단열 팽창과 기온 하강, 그리고, 이슬점 도달을 통해수증기가 응결하면서 생성된답니다.지표면이 부분적으로 가열될 때도가열된 부분의 공기가 상승하게 되고이때 공기의 상승과 더불어단열 팽창과 기온 하강, 그리고, 이슬점 도달을 통해수증기가 응결하면서 구름이 생성되는 과정을 거친답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2020-07-13 16:17:13</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.590196967124939</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>구름의 생성과정</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>선생님 문제를 풀다가 궁금하게 생겨서 질문 합니답^^  지표면의 일부가 불균등하게 가열될 떄도 구름이 생성되는지가 왜 맞는 보기인지 궁금합니다.^^</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>반가워요^^구름은 공기가 상승할 때단열 팽창과 기온 하강, 그리고, 이슬점 도달을 통해수증기가 응결하면서 생성된답니다.지표면이 부분적으로 가열될 때도가열된 부분의 공기가 상승하게 되고이때 공기의 상승과 더불어단열 팽창과 기온 하강, 그리고, 이슬점 도달을 통해수증기가 응결하면서 구름이 생성되는 과정을 거친답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2020-07-13 16:17:47</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7798717617988586</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>이슬점</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2020-07-13 23:50:02</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7087054252624512</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>일정성분비 법칙이랑 질량보존법칙의 차이점이 뭔가요</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>연소반응, 기체 발생 반응, 앙금 반응, 화합물은 질량 보존법칙과 일정성분비 법칙이 함께 성립하나요?  문제집에 혼합물은 질량보존법칙과 일정성분비법칙이 성립한다고 하길래 궁금해서 올렸어요~ 이유까지 같이 설명해주시면 고맙겠습니다!!!</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>반가워요^^연소반응, 기체 발생 반응, 앙금 반응은 모두화학 반응이구요이때, 항상 질량 보존법칙과 일정성분비 법칙이 함께 성립한답니다^^하지만. 혼합물의 경우는물질을 단순히 섞이만 한 것이므로, 화학 반응은 일어나지 않구요질량 보존 법칙을 성립하지만일정 성분비 법칙은 성립하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2020-07-13 23:50:57</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.7947406768798828</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>화학반응에서 일정성분비법칙은 성립하지않나요?</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>기체반응법칙에서 질량보존법칙과 일정성분비법칙이 모두 성립되나요??</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>네^^ 모두 성립합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2020-07-13 23:51:09</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.2100842595100403</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>바보</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>선생님 \(^o^)/ 뉴런과학3 교재 9페이지에 2번에서그림상으로 봤을때는 원자의 배열이 변한것 같아보이는데왜 ㄷ이 틀린건가요???ㅠ_ㅠ 그냥 외워야 하는건가요???=_= 알려주세염ㅠㅠ아!그리고 과학노트정리를 하는것이 좋은가요??아님 안하고 교재만 보며 공부하는 것이 더 좋은가요??만약 노트정리를 하는것이 좋다고 하면 어떻게해야하는지 알려 주실수 있나여???♥♥항상좋은강의 감사합니다!!힘내세요☆☆﻿</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>반가워요^^9쪽의 2번은 검은색 알갱이가 원자로 보이지요?그런데, 검은색 알갱이는 분자이구요주변의 물분자와 함께 섞이는 현상을 보여주는 것이랍니다.즉, 설탕이 물에 녹아 들어가는 물리 변화를 나타내는 그림이랍니다.^^ 교재를 보면 복잡해서 과학 노트를 잘 정리해 두면 좋은데요사실, 과학 노트는 간단한 정리, 그것도 핵심을 잘 파악해서 잘 정리해 두는 것입니다.  그런데, 과학 노트 뿐만 아니라 전체적으로 과학공부를 잘하는 방법을 알고 있는 것이 중요합니다과학 공부 방법만 잘 알아도,  효과적인 학습이 될 수 있는데요.꼭 잘하게 될꺼예요, 힘내세요. 우선, 과학의 경우는 과목의 특성상 원리를 이해하는 부분이 많이 필요해요 따라서, 첫번째로는, 학교 선생님이나 ebs강의를 통해서 원리를 반드시 이해해두셔야해요, 이때, 어떤 원리가 나오면, 일단은 그림과 사진 자료 혹은 비슷한 예, 또는 관련된 식을 풀면서 원리를 이해하시는 것이 우선이구요 두번째로는 이렇게 원리가 이해 된 다음에는 꼭 그 내용을 암기해 두셔야 한답니다. 물론, 과학이 암기과목은 아닙니다. 하지만, 이해와 암기가 병행되어야만 좋은 성적을 기대해 볼 수 있어요. 이때, 쉽게 익히기 위해서는 강의중에 중요한 부분은 형광펜으로 표시를 해두는 거예요,,따라서, 시간이 지나서 다른건 잊어버려도 이부분은 다시 한번 더 기억해 낼수 있도록이요^^ 그리고, 마지막으로는 내용을 얼마나 잘 알고 있는지를 확인하기 위해서는 반드시 내용과 관련된 단원의 문제를 풀어보셔야 하는데요, 이때, 문제를 풀다가 틀린 문제가 있다면 어떤 부분에서 틀렸는지를 확인하면서 내가 가진 잘못된 개념을 고쳐 나가고, 맞는 문제라면 내용을 다시한번 확실하게 익히는 시간을 꼭 가져야 한답니다. 이렇게 차근차근 한단계씩 여러번 반복하다보면 공부에 자신감도 생기고 시험도 잘 볼 수 있을 꺼예요 화이팅(^^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2020-07-13 23:51:21</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>배고파요</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2020-07-14 00:15:21</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.8966848850250244</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>화학반응식</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>화학반응식을 어떻게 해야하는지 감이 안옵니다</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>맞아요, 많이 어렵지요?일단. 강의를 한번 더 시청하시기를 권해 드리고 싶습니다.또한, 화학 반응식의 기초가 되는화학식을 먼저 익혀 두셔야 합니다.2강을 수강하시면 어느 정도 이해가 되실꺼예요힘내세요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2020-07-14 00:15:42</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.8098429441452026</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>질량보존법칙</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>선생님! 질량보존 법칙에서 물리변화도 질량이 보존되는데 그건 질량보존법칙이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그것도 질량 보존법칙이 성립된다고는 표현합니다. 원래 물리 변화는 물질 자체의 변화가 아니라서질량이 당연히 보존되기때문에  화학반응이 일어날때도 질량이 보존된다는 의미에서질량 보존 법칙을 정의할때화학 반응이  , 반응물의 전체 질량은 반응 후에도 보존된다고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2020-07-14 00:47:09</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.2599847316741943</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>안녕ㅎ세요</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1강에서 마그네슘의 물리변화와 화학 변화 실험할때 간이 전기 전도계에 빛이 나는 현상은 무슨 의미인가요? ( 왜 (가), (나), (다) 모두 빛이 나는지 궁금합니다 )</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>반가워요^^빛이 난다는 것은 전기가 흐른다는 뜻입니다.(가)와(나)는 마그네슘 그대로 이므로 전기가 흘러서 빛이 나구요(다)는 연소되어 새로운 물질인 산화 마그네슘이 되면서 전기가 흐르지 않고, 빛도 나지 않는답니다.즉, 성질이 달라진 화학 변화임을 알 수 있는 것이지요</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2020-07-14 00:48:43</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.9178838133811951</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>물리 변화가 뭐에요?</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>계란이 익는 거는 물리변화인가요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>반가워요^^계란이 익게 되면 색도 변하고 맛도 변하고 냄새도 변하지요?그러니~ 성질이 바뀐 변화이므로바로 화학변화랍니다.물리변화는 아니예요 ^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2020-07-14 00:48:52</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>엥 그거 아니에요</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2020-07-14 00:48:56</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.2503088712692261</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>짜증나는데</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>선생님 물에 잉크가 퍼지는 현상은 물리변화인데 잉크가 물에 퍼지면 색깔이 더 바뀌면서 화학변화아닌가요?빨리알고싶어요ㅜ</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>반가워요^^'잉크는 색이 있고, 물은 무색이므로잉크의 색이 퍼져서 보이는 것이구요물을 무색이라서 잉크색을 흐려지게만한답니다.따라서  물도, 잉크도 자기 성질을 그대로 가지므로물리 변화입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2020-07-14 00:49:15</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.7025134563446045</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>과학 문제는 어렵나요</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>﻿선생님 강의 정말 이해가 잘되고, 빈틈없이 너무 맘에 듭니다. . 하지만 강의가 너무 늦게 올라오는것 같은데 과학만 이런것도 아니고ㅠㅠ 무슨 문제가 있나요?​﻿﻿</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>반가워요^^기다리게 해서 정말 미안합니다.현재 강의가 매주 2강 정도씩 제작이 되고 있는 상황이라서업데이트도 매주 2강 정도씩 이루어지고 있습니다.전체 강의가 완강이 되려면강의 마다 차이는 있지만. 대략 4월~6월까지는 걸릴 것 같습니다.최선을 다해서 업데이트 예정이므로양해 부탁드립니다.그리고, 고맙습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2020-07-14 00:49:24</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.7512663602828979</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>오존층에는 대류가 일어나나ㅇㅅ?</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>대류가 뭐예요?</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>대류는 입자가 직접 이동하여 열을 전달하는 방법이에요. 예를 들어 에어컨을 틀면 찬 바람이 아래로 직접 이동하고, 히터를 틀면 뜨거운 바람이 위로 직접 이동해요. 이런 식으로 밀도가 큰 찬 공기가 아래로, 밀도가 작은 뜨거운 공기가 아래로 이동하면서 열을 전달하는 방법이 대류예요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2020-07-14 00:49:39</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0.8619324564933777</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>문제 난이도</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>이 문제 아예 모르겠습니다ㅠㅠㅠ🌸</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>반가워요^^이 문제는 탄산수소 나트륨의 분해 과정을 알아야 하는 문제입니다.탄산수소 나트륨을 열을 가하면열에 의해서 분해되어 새로운 물질인 탄산 나트륨, 이산화 탄소, 물이 생성됩니다. 이때, 발생하는 이산화 탄소가 설탕을 부풀리게 되는 것이지요그리고, 열을 가했지만. 산소와 결합하는 연소 반응이 아니라열을 받아서 스스로 분해가 되는 것이므로 문제의 ㄴ은 옳지 않은 것입니다.그리고, ㄷ에서 탄산 수소 나트륨의 상태 변화는 옳지 않구요, 화학 변화가 일어나면서 새로운 물질이 생긴 것이랍니다.따라서 옳은 것은 ㄱ으로 정답이 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2020-07-14 00:53:17</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.2230987548828125</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>ch4가뭐야?</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>생성물질이 무엇이었죠....?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>반가워요^^생성 물질은말 그대로 화학반응이 일어났을 때새롭게 생성되는 물질을 뜻합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:00:12</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.622107982635498</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>기압이란</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>장소에 따라 기압이 달라지는건 이해가 되는데 시간에 따라 기압이 달라진다..? 이건 왜 그런건지 이해가 안가네요ㅜㅜ 알려주세요!!!</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다시간에 따라서낮 시간에는 지표가 가열이 많이 되므로, 지표면쪽에서 공기가 상승하게 되므로 지표면쪽은 저기압이 되구요밤 시간에는 공기가 냉각되면서 오히려 지표면 쪽으로 모이게 되면서 고기압이 된답니다.그러니, 시간에 따라서도 기압은 달라진다고 하는 것이지요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:01:17</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.5847709178924561</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>구름의 생성과정</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>선생님 문제를 풀다가 궁금하게 생겨서 질문 합니답^^  지표면의 일부가 불균등하게 가열될 떄도 구름이 생성되는지가 왜 맞는 보기인지 궁금합니다.^^</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>반가워요^^구름은 공기가 상승할 때단열 팽창과 기온 하강, 그리고, 이슬점 도달을 통해수증기가 응결하면서 생성된답니다.지표면이 부분적으로 가열될 때도가열된 부분의 공기가 상승하게 되고이때 공기의 상승과 더불어단열 팽창과 기온 하강, 그리고, 이슬점 도달을 통해수증기가 응결하면서 구름이 생성되는 과정을 거친답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:01:51</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.843193531036377</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>질량보존 법칙이 뭔가요?</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>선생님! 질량보존 법칙에서 물리변화도 질량이 보존되는데 그건 질량보존법칙이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그것도 질량 보존법칙이 성립된다고는 표현합니다. 원래 물리 변화는 물질 자체의 변화가 아니라서질량이 당연히 보존되기때문에  화학반응이 일어날때도 질량이 보존된다는 의미에서질량 보존 법칙을 정의할때화학 반응이  , 반응물의 전체 질량은 반응 후에도 보존된다고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:02:30</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.7008786201477051</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>기체 반응 법칙을 알려주세요</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>선생님~~기체 반응 법칙이랑 기체 반응 법칙의 적용의 다른 점이 무엇인가요??기체 반응법칙이랑 기체 반응법칙의 적용이 헷갈리네요ㅠㅠ혹시 같은건가요??</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 똑 같은 것입니다.기체 반응 법칙의 개념을 설명하고이것이 어떻게 적용되는 지를 알아본 것이랍니다.결국은 기체 반응 법칙이 기체들끼리의 반응에서는 적용된다는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:10:29</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.6987655162811279</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>구름은 어떻게 만들어져?</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>선생님 구름 발생실험에서 뿌옇게 생기는건 구름이라고 말할수있나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.뿌옇게 생긴것이 물방울이므로실제 자연의 구름에 비유됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:10:42</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.7029706239700317</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>구름은 물방울이야?</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>선생님 수증기가 응결할 떄 온도가 높을때 많이 수증기가 물방울로 많이 생기나요?  아니면 온도가 낮을때 수증기가 물방울로 많이 생기나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>반가워요^^공기중의 수증기가 많을 때물방울이 많이 생긴답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:11:09</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.8669657111167908</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>포화 수증기량이 높으면 상대습도가 높아?</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>﻿쌤  온도가 높으면 포화수증기량은 증가하고 상대습도는 낮아지고, 온도가 낮으면 포화수증기량은 낮아지고 상대습도는 높아지나요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>반가워요^^ 아주 좋은 질문입니다.하루 동안을 기준으로 하면하루 동안의 공기 중의 수증기량은 거의 변화가 없으므로기온에 따라서 포화 수증기량이 달라지면서습도는 달라집니다.온도가 높으면 포화 수증기량이 증가하므로 습도 구하는 공식에서 습도가 낮아짐을 알 수 있구요온도가 낮으면 포화 수증기량이 감소하므로 습도 구하는 공식으로 구하면 습도가 높아짐을 알 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:11:59</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.1918475031852722</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>강의에서 나온 화학식 뿐만 아니라 다른 화학식은 어디서 어떻게 찾아서 공부할수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>반가워요^^화학식을 중2때 나온답니다.중2과학을 확인하시면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:14:10</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:14:11</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>아ㅏ</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:14:14</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.5927430391311646</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>﻿선생님 강의 정말 이해가 잘되고, 빈틈없이 너무 맘에 듭니다. . 하지만 강의가 너무 늦게 올라오는것 같은데 과학만 이런것도 아니고ㅠㅠ 무슨 문제가 있나요?​﻿﻿</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>반가워요^^기다리게 해서 정말 미안합니다.현재 강의가 매주 2강 정도씩 제작이 되고 있는 상황이라서업데이트도 매주 2강 정도씩 이루어지고 있습니다.전체 강의가 완강이 되려면강의 마다 차이는 있지만. 대략 4월~6월까지는 걸릴 것 같습니다.최선을 다해서 업데이트 예정이므로양해 부탁드립니다.그리고, 고맙습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:14:25</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.5847508311271667</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>대답을 안 해주네</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>선생님 늘 수고가 많으시고, 대답하실 질문도많은데 제가 이런 질문해서 죄송합니다.  3월2일까지 제가 3단원까지 다 들을려고 계획하고있었는데 제가 영상업로드가 언제 되는지 모르니까가능할지 몰랐습니다. 선생님이 보시기에 3월2일정도까지 3단원은 다 들을수있을지 대답해주시면 정말 감사하겠습니다.</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>반가워요^^3단원의 내용은 17~20강에서 강의되는데요현재 강의는 매주 2강 정도 업데이트 되고 있고강의가 제작되면 검수의 과정을 거쳐서 업데이트 되고 있어서정확한 업데이트 날짜가 정해져 있지는 않습니다. 3월 2일이라면 어쩌면 17강 정도는 업데이트 될 수 있을 것 같습니다.부지런히 제작하여 원활한 업데이트가 될 수 있도록 노력하겠습니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:16:27</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.5919510126113892</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>﻿선생님 강의 정말 이해가 잘되고, 빈틈없이 너무 맘에 듭니다. . 하지만 강의가 너무 늦게 올라오는것 같은데 과학만 이런것도 아니고ㅠㅠ 무슨 문제가 있나요?​﻿﻿</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>반가워요^^기다리게 해서 정말 미안합니다.현재 강의가 매주 2강 정도씩 제작이 되고 있는 상황이라서업데이트도 매주 2강 정도씩 이루어지고 있습니다.전체 강의가 완강이 되려면강의 마다 차이는 있지만. 대략 4월~6월까지는 걸릴 것 같습니다.최선을 다해서 업데이트 예정이므로양해 부탁드립니다.그리고, 고맙습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:17:17</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0.7232615351676941</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>적운형 구름이란?</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>왜 한랭전선의 구름이 적운형이고 온난전선의 구름이 측운형인가여?글구 왜 적운형구름은 소나기를 내리고 측운형의 구름은 이슬비를 내리나요?간단하게 설명해주세여^^</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~정말 좋은 질문입니다.사실, 적운형 구름은 공기의 상승이 빠른 경우 생기고층운형 구름을 공기의 상승이 느린 경우 생긴답니다.한랭 전선의 경우, 찬공기가 따뜻한 공기를 파고 들면서 따뜻한 공기를 툭툭 치면서 빠르게 상승시키는 효과가 있습니다따라서 적운형의 구름을 만든답니다.반면에서  온난 전선의 경우, 따뜻한 공기가 차가운 공기 위를 서서히 타고 올라가면서 느리게 상승하는 효과가 있습니다따라서 층운형의 구름을 만든답니다. 적운형의 구름은 작은 물방울이 갑자기 커지면서 생겨나므로 굵은 빗방울인 소나기가 내리구요층운형의 구름은 아주 천천히 물방울이 생기므로 작고 가는 이슬비가 내리는 것입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:17:27</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0.7136279344558716</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>층운형 구름이란?</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>안녕하세요! 인강을 듣다가 궁금한 점이 생겨서 질문해요!그 공기가 강하게 상승하면 적운형 구름, 약하게 상승하면 층운형 구름이라고 하셨는데, 그럼 겨울에는 적운형 구름이 더 많고, 여름에는 츤운형 구름이 더 많은가요??</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 꼭 그렇지는 않답니다.오히려, 여름에 지표면의 가열이 더 급하게 되면서공기가 더 빠르게 상승하여 적운형 구름이 많이 생기고소나기가 잘 온답니다. 그러나. 겨울에는 날씨가 건조해서 수증기 자체가 많이 없으므로'구름이 잘 생기지 않는 것이구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:36:29</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>아</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:36:38</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.5919309854507446</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>선생님? 수학이 과학의 영역마저 장악한것입니까? 하... 이런 정말 신나네요 하하하하하하하하하핳핳하하하하하하으윽흐윽</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 귀여운 친구*^^*열공 열공 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:41:20</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.8273656964302063</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1기압 보다 높은 곳에서 수은 기둥의 높이가 어떻게 될까</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>기압이 커지면 수은 기둥을 누르는 힘이 세져서 수은 기둥안의물 높이가 줄어들텐데 왜 기압이 커지면 수은 기둥이 높아지나요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>반가워요^^기압이 커지면 기압이 수조의 수은을 더 강하게 누르게 되어수은이 떠받치는 힘도 커지면서수은 기둥의 높이가 다시 올라가게 되는 것입니다ㅣ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:42:52</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.1481508761644363</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>챗봇</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>선생님 시험에 자주 출제되거나 꼭 알아놓아야하는 화학식이나 화학 반응식좀 알려주세요!메테인의 연소반응 이나 과산화수소의 분해반응 같은거 암기해야할까요? 그리고 마그네슘이 들어있는 유리병에 묽은 염산을 넣고 뚜껑을 덮은 후 반응을 시켰을 때 확인할 수 있는 법칙이 무엇인지 쓰는 문제같은 유형에서질량보존법칙인지 일정성분비 법칙인지 구별을 못하겠어요두 법칙 다 성립하는것 같은데ㅠㅠ자세히 설명 부탁드려요ㅠㅠ 선생님의 과학 공부 비법이 뭔지 알려주실 수 있나요?저는 문제를 미리 풀고 학교에서 진도를 나가면 틀렸던 문제만 다시 문제집에서 풀어요그리구 시험 전에 틀린것만 또 다시 풀구 오답노트를 해요노트정리는 그림을 첨부해서 하는데 가지치기 식으로 이해하는게 좋을까요? 질문이 너무 많네용 😅😅</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>반가워요^^하나씩 답변할께요. 언제든지 질문 주세요. 최선을 다해서 도와드릴께요방학을 맞이해서도 이렇게 열심히 공부하는 우리 친구가 선생님은 넘넘 대견하게 느껴져요. 정말 훌륭해요.(^^) 1. 다른 친구들도 많이 문의하는 내용인데요일단. 기본적인 화학식이 잘 외워져 있으면화학 반응식을 꾸미기를 통해서 쉽게 할 수 있답니다.꼭 기억해야 하는 화학식을 표로 정리해드리자면물질화학식물질화학식산소O2메테인CH4수소H2암모니아NH3질소N2이산화 탄소CO2물H2O탄소C과산화 수소H2O2산화 구리CuO입니다. 잘 기억해 두시면 도움이 많이 될꺼예요. 2. 뚜껑을 닫고 실험하는 경우는반응이 일어난 후에도 질량이 보존되는지를 묻는 질량 보존 법칙이랍니다. 3.  과학공부를 잘하는 선생님 만의 비법도  알려드립니다. 우선, 과학의 경우는 과목의 특성상 원리를 이해하는 부분이 많이 필요해요 따라서, 첫번째로는, 학교 선생님이나 ebs강의를 통해서 원리를 반드시 이해해두셔야해요, 이때, 어떤 원리가 나오면, 일단은 그림과 사진 자료 혹은 비슷한 예, 또는 관련된 식을 풀면서 원리를 이해하시는 것이 우선이구요 두번째로는 이렇게 원리가 이해 된 다음에는 꼭 그 내용을 암기해 두셔야 한답니다. 물론, 과학이 암기과목은 아닙니다. 하지만, 이해와 암기가 병행되어야만 좋은 성적을 기대해 볼 수 있어요. 이때, 쉽게 익히기 위해서는 강의중에 중요한 부분은 형광펜으로 표시를 해두는 거예요,,따라서, 시간이 지나서 다른건 잊어버려도 이부분은 다시 한번 더 기억해 낼수 있도록이요^^ 그리고, 마지막으로는 내용을 얼마나 잘 알고 있는지를 확인하기 위해서는 반드시 내용과 관련된 단원의 문제를 풀어보셔야 하는데요, 이때, 문제를 풀다가 틀린 문제가 있다면 어떤 부분에서 틀렸는지를 확인하면서 내가 가진 잘못된 개념을 고쳐 나가고, 맞는 문제라면 내용을 다시한번 확실하게 익히는 시간을 꼭 가져야 한답니다. 이렇게 차근차근 한단계씩 여러번 반복하다보면 공부에 자신감도 생기고 시험도 잘 볼 수 있을 꺼예요 화이팅(^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:45:12</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.189799427986145</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How do you </t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>선생님 27강 3분 3초에서요 항상성 조절 중추 에서 중추는 중추신경계라고도 이해해도 된다고 하셨는데요...이게 무슨의미인가요? 간뇌는 뇌와 척수를 포함한 중추신경계의 일부가아닌가요...?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>반가워요^^네, 맞습니다.중추 신경계는 뇌와 척수로 구성되구여ㅛ뇌는 다시 대뇌, 소뇌, 중간뇌, 간뇌, 연수로 구성되므로이 모든 것이 중추 신경계의 일부니까요중추 신경계라고 할 수 있는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:45:16</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.7162391543388367</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>열권</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>다음 강의는 언제 나오나요??</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>반가워요^^현재 열심히 제작 중에 있답니다.빠르게 업데이트 될 수 있도록 노력하겠습니다.'열공하는 우리 친구~~ 화이팅(^________^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:45:23</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>안녕?</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:45:46</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:46:03</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.7260503172874451</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>단열팽창</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>선생님!단열팽창이란 열을 주고받지 않고 부피가 변하는거잖아요, 근데 왜 단열팽창 다음에 기온 하강을 하지요?</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.앞으로 업데이트 되는 12강에서 자세하 다루기는 할텐데요미리 설명드릴께요 일단. 단열 이라는 것은 외부로 부터 열이 차단된즉, 열을 주지고 않고, 받지도 않는 상태랍니다.이때, 팽창을 하게 되면분자가 바깥으로 공간을 밀고 나가면서에너지를 소모합니다.에너지를 소모하면 온도는 내려가는 것이랍니다.즉, 단열한 상태에서 팽창할때, 에너지를 소모하므로온도가 내려간다고 알아두시면 됩니다. 그래서, 단열 팽창, 기온 하강이라고 하는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2020-07-14 01:46:57</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.1587368100881577</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>섹스</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요~!! 
+&lt;온도가 높아질수록 포화수증기량이 증가한다&gt;는것을 보여주는 실험에서 
+1. 뜨거운 물이 담긴 플라스크안은
+뜨거운 물이 수증기로 변하고 그 수증기가 벽면에 닿으면서 물이 맺히고 또 뿌옇잖아요,
+2. 그리구 그 플라스크를 헤어드라이기로 가열(?)하면 플라스크의 온도가 올라가서 포화수증기량이 증가하면서 물방울이 수증기로 변하면서 내부가 맑아진다고 했잖아요,
+-&gt; 이해가 안되는 점은 처음에 뜨거운 물이 담겨 있을 때에도 뜨거운 물이 수증기로 변하면서 뿌애진 것아니에요?? 헤어드라이기로 플라스크를 뜨겁게 해서 포화수증기량이 증가해서 플라스크 내부의 수증기량이 증가한다면 더 뿌애져야하는 것 아닌가요..?? 왜 맑아지는건지 이해가안돼용.. 그 집에서도 커피포트로 물 끓이면 수증기가 나오면서 뿌연연기가 나오잖아용..
+그리구 3. 그 플라스크를 찬물에 넣으면 포화수증기량이 감소해 수증기가 물방울로 변하니까 뿌연수증기가 물로되니까 오히려 맑아져야하는것 아닌가용..??
+제가 어느부분을 잘못이해하고 있는건가용~?? 
+감사합니당~^^**</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>반가워요^^뜨거운 물에서 증발한 수증기가 플라스크 내부의 표면에 닿아서 뿌옇게 되구요이때, 드라이어로 가열하면플라스크 내부의 온도가 올라가구요이때ㅡ 내부의 포화 수증기량이 증발하면서뿌옇던 물이 수증기가 되어 플라스크 내부로 들어가므로다시 맑아지는 것이랍니ㅏ</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2020-07-14 02:02:09</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.8308199644088745</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>질량보존법칙은</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>선생님! 질량보존 법칙에서 물리변화도 질량이 보존되는데 그건 질량보존법칙이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그것도 질량 보존법칙이 성립된다고는 표현합니다. 원래 물리 변화는 물질 자체의 변화가 아니라서질량이 당연히 보존되기때문에  화학반응이 일어날때도 질량이 보존된다는 의미에서질량 보존 법칙을 정의할때화학 반응이  , 반응물의 전체 질량은 반응 후에도 보존된다고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2020-07-14 02:02:55</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.7747925519943237</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>화학반응할때 열이 흡수되는</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>선생님! 물이 에너지를 흡수하여 기체가 될 때는 에너지를 흡수하므로 흡열반응이 일어나나요?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.물이 기체가 되려면 에너지를 흡수해야 합니다.따라서 보통,물을 기체로 변화시키는 기화가 일어나려면열을 가해주거나물이 주위로 부터 기화열을 흡수하여 수증기로 변한답니다.하지만. 이를 흡열 반응이라고 표현하지 않습니다.흡열 반응의 의미는화학 반응이 일어날대, 열에너지를 흡수하는 반응이기때문입니다.물이 수증기로 변하는 것을 화학 반응이 아니므로흡열 반응이라고는 표현하지 않지만.주위로 부터 기화열을 흡수한다고 표현합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2020-07-14 02:10:21</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0.7126514911651611</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>화합물은 질량비가 항상 일정해?</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>원소 사이의 질량비는 화합물마다 다 다른가요?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>반가워요^^네, 그렇습니다.~~화합물의 종류에 따라서 원소의 질량비가 다르답니다.그래서 이 질량비를 보면 그 화합물이 무엇인지 찾을 수 있답니다.예를 들어서 물과 과산화수소는물은 수소:산소의 질량비가 1:8이구요과산화수소는 수소:산소의 질량비는 1:16이랍니다.그래서 질량비만보고도수소:산소가 1:8이면 물이구나1:16이면 과산화수소구나~ 라고 찾을 수 있게 된답니다.(^^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2020-07-14 02:10:44</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.6246448755264282</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>같은 종류의 화합물은 질량비가 일정해?</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>혼합물과 화합물의 명확한 차이점을 알려주세여ㅠㅠ헷갈려요ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>반가워요^^화합물 혼합물 많이 헷갈릴꺼예요. 자세히 설명드리면일단.화합물은 두 종류 이상의 물질이 결합해서 하나의 새로운 물질이 된 것이예요. 즉. 결합하기전의 물질의 성질은 사라지고 새로운 물질이생겨난게 화합물이구요.반면에 혼합물은 두 종류 이상의 물질이 단순히 섞여 있기만 하고, 각각의 성질이 그대로인 물질입니다. 즉. 넣어즌 물질이 자기성질 그대로 가진체로  그냥 섞여만 있는 상태예요. 예를 들어서   염화 나트륨은 화합물이구요, 설탕물은 혼합물입니다. 염화 나트륨은 염소와 나트륨이 화합해서 완전히 새로운 염화 나트륨이라는 물질이 된 것으로 화합물이구요 설탕물은 설탕과 물이 섞여 있기만 하고, 설탕과 물이 여전히 각각의 성질을 가지고 섞여 있기만 한 혼합물이랍니다.  그래서질산나트륨. 산화구리. 산화철. 등은 화합물이구요우유. 흙탕물. 공기. 소금물 등은 혼합물입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2020-07-14 02:11:03</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.6953336000442505</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>화합물은 질량비가 일정해?</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>원소 사이의 질량비는 화합물마다 다 다른가요?</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>반가워요^^네, 그렇습니다.~~화합물의 종류에 따라서 원소의 질량비가 다르답니다.그래서 이 질량비를 보면 그 화합물이 무엇인지 찾을 수 있답니다.예를 들어서 물과 과산화수소는물은 수소:산소의 질량비가 1:8이구요과산화수소는 수소:산소의 질량비는 1:16이랍니다.그래서 질량비만보고도수소:산소가 1:8이면 물이구나1:16이면 과산화수소구나~ 라고 찾을 수 있게 된답니다.(^^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2020-07-14 02:16:39</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0.8631222248077393</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>문제 배점이 어떻게 되나요</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>이 문제 아예 모르겠습니다ㅠㅠㅠ🌸</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>반가워요^^이 문제는 탄산수소 나트륨의 분해 과정을 알아야 하는 문제입니다.탄산수소 나트륨을 열을 가하면열에 의해서 분해되어 새로운 물질인 탄산 나트륨, 이산화 탄소, 물이 생성됩니다. 이때, 발생하는 이산화 탄소가 설탕을 부풀리게 되는 것이지요그리고, 열을 가했지만. 산소와 결합하는 연소 반응이 아니라열을 받아서 스스로 분해가 되는 것이므로 문제의 ㄴ은 옳지 않은 것입니다.그리고, ㄷ에서 탄산 수소 나트륨의 상태 변화는 옳지 않구요, 화학 변화가 일어나면서 새로운 물질이 생긴 것이랍니다.따라서 옳은 것은 ㄱ으로 정답이 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2020-07-14 02:35:18</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.6106706261634827</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>기압은 뭔가요</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>선생님 강철 솜은 철인가요 솜인가요?? 강철 솜이란 말을 인생 처음 들어봤어요 ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>반가워요^^네, 강철솜 용어가 낯설지요?일단. 결론은 철입니다.^^철은 워낙 단단해서 연소시키기가 어렵잖아요그래서 철을 얅게 깍아서 뭉쳐 놓았답니다.마치, 우리가 연필을 깎을 때칼로 나무 부분을 얇게 밀면나무가 가늘게 밀리면서 또로로 말리잖아요철도 마찬가지로 가늘게 밀어서 말리면이것을 뭉쳐 놓았답니다.마치 솜처럼 쿠션감도 있어서강철솜이라고 부르는 것이랍니다.이렇게 만들고 나면 불에 넣었을 때 잘 연소가 된답니다.이제 이해가 되시지요? ^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2020-07-14 02:35:51</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.7277648448944092</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>일정성분비 법칙이 성립하는 이유는</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>일정성분비법칙이 성립하지 않는 경우에 혿원소도 포함되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>반가워요^^맞습니다.~~홑원소 물질을 원소1개로 이루어진 물질이므로일정 성분비 법칙의 성립요건이 갖추어져 있지 않기 때문에성립하지 않는답니다.^^일정 성분비 법칙이 성립하려면최소한 2개 이상의 원소로 이루어져야 한답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2020-07-14 02:36:08</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.2239212691783905</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>뭔소리야</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>물체에 작용한 힘과 물체의 이동방향이 수직인 경우에는 일의 양이 0이라는데 그러면, 공사장같은데에서 물건들을 들어 옮기는 등의 일은 일의 양이 0인건가요???</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>반가워요^^맞아요, 이부분 어렵지요?이 부분이 헷갈리는 이유는 공사장같은데에서 물건들을 들어 옮기는 등의 일은 우리가 일상 생활에서는 일로 인정하는 부분인데요, 과학에서만 한일이 0이라고 하기 때문입니다.자세히 설명드리자면 과학에서의 일은 힘을 주고, 힘의 방향으로 이동거리가 발생했을 때힘 곱하기 이동거리로 구할 수 있는데요힘의 방향과 이동 거리의 방향이 수직이면과학에서의 일의 정의에따른 공식에 대입해서 구할 수가 없어서랍니다.즉, 실제 생활속에서는 일을 했다고 할 수 있는 상황 이지만우리가 정한 약속,과학에서의 일의 정의에 적합하지 않아서 과학에서는 한 일이 0이라고 한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2020-07-14 02:48:38</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.8582826256752014</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>기체의 부피비는 뭐랑 같아?</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>부피비를 외워야해요?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>반가워요^^전체 부피비를 암기하실 필요는 없구요수소:산소:수증기=2:1:2질소:수소:암모니아=1:3:2 정도는 암기하셔도 됩니다.그런데요, 사실, 화학 반응식 꾸미기만 잘 하신다면위의 부피비는 자동으로 화학식의 계수비와 같기 때문에 암기 하지 않아도 알 수 있는 내용이기는 합니다.참고하세요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2020-07-14 02:53:45</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.2066245079040527</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>우와</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>선생님 화학부분 공부하다가 궁금해졌는데요,원소기호가 그 원자의 전자의 개수이잖아요, 그러면 모든 원소의 전자의 개수는 다른가요??그리고 헬륨의 원소기호는 2번이니까 헬륨의 전자의 개수는 2개이니까 최외각전자수도 2개인데 어떻게 18족이라고 하는지 모르겠어요ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>반가워요^^18족의 원소들은 최외각 전자가 꽉 차 있어서 안정한 상태랍니다.보통, 전자 껍질에서 최대한 포함할 수 있는 전자의 갯수는 8개이지만가장 안쪽의 전자 껍질에서는 2개의 전자를 최대로 가질 수 있답니다.결국, 헬륨은 2개가 가장 안쪽의 전자 껍질에 꽉 차있으므로 안정한 원소이면 18족에 속하는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2020-07-14 02:55:34</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.7260503172874451</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>단열팽창</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>선생님!단열팽창이란 열을 주고받지 않고 부피가 변하는거잖아요, 근데 왜 단열팽창 다음에 기온 하강을 하지요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.앞으로 업데이트 되는 12강에서 자세하 다루기는 할텐데요미리 설명드릴께요 일단. 단열 이라는 것은 외부로 부터 열이 차단된즉, 열을 주지고 않고, 받지도 않는 상태랍니다.이때, 팽창을 하게 되면분자가 바깥으로 공간을 밀고 나가면서에너지를 소모합니다.에너지를 소모하면 온도는 내려가는 것이랍니다.즉, 단열한 상태에서 팽창할때, 에너지를 소모하므로온도가 내려간다고 알아두시면 됩니다. 그래서, 단열 팽창, 기온 하강이라고 하는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:02:36</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.8498409390449524</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>상대습도 어떻게 구해요</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>선생님! 우리가 흔히 아는 습도랑 상대습도는 다른건가요??다르다면 어떤점이 다른건가요??ㅜㅜㅠㅜㅠㅜㅠㅠㅠ﻿</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>반가워요^^우리가 생활속에서 사용하는 습도가 바로 상대습도입니다.같은 개념이예요</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:03:04</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0.8540803790092468</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>포화수증기량은 뭐예요</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>기온이 올라가면 포화 수증기량이 증가한다 하셨는데 왜 그렇죠?</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.이 부분 어려우시죠?정확하게 설명드리자면온도가 높아질 수록 포화 수증기량이 증가하는  이유는 온도가 높아지면서 같은 공기의 질량이 차지하는 부피는 더 커지고공기 사이사이에 공간이 더 커지므로수증기가 들어갈 수 있는 공간이 넓어 지므로최대한 포함할 수 있는 수증기의 량인 포화수증기량이 온도가 높으면 더 증가하게 되는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:04:09</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.7670713663101196</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>비오면 상대습도 100인가요</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>선생님! 우리가 흔히 아는 습도랑 상대습도는 다른건가요??다르다면 어떤점이 다른건가요??ㅜㅜㅠㅜㅠㅜㅠㅠㅠ﻿</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>반가워요^^우리가 생활속에서 사용하는 습도가 바로 상대습도입니다.같은 개념이예요</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:04:19</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.8491244316101074</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>비올 떄 상대습도</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>선생님! 우리가 흔히 아는 습도랑 상대습도는 다른건가요??다르다면 어떤점이 다른건가요??ㅜㅜㅠㅜㅠㅜㅠㅠㅠ﻿</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>반가워요^^우리가 생활속에서 사용하는 습도가 바로 상대습도입니다.같은 개념이예요</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:45:41</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:45:46</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:46:02</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.7418496608734131</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>안녕하세요, 30쪽에 4번 모르겠는데 강의 들을려면 어떻게 해야하나요?</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>반가워요^^30쪽 4번 문제를 뜻하는 군요이것은 4강을 보시면 마지막 부분에서 풀이하고 있습니다.이곳에서도 차근차근 설명드릴께요문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:46:20</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>네?</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:46:44</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0.5197369456291199</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>음...  뭔말인지 모르겄어오ㅡ</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>﻿선생님 안녕하세요"화학 변화가 일어날 때 분자의 크기가 변한다"라는 말은 맞는 말인가요??</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>반가워요^^화학 변화가 일어나더라도 분자의 크기는 변하지 않습니다.다만. 분자의 종류가 변할 뿐입니다.반응물에서의 분자를 이루는 원자들이 다시 재배열하면서새롭게 분자를 만들어 내는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:51:40</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:51:42</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:51:43</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:51:51</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:51:58</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.2061597406864166</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>afhraka</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>선생님, 혹시 세포의 구조가 어떻게 되나요? 핵, 세포질 이런 구조들이요!!</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>반가워요^^일반적으로 동물세포는핵이 있고, 핵을 감싸는 세포질과 세포질을 감싸는 세포막이 있습니다.세포질안에는 각각 중요한 세포 소기관이 있는데요미토콘드리아. 골지체 등이 있구요식물세포의 경우는 여기에 액포와 엽록체가 더 있고세포막 바깥은 다시 세포벽이 있답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:52:12</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:57:21</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0.8517262935638428</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>대류가 활발한 층은?</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>선생님!! 열권도 대류가 안일어나므로 안정한 층인가요??</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 네~!~ 맞습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:57:23</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:57:28</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2020-07-14 03:57:54</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0.8160311579704285</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>중간권 대류가 활발한가요?</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>성층권, 중간권, 열권에는 대류권만큼의 수증기가 없는 이유가 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>반가워요^^대류권만 수증기가 있습니다.성층권, 중간권, 열권에는 수증기가 없습니다.그 이유는 수증기는 바닷물이나 강물, 호수의 물 등에서 증발하면서 생기는데요'이것을 지표면쪽에 가까운 대류권까지만 포함되고그 이상의 높이까지는 분포하지 않기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2020-07-14 04:18:16</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2020-07-14 04:18:52</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2020-07-14 04:18:56</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2020-07-14 04:18:57</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2020-07-14 04:18:59</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2020-07-14 04:56:24</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0.9091253876686096</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>일정성분비의 법칙</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙이 무엇인가요</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>반가워요^^일정 성분비의 법칙은 화학 반응이 일어날때반응하는 물질은 항상 일정한 질량비를 이루면서 결합한다는 뜻입니다.즉, 아무리 양이 많아도 자신이 반응하는 질량 만큼만 서로 반응한다는 법칙입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2020-07-14 04:57:25</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0.2671089470386505</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>이차방정식</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>온도와 압력이 일정할때기체사이의 반응에서 각 기체의 부피비는 화학식에서의 개수비 분자수비 랑 같다고 하셨는데요왜 부피비가 개수비랑 같나요?혹시 아보가드로의 법칙이랑 관련이 있나요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>반가워요^^'네, 맞습니다.'기체사이의 반응에서는각 기체는 분자의 종류가 무엇이든지 상관없이즉, 다른 말로는 기체의 종류가 무엇이든지 상관없이같은 부피 속에는 같는 분자수가 들어가니까요(아보가드로의 법칙에 나오는 내용입니다.)기체의 반응에서 부피비는 결국, 분자수비와 같게 되고이 분자수비는화학 반응식에서의 계수비과 같답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2020-07-14 05:05:39</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0.674342155456543</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>나트륨 화학반응식</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>화학반응식을 어떻게 해야하는지 감이 안옵니다</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>맞아요, 많이 어렵지요?일단. 강의를 한번 더 시청하시기를 권해 드리고 싶습니다.또한, 화학 반응식의 기초가 되는화학식을 먼저 익혀 두셔야 합니다.2강을 수강하시면 어느 정도 이해가 되실꺼예요힘내세요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2020-07-14 05:44:15</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>ㅎㅇ</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2020-07-14 05:44:34</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0.5106344819068909</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>아녕하세요</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>선생님!조금 헷갈리는 것이 있어서 질문합니다.이 문제에서 운동에너지가 한 일의 양과 같아서 W=F×s여서 Ea=Eb 인 것은 알겠는데요운동에너지가 1/2 × m × V^2이니까 이 식에 각각 대입해보면Ea=1/2 × 1 × Va^2Eb=1/2 × 2 × Vb^2 인데힘이 같으니까 속력도 같다고 볼 수 있는 것 아닌가요?아니면 Va^2 :Vb^2 = 2:1인 것인가요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~좋은 질문입니다.우선, 같은 힘을 주어 같은 이동거리를 움직인 것은같은 일을 해준 것이구요이때, 같은 일을 해준 것은모두 그 물체의 운동에너지로 저장됩니다.그런데, A와 B의 질량이 다르므로같은 일을 해주어서 운동에너지는 같아도 A와 B의 질량이 다르면 속력이 달라질 수 밖에 없는 것이랍니다. 즉, A의 질량은 1kg 이고, B의 질량은 2kg이니까요운동에너지 구하는 공식 EA=1/2 x 1 x VA2 EB=1/2 x 2 x VB2   입니다.두 식이 같아야 하므로  1/2 x 1 x VA2   =1/2 x 2 x VB2   따라서  VA2   = 2 x VB2     입니다.결국,  VA2  : VB2   =  2: 1  이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2020-07-14 05:44:52</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>누구세요?</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2020-07-14 05:45:11</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0.8943838477134705</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>선생님 대류권이 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>대류가 뭐예요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>대류는 입자가 직접 이동하여 열을 전달하는 방법이에요. 예를 들어 에어컨을 틀면 찬 바람이 아래로 직접 이동하고, 히터를 틀면 뜨거운 바람이 위로 직접 이동해요. 이런 식으로 밀도가 큰 찬 공기가 아래로, 밀도가 작은 뜨거운 공기가 아래로 이동하면서 열을 전달하는 방법이 대류예요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2020-07-14 05:45:22</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>알겠스비다</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2020-07-14 05:45:48</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.5454527139663696</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>화학 변화와 물질변화가 다른 점이무엇인가요?</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>선생님 화학변화의 변하지 않는 것은 정학히 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>반가워요^^화학변화 어려우시죠?일단. 화학변화와 물리변화를 비교해서 알아두셔야 하는데요확실한 차이는 성질이 변하느냐, 변하지 않느냐 랍니다.물리 변화는 그 물질은 그대로인데, 모양이나 상태만 바뀌는 것이구요,화학 변화는 물질 자체가 다른 물질로 변해버린답니다. 이때, 모양이나 상태가 변하는 것은 당연하구요예를 들어, 유리잔이 깨지면 모양은 깨져서 달라졌지만. 유리의 성질이 그대로구요               얼음이 녹아서 물이 되면, 고체가 액체로 상태는 변했지만. 물의 성질(투명하고 무색, 냄새 없음)은 그대로이잖아요, 이것은 물리 변화입니다.반면,  나무를 태우면 재가 되는 것은 나무와 재는 완전히 다른 물질, 즉, 성질이 변했지만. 이때는 화학 변화인 것이랍니다.화이팅^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2020-07-14 06:44:00</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>ㅎㅇ</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2020-07-14 06:44:10</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0.2661149203777313</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>뭐랭</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>선생님  안녕하세요. 강의 잘 듣고 있습니다. 근데 강의를 좀 더 빨리 올려주세요. 방학동안 예습하려고 교재사서 강의를 같이 듣고있는데 아직도 5강까지 밖에 안올라왔네요. 강의 빨리 올려주셨으면 좋겠습니다. 부탁드려요. ^^</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>반가워요^^기다리게 해서 미안합니다.부지런히 제작해서 원활한 업데이트가 될 수 있도록 하겠습니다.고맙습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2020-07-14 07:01:21</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0.8498409390449524</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>상대습도</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>선생님! 우리가 흔히 아는 습도랑 상대습도는 다른건가요??다르다면 어떤점이 다른건가요??ㅜㅜㅠㅜㅠㅜㅠㅠㅠ﻿</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>반가워요^^우리가 생활속에서 사용하는 습도가 바로 상대습도입니다.같은 개념이예요</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2020-07-14 07:01:37</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0.8583039045333862</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>포화수증기량</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>기온이 올라가면 포화 수증기량이 증가한다 하셨는데 왜 그렇죠?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.이 부분 어려우시죠?정확하게 설명드리자면온도가 높아질 수록 포화 수증기량이 증가하는  이유는 온도가 높아지면서 같은 공기의 질량이 차지하는 부피는 더 커지고공기 사이사이에 공간이 더 커지므로수증기가 들어갈 수 있는 공간이 넓어 지므로최대한 포함할 수 있는 수증기의 량인 포화수증기량이 온도가 높으면 더 증가하게 되는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2020-07-14 07:01:54</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0.8394783735275269</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>질량보존의법칙</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>선생님! 질량보존 법칙에서 물리변화도 질량이 보존되는데 그건 질량보존법칙이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그것도 질량 보존법칙이 성립된다고는 표현합니다. 원래 물리 변화는 물질 자체의 변화가 아니라서질량이 당연히 보존되기때문에  화학반응이 일어날때도 질량이 보존된다는 의미에서질량 보존 법칙을 정의할때화학 반응이  , 반응물의 전체 질량은 반응 후에도 보존된다고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2020-07-14 07:02:04</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.911089301109314</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙이 무엇인가요</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>반가워요^^일정 성분비의 법칙은 화학 반응이 일어날때반응하는 물질은 항상 일정한 질량비를 이루면서 결합한다는 뜻입니다.즉, 아무리 양이 많아도 자신이 반응하는 질량 만큼만 서로 반응한다는 법칙입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2020-07-14 07:02:17</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0.8870366811752319</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>화학변화</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>화학변화를 이해 못하겠어여</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>반가워요^^물리변화와 화학 변화를 비교하면서 알아두면 좋답니다.이 부분 헷갈리실텐데요일단. 물질이 변하면서 성질이 다른 새로운 물질이 생성되면화학 변화입니다.질문한 내용을 보니 새로운 기체가 생성되었다는 것이므로즉, 성질이 다른 새로운 기체가 생성되었다는 말이므로화학 변화입니다.일반적으로 물질이 반응하면서 기체가 생성되는 반응은 보통 화학 변화입니다.하지만. 물이 끓어서 기체 수증기가 되는즉, 액체가 기체로 상태변화하면서 기체가 되는 경우는 물리 변화지만과산화수소수가 분해되어 물과 산소라는 기체가 생성되는 경우는 화학 변화랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2020-07-14 11:25:26</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0.6536862850189209</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>경모쌤의 나이</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>쌤 내일 저 뭐 먹을지 골라주세요!1.햄버거2.족발3.치킨4.짬뽕5.짜장면6.분식7.피자 뭐 먹을지 너무 고민되요;</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>앗, 저녁 시간이 지나버렸네요^^무엇으로 먹었나요? 쌤은 짬뽕이 먹고 픈데요 ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2020-07-14 11:26:24</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0.7822196483612061</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙과 질량 보존 법칙의 차이점</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙이 무엇인가요</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>반가워요^^일정 성분비의 법칙은 화학 반응이 일어날때반응하는 물질은 항상 일정한 질량비를 이루면서 결합한다는 뜻입니다.즉, 아무리 양이 많아도 자신이 반응하는 질량 만큼만 서로 반응한다는 법칙입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2020-07-14 11:26:48</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0.5656086802482605</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>경모쌤의 키</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>키가 작은 사람과 큰 사람이 있으면 키가 큰 사람이 세포수가 더 많다는 것이죠?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>반가워요^^네 아무래도 몸집이 큰 사람이 세포수가 더 많답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2020-07-14 12:24:45</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0.8509985208511353</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>입자수의 비랑 분자수의비랑 같아?</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>﻿선생님!! 화학 반응식에서 알수 있는 것에서 계수비랑 입자수의비랑 분자수의비랑 부피비랑은 다 같은 말인가요? 4개의 비는 모두 같나요??</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>반가워요^^ 똑똑한 우리 친구~정말 좋은 질문입니다.화학반응식에서 반응물과 생성물이 모두 기체인 경우에는계수비랑 입자수의비랑 분자수의비랑 부피비가 모두 같다고 보면 됩니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2020-07-14 12:27:11</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0.6799890995025635</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>고기가 익는게 왜 화학변화야?</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>꽃 향기도 물질이라고 할 수 있는건가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>반가워요^^꽃향기도 꽃에서 만들어진 향기를 내는 물질이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2020-07-14 12:27:26</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>0.6327618360519409</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>고기가 익는게 왜 화학변화야?</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>꽃 향기도 물질이라고 할 수 있는건가요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>반가워요^^꽃향기도 꽃에서 만들어진 향기를 내는 물질이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2020-07-14 12:28:18</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0.7824848890304565</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>일정성분비법칙이랑 질량보존법칙 차이점</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙이 무엇인가요</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>반가워요^^일정 성분비의 법칙은 화학 반응이 일어날때반응하는 물질은 항상 일정한 질량비를 이루면서 결합한다는 뜻입니다.즉, 아무리 양이 많아도 자신이 반응하는 질량 만큼만 서로 반응한다는 법칙입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2020-07-14 12:28:39</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0.8369784951210022</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>질량보존법칙</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>선생님! 질량보존 법칙에서 물리변화도 질량이 보존되는데 그건 질량보존법칙이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그것도 질량 보존법칙이 성립된다고는 표현합니다. 원래 물리 변화는 물질 자체의 변화가 아니라서질량이 당연히 보존되기때문에  화학반응이 일어날때도 질량이 보존된다는 의미에서질량 보존 법칙을 정의할때화학 반응이  , 반응물의 전체 질량은 반응 후에도 보존된다고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2020-07-14 12:28:58</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0.8361615538597107</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>질량보존법칙이 뭐야?</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>선생님! 질량보존 법칙에서 물리변화도 질량이 보존되는데 그건 질량보존법칙이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그것도 질량 보존법칙이 성립된다고는 표현합니다. 원래 물리 변화는 물질 자체의 변화가 아니라서질량이 당연히 보존되기때문에  화학반응이 일어날때도 질량이 보존된다는 의미에서질량 보존 법칙을 정의할때화학 반응이  , 반응물의 전체 질량은 반응 후에도 보존된다고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2020-07-14 12:29:39</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0.7372255921363831</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>과학공부하는법</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>요즘 강의 너무 잘듣고 있어요 감사합니다ㅠㅠ 그런데 혹시 3-1까지만 공부하려면 몇강까지 들으면 될까용??</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>반가워요^^학교마다 진도는 다르지만.1단원부터 시작한다고 할때 대부분의 학교은 3단원이나 4단원까지가 3-1진도일 것 같아요3단원까지라면 21강 까지이구요4단원까지라면 29강 까지가3-1이라고 보시면 됩니다.*^^*</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2020-07-14 12:29:58</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0.220183864235878</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>뭐해요</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>선생님 토리첼리의 실험에서 유리관에 수은을 꽉 채운 다음에수조에 엎어서 실험을 했다고 하셨잖아요~근데 어떻게 진공상태가 되요?수은이 빠져나가는 순간에 공기가 유리관에 들어간 거 아니에요?공기는 활발해서 속도도 빠르잖아요 그래서 공기가 들어간거 아닐까요?</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.수은으로 꽉채워진 유리관을 거꾸로 했고수은만 아래로 내려가면서빈 공간을 아무것도 없답니다.즉, 공기가 들어갈 구멍이 전혀 없었기 때문에진공이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2020-07-14 12:34:59</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0.7448407411575317</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>화학반응이 일어날때 질량보존법칙이 성립하는 이유</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>선생님 그러면 모든 물질이 질량 보존 법칙이 성립되는 건가요?</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>네(^^) 바로 그렇습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2020-07-14 13:30:37</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0.7145830392837524</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>기체반응법칙이뭐야</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>선생님~~기체 반응 법칙이랑 기체 반응 법칙의 적용의 다른 점이 무엇인가요??기체 반응법칙이랑 기체 반응법칙의 적용이 헷갈리네요ㅠㅠ혹시 같은건가요??</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 똑 같은 것입니다.기체 반응 법칙의 개념을 설명하고이것이 어떻게 적용되는 지를 알아본 것이랍니다.결국은 기체 반응 법칙이 기체들끼리의 반응에서는 적용된다는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2020-07-14 13:31:30</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.8982669711112976</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>화학반응식</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>화학반응식을 어떻게 해야하는지 감이 안옵니다</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>맞아요, 많이 어렵지요?일단. 강의를 한번 더 시청하시기를 권해 드리고 싶습니다.또한, 화학 반응식의 기초가 되는화학식을 먼저 익혀 두셔야 합니다.2강을 수강하시면 어느 정도 이해가 되실꺼예요힘내세요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2020-07-14 13:32:05</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.5414045453071594</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>기체반응법칙의 정의</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>선생님 13번 문제 5번보기에서요 왜 수소 15ml 가 모두 반응하면 암모니아 10ml가 생성되는건가요 ?암모니아가 생성되려면 질소와 수소가 합쳐져서 생성되어서질소 5ml 수소 15ml 합쳐져서 20ml 생성되는 것 아닌가요 ? ㅠㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>반가워요^^44쪽 13번의 선택지 5번이군요여기서 꼭 알아두어야 할것은요질량은 1+1하면 2가 됩니다.하지만. 부피의 경우는 1+1을 하더라도, 1이 될 수도 있고, 오히려 3이 될 수도 있답니다.따라서 질소 5와 수15가 결합했지만.이것은 부피 이기 때문에 더해서 20이 되는 것이 아니구요문제의 그림에서 나온 것 처럼질소:수소:암모니아의 부피비는1:3:2이므로질소 5와 수소 15가 결합하면 암모니아는 10이 생성되는 것이랍니다.잘 구분해두셔야 합니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2020-07-14 14:02:23</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.7240989208221436</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>기체반응 법칙이 성립하는 까닭</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>기체반응법칙에서 질량보존법칙과 일정성분비법칙이 모두 성립되나요??</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>네^^ 모두 성립합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2020-07-14 14:02:40</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.7068682909011841</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>기체 반응 법칙이 성립하는 이유</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>아보가드로 법칙이 왜 성립되는지에 대해서 자세히 가르쳐주세요.</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.아보가드로의 법칙은 자연 현상에서 얻은 결론을 법칙으로 정리한 것입니다.즉, 같은 온도와 같은 압력에 있는 기체를같은 부피 속에 들어 있는 그 기체 분자의 수를 세어보았더니기체의 종류에 상관없이, 즉, 수소든 산소든 질소든 염화 수소든 모두 같은 분자수가 들어있는 것을 관찰한 것이랍니다.그리고, 항상 그렇다는 것도 실험과 관찰을 통해서 알게 되어그 것을 법칙으로 아보가드로가 정리한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2020-07-14 14:02:53</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0.6742540597915649</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>기체반응법칙</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>왜 연소반응이 일어나나요?</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>반가워요^^물질이 산소와 반응하기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2020-07-14 14:03:03</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.7013895511627197</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>기체반응법칙이 왜</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>선생님~~기체 반응 법칙이랑 기체 반응 법칙의 적용의 다른 점이 무엇인가요??기체 반응법칙이랑 기체 반응법칙의 적용이 헷갈리네요ㅠㅠ혹시 같은건가요??</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 똑 같은 것입니다.기체 반응 법칙의 개념을 설명하고이것이 어떻게 적용되는 지를 알아본 것이랍니다.결국은 기체 반응 법칙이 기체들끼리의 반응에서는 적용된다는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2020-07-14 14:03:57</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0.9152545928955078</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙 질량비</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>선생님, 그러면 질량비라는것은 일정 성분비 법칙이라는것과같은거에요??</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>반가워요^^차근차근 설명드릴께요일정성분비의 법칙이라는 것은화합물을 형성할때화합물을 구성하는 물질, 즉 성분 원소들이 일정한 질량비로 결합한다는 법칙입니다.따라서 화합물을 만들기 위해서 넣어준 물질이 모두 다 반응하는 것이아니라정해진 질량 만큼만 서로 반응한다는 뜻입니다.따라서 화합물을 이루는 성분 원소가 일정한 질량비로 결합한다는 사실 자체가 일정 성분비 법칙이라고 이해해두시면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2020-07-14 14:04:42</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.8193439245223999</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>질량보존 법칙이랑 일정성분비 법칙</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙이 무엇인가요</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>반가워요^^일정 성분비의 법칙은 화학 반응이 일어날때반응하는 물질은 항상 일정한 질량비를 이루면서 결합한다는 뜻입니다.즉, 아무리 양이 많아도 자신이 반응하는 질량 만큼만 서로 반응한다는 법칙입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2020-07-14 14:05:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.7965550422668457</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>질량 보존과 일정성분비 헷갈려요</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙이 무엇인가요</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>반가워요^^일정 성분비의 법칙은 화학 반응이 일어날때반응하는 물질은 항상 일정한 질량비를 이루면서 결합한다는 뜻입니다.즉, 아무리 양이 많아도 자신이 반응하는 질량 만큼만 서로 반응한다는 법칙입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2020-07-14 14:05:11</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.8419153690338135</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>질량 보존 법칙</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>선생님! 질량보존 법칙에서 물리변화도 질량이 보존되는데 그건 질량보존법칙이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그것도 질량 보존법칙이 성립된다고는 표현합니다. 원래 물리 변화는 물질 자체의 변화가 아니라서질량이 당연히 보존되기때문에  화학반응이 일어날때도 질량이 보존된다는 의미에서질량 보존 법칙을 정의할때화학 반응이  , 반응물의 전체 질량은 반응 후에도 보존된다고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2020-07-14 15:11:58</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.6963279247283936</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>얼음물이 든컵의 표면에 물방울이 맺히는것은 무슨 변화인가요</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>선생님~! 그러면 냉장고에 있던 음료수를 밖으로 꺼내놓았을때 컵표면에 물방울이 맺히는 까닭이 주위에 있는 공기의 온도가 낮아지면서 응결되어 표면에물방울이 생기는 건가요 ??</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>반가워요^^네, 우리 친구의 말처럼차가운 컵 주변의 온도가 내려가면서 수증기가 응결하여 컵에 맺힌 것인데요조금더 과학적으로 알아본다면차가운 컵 주변의 온도가 내려가면서온도가 이슬점까지 낮아지게 되고컵 주변의 포화 수증기량이 낮아지고현재 수증기량으로 포화 상태가 되면서 물방울이 맺히는것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2020-07-14 15:12:55</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0.6458192467689514</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>응결은 화학변화인가요</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>﻿구름이 생기는것은 물리변화인가요 아니면 화학변화인가요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>반가워요^^구름이 생기는 것은수증기가 응결하면서 물방울이나 빙정이 생겨나는 것이니까요이것은 물질의 상태 변화랍니다.따라서 물리 변화라고 할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2020-07-14 18:01:50</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.2005055248737335</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>만년설이 뭐에요?</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>질량보존법칙을 "화학반응이 일어날때_...." 라고 정의 하는데 이때 그러면 물리변화는 포함되지 않는건가요? 물리변화는 질량보존법칙에 성립하지않는건가요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>반가워요^^질량 보존 법칙은 물리 변화, 화학 변화 둘다에 적용됩니다.다만, 질량 보존 법칙을 정의할때화학 반응이 일어날 때도 적용된다는 의미에서화학 반응이라고 강조한 것이랍니다.*^^*</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2020-07-14 18:02:12</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0.2005055248737335</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>만년설</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>질량보존법칙을 "화학반응이 일어날때_...." 라고 정의 하는데 이때 그러면 물리변화는 포함되지 않는건가요? 물리변화는 질량보존법칙에 성립하지않는건가요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>반가워요^^질량 보존 법칙은 물리 변화, 화학 변화 둘다에 적용됩니다.다만, 질량 보존 법칙을 정의할때화학 반응이 일어날 때도 적용된다는 의미에서화학 반응이라고 강조한 것이랍니다.*^^*</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2020-07-14 18:02:27</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.7549121975898743</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>온실효과</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>선생님, 그러면 대기와 구름에 흡수되는 20%와 온실 효과가함께 지구를 더 덥게 만드는 건가요?</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>반가워요^^그렇지는 않습니다처음에 흡수한 대기와 구름의 20%가 아니구요나중에지구에서 방출되는 70만큼의 복사에너지를대기의 온실기체가 흡수하면서 다시 지표면쪽으로 방출하여지구의 온도를 더 높이면서 온실 효과를 일으키는 것입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2020-07-14 18:03:33</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>0.6903000473976135</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>사랑해요</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요      (+옆에 ()이게 있어요)  이 문제를 어떻게 풀어야 해요?? 이해가 안가요</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>반가워요^^화학 반응식을 완성하는 문제네요~일단. 이 화학 반응은탄산 나트륨과 염화 칼슘이 반응하여 염화 나트륨과 탄산 칼슘이 만들어지는 화학 반응입니다2강에서 알려드린 것 처럼 1,2,3단계로 화학 반응식을 꾸미셔야 합니다.1단계) 반응물과 생성물을 쓰면 탄산 나트륨 + 염화 칼슘 → 염화 나트륨 + 탄산 칼슘2단계) 화학식으로 바꾸기 Na2CO3 + CaCl2 → NaCl + CaCO3 3단계) 반응 전과 후의 원자의 종류와 수 같게 맞추기, 단, 계수로 맞추기 원자의 종류대로 하나씩 맞추어 보면왼쪽에 Na 2개 , 오른쪽에는 1개 이므로 오른쪽을 2개로 하기 위하여 NaCl 앞의 계수의 숫자를 2NaCl로 바꿉니다.왼쪽의 C 1개, 오른쪽은 1개 같구요왼쪽의 O 3개, 오른쪽의 O 3개 같네요왼쪽의 Ca 1개, 오른쪽도 1개 같구요'왼쪽의 Cl은 2개, 오른쪽은  2NaCl이니까 Cl이 2개이므로 같습니다.결국,  NaCl 앞의 계수의 숫자를 2NaCl로 하면 전체 화학 반응식에서 왼쪽 오른쪽의 원자의 종류와 수가 똑같습니다.따라서 완성된 화학 반응식은 Na2CO3 + CaCl2 → 2NaCl + CaCO3  입니다.정답은 (  ) 안에 2NaCl 가 들어가면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2020-07-14 18:04:22</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>0.2382746636867523</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>뽀뽀 쪽</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>선생님 16번에 3번 설명하실때 A원자 1개라고 하셨는데 A원자 2개 아닌가요??</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>반가워요^^ 16쪽 16번 문제지요? 이 문제가 많이 어려울꺼예요. 문제 전체를 차근 차근 풀이해 드릴께요일단, 화학 반응식부터 이해하셔야 해요A2 + 3B2 →  2AB3에서 반응 물질은 A2 와  B2 이구요, 생성 물질은 AB3 랍니다. 이때, A2는 분자 1개가   B2 분자 3개와 결합하게 되면서 새로운 분자 AB3를 2개 만들어 내었다는 반응식이지요.이것을 잘 기억하시면서 선택지를 하나씩 살펴 보겠습니다. ① 반응물은 A와 B이고, 생성물은 AB이다.  ​☞ 옳지 않습니다 .반응물 A2 와  B2 이구요, 생성물은 AB3 랍니다,  ② 반응이 일어날 때 분자의 전체 개수는 줄어든다.  ☞ 옳은 내용입니다.  반응이 일어나기 전에는 A2는 분자 1개와  B2 분자 3개, 즉, 전체 분자의 수는 4개 였는데요,     반응 후에는 분자 AB3를 2개만 만들기 때문에  전체 분자의 수는 2개 입니다. 즉, 반응전에는 전체 4개였던 분자후가 반응 후에 2개로 줄었들었습니다.  ③ 생성물은 A 원자 2개와 B 원자 3개로 이루어져있다. ☞ 옳지 않습니다. 생성물은 분자 AB3이므로, 분자 AB3는 A원자 1개와 B원자 3개가 결합해서 만들어진 분자 이기 때문입니다. ④ A2 분자 1개를 반응시키기 위해서 B2분자가 최소 6개가 필요하다. ☞ 옳지 않습니다. A2는 분자 1개가   B2 분자 3개와 결합하게 되므로  A2는 분자 1개가   B2 분자가 최소 3개가 필요합니다. 6개가 아닙니다. ⑤ 반응이 일어날 때 원자의 종류는 달라지지 않지만, 원자의 개수는 달라진다.☞ 옳지 않습니다. 반응이 일어날 때, 분자의 종류가 달라지는 것이구요, 원자의 종류나 개수는 똑 같습니다. 따라서 정답은 2번입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2020-07-14 18:06:25</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0.7319219708442688</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>성층권은 대류가 안일어나여??</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>대류가 뭐예요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>대류는 입자가 직접 이동하여 열을 전달하는 방법이에요. 예를 들어 에어컨을 틀면 찬 바람이 아래로 직접 이동하고, 히터를 틀면 뜨거운 바람이 위로 직접 이동해요. 이런 식으로 밀도가 큰 찬 공기가 아래로, 밀도가 작은 뜨거운 공기가 아래로 이동하면서 열을 전달하는 방법이 대류예요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2020-07-14 18:06:38</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>0.7001906633377075</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>대류가 일어나는 곳</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>대류가 뭐예요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>대류는 입자가 직접 이동하여 열을 전달하는 방법이에요. 예를 들어 에어컨을 틀면 찬 바람이 아래로 직접 이동하고, 히터를 틀면 뜨거운 바람이 위로 직접 이동해요. 이런 식으로 밀도가 큰 찬 공기가 아래로, 밀도가 작은 뜨거운 공기가 아래로 이동하면서 열을 전달하는 방법이 대류예요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2020-07-14 22:46:11</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.6537271738052368</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>쌤</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>쌤 내일 저 뭐 먹을지 골라주세요!1.햄버거2.족발3.치킨4.짬뽕5.짜장면6.분식7.피자 뭐 먹을지 너무 고민되요;</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>앗, 저녁 시간이 지나버렸네요^^무엇으로 먹었나요? 쌤은 짬뽕이 먹고 픈데요 ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2020-07-14 22:46:24</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0.2351728975772858</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>저녁</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>왜 마그네슘을 연소시키면 그렁게 상태변화가 일어나나요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>반가워요^^마그네슘이나 철 , 구리와 같은 금속은 연소 반응할때, 산소와 결합하는 특성이 있기 때문이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2020-07-14 22:46:38</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>연소</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2020-07-14 22:47:11</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.6537271738052368</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>쌤</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>쌤 내일 저 뭐 먹을지 골라주세요!1.햄버거2.족발3.치킨4.짬뽕5.짜장면6.분식7.피자 뭐 먹을지 너무 고민되요;</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>앗, 저녁 시간이 지나버렸네요^^무엇으로 먹었나요? 쌤은 짬뽕이 먹고 픈데요 ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2020-07-14 22:47:15</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0.2378337830305099</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>내일</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>위치 에너지와 운동 에너지의 차이가 무엇인지 헷갈려요 ㅠㅠ 기준면보다 높이 있는 물체가 위치 에너지를 가지고 있다가떨어지면서 그 위치 에너지가 운동 에너지로 바뀌는 것 맞나요 ?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>반가워요^^위치에너지는 높은 곳에 있는 물체가 기준면에 대해서 가지는 에너지이구요운동에너지는 움직이는 물체는 무조건 가지는 에너지입니다.그런데, 학생의 말처럼높은 곳에 있는 물체가 떨어지게 되면 움직이게 되면서위치에너지가 감소한 만큼'점점 운동에너지는 증가하게 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2020-07-14 23:39:16</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0.5954574942588806</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>시험서술형</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>여기에 물어봐도 되는진 모르겠지만 잘 모르겠어서 물어봅니다. 고등학교 과학 ebs로 하려 하는데 개념완성 통합과학 사면 되는건가요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2020-07-14 23:39:18</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2020-07-14 23:39:33</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.6079513430595398</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>시험</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>선생님 질량비 외워야 하나요? 시험에서 어떤 물질의 질량비를 묻나요??</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>반가워요^^시험에서 질량비를 묻는 문제가 나올때는원자의 상대적인 질량이 조건으로 나오는 경우가 대부분이랍니다.하지만. 학교 선생님의 재량에 따라서 학교 시험이 많이 결정되니까요'학교 선생님께서 수업하시면 질량비를 외우게끔 하셨다면 기본적인 내용을 암기해두시는 것이 좋은 것 같습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2020-07-15 00:20:39</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.9140089750289917</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>분자와 입자의 차이</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>선생님 분자와 입자의 차이는 뭔가요??</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>반가워요^^입자는 알갱이를 뜻하구요문제나 내용이 따라서입자가 분자를 뜻하기도 하고원자를 뜻하기도 한답니다.그리고, 원자. 분자도 헷갈리지요원자는 가장 기본되는 알갱이이구요.원자가 2개이상 모이면 분자가 됩니다.원자의 종류가 산소. 수소 이렇게 있어도산소원자 1개랑 수소원자 2개가 만나면 물분자가 되고산소원자 2개랑 수소원자2개가 만나서 결합하면 과산화수소분자가 됩니다.즉. 원자의 종루는 같아도 결합한 원자의 개수가 다르면분자의 종류가 달라진답니다.(^^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2020-07-15 00:46:57</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>놀고싶어</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2020-07-15 00:47:15</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.2924237251281738</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>shampoo</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>안녕하세요 다른 문제집을 보다가 높이 h에서 물체가 가지는 중력에 의한 위치에너지물체를 기준면에서 높이 h까지 들어 올리는데 한 일의 양높이 h에 있던 물체가 기준면까지 낙하하면서 할 수 있는 일의 양이게 다 같다라는 것이 무슨말인가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>사실, 물체를 높은 곳까지 들어올리는 일을 하면 그것이 위치에너지로 쌓이구요반면에 높은 곳의 물체가 아래로 떨어지면중력이 일을하면서 중력이 한 일은 아래로 떨어지고 나면운동에너지가 된답니다.'결국은 위치에너지가 운동에너지로 전환되었다고 보셔도 된답니다이 내용을 역학적 에너지 전환과 보존이라고해서6단원에서 공부하게 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2020-07-15 00:47:30</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2020-07-15 00:51:30</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.6261312961578369</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>밀도가 낮아지면 왜 기압이 커지나요</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>대류랑 밀도랑.....둘이 무슨관계인지 설명해주세여..ㅜㅜ(왜ㅠ밀도가 작어지는지)</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>반가워요^^일단. 같은 공기인데요아래쪽 공기가 따뜻해지면, 온도가 높아지면서 기체 입자 사이의 거리가 멀어지고이렇게 되면 같은 질량에 대해서 부피가 커지면서 밀도가 작아진답니다그러면, 찬 공기 보다 따뜻한 공기의 밀도가 작아서 가벼우므로아래쪽에 있는 따뜻한 공기가 위로 올라가고, 위쪽의 차가운 무거운 공기가 아래로 내려오면서공기가 상하로 움직이는데요이러한 움직임을 대류하고 합니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E336"/>
+  <dimension ref="A1:E400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -8660,6 +8660,1539 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2020-07-15 01:15:34</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2020-07-15 01:15:59</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.6666417121887207</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>구름의 생성</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>온대 저기압, 저기압이 생성되는 쪽에서 왜 공기가 적어져서 저기압이 생성되는건가요??</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>반가워요^^저기압의 정의 자체간공기가 적은 곳을 뜻하는 것이랍니다.따라서 온대 저기압의 중심은 공기의 양이 주변보다 적기 때문에 저기압이 생성되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2020-07-15 01:16:12</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.627220094203949</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>빙정설</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>선생님, 빙정설이 -40도에서 0도 구간의 물방울에서 증발한 수증기가 얼음 알갱이에 달라붙어 얼음알갱이가 커져, 눈이나 비가 되는데 이때 0도 이하인데 물방울 얼어서 증발이 안되지 않을까요?? 궁금해요! 알려주세요</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>반가워요^^ 정말 좋은 질문입니다.사실, 빙정설은 고등학교 지구과학에서 자세히 배우게 되는데요우선, 물방울이 바로 얼지는 않는답니다.그 이유는 0도 이하에 있던 물방울은 사실, 얼어야 하는데 얼지 않는 과냉각 물방울이예요과냉각 물방울과 빙정이 함께 있는 환경에서는과냉각 물방울 주변에서 증발이 일어나서 수증기가 생기구요반면에 빙정 주변으로 가서 달라붙어 빙정이 더 커지게 된답니다.따라서 커진 빙정이 떨어져 눈이나 비가 되는 과정이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2020-07-15 01:51:44</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.5707222819328308</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>수행평가에서 봤던 화학식 부분은 기말고사에 나올지 안 나오나요?</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>선생님 , 신체에서 모든 돌출된부분을 유두라고 하는건가요??? 인터넷에 검색하면 *꼭지밖에 안나와서요!</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>꼭 그렇지는 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2020-07-15 01:51:47</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2020-07-15 01:51:50</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2020-07-15 02:11:17</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.7771860957145691</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>화학변화를 이해 못하겠어여</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>반가워요^^물리변화와 화학 변화를 비교하면서 알아두면 좋답니다.이 부분 헷갈리실텐데요일단. 물질이 변하면서 성질이 다른 새로운 물질이 생성되면화학 변화입니다.질문한 내용을 보니 새로운 기체가 생성되었다는 것이므로즉, 성질이 다른 새로운 기체가 생성되었다는 말이므로화학 변화입니다.일반적으로 물질이 반응하면서 기체가 생성되는 반응은 보통 화학 변화입니다.하지만. 물이 끓어서 기체 수증기가 되는즉, 액체가 기체로 상태변화하면서 기체가 되는 경우는 물리 변화지만과산화수소수가 분해되어 물과 산소라는 기체가 생성되는 경우는 화학 변화랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2020-07-15 02:11:51</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.3108884990215302</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>코스모스</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>3강 16:30초정도부터 CaCO3 HCl -&gt; CaCl2 H2O CO2 라는 화학 반응식이 있는데 CaCO3 2HCl -&gt; CaCl2 H2O CO2아닌가요?</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>반가워요^^3강의 15분 22초에 나오는 화학 반응식은학생의 말이 맞습니다. 반응 전후의 원자의 갯수가 덜 맞추어진 상태랍니다. 정확하게 맞추면  HCl이  2HCl이여야 합니다. 탄산 칼슘이 묽은 염산을 만나서이산화 탄소 기체가 발생하고 염화 칼슘과 물이 만들어지는 화학 반응을 식으로 나타낸 것 인데요이것을 화살표를 가운데에 두고 반응물과 생성물로 나누어 쓰면탄산 칼슘 + 염산 → 염화 칼슘 + 물 + 이산화 탄소입니다.이때, 화학식을 쓰고, 양쪽의 원자의 종류와 수를 맞추기 위해 화학식 앞의 계수를 맞추면CaCO3 + 2HCl  → CaCl2 + H2O  + CO2  입니다.판서에서 화학 반응식 꾸미기에서 2단계까지만 표현된것 같습니다.3단계까지 완성 될 수 있도록 수정하겠습니다.불편을 드려 미안합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2020-07-15 02:13:01</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.16458860039711</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>르까노푸로토꼬루고과르뤼에르</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>우리 몸에는 뉴런 종류가 3종류 밖에 없는 건가요??그리고 반대로 자극 전달 방향이 되면 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>반가워요^^네~ 뉴런은 세 종류입니다.자극을 반대 방향으로는 전달 자체가 되지 않는 답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2020-07-15 02:13:36</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>@@</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2020-07-15 02:14:03</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.1587368100881577</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>섹스</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요~!! 
+&lt;온도가 높아질수록 포화수증기량이 증가한다&gt;는것을 보여주는 실험에서 
+1. 뜨거운 물이 담긴 플라스크안은
+뜨거운 물이 수증기로 변하고 그 수증기가 벽면에 닿으면서 물이 맺히고 또 뿌옇잖아요,
+2. 그리구 그 플라스크를 헤어드라이기로 가열(?)하면 플라스크의 온도가 올라가서 포화수증기량이 증가하면서 물방울이 수증기로 변하면서 내부가 맑아진다고 했잖아요,
+-&gt; 이해가 안되는 점은 처음에 뜨거운 물이 담겨 있을 때에도 뜨거운 물이 수증기로 변하면서 뿌애진 것아니에요?? 헤어드라이기로 플라스크를 뜨겁게 해서 포화수증기량이 증가해서 플라스크 내부의 수증기량이 증가한다면 더 뿌애져야하는 것 아닌가요..?? 왜 맑아지는건지 이해가안돼용.. 그 집에서도 커피포트로 물 끓이면 수증기가 나오면서 뿌연연기가 나오잖아용..
+그리구 3. 그 플라스크를 찬물에 넣으면 포화수증기량이 감소해 수증기가 물방울로 변하니까 뿌연수증기가 물로되니까 오히려 맑아져야하는것 아닌가용..??
+제가 어느부분을 잘못이해하고 있는건가용~?? 
+감사합니당~^^**</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>반가워요^^뜨거운 물에서 증발한 수증기가 플라스크 내부의 표면에 닿아서 뿌옇게 되구요이때, 드라이어로 가열하면플라스크 내부의 온도가 올라가구요이때ㅡ 내부의 포화 수증기량이 증발하면서뿌옇던 물이 수증기가 되어 플라스크 내부로 들어가므로다시 맑아지는 것이랍니ㅏ</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2020-07-15 02:52:36</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2020-07-15 02:52:46</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>넌 누구니?\</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2020-07-15 02:52:55</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>누구냐고?</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2020-07-15 02:53:08</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.6041390895843506</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>수증기는 뭐야?</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>선생님 수증기가 응결할 떄 온도가 높을때 많이 수증기가 물방울로 많이 생기나요?  아니면 온도가 낮을때 수증기가 물방울로 많이 생기나요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>반가워요^^공기중의 수증기가 많을 때물방울이 많이 생긴답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2020-07-15 02:53:51</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.2268455028533936</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>안녕 나는 박피디라고 해</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>제가 과학이 특히 궁금한게 많아서..ㅠㅠ오늘도 질문 여러개 올리겠습니다 진짜 죄송해요..여러가지 화학식 반응 예 1번에 2H²+O²--&gt;2H²O인데요 화학식 오른 쪽 아래 ²이 쪼그만 숫자는 건들면 안되는거 아니었나요...? 강의 때 선생님께서 화학 반응식때 절다 건들면 안된다 하신게 있던거 같은데...다시 한 번 알려주시면 감사하겠습니다ㅠㅠ  +실전책 39쪽 4번 문제요10N 무게의 벽돌을 5N의 힘으로 움직일수 있나요..?10이 5보다 큰데..ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~ 멋져요!! 우선, 화학 반응식에서 각각의 화학식에 있는 오른쪽 작은 수치는 바꾸면 안됩니다.그 물질이 무엇인지를 알려주기 때문입니다. 염화 나트륨은 화학식이 NaCl 입니다. 즉, 화학식 NaCl 은 염화 나트륨이라는 물질을 뜻하므로절대로 변경 시키면 안되구요화학 반응식 꾸미기의 3단계에서 반응물과 생성물을 구성하는 원자의 종류와 수를 같게 할때는화학식 앞의 계수로 숫자를 맞추어야 합니다.따라서 NaCl앞에 2NaCl라고 써야 하구요Na2Cl2라고 쓰면 안됩니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:05:06</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0.9077825546264648</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>대류는 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>대류가 뭐예요?</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>대류는 입자가 직접 이동하여 열을 전달하는 방법이에요. 예를 들어 에어컨을 틀면 찬 바람이 아래로 직접 이동하고, 히터를 틀면 뜨거운 바람이 위로 직접 이동해요. 이런 식으로 밀도가 큰 찬 공기가 아래로, 밀도가 작은 뜨거운 공기가 아래로 이동하면서 열을 전달하는 방법이 대류예요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:05:27</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0.6777707934379578</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>대류권과 성층권의 차이는요/</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>성층권, 중간권, 열권에는 대류권만큼의 수증기가 없는 이유가 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>반가워요^^대류권만 수증기가 있습니다.성층권, 중간권, 열권에는 수증기가 없습니다.그 이유는 수증기는 바닷물이나 강물, 호수의 물 등에서 증발하면서 생기는데요'이것을 지표면쪽에 가까운 대류권까지만 포함되고그 이상의 높이까지는 분포하지 않기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:05:31</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:05:33</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>??????</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:05:36</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0.2400692105293274</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>시발</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>선생님 탄수화물은 1g당 4kcal인데 저장 될때는 9kcal로 저장된다고 했는데 이건 포도당이 글리코젠으로 변할때 인건가요?그리고 길항작용은 상반되는 2가지 요인의 상호작용에 의해 유지되는 현상이라고 하셨는데길항작용은 향상성이 아닌 다른게 2가지 요인으로 유지되는 현상도 길항작용이라 할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구좋은 질문입니다.포도당 자체는 탄수화물이라서 1g단 4kcal이지만.글리코젠이라는 지방으로 변하게 되면 1g당 9kcal랍니다네, 길항 작용의 경우는 같은 일을 하는데 반대되는 형태로 하는 경우는 모두 길항 작용이라고 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:05:48</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>????????????????????????????????????????????????????????????????????????????????????????????????????????</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:06:05</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.7417724132537842</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>안녕하세요, 30쪽에 4번 모르겠는데 강의 들을려면 어떻게 해야하나요?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>반가워요^^30쪽 4번 문제를 뜻하는 군요이것은 4강을 보시면 마지막 부분에서 풀이하고 있습니다.이곳에서도 차근차근 설명드릴께요문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:06:21</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.8493088483810425</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>선생님</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>선생님 27번을 어떻게풀어야할까요..?ㅠㅜ</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>반가워요^^이 문제 많이 어려우시죠?5초동안 B가 이동한 거리를 구하려면B의 속력이 필요한데요'이때, B는 등속운동이 아니라 속력이 일정하게 증가하는 운동을 하고 있으므로B의 평균 속력을 구해야 한답니다.평균속력은 그래프에서 구해야 하는데요B는 1초에 속력이 1m/s 늘어 나고 있습니다.따라서 5초가 되면 속력이 5m/s가 되어 있지요그러면 B와 같이 처음 속력이 0이였다가 일정하게 증가해서 5초일때, 5m/s의 속력이 되었다면평균 속력을 처음속력에 나중속력을 더한 값을 2로 나누면 됩니다.따라서 5초일때의 B의 평균 속력은 (0+5)/2=2.5m/s가 됩니다.그러면, B가 5초동안 이동한 거리=평균속력X5초이므로2.5X5=12.5m가 이동한 거리입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:06:26</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0.5106344819068909</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>아녕하세요</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>선생님!조금 헷갈리는 것이 있어서 질문합니다.이 문제에서 운동에너지가 한 일의 양과 같아서 W=F×s여서 Ea=Eb 인 것은 알겠는데요운동에너지가 1/2 × m × V^2이니까 이 식에 각각 대입해보면Ea=1/2 × 1 × Va^2Eb=1/2 × 2 × Vb^2 인데힘이 같으니까 속력도 같다고 볼 수 있는 것 아닌가요?아니면 Va^2 :Vb^2 = 2:1인 것인가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~좋은 질문입니다.우선, 같은 힘을 주어 같은 이동거리를 움직인 것은같은 일을 해준 것이구요이때, 같은 일을 해준 것은모두 그 물체의 운동에너지로 저장됩니다.그런데, A와 B의 질량이 다르므로같은 일을 해주어서 운동에너지는 같아도 A와 B의 질량이 다르면 속력이 달라질 수 밖에 없는 것이랍니다. 즉, A의 질량은 1kg 이고, B의 질량은 2kg이니까요운동에너지 구하는 공식 EA=1/2 x 1 x VA2 EB=1/2 x 2 x VB2   입니다.두 식이 같아야 하므로  1/2 x 1 x VA2   =1/2 x 2 x VB2   따라서  VA2   = 2 x VB2     입니다.결국,  VA2  : VB2   =  2: 1  이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:06:28</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0.2074923515319824</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>누구세여</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>안녕하세요~물질의 흡열 반응에서 물질이 주변의 열을 흡수하면주변의 온도가 내려가는데 열을 흡수한 물질은열을 흡수했기 때문에 온도가 올라가나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.'흡열 반응을 일으킨 그 물질 자체는 반응을 위해서 열에너지를 흡수한 것이므로그 물질 자체의 온도는 거의 변하지 않습니다열에너지를 받은 주위만 변한답니다.발열 반응도 마찬가지구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:11:37</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>0.7135090827941895</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>포화 수증기</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>선생님 그럼 안개가 생기는 이유가 수증기를 포화 수증기량까지 가져서 생기는 건가요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~ 좋은 질문입니다.안개가 생기는 이유는지표면의 기온이 낮아지면서포화 수증기량이 줄어들어서현재 수증기량 만으로도 포화상태가 되면서 현재 기온이 바로 이슬점이 되어 수증기가 물방울로 응결하는 것입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:11:48</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.1950745582580566</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요혹시 오존이라는 기체는저희 인간한테 어떤 영향을 미치는지 알 수 있을까요??</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>반가워요^^오존은 특유한 냄새를 띄며,  색깔은 물리적 상태에 따라 다른데, 상온에서 기체일때 약한 청색을 띱니다.오존은 독성이 있기 때문에 피해, 특히 호흡기 장애를 막기 위해서는 장시간 흡입하지 않도록 해야합니다.하지만. 오존은 강한 산화력을 가지고 있어서, 이러한 오존의 성질을 응용한 살균작용을 통해음료수 소독, 표백이나 유기화합물의 구조 결정 등에 사용됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2020-07-15 03:12:01</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0.6327347159385681</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>1강에서 물에 전기를 흘려보내면 물은 다시 수소와 산소로 새롭게 생겨난다고 하셨는데 2강에서는 산소와 수소에 전기를 흘려보내면 물이 생성된다고 하셔서 두개가 같은 의미인지 뭔지 잘 모르겠어요 ..</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.첫번째 물은 전기를 흐르게 하면, 물이 전기 에너지에 의해서 분해가 되면서수소와 산소로 분리가 된답니다.즉, 물이 분해되면서 수소와 산소라는 새로운 물질로 변합니다.그런데, 신기하게도그 반대의 경우에도수소와 산소만 모아 놓고, 전기 스파크를 일으켜 주면그 충격으로 수소와 산소가 다시 결합하면서 물이 형성되는 것이랍니다.ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2020-07-15 04:26:35</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>0.1981942653656006</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>전설의ㅜ비법</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>12번 알려주세요ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>반가워요^^강철솜의 연소에 관한 문제네요강철솜은 나무와 달리연소하면강철솜이 산소와 결합하여새로운 물질인 산화철이 형셩된답니다.즉, 질량을 측정하면 연소 이후에는 질량이 증가한 것으로 측정이 되지만이것은 공기중의 산소가 철에 결합하면서 증가한 것으로 측정될뿐반응전 물질인 강철솜과 산소를 더한 질량은새로 생성된 산화철의 질량이 되므로 질량 보존 법칙이 성립됩니다.따라서 옳지 않은 것은 2번입니다.나무의 연소는 기체가 생성되면서 질량이 오히려 줄어들기 때문에 강철솜의 연소와는 다른 질량 변화가 나타나기 때문입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2020-07-15 04:26:45</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0.5554734468460083</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>질량</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>선생님! 질량보존 법칙에서 물리변화도 질량이 보존되는데 그건 질량보존법칙이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그것도 질량 보존법칙이 성립된다고는 표현합니다. 원래 물리 변화는 물질 자체의 변화가 아니라서질량이 당연히 보존되기때문에  화학반응이 일어날때도 질량이 보존된다는 의미에서질량 보존 법칙을 정의할때화학 반응이  , 반응물의 전체 질량은 반응 후에도 보존된다고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2020-07-15 04:26:57</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>0.28384929895401</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>뉴턴</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>42쪽의 3번의 ㄹ에서기체 발생 반응에서의 전체 질량의 감소는 열린 용기에서의 현상으로 문제지에 용기가 열렸는지 닫혔는지를 표시해줘야생성물의 전체 질량이 감소했는지 아닌지 알 수 있지 않나요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>반가워요^^42쪽 3번의 ㄹ 내용이 헷갈릴 수 있는데요일단. ㄹ처럼기체 발생 반응에서는 생성물의 전체 질량은 항상 일정합니다.즉, 열린 용기든지 닫힌 용기든지 상관없이반응물의 질량은 바로 생성물의 질량이 됩니다.다만. 생성물이 기체 이므로 날아가버릴 수는 있지만.측정이 되지 않던 측정이 되던반응물의 질량은 생성물을 만들어내는데 사용되고, 질량이 일정한 것을 사실이니까요</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:26:16</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:26:35</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>0.1948299258947372</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>실화냐</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>선생님 뉴런책 97쪽 실전연습 문제 이게 왜 0.5초 동안 0.25를 이동한 것인가요 ㅠㅠ?? 0.205 m가 아닌 건가요 ㅠㅠ 그리고 왜 50cm 씩 일정하게 증가하는 그래프일까요,,, 개념은 이해를 했는데 이런 문제가 너무 어려워요 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>반가워요^^문제에 나온 그림을 보면자동차는 0.5초 동안 25cm를 이동했으므로 m단위로 바꾸면 0.25m입니다.그리고 그래프에서는 시간이 지나면서 이동한 거리의 누적을 표시해야 합니다즉,  0.5초 동안 25cm를 이동했으므로 0.5초가 더 지나서 1초가 되면 25cm가 더 더해지므로, 50cm이동한 것으로 누적되어 표시되는 것이랍니다.힘내세요 자꾸 반복해서 공부하다보며 잘 하게 될꺼예요'화이팅(^^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:26:49</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0.2594292461872101</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>지름</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>선생님 그러면 5번 문제와 비슷한열린 용기에서 황산 나트륨 수용액과 염화 바륨 수용액을 혼합한다면증가하나요 감소하나요 일정하나요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>반가워요^^황산 나트륨 수용액과  염화 바륨 수용액은 반응하여황산바륨이라는 앙금을 생성합니다.즉, 앙금 생성 반응이구요이때는 열린 용기던 닫힌 용기던 질량이 일정하답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:27:13</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.8949013948440552</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>질량비</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>선생님 질량비 적을때 1:8인데 8:1로 적어도 되나요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>반가워요^^질량비가 수소:산소이면 1:8로 쓰시면 되구요산소:수소이면 8:1로 쓰시면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:27:26</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0.563368558883667</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>일정농도</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>위에 분,초 와 상관 없습니다.선생님, 성층권에 높은 농도로 오존이 존재하지 않을 경우 온도가 계속 낮아지는데. 그럼 오존층은 성층권의 낮은 농도 일때 만들어 지나요?오존층은 왜(어떻게)만들어 지는 건가요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>반가워요^^성층권 하부쪽에 오존이 몰리게 되면서 오존층이 만들어진 것이랍니다.조금 더 과학적인 원리는 저도 찾아볼께요~~</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:27:34</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>느그</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:27:48</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:27:49</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:27:50</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:27:51</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:27:51</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:27:52</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:27:53</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:27:59</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>이나옴</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:28:07</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>야</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:28:40</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0.5836440324783325</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>여자친구</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>​왜 옛날에는 여자 과학자는 거의 없었나요??? 제가 아는 여자 과학자는 마리퀴리 밖에 없어서요...ㅠㅠ여자 과학자를 들어본적이 거의 없는 이유가 있나요??우리나라에도 장영실같이 과학자가 여자는 없었지 않나요??</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>반가워요^^과거에 우리 나라는 유교 사상 아래에서 사회가 움직이다 보니여성이 교육을 받을 기회가 많이 없었던 것으로 알고 있습니다.그러니, 과학자가 나오기도 힘들었을 듯요</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:28:52</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0.3057339191436768</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>엿까시바라</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 과학이 약해서 이번에 ebs 처음으로 듣고있답니다 다름이 아니라 이 문제 해설을 봤는데 탄산수소 나트륨이 분해되어 이산화탄소가 발생하면서 브피가 증가하는 화학변화라고 하는데 무슨말인지 모르겠습니다..그리고 상태변화는 물리변화라는데 이건 또 무슨말인지...</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>반가워요^^ ebs강의 처음 수강하는군요정말 잘 오셨어요, 쌤이 많이 많이 도와드릴께요~~ 탄산 수소 나트륨의 열 분해는 화학 변화인데요이를 구분하려면 화학 변화와 물리 변화의 차이를 알아야 합니다. 화학 변화가 일어난다는 것은원자가 재배열되면서 새로운 분자를 만들게 되어성질이 다른 물질이 만들어지는 변화입니다.원자의 재배열은원자들이 흩어졌다가 새로운 구성으로 배열되어 새로운 분자를 만든다는 뜻이예요따라서, 탄산수소 나트륨에 열을 가하게 되면탄산 수소 나트륨을 열분해되어 탄산 나트륨, 물, 이산화 탄소라는 새로운 물질이 생거나구요이때  발생한 이산화 탄소는 기체이므로 부피가 커지는 효과가 나타난답니다.즉, 탄산 수소 나트륨을 녹은 설탕에 넣게 되면서 녹은 설탕을 부풀리는 것이랍니다.즉  탄산 수소 나트륨을 구성하는 탄소, 수소, 산소, 나트륨 원자가 배열을 바꾸어서  재결합하여 새로운 성질을 가지는 탄산 나트륨, 물, 이산화 탄소로 변한 것이랍니다. 그리고, 뜨거운 설탕에 넣게 될때에 비로소 탄산 수소 나트륨이 분해될 수 있기 때문입니다.   열이 없으면 분해가 되지 않거든요^^따라서 뜨겁기 때문에 분해되고,이때, 생긴 이산화 탄소 기체가 설탕을 부풀리는 것입니다. 탄산 수소 나트륨은 단순하게 고체에서 액체로의 상태 변화가 일어난 물리변화는 아니구요, 탄산 수소 나트륨과는 다른 완전히 새로운 물질이 만들어지는 화학 변화가 일어났다고 표현하는 것이랍니다. 이젠 어느 정도 이해가 되지요?공부하다가 어려운 부분 있으면 언제든지 이곳에 질문 남겨 주세요최선을 다해서 도와드릴께요화이팅(^_______________________^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:29:07</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0.2262102067470551</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>푸푸ㅜ푸푸ㅜ푸푸푸푸푸푸푸푸푸ㅜㅍ</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>선생님..! 웃으시면서 강의하셔서 너무 좋아요!근데 선생님 시선이 계속 위를 보고 있는것 같다고 할까요..저랑 눈 좀 맞춰주세요ㅠㅠ 조금 불편한 점이 있어서 알려드려요~</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>반가워요^^네. 알겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:29:15</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>ㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡ</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:29:19</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>ㅌ</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:29:21</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:29:24</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:29:25</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:29:25</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:29:29</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:29:31</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:29:34</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:31:45</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0.6970836520195007</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>한랭 다습이 뭔가요?</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>선생님,기단은 북서쪽에는 시베리아 기단,(한랭 건조)남서쪽에는 양쯔강 기단,(온난 건조)남동쪽에는 북태평양 기단,(고온 다습)북동쪽에는 오호츠크해 기단(한랭 다습)이렇게 있는데요.혹시, 다른 기단이 있나요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>네^^ 있습니다.사실을 적도 지방에서 생겨서 우리나라 한 여름에 영향을 주는적도 기단도 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:39:27</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0.2025234550237656</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>니얼굴뚝배기쏼라쏼라</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>선생님 개념책 141쪽 서술형 2번에서 [자료2]에 빨간 선과 파란 선이 둘 다 시각 세포라고 써져있는데왜 하나는 세포 수가 많고 하나는 세포 수가 적고 이런 거죠? 각각이 뭘 의미하는지 잘 모르겠어요.</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>반가워요^^그래프에서 빨간색 선에 중점을 두시고 문제를 푸시면 좋아요빨간선이 높은 곳은 시각 세포가 많은 곳이구요빨간선이 낮은 곳은 시각세포가 적은 곳이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:39:37</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0.1693828403949738</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>느금마</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>﻿안녕하세요 쌤ㅠㅠ일과 에너지를 3번 돌려봤는데도 이해가 안가요ㅠㅠㅠ한 일이 0인 경우에서 상자를 들고 가만히 있으면 이동거리가 0이라그런건데 힘의 방향과 이동거리의 방향이 수직이여도 한 일이 0이면 상자를 들고 앞으로 가도 한 일이 0 인건가요?  그리고 상자를 들고 가만히 있으면 한 일이 0인데 위치에너지에서는 돌멩이를 들면 일을 한거라고 하셨는데 이부분이 가장 헷갈려서 전체적으로 혼동이 왔어요ㅠㅠㅠㅠ 저좀 도와주세요ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>반갑습니다^^맞아요, 이부분 많이  어렵지요?차근 차근 설명드릴께요.일단. 과학에서의 일의 정의를 먼저 정확히 확인해야 하는데요과학에서의 일은 우리가 하나의 약속으로 정한 것이다 보니, 어렵게 느껴질꺼예요우선, 과학에서의 일은 힘을 주고, 힘의 방향으로 이동거리가 발생했을 때힘 곱하기 이동거리로 구할 수 있어야 과학에서의 일이랍니다. 따라서, 힘의 방향과 이동 거리의 방향이 수직이면과학에서의 일의 정의에따른 공식에 대입해서 구할 수가 없어서과학에서의 일이 아니구요힘을 주었지만. 이동거리가 0이면 곱해도 0이므로  과학에서의 일이 아닙니다.'즉, 실제 생활속에서는 일을 했다고 할 수 있는 상황 이지만우리가 정한 약속,과학에서의 일의 정의에 적합하지 않아서 과학에서는 한 일이 0이라고 한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:39:58</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>0.7211724519729614</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>엄마없는쉑</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>선생님~~~~~~ 엄마와 아빠로부터 23개의 염색체가 합쳐지면서 우리의 염색체는 46개잖아요......... 그럼 엄마, 아빠로부터 내려온 염색체만 제가 갖고 있는 거에요 아니면 제 고유의 염색체도 엄마와 아빠의 염색체와 합쳐져있는 건가요?  그리고 엄마,아빠의 염색체가 동일하게 합쳐져서 염색체가 46개가 되는데 그럼 왜 어떤 사람은 엄마를 더 닮고 어떤 사람은 아빠를 더 닮는 건가요?동일한 염색체가 모이면 동일한 형태가 생겨야 하지 않나요?알려주세요~~~~~~~~</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>반가워요^^ 결론은~엄마아빠의 염색체만 가지고 있는 것입니다.^^엄마와 아빠의 염색체가 합져서서 우리 친구의 염색체가 완성되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2020-07-15 05:40:11</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>128743747815713466718732</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -10193,6 +10193,1954 @@
         </is>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:20:35</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:21:32</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>반가워</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:21:45</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0.2414561212062836</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>미안해</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요? 구름에 대해 궁금한 점이 있는데요.구름은 보통 흰색인데 먹구름은 거의 회색에 가까운 색이잖아요.왜 먹구름은 회색에 가까운 색을 띄나요? 성분과 관련이 있나요?</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.구름은 작은 물방울이나 빙정이 떠 있어서 뿌옇게 보이는데요이때 물장울이나 빙정의 크기가 작으면햇빛이 사이사이를 통과하면서 밝은 구름이 보입니다.하지만. 구름에 수증기가 많아지면서 물방울이나 빙정이 커지게 되면빛을 가리게 되면서 먹구름으로 보이는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:24:13</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0.7622756958007812</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>응결</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>응결점을 배우다 질문해요////응결은 수증기가 물로 변하는 거잖아요?근데 응결이 왜 일어나는지 궁금해요//</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>반가워요^^수증기는 기체라서 활발하게 움직이고, 공간을많이 차지한답니다.'그런데, 온도에 따라서 공기 속에 최대한 포함될 수 있는 수증기의 양에 제한이 있어요특히 온도가 내려갈수록 공간이 좁아지고수증기가 적게 포함될수 밖에 없답니다.이때, 온도가 높아서 수증기가 많았는데온도가 내려가게 되면수증기가 담겨 있기 어려우므로, 수증기 들끼리 뭉쳐서 응결하여 물방울이 되어 버리면공간을 줄일 수가 있답니다.따라서 응결하게 되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:27:17</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>0.6017720699310303</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>등속운동</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 ! 강의 너무 잘 듣고 있습니다.다름이 아니라 저희 학교 교과서에서 아이스하키의 퍽이 등속운동을 한다고 나왔는데요,등속운동은 힘의 합이 0일 때만 가능하다고 쓰여있었습니다.그런데 아이스하키의 퍽은 사람이 치는 힘으로 운동하는 것 아닌가요? 왜 힘의 합이 0인지 잘 이해가 안가요ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>반가워요^^ 똑똑한 우리 친구~정말 좋은 질문입니다사실, 원래 우리가 생활하는 공간에서 보게되는 등속 운동은 계속 힘을 주어야 등속 운동이 가능합니다.예를 들어서바닥에 높여진 나무도막을 밀고 갈때계속 힘을 주지 않으면 나무도막을 멈추고 맙니다.그이유는 나무도막과 바닥 사이에서 작용하는 마찰력이 있어서이 마찰력 만큼의 힘을 부어야 나무도막은 계속 등속 운동이 가능하답니다.그런데, 만약 마찰력이 없는 곳에서 힘을 계속 주면 어떻게 될까요?물체는 속력이 점점 빨라지는 운동을 하게 됩니다이럴때는 한번만 힘을 주어 물체가 움직이게하면마찰력이 없으므로, 즉, 운동을 방해하는 힘이 없으므로이 물체는 계속 등속으로 운동하게 된답니다.그 예가 바로 우리친구가 말한아이스퍽을 치면 등속 운동을 할 때가 해당되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:27:39</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>ㅠ하ㅏㅛㅅㅅ쇼ㅛㅠㄹㅇ로ㅗ호ㅗ호ㅗㅗㅎ포</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:27:53</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>0.2418991774320602</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>지랄</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>안녕하세용!! 요즘 너무 재밋게 잘듣고 있어요ㅜㅜ 지금 항상성 단원 듣고 있는데 더 듣고 싶네용 혹시 강의 추가로 더 나오나용??</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>와와~ 멋진 우리 친구(^^) 고마워요현재 항상성 강의는 따로 더 진행되지는 않는답니다.항상성 내용중에서 궁금한 내용은언제든지 이곳에 올려주세요열심히 도와드릴께요~~화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:27:59</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>아니요</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:28:05</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>0.5925233364105225</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>선생님? 수학이 과학의 영역마저 장악한것입니까? 하... 이런 정말 신나네요 하하하하하하하하하핳핳하하하하하하으윽흐윽</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 귀여운 친구*^^*열공 열공 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:28:16</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0.6733393669128418</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>선생님,정말 궁금해서 그런데,교재 내용과 관련없더라도 답변 부탁드립니다...원소 기호 중 주기율표에서 26번을 가지는 원소가 바로 철입니다.철은 영어로 iron입니다.근데, 마그네슘은 영어로 magnesium ,아연은 zinc입니다.즉, 마그네슘은 mg, 아연은 zn입니다.근데 철은 iron인데, 왜 Fe로 쓰나요?</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>반가워요^^ 똑똑한 우리 친구~정말 좋은 질문입니다.철은 영어로 Iron인데, 원소 기호는 Fe라 이상했지요?그 이유는 철의 원소기호를 영어에서 따온 것이 아니구요라틴어에서 가져 왔기 때문입니다.즉, 철은 라틴어로는 ‘ferrum’이예요따라서 이 라틴어에서의 첫두 글자를 따서 철의 원소기로를  Fe라고 정했답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:28:56</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>0.2100842595100403</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>바보</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>선생님 \(^o^)/ 뉴런과학3 교재 9페이지에 2번에서그림상으로 봤을때는 원자의 배열이 변한것 같아보이는데왜 ㄷ이 틀린건가요???ㅠ_ㅠ 그냥 외워야 하는건가요???=_= 알려주세염ㅠㅠ아!그리고 과학노트정리를 하는것이 좋은가요??아님 안하고 교재만 보며 공부하는 것이 더 좋은가요??만약 노트정리를 하는것이 좋다고 하면 어떻게해야하는지 알려 주실수 있나여???♥♥항상좋은강의 감사합니다!!힘내세요☆☆﻿</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>반가워요^^9쪽의 2번은 검은색 알갱이가 원자로 보이지요?그런데, 검은색 알갱이는 분자이구요주변의 물분자와 함께 섞이는 현상을 보여주는 것이랍니다.즉, 설탕이 물에 녹아 들어가는 물리 변화를 나타내는 그림이랍니다.^^ 교재를 보면 복잡해서 과학 노트를 잘 정리해 두면 좋은데요사실, 과학 노트는 간단한 정리, 그것도 핵심을 잘 파악해서 잘 정리해 두는 것입니다.  그런데, 과학 노트 뿐만 아니라 전체적으로 과학공부를 잘하는 방법을 알고 있는 것이 중요합니다과학 공부 방법만 잘 알아도,  효과적인 학습이 될 수 있는데요.꼭 잘하게 될꺼예요, 힘내세요. 우선, 과학의 경우는 과목의 특성상 원리를 이해하는 부분이 많이 필요해요 따라서, 첫번째로는, 학교 선생님이나 ebs강의를 통해서 원리를 반드시 이해해두셔야해요, 이때, 어떤 원리가 나오면, 일단은 그림과 사진 자료 혹은 비슷한 예, 또는 관련된 식을 풀면서 원리를 이해하시는 것이 우선이구요 두번째로는 이렇게 원리가 이해 된 다음에는 꼭 그 내용을 암기해 두셔야 한답니다. 물론, 과학이 암기과목은 아닙니다. 하지만, 이해와 암기가 병행되어야만 좋은 성적을 기대해 볼 수 있어요. 이때, 쉽게 익히기 위해서는 강의중에 중요한 부분은 형광펜으로 표시를 해두는 거예요,,따라서, 시간이 지나서 다른건 잊어버려도 이부분은 다시 한번 더 기억해 낼수 있도록이요^^ 그리고, 마지막으로는 내용을 얼마나 잘 알고 있는지를 확인하기 위해서는 반드시 내용과 관련된 단원의 문제를 풀어보셔야 하는데요, 이때, 문제를 풀다가 틀린 문제가 있다면 어떤 부분에서 틀렸는지를 확인하면서 내가 가진 잘못된 개념을 고쳐 나가고, 맞는 문제라면 내용을 다시한번 확실하게 익히는 시간을 꼭 가져야 한답니다. 이렇게 차근차근 한단계씩 여러번 반복하다보면 공부에 자신감도 생기고 시험도 잘 볼 수 있을 꺼예요 화이팅(^^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:29:49</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0.2418991774320602</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>지랄</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>안녕하세용!! 요즘 너무 재밋게 잘듣고 있어요ㅜㅜ 지금 항상성 단원 듣고 있는데 더 듣고 싶네용 혹시 강의 추가로 더 나오나용??</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>와와~ 멋진 우리 친구(^^) 고마워요현재 항상성 강의는 따로 더 진행되지는 않는답니다.항상성 내용중에서 궁금한 내용은언제든지 이곳에 올려주세요열심히 도와드릴께요~~화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:29:56</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:29:57</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:30:05</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:30:06</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:30:06</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:30:07</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:30:19</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.6408176422119141</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>라면</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>선생님 2NH3는 NH3분자가 2개 있다는 뜻 맞나요??</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>네^^ 정확하게 맞습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:30:43</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.750495433807373</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>메테인</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>선생님!! 메테인을 연소하면 왜 이산화탄소와 물이 생성되는 건가요??</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>반가워요^^물질의 연소 반응에서는 물질의 종류에 따라서 산소와 결합하면서 메테인처럼 이산화 탄소와 물이 생성되는 경우도 있구요철이나 구리처럼 연소하면서 산소가 결합하여산화철이나 산화구리가 생성되는 경우도 있답니다.각각의 물질이 산소에 반응하는 특성의 차이때문이지요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:31:06</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0.5919809937477112</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>﻿선생님 강의 정말 이해가 잘되고, 빈틈없이 너무 맘에 듭니다. . 하지만 강의가 너무 늦게 올라오는것 같은데 과학만 이런것도 아니고ㅠㅠ 무슨 문제가 있나요?​﻿﻿</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>반가워요^^기다리게 해서 정말 미안합니다.현재 강의가 매주 2강 정도씩 제작이 되고 있는 상황이라서업데이트도 매주 2강 정도씩 이루어지고 있습니다.전체 강의가 완강이 되려면강의 마다 차이는 있지만. 대략 4월~6월까지는 걸릴 것 같습니다.최선을 다해서 업데이트 예정이므로양해 부탁드립니다.그리고, 고맙습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:31:25</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0.2192875295877457</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>오오오오오옹오ㅗ오오ㅗ옹</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>성층권에서요 오존층 때문에 꺽인다고 하셨는데요..열권은 무엇떄문에 꺽이는지 궁금해요</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>반가워요^^80km까지는 지표면의 열에의해서만 영향을 받으므로높이 올라갈수록, 즉, 지표면에서 멀어질 수록 온도가 내려가는 분포를 하는 것이랍니다.반면, 80km이상부터는 태양으로 부터 오는 복사 에너지의 영향을 더 많이 받기 때문에높이 올라갈수록, 즉, 태양쪽으로 향해갈수록 온도가 높아지는 분포를 하는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:31:37</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>0.1976625770330429</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>우리우리우리우리우리우리우리우리우리우리누리누리</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>안녕하세요:) 1. 왜 공기가 상승할 때마다 이슬점이 낮아지나요?2. 빙정의 성장 원리에서 같은 온도에서 과냉각 물방울과 빙정의 포화수증기압이 다르기 때문이라고 했는데 왜 그렇죠?3. 온난전선의 발생과 소멸과정에서 폐색전선이 발달할 때 폐색 전선 양쪽에 찬 공기가 자리잡게 되면서 온대 저기압이 약해진다고 하는데 왜 그렇죠?4. 적외 영상 만들 때 물체의 온도가 낮을수록 방출하는 적외선 에너지양이 적어 밝게 보인다고 되어있는데 왜 그렇나요?5. 심장이 1회 박동할 때마다 막전위의 급격한 변화가 나타난다고 합니다. 왜 그렇죠?^^ ㅎㅎㅎ 그리고 저 선생님 강의 완강했습니다~! ^^ 정말 감사드립니다~!! 그리구 질문 답변 부탁드립니다! 감사합니다~~~!!</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~완강을 축하드려요~~1. 공기가 상승해도 이슬점은 낮아지지않습니다 공기의 온도가 낮아진다는 뜻이랍니다.   공기가 상승하명 단열 팽창하게 되면서 기온이 낮아지는 것이랍니다.2. 빙정설에서 가장 중요한 것이 0도에서 40도 사이에는 구름 안에수증기도 있고, 빙정도 있고, 얼지 않은 과냉각 물방울도 있어서과냉각 물방울에서 수증기가 생기고이 수증기가 빙정에 달라붙은 신비한 현상이 나타나면서빙정이 커지면 떨어져 눈이나 비가 되는 것이랍니다.이것이 빙정설의 핵심이구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:31:43</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0.6891705989837646</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>심장</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>﻿선생님 그럼 부직포에 미세한 구멍이 뚫려있다면 흔들지 않아도 화학 반응이 일어나야 되는거 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>반가워요^^ㅎㅎ 흔들면 화학 반응이 촉진됩니다.그리고, 부직포의 구멍을 워낙 미세하므로화학 반응을 진행 시킬 정도는 아니라고 보시면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:31:48</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>0.7270334362983704</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>감각기관</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>달팽이관과 평형감각기관은 붙어있어도. 서로 아예 관련없는 기관인가요??그리고 반고리관과 전정기관은 귀 안에 있는 기관이기는 하지만 청각과는 아예 관련이없는 건가요??</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>반가워요^^네, 우리 친구의 말처럼 이렇게 이해해두시면 좋아요달팽이관은 청각 세포가 분포하며 청각과 관련이 있고전정기관과 반고리관을 모두 평형 감각과 관련이 있다고 정리해주시면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:32:13</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.4716276526451111</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">등속운동을 통해 듣기 숙제 중 2-2답지 </t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 ! 강의 너무 잘 듣고 있습니다.다름이 아니라 저희 학교 교과서에서 아이스하키의 퍽이 등속운동을 한다고 나왔는데요,등속운동은 힘의 합이 0일 때만 가능하다고 쓰여있었습니다.그런데 아이스하키의 퍽은 사람이 치는 힘으로 운동하는 것 아닌가요? 왜 힘의 합이 0인지 잘 이해가 안가요ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>반가워요^^ 똑똑한 우리 친구~정말 좋은 질문입니다사실, 원래 우리가 생활하는 공간에서 보게되는 등속 운동은 계속 힘을 주어야 등속 운동이 가능합니다.예를 들어서바닥에 높여진 나무도막을 밀고 갈때계속 힘을 주지 않으면 나무도막을 멈추고 맙니다.그이유는 나무도막과 바닥 사이에서 작용하는 마찰력이 있어서이 마찰력 만큼의 힘을 부어야 나무도막은 계속 등속 운동이 가능하답니다.그런데, 만약 마찰력이 없는 곳에서 힘을 계속 주면 어떻게 될까요?물체는 속력이 점점 빨라지는 운동을 하게 됩니다이럴때는 한번만 힘을 주어 물체가 움직이게하면마찰력이 없으므로, 즉, 운동을 방해하는 힘이 없으므로이 물체는 계속 등속으로 운동하게 된답니다.그 예가 바로 우리친구가 말한아이스퍽을 치면 등속 운동을 할 때가 해당되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:32:45</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0.5590738654136658</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이럴때 어떻게 하면 좋을까 고민하다가 그냥 가족들과 함께 보내는 시간을 보내고 왔습니다 정말 </t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>쌤 내일 저 뭐 먹을지 골라주세요!1.햄버거2.족발3.치킨4.짬뽕5.짜장면6.분식7.피자 뭐 먹을지 너무 고민되요;</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>앗, 저녁 시간이 지나버렸네요^^무엇으로 먹었나요? 쌤은 짬뽕이 먹고 픈데요 ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:33:51</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>0.5789182186126709</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">나도 끼워줘 보면 정말 고마워 내가 어려서 너무 멋있어요 근데 확실히 하려 했는데 너무 더워서 그런지 좀 해요 그래도 몇번 다시 시간을 보내고 또 힘든 시간을 보내고 다시 시간을 잘 모르겠어 그리고 이건 제가 도움이 될 것7 입니다 제가 거주하고 있고 심플하니 잘 모르겠어 정말 고마워 진짜 너무 고마워요 저는 제가 너무 멋있어요 </t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>질문 내용 없음</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>반가워요^^질문 내용이 없네요, 확인 부탁드립니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:34:13</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>0.4787575602531433</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It was a little bit of a surprise to me that I was confused by the fact that I was confused and I don't have any messenger </t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>탄산 수소 나트륨의 분자식을 보면 Na2CO3라고 되어 있는데 나트륨 분자 2개가 붙어 있는 거면 2Na라고 표현해야 되는거 아닌가요? 만약 정말 Na2 라면 N이 1개고 a가 2개 라는 것인데 이러면탄산 나트륨 + 염화칼슘 = 탄산칼슘+염화 나트륨 공식에서N 하나가 부족해 집니다.</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>앗, 아닙니다.*^^*나트륨은 Na가 바로 하나의 이름입니다.즉, 떼놓으면 안됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:34:24</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>0.2267325222492218</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENGLISH </t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>선생님 내신 기출 문제 1번 보기 ㄷ 에서 A 기체는 왜 온도를 높여도수증기량은 변하지 않나요? 가질수있는 수증기량이 높아지니까주변의 수증기를 더 흡수하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>반가워요^^이 부분이 헷갈리지요?일단 포화 수증기량은 최대한 포함할 수 있는 공기의 능력치입니다.따라서 온도가 높아지면 더 많은 수증기를 포함할 수 있는 상태가 된다는 것일뿐실제 수증기량도 증가하는 것은 아니랍니다.실제 수증기량은 물이 증발하거나 할때 늘어납니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:34:35</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>0.1865789592266083</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>WTF</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>선생님 멘델의 우열의 법칙, 분리의 법칙, 독립의 법칙은 교재그림에서 모두 식물에 작용되있잖아요 그럼 이런법칙들이 사람에도 해당하는 법칙인가요?</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>반가워요^^네, 맞습니다.우열의 원리, 분리 법칙, 독립 법칙은 식물 뿐만 아니라. 동물, 즉, 생물에는 모두 적용됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:35:08</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>0.5092399120330811</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">물리학과 교수는 이런 마음 가지고 있는 게 참 많은데 말이에요 제가 거주하고 있던 미국에 있던 친구가 정말 많이 찍었습니다 </t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>선생님~ 안녕하세요^^강의를 듣다가 궁금한 점이 생겨 질문하는데요~ 139쪽 대단원 마무리 10번 그림에 나오는 신경 돌기 다발이 무엇인가요...?자세한 설명 부탁드려요~ 항상 과학 재미있고 이해 잘 가게 가르쳐주셔서 감사해요^^그리고 Q&amp;A 답변도 빠르게 해 주셔서 더 좋아요!!거의 매일 답변을 해 주시는 것 같아요ㅎㅎ또 항상 멋진 친구, 똑똑한 친구처럼 기분 좋은 말로 답변 해 주셔서 정말 감사드려요^^답변 기다릴게요💗💗</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 멋진 친구~~!!자 답변 들어갑니다.~ 신경돌기 다발은뉴런으로 이루어진 신경이 실처럼 있다면이 것을 묶은 묶음을 뜻합니다.예를 들어서 꽃 한가닥 한가닥을 묶어 놓으면 꽃다발이 되는 것과 같은 뜻이랍니다.^^  앗, 감사합니다.쌤은 우리 친구처럼 이렇게 열심히 공부하고 또 질문도 하고 중3과학을 하나하나 알아나가려고 노력하는 모습이 정말 대견스럽답니다.그래서 쌤도 모르게 칭찬이 나와요(^^)열공 열공 화이팅!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:53:06</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>0.1987261027097702</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>선생님 ! 기압은 상대적이잖아요. 예를 들어서 서울이 오산보다 기압이 낮으면 서울은 저기압이 된다고 말할 수 있잖아요. 그럼 서울 내에서도 산 등 높이 차이가 나는 곳이 있을텐데, 서울안에서도 기압이 또 나뉘나요? 그러니까, 상대적으로 지역 크기로 또 나뉘고, 그 지역 내에서도 산 위나 산 아래등은 기압차가 있으니까 또 그 저기압인 지역 안에서도 기압이 나뉘지 않을까 궁금해서요..   그리고 제가 아까 말을 잘못해서요 ! 단열팽창은 위로 올라갈수록 지구의 중력에 의해 공기의 양이 적어지고 ! 또 그 공기들이 받는 지구의 중력의 크기가 작어서 위로 올라갈수록 기압이 낮아지고 아래로 갈수록 기압이 커지는 게 맞죠? 그러면 항상 모든 지역에서는 지표면에서 떨어진 곳이 저기압이고 지표면 부근이 고기압이여야 하는지 궁긍해서요ㅜ 그냥 상관이 없는건가요? 진짜 마지막인데요..ㅜ 고기압과 저기압이 생기는 원인은 다양하나요? 그리고 고기압에서 저기압으로 공기가 흐르는 이유가 공기의 성질중에서 공기가 없는 부분을 채우려는 성질이 있어서죠?</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>반가워요^^네 친구 말이 맞아요기압은 크게도 변하지만. 그 안에서도 다양한 변화를 겪는답니다. 단열팽창이 일어날때상승한 공기와  높은 곳에 있는 공기의 양에 차이가 납니다.높은 곳에 있는 공기의 양은 학생의 말처럼 중력에 의해서 양이 줄어들구요상승한 공기의 양은 그대로인데외부의 압력이 작아져서, 팽창하게 되는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:53:22</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>0.7597954273223877</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>복사평형</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>B가 더 낮은온도에서 복사평형이 이루어지는것은 알겠는데 시간은 왜 더 나중에 복사평형이 이루어지나요?</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.일단. 멀리 있어서 에너지가 작으면가열 자체도 천천히 됩니다.예를 들어서우리가 물을 올려 놓고 끓일 때에도낮은 온도에서 끓이면즉, 열에너지를 더 작게 보내면높은 온도와 비교할때더 오랫동안 두어야 물이 끓잖아요그것과 같은 원리랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:53:33</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>0.1587368100881577</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>섹스</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요~!! 
+&lt;온도가 높아질수록 포화수증기량이 증가한다&gt;는것을 보여주는 실험에서 
+1. 뜨거운 물이 담긴 플라스크안은
+뜨거운 물이 수증기로 변하고 그 수증기가 벽면에 닿으면서 물이 맺히고 또 뿌옇잖아요,
+2. 그리구 그 플라스크를 헤어드라이기로 가열(?)하면 플라스크의 온도가 올라가서 포화수증기량이 증가하면서 물방울이 수증기로 변하면서 내부가 맑아진다고 했잖아요,
+-&gt; 이해가 안되는 점은 처음에 뜨거운 물이 담겨 있을 때에도 뜨거운 물이 수증기로 변하면서 뿌애진 것아니에요?? 헤어드라이기로 플라스크를 뜨겁게 해서 포화수증기량이 증가해서 플라스크 내부의 수증기량이 증가한다면 더 뿌애져야하는 것 아닌가요..?? 왜 맑아지는건지 이해가안돼용.. 그 집에서도 커피포트로 물 끓이면 수증기가 나오면서 뿌연연기가 나오잖아용..
+그리구 3. 그 플라스크를 찬물에 넣으면 포화수증기량이 감소해 수증기가 물방울로 변하니까 뿌연수증기가 물로되니까 오히려 맑아져야하는것 아닌가용..??
+제가 어느부분을 잘못이해하고 있는건가용~?? 
+감사합니당~^^**</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>반가워요^^뜨거운 물에서 증발한 수증기가 플라스크 내부의 표면에 닿아서 뿌옇게 되구요이때, 드라이어로 가열하면플라스크 내부의 온도가 올라가구요이때ㅡ 내부의 포화 수증기량이 증발하면서뿌옇던 물이 수증기가 되어 플라스크 내부로 들어가므로다시 맑아지는 것이랍니ㅏ</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2020-07-15 09:53:05</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>0.5827031135559082</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>간이가압펌프를 누른후 뚜껑을 열면 왜 온도가 내려가나요</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>'알루미늄통에 물을 넣고 뚜껑을 열어둔채 가열한 후 뚜껑을 닫고 다시 냉각시켰더니 알루미늄통이 찌그러졌다'라는 실험에서요 물이 끓어서 알루미늄통 안의 공기가 밖으로 빠져나가게 되는거까지는 이해가 되는데 그 후 뚜껑을 닫고 냉각 시켰을때 수증기가 응결하여 알루미늄통안의 기압이 크게감소하여..라는 말이 이해가 안되요ㅠ</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>반가워요^^ 이실험과정에서 처음에는 알루미늄 통 안에 물이 있었구요뚜껑을 열고 끓였을 때통 안의 공기도 빠져 나오지만물은 끓어서 수증기가 되고일부는 통안에 있고, 일부는 빠져 나옵니다.이때, 뚜껑을 닫고 냉각시키면통 안의 공기가 냉각되면서 압력이 작아지고통 안의 수증기도 물방울로 응결하므로 통 안의 기체의 양이 줄어들어서 압력이 작아진답니다결국, 통 안의 압력, 즉, 기압은 작아지므로외부에서 누르는 기압이 크므로찌그러지는 것이랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2020-07-15 10:52:20</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>0.7260503172874451</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>단열팽창 너무 어려운데 그냥 빼주시면 안되나요</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>선생님!단열팽창이란 열을 주고받지 않고 부피가 변하는거잖아요, 근데 왜 단열팽창 다음에 기온 하강을 하지요?</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.앞으로 업데이트 되는 12강에서 자세하 다루기는 할텐데요미리 설명드릴께요 일단. 단열 이라는 것은 외부로 부터 열이 차단된즉, 열을 주지고 않고, 받지도 않는 상태랍니다.이때, 팽창을 하게 되면분자가 바깥으로 공간을 밀고 나가면서에너지를 소모합니다.에너지를 소모하면 온도는 내려가는 것이랍니다.즉, 단열한 상태에서 팽창할때, 에너지를 소모하므로온도가 내려간다고 알아두시면 됩니다. 그래서, 단열 팽창, 기온 하강이라고 하는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2020-07-15 13:40:15</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>0.5119766592979431</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>플라스틱병을 뜨거운 물에 넣고 차가운 물에 낳으면 찌그러지는 이유</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>선생님 14분 정도에서요, 왜 공기를 압축하면 온도가 상승하고 맑아지고 공기가 팽창하면 온도가 하강하고 뿌옇게 흐려지나요? 그리고 뿌옇게 흐려진다는 게 물이 증발해서 수증기가 되니까 병 안쪽에 물이 맺힌다는 건가요?</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>반가워요^^자세히 설명드릴께요외부의 열이 차단된 상태에서 부피 변화가 온도변화를 일으키는 것을 단열 변화라고 하는데요'보통, 압축하게 되면단열 압축되면서 온도가 올라갑니다.이렇게 되면, 공기가 최대한 포함할 수 있는 수증기의 양이 늘어나면서물이 증발하여 수증기로 변하기 때문에 맑아지는 것이구요반대로 단열팽창하게 되면 온도는 내려갑니다.이렇게 되면, 공기가 최대한 포함할 수 있는 수증기의 양이 감소하면서수증기로 있지 못하고, 일부는 바로 뭉쳐서, 즉, 응결해서 물방울이 되므로내부에서 뿌옇게 보이는 것이랍니다.결국, 단열 팽창으로 기온이 내려가고이슬점에 도달하면 수증기가 응결하여 뿌옇게 되면서 구름의 생성 과정을 알아보게 되는 실험이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2020-07-15 13:40:51</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>0.5192001461982727</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>플라스틱병을 뜨거운 물에 넣고 차가운 물에 넣으면 찌그러지는 이유</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>선생님 플라스틱관에 에나멜선을 감아 코일를 만들고 그 플라스틱 관안에 자석을 넣고 양쪽으로 흔드는 실험있잖아요! 그 실험에서 플라스틱관을 흔드는동안 다이오드의 불이 꺼졌다 켜졌다를 반복한다는데 그렇게 꺼졌다 켜졌다하는 이유가 뭐에요?</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~좋은 질문입니다.불이 켜진다는 것은 전류가 흐른 다는 것이구요불이 꺼진다는 것은 전류가 흐르지 않는 것이랍니다.그런데 유도전류는움직일때만 생겨나므로즉, 자석이 들어갈때와 나갈때의 움직임이 있을 때에만 유도 전류가 발생하므로이때는 불이 켜지구요반면에 자석의 방향이 바뀌기 위해서 잠시 멈추는 순간에는 유도 전류가 흐르지않으므로불이 꺼지는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2020-07-15 13:41:17</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>0.5668045878410339</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>플라스틱병이 기압 때문에 찌그러지는 이유</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>선생님~ 2단원 마무리하면서 궁금한 것들이 생겨서 질문 남깁니다!1. 학교 교과서를 보니까 전선 주변에는 공기의 상승 운동이 활발하게 일어난다고 하는데 잘 모르겠네요. 구체적인 설명이 필요할 것 같아요...2. '물을 담은 유리컵을 종이로 덮고 거꾸로 뒤집어도 물이 쏟아지지 않는 것, 드거운 물이 담긴 플라스틱 병을 얼음물에 넣으면 플라스틱 병이 찌그러지는 것, 신문지를 펼쳐 자로 빠르게 들어 올리면 신문지가 잘 올라오지 않는것' 등이 기압이 모든 방향으로 작용하기 때문에 나타나는 현상이라는데 왜 그러한지 이해가 잘 안되네요....많은 질문이긴 하지만 답변 부탁드립니다ㅠㅠ 오늘도 즐거운 하루 보내세요!^^</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>반가워요^^열심히 공부하는 우리 친구~힘내세요, 자세히 설명드릴께요1. 전선은 찬 공기와 따뜻한 공기의 만남으로 생각하시면 좋구요이때, 찬 공기가 이동해서 따뜻한 공기를 만나느냐따뜻한 공기가 이동해서 찬 공기를 만나느냐에 따라서 상황이 달라진답니다.찬 공기는 무겁워서 따뜻한 공기 밑을 파고 들때, 따뜻한 공기를 툭툭 치면서 빠르게 상승시킨답니다.이때, 공기의 빠른 상승으로 인해서 적운형의 구름이 생기고 소나기가 내리는 것이랍니다.이것인 한랭 전선이구요온난전선의 경우는 따뜻한 공기가 가볍게 퍼지면서 이동해오다가찬 공기를 만나면 슬슬 타고 올라간답니다.이때, 공기의 느린 상승이 생겨나면서 층운형의 구름이 생기고이슬비가 내린답니다결국, 한랭전선이든 온난 전선이든 공기가 상승하는 것이지요^^ 2. 뜨거물이 담긴 플라스틱 병의 내부의 공기는 따뜻합니다 이때, 얼음물에 담그게 되면 플라스틱 병 내부의 공기의 온도가 내려가면서   공기의 움직임이 느려지면서 기압이 낮아진답니다 상대적으로 기압이 높은 외부에서 플라스틱 병을 누르게 된다면   기압이 모든 방향으로 작용하므로, 플라스틱 병이 전체적으로 찌그러지게 된답니다.    신문지는 신문지 전체를  공기가 누르고 있어서   자를 빠르게 올리면 순간적으로 공기가 누르는 힘때문에 잘 올라오지 않는 것이랍니다.    이때, 신문지 아래에도 공기가 있지만. 그 양이 많이 않고, 또한, 신문지 아래쪽에서 자로 갑자기 들어올리니까요   사방에서 누르는 기압의 영향을 많이 받게 된답니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2020-07-15 13:54:19</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0.7577532529830933</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>지구에서 우주로 방출되는 지구 복사 에너지양</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>지구복사에너지는 지구로 오는 태양복사에너지 중 70만큼이고 지표면에서 방출되는 에너지의 양은 지구로 오는 태양 복사에너지의 50만큼의 양인가요?? 지구로 오는 태양복사에너지 70중 대기는 20만큼 흡수하는데 그렇다면 대기도 그 양만큼의 에너지를 방출하나요?? 사진에 우주로 방출되는 양이 70%라고 나와있는데 지표면에서 방출하는 지구복사에너지 중 70만큼이우주로 방출된다는 건가요?</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>반가워요^^ 우리 친구~이 부분 내용이 많이 헷갈릴꺼예요정확하게 설명드리자면태양으로 부터 오는 100중에서 70을 지구가 흡수합니다.흡수한 에너지로 지구가 더워지구요이때, 온도가 올라간 지구 자체에서 방출되는 에너지가 있는데요이 에너지가 다시 70만큼의 양에 해당한다는 뜻입니다따라서 지구가 전체적으로 흡수하는 에너지가 70이고지구 자체에서 방출하는 에너지가 70이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2020-07-15 15:19:11</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0.7578331232070923</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>지구에서 우주로 방출되는 지구 복사 에너지양</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>​4개의층중한개도없으면지구는어떠게돼나요?​</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>반가워요^^​4개의 층중 한개도 없으면? 글쎄요~ 일단. 지구라는 행성의 모습이나 특징이 달라지겠지요?우리 친구의 상상력을 한번 펼쳐보세요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2020-07-15 15:19:39</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0.766409158706665</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>지구에서 우주로 방출되는 지구 복사 에너지양</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>​4개의층중한개도없으면지구는어떠게돼나요?​</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>반가워요^^​4개의 층중 한개도 없으면? 글쎄요~ 일단. 지구라는 행성의 모습이나 특징이 달라지겠지요?우리 친구의 상상력을 한번 펼쳐보세요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2020-07-15 15:19:55</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0.7580697536468506</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>지구에서 우주로 방출되는 지구 복사 에너지양</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>지구복사에너지는 지구로 오는 태양복사에너지 중 70만큼이고 지표면에서 방출되는 에너지의 양은 지구로 오는 태양 복사에너지의 50만큼의 양인가요?? 지구로 오는 태양복사에너지 70중 대기는 20만큼 흡수하는데 그렇다면 대기도 그 양만큼의 에너지를 방출하나요?? 사진에 우주로 방출되는 양이 70%라고 나와있는데 지표면에서 방출하는 지구복사에너지 중 70만큼이우주로 방출된다는 건가요?</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>반가워요^^ 우리 친구~이 부분 내용이 많이 헷갈릴꺼예요정확하게 설명드리자면태양으로 부터 오는 100중에서 70을 지구가 흡수합니다.흡수한 에너지로 지구가 더워지구요이때, 온도가 올라간 지구 자체에서 방출되는 에너지가 있는데요이 에너지가 다시 70만큼의 양에 해당한다는 뜻입니다따라서 지구가 전체적으로 흡수하는 에너지가 70이고지구 자체에서 방출하는 에너지가 70이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2020-07-15 15:30:12</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0.1774573624134064</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>dltksghkxksth</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>혹시 죄송한데..실전문제 HDF말고 PDF로 보내주실 수 있으시나요?컴퓨터에 HDF가 안 깔아져서요ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>반가워요^^한글 파일이 깔려있지 않나 보네요^^네, 일단 지금 이 답글의 첨부파일로 1,2,3단원의 시험대비 문제 pdf파일로 변환하여 올립니다.그리고. 선생님 톡톡 코너에도 pdf변환 파일 함께 올립니다.열공하는 우리 친구~~ 힘내세요쌤이 늘 응원합니다.아자앚(^)-------------(^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2020-07-15 15:30:34</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>0.6271503567695618</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>저희 시험기간이 언제죠</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>과학 힘들지만 극복하고 노력할려고 애쓰는중입니다 ㅠㅠ선생님 강의 잘들었어요 ㅎㅎ혹시 워크북(실전책)은 강의끝나고 바로바로 푸는것이 좋을까요 아니면 시험대비용으로 푸는것이 적절할까요?</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>반가워요^^"과학 힘들지만 극복하고 노력할려고 애쓰는중입니다~" 라는 학생의 각오~정말 감동입니다.네~ 맞아요, 노력하고 애쓰다 보면 반드시 잘 하게 된답니다쌤이 곁에서 열심히 도와드릴께요꼭 좋은 결과 있을 꺼예요.그리고, 실전 워크북은 강의 끝나고 바로 풀어보면 좋구요또, 시험때도 다시 모아서 풀어보면 좋답니다.선생님도 중학교때, 한 문제집을 여러번 풀었는데요문제집에 바로 표시해버리면 다시 풀때 불편하니까요 종이에다가 풀이나 답을 써가면서 같은 문제집을 여러번 풀었답니다. 우리 친구도 이 방법으로 여러번 풀어보면 좋을 것 같아요.멋진 우리 친구~~ 응원합니다!!!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2020-07-15 15:31:01</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>0.6891167759895325</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>쌤 공부가 너무 힘들어요</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>18강이 안올라오고 웬  3분짜리 오티강의예요?빨리  고쳐 놔주세요..ㅠㅠ늘2번씩 듣는 강의지만 18강 내용 많아서 3번은 들어야겠는데...얼른 바꿔주세요 쌤;;;;!!!!</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.고맙습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2020-07-15 16:25:00</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0.4926324486732483</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>육풍 해풍 구별하는 화살표 기준은?</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>선생님 CuO의 숨은 의미가 하나하나 분자로 떨어져 있지 않고 다닥다닥 붙어있다고 말씀하셨는데 무슨 말인지 잘 모르겠어요ㅠㅠ CuO는 분자 아닌가요??ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.우선, 분자를 가지고 있는 물이나 암모니아는독립된 형태의 입자를 하고 있어요예를 들어서 물은 곰돌이 얼굴을 한 기본입자가 모여 있구요암모니아는 질소에 수소 3개가 달라붙어서 한 덩어리를 이루는 기본 입자들이 모여 있답니다.즉, 독립된 형태의 입자를 가지고 있고, 이를 분자라고합니다.반면, CuO는 구리와 산소가 계속해서 연결되어 있어요, 즉, 구리-산소-구리-산소-구리-산소                                                                                   ㅣ    ㅣ     ㅣ     ㅣ    ㅣ    ㅣ                                                                                    산소-구리-산소-구리-산소- 구리 처럼 계속해서 연결되어 있다보니, 독립된 형태의 분자를 찾아 볼수 없다는 뜻입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:22:31</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0.4995372891426086</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>산소가뭐야?</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>산소와 수소를 반응 시키면 물이 되잖아요...그럼 산소와 수소가 같은 공간에 있다고 물이 되는건 아닐 것 같은데...어떻게 반응을시켜야 물이 생겨요??</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.산소와 수소가 결합해서 물이 생기려면일종의 전기 충격이 필요합니다.즉, 전기를 흘려 보내줄때, 그에너지를 활용해서 결합하면물이 생긴답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:23:03</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>0.6824084520339966</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>구리를 만들어야해</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>산화구리(로마자로 2)되있던데 그러면 화학식이 달라지나요?</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.사실, 구리는 전자를 잃으면서 양이온되는 데요이때, 구리이온은 2종류가 있답니다.일반적으로는 구리는 전자 2개를 잃어서 Cu2+  양이온이지만때로는 전자 1개를 잃어서 Cu+ 인 양이온도 있답니다.따라서 화합물을 만들때, Cu+ 인 양이온이 산화 이온과 결합한 경우에는 산화 구리(|)라고 쓰구요Cu2+ 양이온이 산화 이온과 결합한 경우에는 산화 구리(Ⅱ)라고 쓰는 것입니다.하지만. 일반적으로 대부분은 Cu2+ 양이온이 사용되므로화합물에 (Ⅱ)가 들어갈 때가 대부분이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:23:47</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>너 똑똑하다</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:24:12</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0.6301447153091431</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>혼자뭐라는거야</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>볼록렌즈는 두꺼울수록 빛이 가까이서 모인다고 하셨는데 그럼 오목렌즈는 얇을수록 빛이 더 퍼지나요??</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.똑똑한 우리 친구~~</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:31:25</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>맞아요 저 똑똑해여~~~~</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:31:45</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>0.2112165093421936</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>화산폭팔이 왜 일어날까오ㅡ</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>'중력이 한 일=위치에너지=운동에너지' 는 항상 성립하나요?</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>반가워요^^중력이 한일 = 감소한 위치 에너지= 증가한 운동에너지랍니다.*^^*</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:32:05</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>0.1996974349021912</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>집중력이 떨어지면 어떡하조ㅡ</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>문제 16번 보기 3번에서 생성물은 A원자 1개와 B원자 3개로이루어져있다고 하셨는데 A원자 2개와 B원자 6개로 이루어져있는거 아닌가요?? 아니면 생성물의 구성은 분자가 여러개여도분자 1개의 구성으로만 제한해서 나타내는건가요??</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>반가워요^^ 16쪽 16번 문제지요? 이 문제는 많이 어렵답니다. 문제 전체를 차근 차근 풀이해 드릴께요일단, 화학 반응식부터 이해하셔야 해요A2 + 3B2 →  2AB3에서 반응 물질은 A2 와  B2 이구요, 생성 물질은 AB3 랍니다. 이때, A2는 분자 1개가   B2 분자 3개와 결합하게 되면서 새로운 분자 AB3를 2개 만들어 내었다는 반응식이지요.이것을 잘 기억하시면서 선택지를 하나씩 살펴 보겠습니다. ① 반응물은 A와 B이고, 생성물은 AB이다.  ​☞ 옳지 않습니다 .반응물 A2 와  B2 이구요, 생성물은 AB3 랍니다,  ② 반응이 일어날 때 분자의 전체 개수는 줄어든다.  ☞ 옳은 내용입니다.  반응이 일어나기 전에는 A2는 분자 1개와  B2 분자 3개, 즉, 전체 분자의 수는 4개 였는데요,     반응 후에는 분자 AB3를 2개만 만들기 때문에  전체 분자의 수는 2개 입니다. 즉, 반응전에는 전체 4개였던 분자후가 반응 후에 2개로 줄었들었습니다.  ③ 생성물은 A 원자 2개와 B 원자 3개로 이루어져있다. ☞ 옳지 않습니다. 생성물은 분자 AB3이므로, 분자 AB3는 A원자 1개와 B원자 3개가 결합해서 만들어진 분자 이기 때문입니다. ④ A2 분자 1개를 반응시키기 위해서 B2분자가 최소 6개가 필요하다. ☞ 옳지 않습니다. A2는 분자 1개가   B2 분자 3개와 결합하게 되므로  A2는 분자 1개가   B2 분자가 최소 3개가 필요합니다. 6개가 아닙니다. ⑤ 반응이 일어날 때 원자의 종류는 달라지지 않지만, 원자의 개수는 달라진다.☞ 옳지 않습니다. 반응이 일어날 때, 분자의 종류가 달라지는 것이구요, 원자의 종류나 개수는 똑 같습니다. 따라서 정답은 2번입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:32:17</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>네?</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:32:18</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:32:25</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>뭐래..</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:32:26</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:32:32</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>0.2628936767578125</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>역시 로봇</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>틀린문제에 해설이 없는데 포허ㅏ수증기량이 왜 감소하나요ㅠ</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>반가워요^^문제에 그림이 보이지않네요 ㅠ그림이 있어야 정확한 답변이 가능합니다.확인 부탁드려요</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:32:42</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>시끄러!</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:34:28</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>0.6184457540512085</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>화학 반음에서 출입하는 에너지를 활용한 냉각 장치를 만들 때 이용할 수 있는 반응은?</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>선생님 에너지 출입을 이용한다는것이 무슨 말인가요??</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>반가워요^^에너지 출입을 이용한다는 것은 말그대로에너지가 나가거나 들어오는 것을 활용한다는 뜻입니다.예를 들어서화학 반응이 일어날때, 에너지가 나가는, 즉, 방출되는 반응이라면그 주변을 따뜻해지는 원리를 생활에 이용하는 것이구요반면, 화학 반응이 일어날때, 에너지가 들어오는 즉 흡수하는 반응이라면그 주변을 시운하게하는 원리를 생활에 이용하는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2020-07-16 01:35:29</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>0.6422324776649475</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>물체가 흡수하는 복사 에너지양과 방춠아는 복사 에너지 양이 같은 상태</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>선생님 흡수하는 복사 에너지의 양이 방출하는 복사에너지의 양보다 많으면 물체의 온도는 올라가잖아요!!그러면 반대로 물체가 방출하는 복사에너지의 양이 흡수하는 복사에너지의 양보다 많으면그 물체의 온도는 변하지않겠네요?? 아니면 혹시 내려가나요?</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>아주 좋은 질문입니다.^^학생의 말처럼흡수하는 복사 에너지양보다 방출하는 복사 에너지양이 많다면온도는 오히려 내려간답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2020-07-16 13:59:43</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>0.7029585838317871</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>구름</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>선생님 구름 발생실험에서 뿌옇게 생기는건 구름이라고 말할수있나요?</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.뿌옇게 생긴것이 물방울이므로실제 자연의 구름에 비유됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2020-07-16 14:00:05</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0.5846738815307617</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>구름생성과정</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>선생님 문제를 풀다가 궁금하게 생겨서 질문 합니답^^  지표면의 일부가 불균등하게 가열될 떄도 구름이 생성되는지가 왜 맞는 보기인지 궁금합니다.^^</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>반가워요^^구름은 공기가 상승할 때단열 팽창과 기온 하강, 그리고, 이슬점 도달을 통해수증기가 응결하면서 생성된답니다.지표면이 부분적으로 가열될 때도가열된 부분의 공기가 상승하게 되고이때 공기의 상승과 더불어단열 팽창과 기온 하강, 그리고, 이슬점 도달을 통해수증기가 응결하면서 구름이 생성되는 과정을 거친답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2020-07-16 15:17:49</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>0.8550558090209961</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>실제 수증기량이 많을수록 이슬점이 높아지는 이유</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>이슬점은 왜 실제 수증기량이 많을수록 높아지나요?</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>반가워요^^ 이슬점이 많이 헷갈리시죠?일단. 실제 수증기량으로 포화 상태가 될때의 온도가 이슬점이랍니다.즉,  어떤 공기의 이슬점이 몇도다 라고 나어면이슬점 온도에서의 포화 수증기량이 곧어떤 공기 속에 실제로 들어있는 수증기량이랍니다. 따라서, 이슬점은 공기 중에 포함된 수증기량에 따라서 달라진답니다. 공기 중에 수증기가 많이 발생한다면 실제 수증기량이 많아지니까요 이슬점이 높아지구요공기 중에서 수증기를 제거한다면 실제 수증기량이 적어지니까요, 온도가 한참 낮아져야 포화상태가 되므로 이슬점이 낮아진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2020-07-16 15:26:49</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>0.5834341049194336</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>안개가 물</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>선생님 탄산음료의 마개를 열면 기체가 발생한다는 것은 물리변화인가요?그렇다면 왜그런가요... 모르겟어요 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>반가워요^^사이다나 콜라 같은 탄산음료를 따르면 기체가 발생하는 것은 물리 변화입니다.탄산 음료속에는 물과 이산화 탄소, 설탕등이 녹아 있는데요'이때, 탄산음료를 따르면그 속에 녹아 있던 이산화 탄소가 빠져 나오면서 기체가 생기는 것이랍니다.즉, 녹아 있던 기체가 빠져 나오므로, 물리변화입니다. ​ 사실, 기체가 생긴다고 모두 화학 변화는 아니랍니다. 화학 변화는 물질의 성질이 변하면서 새로운 물질인 기체가 생겨나야 화학 변화랍니다.기체가 발생하더라도새로운 성질의 기체가 만들어지지 않으면 물리변화입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2020-07-16 15:26:54</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>0.6551672220230103</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>개념책 30쪽에 4번 아무리 풀어봐도 이해가 되지 않아서요ㅠㅠㅠ왜 36÷3을 하는건지 30÷3은 안되는건지 그리고 왜 곱하기는 안되는갼지 자세히 좀 알려주시면 좋겠습니다!!</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>반가워요^^30쪽 4번 문제를 뜻하는 군요이것은 4강을 보시면 마지막 부분에서 풀이하면서 너무 빠르게 달려버렸지요?이곳에서 차근차근 설명드릴께요문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2020-07-16 15:27:16</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>0.6104797124862671</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>안개가 응결인 이유</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>선생님 그럼 안개가 생기는 이유가 수증기를 포화 수증기량까지 가져서 생기는 건가요?</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~ 좋은 질문입니다.안개가 생기는 이유는지표면의 기온이 낮아지면서포화 수증기량이 줄어들어서현재 수증기량 만으로도 포화상태가 되면서 현재 기온이 바로 이슬점이 되어 수증기가 물방울로 응결하는 것입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2020-07-16 15:43:28</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>0.8866471648216248</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>계수비와 개수비의 차이는 무엇인가</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>선생님!! 계수비와 개수비의 차이가 뭔가요?? 갑자기 문제를 풀다가 헷갈려서요 ㅎㅎㅎ</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>반가워요^^맞아요, 이 부분 헷갈릴텐데요개수는 화학식에서만 쓰이는 것이 아니라한개 두개 할때의 갯수를 뜻합니다.분자식에서도 분자의 개수에서도 모두 사용된답니다.반면, 화학 반응식 꾸미기할때화학식 앞에 쓰는 숫자가 계수랍니다.예를 들어서물이 만들어지는 화학 반응식에서2H2 + 1O2 -&gt; 2H2O 위의 빨간색 2 ,1, 2가 계수랍니다.그런데, 보통, 계수가 1일때 생략하므로위의 화학 반응식을 정확하게는 2H2 + O2 -&gt; 2H2O 이렇게 씁니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2020-07-16 15:43:58</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>0.7831995487213135</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">감사합니다 </t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>﻿선생님 너무 강의가 재미있고 좋아요!~~감사해요^^~~~​</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>멋진 우리 친구(^__________^)고맙습니다.칭찬에 힘입어, 더좋은 더 재미있는 더 많은 도움을 드리는 강의 말들께요아자아자 화이팅!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2020-07-16 15:43:59</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2020-07-16 15:44:07</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>0.7840964794158936</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">감사합니다 </t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>﻿선생님 너무 강의가 재미있고 좋아요!~~감사해요^^~~~​</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>멋진 우리 친구(^__________^)고맙습니다.칭찬에 힘입어, 더좋은 더 재미있는 더 많은 도움을 드리는 강의 말들께요아자아자 화이팅!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2020-07-17 00:51:14</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>0.5889687538146973</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>강수 과정</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>선생님 이 강의가 50강까지 나온다는데 그게 다 3학년1년과정인거예요?</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>반가워요^^네~~ 맞습니다.현재 강의를 제작중에 있지만50강까지 다 업데이트 되면50강까지가 3학년 전체 내용입니다.3학년 1학기는 1강에서 29강 까지로 보시면 되구요3학년 2학기는 30강에서 50강까지입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2020-07-17 00:51:32</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>0.2138925194740295</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>제헌절</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>선생님 문제 풀다가강철솜의 연소에서 닫힌용기는 결합한 산소의 질량을 합하면 반응 전후 질량이 일정하고 열린 용기는 철이 공기 중의 산소와 결합해 질량이 증가한다는데 한다는데 이 부분이 갑자기 헷갈려요. 그리고 제가 강의 계속 기다리고 있는데 정확히 언제쯤에 나오는지 궁금해요. 이미 다 봐서 진도를 못나가고 있어요,,ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>반가워요^^강철솜의 연소도 헷갈릴꺼예요금속의 연소는 제가 따로 열린용기 닫힌 용기로 구분하지 않았는데요이곳에서 차근차근 설명드릴께요금속의 연소는 반드시 공기 중의 산소와 결합하여 생성물이 만들어진답니다.이때, 열린 용기에서 실험하면강철솜의 질량만 측정되므로, 연소반응 이후에 산소가 철에 붙어서 산화 철이 되므로 질량이 증가한 것으로 측정됩니다.반면, 닫힌 용기에서 강철솜을 넣고 닫힌 통에서 질량을 재면강철솜의 질량 뿐만 아니라. 통안의 기체로 존재하는, 아직 반응하지 않은 산소의 질량까지 측정되구요연소 시키면,  용기 속의 산소의 일부가 강철솜에 달라붙어 산화 철이 됩니다.하지만. 이때 질량을 측정하면 산화철의 질량 뿐만 아니라 통 안에 남아 있는 산소의 질량도 함께 측정되므로이때는 반응 후에도 질량이 똑 같이 측정된다는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2020-07-17 00:51:58</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0.1807288527488708</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>각오는 되어있나? 나는 되어있다</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>안녕하세요 선생님. 화학 반응을 공부하다가 궁금한게 생겨 질문드립니다.강의 내용은 아니지만 화학 반응이 일어날 때 물질의 종류가 변화한다고 하더라구요.물이 수소기체와 산소기체로 변화하는 경우는 이해가 가지만, 소고기를 굽는다고 해서 고기의 종류가 달라지지는 않는데 어떻게 이해를 하면 좋을지 도움 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>반가워요^^ㅎㅎ 맞아요구워도 소고기를 소고기지요하지만. 생고기와 구운 고기의 맛은 완전히 다릅니다.색깔도 향도 완전히 다르다는 것은성질이 변했다는 것이랍니다.'화학적으로 볼때는요^^그래서 화학 변화입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2020-07-17 00:52:08</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>0.257860004901886</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>헤븐즈 도어</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>12번 알려주세요ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>반가워요^^강철솜의 연소에 관한 문제네요강철솜은 나무와 달리연소하면강철솜이 산소와 결합하여새로운 물질인 산화철이 형셩된답니다.즉, 질량을 측정하면 연소 이후에는 질량이 증가한 것으로 측정이 되지만이것은 공기중의 산소가 철에 결합하면서 증가한 것으로 측정될뿐반응전 물질인 강철솜과 산소를 더한 질량은새로 생성된 산화철의 질량이 되므로 질량 보존 법칙이 성립됩니다.따라서 옳지 않은 것은 2번입니다.나무의 연소는 기체가 생성되면서 질량이 오히려 줄어들기 때문에 강철솜의 연소와는 다른 질량 변화가 나타나기 때문입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2020-07-17 00:59:47</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2020-07-17 01:00:07</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0.5528445243835449</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>구름의 종류</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>선생님 구름 발생실험에서 뿌옇게 생기는건 구름이라고 말할수있나요?</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.뿌옇게 생긴것이 물방울이므로실제 자연의 구름에 비유됩니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:E545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -12141,6 +12141,1641 @@
         </is>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2020-07-17 12:54:44</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>0.9000236988067627</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>일정성분비법칙</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙이 무엇인가요</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>반가워요^^일정 성분비의 법칙은 화학 반응이 일어날때반응하는 물질은 항상 일정한 질량비를 이루면서 결합한다는 뜻입니다.즉, 아무리 양이 많아도 자신이 반응하는 질량 만큼만 서로 반응한다는 법칙입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2020-07-17 12:55:06</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>0.9078903198242188</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>일정성분비법칙 외워야하나요</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙이 무엇인가요</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>반가워요^^일정 성분비의 법칙은 화학 반응이 일어날때반응하는 물질은 항상 일정한 질량비를 이루면서 결합한다는 뜻입니다.즉, 아무리 양이 많아도 자신이 반응하는 질량 만큼만 서로 반응한다는 법칙입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2020-07-17 13:36:08</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>0.8272866606712341</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>온난전선 통과후 기압이 낮아지는게 이해가 안돼요</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>선생님 한랭전선과 온난전선이 통과한 후의 기압변화는 없나요? 혹시 있다면 왜 기압이 변화되는지 이유도 알려주세요~!!</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>반가워요^^차가운 공기의 경우가 지표면쪽에 더 많이 모여 있으므로한랭 전선이 통과하고 나면 기압이 높아지구요온난 전선이 통고하고 나면 기압이 낮아진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2020-07-17 13:37:49</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>0.7548881769180298</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>온난 전선인 지역은 저기압이라고 할수 았는거죠</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>온대저기압에서 온난 전선과 힌랭전선은 구름이 생성되니까 모두 저기압 인가요 ??</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>반가워요^^온대 저기압의 중심은 저기압입니다.^^온난 전선과 한랭 전선은찬 공기와 따뜻한 공기가 만나서 구름이 생기는 경우로저기압은 아닙니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2020-07-17 14:16:54</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>0.7513129711151123</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>공기가 상승하면서 상대습도가 높아지나요 ?</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>선생님 혹시 기온과 상대습도가 온도가 변할때는 현재 공기의 수증기량은 일정하다는 조건이 와야 하나요?</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>네^^ 정확하게 맞습니다.현재 공기 속의 수증기량이 거의 일정한 상태에서기온에 따라 포화 수증기량이 달라지므로상대 습도가 변하는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2020-07-17 14:17:28</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0.7374458312988281</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>단열팽창할때 상대습도가 높아지는게 아니고오 ?</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>﻿ㄴ 보기가 틀린 이유를 모르겠어요 !! 단열팽창하여 기온이 낮아지면 포화수증기량도 적기 때문에 상대습도도 낮아지는거 아닌가요 ?!?!</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>반가워요^^문제의 그림에서 처럼 공기가 A에서 B로 상승하게 되면 주위의 기압이 낮아지면서 상승한 공기 덩어리의 부피가 팽창합니다이때 단열 팽창의 과정에서 온도가 내려가게 되어 이슬점에 도달하면 수증기가 응결해서 구름이 생성되는 것이랍니다. 이때, 공기의 온도가 내려가면포화 수증기량은 줄어들지만. 공기 속의 수증기량을 똑 같으니까요상대습도는 오히려 증가해야 한답니다.그런데, 26쪽 4번 문제의 ㄴ에서는 오히려 상대습도가 낮아진다고 했으므로옳지 않은 내용입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2020-07-17 14:34:45</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.6443091630935669</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>응결이 일어나는이유</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>응결점을 배우다 질문해요////응결은 수증기가 물로 변하는 거잖아요?근데 응결이 왜 일어나는지 궁금해요//</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>반가워요^^수증기는 기체라서 활발하게 움직이고, 공간을많이 차지한답니다.'그런데, 온도에 따라서 공기 속에 최대한 포함될 수 있는 수증기의 양에 제한이 있어요특히 온도가 내려갈수록 공간이 좁아지고수증기가 적게 포함될수 밖에 없답니다.이때, 온도가 높아서 수증기가 많았는데온도가 내려가게 되면수증기가 담겨 있기 어려우므로, 수증기 들끼리 뭉쳐서 응결하여 물방울이 되어 버리면공간을 줄일 수가 있답니다.따라서 응결하게 되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2020-07-17 14:34:53</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2020-07-17 15:01:19</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.7540481090545654</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>공기의 밀도</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>꽃향기가 퍼지면 공기와 만나서  공기가 달라지지 않나요?향수도 그렇지 않나요?</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>반가워요^^꽃향기가 나면, 공기와 섞이게 되는 것일뿐공기 자체가 바뀌지는 않는답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2020-07-17 15:01:20</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:26:21</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.7581214904785156</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>뜨거운 공기의 밀도</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>꽃향기가 퍼지면 공기와 만나서  공기가 달라지지 않나요?향수도 그렇지 않나요?</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>반가워요^^꽃향기가 나면, 공기와 섞이게 되는 것일뿐공기 자체가 바뀌지는 않는답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:26:27</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0.7682259678840637</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>공기의 밀도</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>꽃향기가 퍼지면 공기와 만나서  공기가 달라지지 않나요?향수도 그렇지 않나요?</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>반가워요^^꽃향기가 나면, 공기와 섞이게 되는 것일뿐공기 자체가 바뀌지는 않는답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:26:30</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.3510186076164246</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>개새끼</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>끝에 문제 풀이 중요 4번 설명 하실 때요 ! ㄱ에빛의 양이 적거나 많을 때는 망막의 앞에 빛이 맺히는게 아니라 망막에 딱 하고 빛이 맺히는 건가요? 그럼 어느 때이든 간에 빛을 볼 때는 망막 앞도 뒤도 아닌 망막에! 빛이 맺히는 거죠?? 아 그리구요 !! ㄷ에선생님에 설명 하실 때 빛의 양을 조절하는 건 동공이 아니라 홍채 아닌가요..?</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>반가워요^^네, 일단 물체가 보이기 위해서는 망막에 빛의 상이 맺혀야 합니다.빛의 양을 조절하는 것을 엄밀하게 따지만홍채의 수축와 이완으로 동공의 크기가 작아지거나 커질때이므로홍채라고 해도 되고, 동공이라고 해도 됩니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:26:48</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.6954179406166077</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>밀도</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>대류랑 밀도랑.....둘이 무슨관계인지 설명해주세여..ㅜㅜ(왜ㅠ밀도가 작어지는지)</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>반가워요^^일단. 같은 공기인데요아래쪽 공기가 따뜻해지면, 온도가 높아지면서 기체 입자 사이의 거리가 멀어지고이렇게 되면 같은 질량에 대해서 부피가 커지면서 밀도가 작아진답니다그러면, 찬 공기 보다 따뜻한 공기의 밀도가 작아서 가벼우므로아래쪽에 있는 따뜻한 공기가 위로 올라가고, 위쪽의 차가운 무거운 공기가 아래로 내려오면서공기가 상하로 움직이는데요이러한 움직임을 대류하고 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:26:48</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.6954179406166077</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>밀도</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>대류랑 밀도랑.....둘이 무슨관계인지 설명해주세여..ㅜㅜ(왜ㅠ밀도가 작어지는지)</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>반가워요^^일단. 같은 공기인데요아래쪽 공기가 따뜻해지면, 온도가 높아지면서 기체 입자 사이의 거리가 멀어지고이렇게 되면 같은 질량에 대해서 부피가 커지면서 밀도가 작아진답니다그러면, 찬 공기 보다 따뜻한 공기의 밀도가 작아서 가벼우므로아래쪽에 있는 따뜻한 공기가 위로 올라가고, 위쪽의 차가운 무거운 공기가 아래로 내려오면서공기가 상하로 움직이는데요이러한 움직임을 대류하고 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:26:50</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0.6954179406166077</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>밀도</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>대류랑 밀도랑.....둘이 무슨관계인지 설명해주세여..ㅜㅜ(왜ㅠ밀도가 작어지는지)</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>반가워요^^일단. 같은 공기인데요아래쪽 공기가 따뜻해지면, 온도가 높아지면서 기체 입자 사이의 거리가 멀어지고이렇게 되면 같은 질량에 대해서 부피가 커지면서 밀도가 작아진답니다그러면, 찬 공기 보다 따뜻한 공기의 밀도가 작아서 가벼우므로아래쪽에 있는 따뜻한 공기가 위로 올라가고, 위쪽의 차가운 무거운 공기가 아래로 내려오면서공기가 상하로 움직이는데요이러한 움직임을 대류하고 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:37:28</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.1945720016956329</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>연사</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>​안녕하세요—-초6학생 입니다. 더보고 싶은데 32강 이후로는 더 안나오나요?그리고 과포화상태는 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>반가워요^^이번주 안으로 33강이 업데이트 될 수 있도록 노력하겠습니다.과포화 상태는포화 상태보다 더 많은 수증기가 들어있는 불안정한 상태랍니다.따라서 금방 물방울이 생기면서 포화 상태로 넘어간답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:37:33</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.1744528114795685</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>역사</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>온대 저기압 형성 과정에서 찬공기가 따뜻한 공기 양쪽으로 몰리는 이유와 가운데 저기압이 형성되는 이유가 무엇인가요?? 이해가 잘 안돼요 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>반가워요^^찬 공기는 따뜻한 공기보다 무거우므로위쪽으로 오는 따뜻한 공기의 기류를 양쪽에 누르기 때문이구요옆으로 회오리 처럼 공기들이 이동하면서가운데는 공기의 양이 상대적으로 부족해져서 저기압이 되는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:37:50</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.1805723011493683</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>호롤로로로</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>안녕하세요 선생님!!산과 염기의 반응은 발열 반응의 예이고 질산 암모늄과 수산화 바륨의 반응은 흡열 반응의 예인데 이 때 질산과 수산화는 각각 산과 염기 아닌가요..??? 질산 암모늄과 수산화 바륨의 반응은 산과 염기의 반응 중 예외 사례로 흡열 반응 인가요?</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>반가워요^^수산화이온이 있으면 염기가 맞습니다.하지만. 산이들어갔다고 산이아니구요수소 이온이 옹액에서 나올때랍니다.질산을 물에 녹이면 수소 이온이 나와서 산이지만질산 암모늄은 물에 녹으면질산 이온과 암모늄 이온이 나오므로 '수소 이온이 없어서 산이아닙니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:37:58</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0.5923589468002319</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>과학이 너무 하기 싫어요</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>선생님? 수학이 과학의 영역마저 장악한것입니까? 하... 이런 정말 신나네요 하하하하하하하하하핳핳하하하하하하으윽흐윽</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 귀여운 친구*^^*열공 열공 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:38:06</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.5932093262672424</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>과학이 싫어요</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>선생님? 수학이 과학의 영역마저 장악한것입니까? 하... 이런 정말 신나네요 하하하하하하하하하핳핳하하하하하하으윽흐윽</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 귀여운 친구*^^*열공 열공 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:52:36</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0.6954179406166077</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>밀도</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>대류랑 밀도랑.....둘이 무슨관계인지 설명해주세여..ㅜㅜ(왜ㅠ밀도가 작어지는지)</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>반가워요^^일단. 같은 공기인데요아래쪽 공기가 따뜻해지면, 온도가 높아지면서 기체 입자 사이의 거리가 멀어지고이렇게 되면 같은 질량에 대해서 부피가 커지면서 밀도가 작아진답니다그러면, 찬 공기 보다 따뜻한 공기의 밀도가 작아서 가벼우므로아래쪽에 있는 따뜻한 공기가 위로 올라가고, 위쪽의 차가운 무거운 공기가 아래로 내려오면서공기가 상하로 움직이는데요이러한 움직임을 대류하고 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:54:20</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.9077825546264648</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>대류</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>대류가 뭐예요?</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>대류는 입자가 직접 이동하여 열을 전달하는 방법이에요. 예를 들어 에어컨을 틀면 찬 바람이 아래로 직접 이동하고, 히터를 틀면 뜨거운 바람이 위로 직접 이동해요. 이런 식으로 밀도가 큰 찬 공기가 아래로, 밀도가 작은 뜨거운 공기가 아래로 이동하면서 열을 전달하는 방법이 대류예요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2020-07-18 05:54:32</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.7446843385696411</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>대류+기상현상</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>수증기가 있다는 전제로 하에 대류가 활발히 일어나면 기상 현상이 일어나는 이유를 설명해주세요!!</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>반가워요^^수증기가 있다면 공기가 대류하면서 상승할때수증기를 포함하고 있던 공기가 상승하게 되면서단열 팽창이 일어납니다.이때, 공기의 기온을 내려가게 되면서이슬점에 도달하면 수증기가 응결하여 물방울이 되므로 구름이 생성되는 것입니다.구름이 생성되면 이곳에서 비나 눈이 내릴 수 있으므로기상현상이 나타나는 것이지요결국 수증기가 있고, 대류에 의해서 공기의 상승이 있어야기상현상도 볼 수 있다는 뜻입니다^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:22:12</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.5301804542541504</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>높은 곳으로 올라갈수록 대기가 희박해지는 까닭</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>대기랑 기권은 서로 무슨 차이가 있나요?</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>반가워요^^대기는 지구를 둘러싸고 있는 공기를 뜻하구요기권은 대기가 차지하는 전체 영역을 전부 뜻하는 것입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:22:24</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.4894989728927612</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>기압+감소+대기</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>기권을 이루는 대기는 지표면으로 부터 약 1000km 이라고 하는데 그러면 우주선이나 운석 같은 것들이 지구에서 나갈 때나 들어올 때는 이 지표면으로부터 1000km을 출입하는 거에요??</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다네 그렇습니다.지표면위의 1000km까지의 대기를 뚫고 움직여야 하는데요하지만. 대기의 80%는 지표면에서 11km정도에 밀집되어 있기 때문에위쪽으로 갈수롤 둟고 나가기가 쉽답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:22:33</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.4878851175308228</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>기압의 감소+높이+대기</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>기권을 이루는 대기는 지표면으로 부터 약 1000km 이라고 하는데 그러면 우주선이나 운석 같은 것들이 지구에서 나갈 때나 들어올 때는 이 지표면으로부터 1000km을 출입하는 거에요??</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다네 그렇습니다.지표면위의 1000km까지의 대기를 뚫고 움직여야 하는데요하지만. 대기의 80%는 지표면에서 11km정도에 밀집되어 있기 때문에위쪽으로 갈수롤 둟고 나가기가 쉽답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:22:42</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>0.6219754219055176</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>기압이 낮아지는 것</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>장소에 따라 기압이 달라지는건 이해가 되는데 시간에 따라 기압이 달라진다..? 이건 왜 그런건지 이해가 안가네요ㅜㅜ 알려주세요!!!</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다시간에 따라서낮 시간에는 지표가 가열이 많이 되므로, 지표면쪽에서 공기가 상승하게 되므로 지표면쪽은 저기압이 되구요밤 시간에는 공기가 냉각되면서 오히려 지표면 쪽으로 모이게 되면서 고기압이 된답니다.그러니, 시간에 따라서도 기압은 달라진다고 하는 것이지요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:22:57</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>0.6682119369506836</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>높은 곳으로 올라갈수록 기압이 낮아지는 것</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>﻿선생님 !! 수은 기둥이 있는 곳을 제외한 곳은 ﻿중력 때문에 밖으로 나오지 않는 것이라고는 생각할수 없나요??!?</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>반가워요^^중력은 모든 곳에서 다 작용하고 있구요중력 이외의 기체의 압력 때문이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:23:11</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>0.6630083918571472</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>높은곳+기압</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>﻿선생님 !! 수은 기둥이 있는 곳을 제외한 곳은 ﻿중력 때문에 밖으로 나오지 않는 것이라고는 생각할수 없나요??!?</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>반가워요^^중력은 모든 곳에서 다 작용하고 있구요중력 이외의 기체의 압력 때문이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:23:19</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0.7261815071105957</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>높은곳+기압-수은</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>﻿선생님 !! 수은 기둥이 있는 곳을 제외한 곳은 ﻿중력 때문에 밖으로 나오지 않는 것이라고는 생각할수 없나요??!?</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>반가워요^^중력은 모든 곳에서 다 작용하고 있구요중력 이외의 기체의 압력 때문이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:27:36</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.4903817474842072</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>높은 곳으로 갈수록 기압이 낮아지는 것은 대기의 양이 감소하기 때문이다</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>﻿선생님 !! 수은 기둥이 있는 곳을 제외한 곳은 ﻿중력 때문에 밖으로 나오지 않는 것이라고는 생각할수 없나요??!?</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>반가워요^^중력은 모든 곳에서 다 작용하고 있구요중력 이외의 기체의 압력 때문이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:27:51</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>0.8136546015739441</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>수은</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>선생님 왜 수은기둥이랑 기압이 같을 때 수은이 나오는 것이 멈추는거에요?</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.사실을 기압이 수은 기둥을 떠 받치고 있다고 보시면 됩니다.따라서 수은 기둥이 누르를 압력이랑떠받치는 기압이 같은 순간에는합력이 0이 되면서 수은기둥도 멈추게 되는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:27:56</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>0.8048816323280334</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>수학</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>선생님? 수학이 과학의 영역마저 장악한것입니까? 하... 이런 정말 신나네요 하하하하하하하하하핳핳하하하하하하으윽흐윽</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 귀여운 친구*^^*열공 열공 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:28:14</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:28:17</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.6643334031105042</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>이과</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>16강 이후에 강의는 언제 나오나요??</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>반가워요^^기다리게 해서 미안합니다.곧 업데이트 예정입니다.감사해요</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:28:42</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>0.5943893194198608</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>기압 변화</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>중력은 항상 9.8 아닌가요..?</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>반가워요^^중력 가속도 상수는 항상 9.8입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:28:53</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>ㅜㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗㅗ6</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:28:56</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0.2351380437612534</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>/'.;ㅣ,ㅡㅏㅝㅕㅓㅑㅏㅐㅣ;ㅔ'[]</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>선생님~~ 좀 관련은 없지만온대 저기압에서 저기압 지대가 다른 고기압 지대에비해서 너무 저기압이면 그곳에서 토네이도같은기상 현상이 일어날수 있나요???</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>반가워요^^온대 저기압에서 생성되는 저기압은열대 저기압처럼 기압차이가 많이나는 저기압이 아니라서토네이도와같은 바람을 생겨나지 않는답니다.토네이도는 기압이 매우 불안정 할때 나타나는 바람이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:28:57</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>0.6707760691642761</v>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>'[;ㅔㅣㅐㄱㄹㄷㅇ4ㄱㅀ소ㅛㅕㅓㅑㅏㅐㅣ;ㅔ'[]</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>3/5이문제 보기 ㄱㄹ을 모르겠어요 그림을보면 분명히 전체질량이 줄었는데 왜 ㄱ 이 아니며ㄹ은 보기 자체가 이해가 안되요</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>반가워요^^23쪽 1번 문제 많이 어려우시죠? 차근 차근 설명드릴께요우선, 문제에서 탄산 칼슘과 묽은 염산이 반응하면 기체가 발생합니다. 그러나 주사기라는 닫힌 용기이므로 발생한 기체의 질량이측정되어 질량은 일정하게 유지된답니다. 따라서 반응물의 전체 질량과 생성물의 전체 질량이 같음을 이 실험에서 확인할 수 있는 것이지요.보기를 하나씩 보면ㄱ. 반응이 일어나는 동안 주사기 전체의 질량은점점 감소한다.  ☞ 옳지 않습니다.  주사기는 닫힌 용기이므로 질량은 일정하게 유지되기 때문입니다. ㄴ. 비커에 담아 실험하더라도 같은 결과를 얻을 수 있다. ☞ 옳지 않습니다.  같은 용액을 사용하여 비커 등의 열린 용기에서 실험한다면 발생한 기체가 공기 중으로 날아가므로 질량이 감소하기 때문입니다.ㄷ. 묽은 염산과 탄산 칼슘이 반응하여 발생하는기체를 주사기로 모을 수 있다.☞ 옳은 내용입니다. 닫힌 용기 이므로 기체가 주사기에 모입니다. ​ㄹ. 반응 전 묽은 염산과 탄산 칼슘의 질량을 알고 있다면 생성물의 전체 질량을 알 수 있다.☞ 옳은 내용입니다. 닫힌 용기라고 반응전과 반응후의 생성물의 전체 질량도 구할 수 있습니다. 따라서, 정답은 5번 ㄷ,ㄹ입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:28:59</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>0.2097803205251694</v>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>ㅗㅛㅎㅅㄱㄹ54ㅅ6ㅛ\.78+.7]=-[ㅔ09ㅐ8ㅑ7ㅕㅛ6ㅅ58754</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>봄 여름 가을이 안써져있을때에는 봄과 가을 일기도를 어떻게 구별하나요?</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다사실, 봄, 가을의 일기도만 보고 계절을 찾아내기가 어려운 부분이 있답니다.대신 여름은 남고북저형의 기압배치겨울은 서고동저형의 기압배치를 이루므로여름과 겨울 중심으로 알아두시면 좋아요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:29:05</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>3ㅍ ㅕㅔ9999999999999999999999999999</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:29:08</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>2362369.+------------66666666666-9\</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2020-07-18 06:29:09</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2020-07-18 11:42:09</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>0.8699731230735779</v>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>실제 수증기량이 많을수록 이슬점이 높아진다</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>이슬점은 왜 실제 수증기량이 많을수록 높아지나요?</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>반가워요^^ 이슬점이 많이 헷갈리시죠?일단. 실제 수증기량으로 포화 상태가 될때의 온도가 이슬점이랍니다.즉,  어떤 공기의 이슬점이 몇도다 라고 나어면이슬점 온도에서의 포화 수증기량이 곧어떤 공기 속에 실제로 들어있는 수증기량이랍니다. 따라서, 이슬점은 공기 중에 포함된 수증기량에 따라서 달라진답니다. 공기 중에 수증기가 많이 발생한다면 실제 수증기량이 많아지니까요 이슬점이 높아지구요공기 중에서 수증기를 제거한다면 실제 수증기량이 적어지니까요, 온도가 한참 낮아져야 포화상태가 되므로 이슬점이 낮아진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2020-07-19 00:59:11</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>0.6571437120437622</v>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>기단의 앞쪽은 어디인가요?</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>﻿선생님 온난 전선보다 이동속도가 빠른 한랭전선이 온난전선과 만나 겹쳐져서 생긴 전선이 폐색전선 이잖아요,그러면 속도가 더 빠른 한랭전선이 추월해서 폐색전선이 깨지기도 하나요?? 그리고 이런 시베리아기단, 오호츠크해 기단등 이러한 기단들은 1년 내내 사라지지 않고 존재하나요?? 2개다 답변해 주세요^^ ﻿</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다. 하나씩 답변들어갑니다. 1. 한랭 전선이 온난전선을 만나는 순간 차가운 공기와따뜻한 공기가 섞여 버리므로 한랭전선과 온난 전선을 더이상 이동하지 않고공기가 섞여 버린답니다. 따라서 추월하여 한랭전선이 앞서나가거나 하지는 않습니다.  2. 완전히 사리지는 것은 아니지만. 세력이 약해졌다가  우리나라에 영향을 끼치는 그 계절에 세력이 커지는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2020-07-19 00:59:55</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>0.7824310064315796</v>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>기단의 앞뒤는 어디인가요?</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>선생님!! 왜 기단끼리 만나면 구름이 생기나요?</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>반가워요^^기단끼리 만날때가 아니구요^^따뜻한 기단과 찬 기단이 만날때 랍니다.따뜻한 기단과 찬 기단이 만나면항상 따뜻한 기단이 상승하면서 구름이 생성되는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2020-07-19 01:03:22</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>0.7348673343658447</v>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>압력이 낮아지면 기압 증가?</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>왜 공기가 올라갈수록 압력이 작아지나요?</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>반가워요^^지표면 위쪽으로 올라갈 수록공기의 양이 줄어든답니다.이때, 기압은 공기가 충돌하면서 만들어 내기 때문에공기가 적으면 기압도 낮아지는 것이랍니다따라서 위쪽으로 갈 수록공기의 양이 적어지고기압도 낮아지는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2020-07-19 01:03:35</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0.5481274127960205</v>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>온도 상승 기압</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>선생님!! 공기덩어리가 상승할 때 구름이 바로 만들어지는 경우도 있나요??</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>반가워요^^공기 덩어리가 상승하면서 단열 팽창. 기온 하강, 이슬점 도달, 구름 생성의 과정을 거칩니다.이때, 공기의 상승 속도가 빠르다면이 모든 과정이 빠르게 일어나면서 구름이 생성된답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2020-07-19 01:04:01</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>0.788265585899353</v>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>왜 육지가 바다보다 빨리 가열되나요?</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>해륙풍과 계절풍은 육지의 가열과 냉각으로 발생하는 건가요 ?아니면 바다도 가열 냉각되서 발생하는거에요 ??</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>반가워요^^육지과 바다가 모두 냉각, 가열이 됩니다다만. 가열되고 냉각되는 속도이 차이가 생기면서이로인하여 기압의 차이가 나타나바람이 불게 되는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2020-07-19 01:04:21</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0.6507649421691895</v>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>기온 높은 쪽 밀도</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>대류랑 밀도랑.....둘이 무슨관계인지 설명해주세여..ㅜㅜ(왜ㅠ밀도가 작어지는지)</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>반가워요^^일단. 같은 공기인데요아래쪽 공기가 따뜻해지면, 온도가 높아지면서 기체 입자 사이의 거리가 멀어지고이렇게 되면 같은 질량에 대해서 부피가 커지면서 밀도가 작아진답니다그러면, 찬 공기 보다 따뜻한 공기의 밀도가 작아서 가벼우므로아래쪽에 있는 따뜻한 공기가 위로 올라가고, 위쪽의 차가운 무거운 공기가 아래로 내려오면서공기가 상하로 움직이는데요이러한 움직임을 대류하고 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2020-07-19 01:05:07</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0.7079377174377441</v>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>정체 전선</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>선생님 그러면 한랭 전선에서는 따뜻한 공기보다 찬공기가 더 빠르게 가고 온난 전선에서는 따뜻한 공기가 더 빠르다고 볼 수 있죠?</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>그렇지는 않습니다.^^한랭 전선은 찬공기가 빠르게 따뜻한 공기 쪽으로 이동하는 것이구요온난 전선은 따뜻한 공기가 천천히 찬 공기의 위쪽으로 타고 올라가면서 이동하는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2020-07-19 01:06:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>0.5462298393249512</v>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>전선 앞</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>선생님,선생님께서 전선이 이동한다고 하셨습니다.근데 이유가 "공기는 멈추는게 아니라 이동해오니까 전선 자체의 위치도 자꾸만 이동을 하게 되는 겁니다"라고 말씀하셨습니다.그렇다면 결론적으로 전선은 공기의 흐름을 타는 것인가요?</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.사실 전선이라는 것 자체가찬공기가 이동해오거나따뜻한 공기가 이동하면서 생겨나는 것입니다.그러니, 공기의 흐름 바람으로 이해하셔도 됩니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2020-07-19 01:06:17</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>0.8616447448730469</v>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>전선면</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>선생님! 강의 정말 잘 듣고 있습니다. 혹시 전선면에 대해 알 수 있을까요..? 그럼 전선면 밑으로 찬공기와 뜨거운 공기가 섞일 수 있는건가요? 전선면이 막고 있으면 섞이지 못하나요,,? 전선면은 어떻게 되는건가요? 조금 헷갈려서 질문드립니다 ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다사실, 전선면이나 전선을 일시적으로 생기는 것일뿐시간이 지나면서 따뜻한 공기와 찬공기가 닿아있는 곳부터 조금씩 공기가 섞이면서 사라지게 된답니다.따라서, 학생의 말처럼전선면을 기준으로 처음에는 공기의 온도가 다르지만전선면에서 만나는 따뜻한 공기과 찬 공기는 서로 조금씩 섞인답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2020-07-19 01:06:35</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>0.7321953177452087</v>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>전선의 앞쪽</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>온대 저기압에서 한랭전선이 남서쪽으로 온난전선이 남동쪽으로 생기는 특별한이유가 있나요? 그리고 한랭전선 뒤쪽에선 북서풍, 두 전선의 사이에선 남서풍, 온난전선 앞쪽에서는 남동풍이 부는 특별한 이유가 있나요?</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>반가워요^^특별한 이유가 있습니다.제가 강의에서 설명드린 14강을 찾아보시면온대 저기압이 형성되는 과정을 그림을 그려서 자세히 설명드리고 있습니다.그 과정을 보시면남서쪽에서는 찬 공기가 따뜻한 공기쪽으로 이동해 오므로, 한랭 전선이 생기고남동쪽에서는 따뜻한 공기가 찬 공기 쪽으로 이동해 가므로 온난 전선이 생길 수 밖에 없음을바로 알수 있답니다꼭 강의을 시청하시고, 참고하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2020-07-19 01:07:23</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>0.8174207210540771</v>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>한랭 전선</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>선생님 그러면 한랭 전선에서는 따뜻한 공기보다 찬공기가 더 빠르게 가고 온난 전선에서는 따뜻한 공기가 더 빠르다고 볼 수 있죠?</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>그렇지는 않습니다.^^한랭 전선은 찬공기가 빠르게 따뜻한 공기 쪽으로 이동하는 것이구요온난 전선은 따뜻한 공기가 천천히 찬 공기의 위쪽으로 타고 올라가면서 이동하는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2020-07-19 01:07:35</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>0.8101018667221069</v>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>온난 전선</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>선생님 그러면 한랭 전선에서는 따뜻한 공기보다 찬공기가 더 빠르게 가고 온난 전선에서는 따뜻한 공기가 더 빠르다고 볼 수 있죠?</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>그렇지는 않습니다.^^한랭 전선은 찬공기가 빠르게 따뜻한 공기 쪽으로 이동하는 것이구요온난 전선은 따뜻한 공기가 천천히 찬 공기의 위쪽으로 타고 올라가면서 이동하는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2020-07-19 01:07:53</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>0.7278742790222168</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>폐색 전선</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>선생님,한랭 전선과 온난 전선이 같은 방향으로 이동할 때 이동 속도가 빠른 한랭 전선이 온난 전선과 만나면 폐색 전선이 생기는 거잖아요그러면 두 전선 모두 같은 방향으로 이동하고 있었으니까 폐색 전선의 이동 속도가 더욱 빨라지나요?그리고 모든 정체 전선에서는 우리나라에서 장마 전선이 형성되듯이 고온 다습해져서 비가 내리게 되나요?마지막으로, 정체 전선과 폐색 전선에서 온도와 기압, 습도는 어떻게 나타나나요?? 강의 넘 잘 듣고 있고, 매번 Q&amp;A 답변 너무 친절하고 자세하게 달아주셔서 감사해요!!</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>반가워요^^열심히 공부하는 우리 친구~~ 화이팅!! 정말 좋은 질문입니다.한랭전선이 온난전선을 뒤따르다가 합져져서 생기는 것이 폐색 전선이지만.이 둘은 만나는 순간따뜻한 공기와 찬공기가 섞여 버리면서 이제 사라진답니다.즉, 더이상 움직이지 않는답니다. 그러니, 전선이동속도도 없겠지요? 우리나라의 장마 전선도 정체 전선인데요이때, 오호츠크해기단과 북태평양 기단이 만나다보니둘다 해양에서 생긴 습한 기단이라서둘이 만나서 생기는 정체 전선에 비가 엄청 오므로 장마 전선이 되는 것이랍니다.하지만 이때는 서로 공기가 섞이지 않고 대치 상황에만 있다가 각자의 자리로 다시 물러나는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2020-07-19 01:10:17</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>0.7079377174377441</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>정체 전선</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>선생님 그러면 한랭 전선에서는 따뜻한 공기보다 찬공기가 더 빠르게 가고 온난 전선에서는 따뜻한 공기가 더 빠르다고 볼 수 있죠?</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>그렇지는 않습니다.^^한랭 전선은 찬공기가 빠르게 따뜻한 공기 쪽으로 이동하는 것이구요온난 전선은 따뜻한 공기가 천천히 찬 공기의 위쪽으로 타고 올라가면서 이동하는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2020-07-19 05:29:48</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>0.5548617839813232</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>총질량</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>선생님! 질량보존 법칙에서 물리변화도 질량이 보존되는데 그건 질량보존법칙이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그것도 질량 보존법칙이 성립된다고는 표현합니다. 원래 물리 변화는 물질 자체의 변화가 아니라서질량이 당연히 보존되기때문에  화학반응이 일어날때도 질량이 보존된다는 의미에서질량 보존 법칙을 정의할때화학 반응이  , 반응물의 전체 질량은 반응 후에도 보존된다고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2020-07-19 05:30:30</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>0.6079513430595398</v>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>시험</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>선생님 질량비 외워야 하나요? 시험에서 어떤 물질의 질량비를 묻나요??</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>반가워요^^시험에서 질량비를 묻는 문제가 나올때는원자의 상대적인 질량이 조건으로 나오는 경우가 대부분이랍니다.하지만. 학교 선생님의 재량에 따라서 학교 시험이 많이 결정되니까요'학교 선생님께서 수업하시면 질량비를 외우게끔 하셨다면 기본적인 내용을 암기해두시는 것이 좋은 것 같습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2020-07-19 05:30:56</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>0.7841945886611938</v>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>기단</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>선생님!! 왜 기단끼리 만나면 구름이 생기나요?</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>반가워요^^기단끼리 만날때가 아니구요^^따뜻한 기단과 찬 기단이 만날때 랍니다.따뜻한 기단과 찬 기단이 만나면항상 따뜻한 기단이 상승하면서 구름이 생성되는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2020-07-19 05:31:32</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>0.7325895428657532</v>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>온난 전선을 통과 하고 맑은 이유</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>선생님 그러면 한랭 전선에서는 따뜻한 공기보다 찬공기가 더 빠르게 가고 온난 전선에서는 따뜻한 공기가 더 빠르다고 볼 수 있죠?</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>그렇지는 않습니다.^^한랭 전선은 찬공기가 빠르게 따뜻한 공기 쪽으로 이동하는 것이구요온난 전선은 따뜻한 공기가 천천히 찬 공기의 위쪽으로 타고 올라가면서 이동하는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2020-07-19 05:32:26</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>0.6725966930389404</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>온난 전선 통과 이후 구름이 생기지 않는 이유</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>온대저기압에서 온난 전선과 힌랭전선은 구름이 생성되니까 모두 저기압 인가요 ??</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>반가워요^^온대 저기압의 중심은 저기압입니다.^^온난 전선과 한랭 전선은찬 공기와 따뜻한 공기가 만나서 구름이 생기는 경우로저기압은 아닙니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2020-07-19 05:52:07</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>0.6038368940353394</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>수증기</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>선생님 수증기가 응결할 떄 온도가 높을때 많이 수증기가 물방울로 많이 생기나요?  아니면 온도가 낮을때 수증기가 물방울로 많이 생기나요?</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>반가워요^^공기중의 수증기가 많을 때물방울이 많이 생긴답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2020-07-19 05:52:24</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.852921724319458</v>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>포화수증기량</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>기온이 올라가면 포화 수증기량이 증가한다 하셨는데 왜 그렇죠?</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.이 부분 어려우시죠?정확하게 설명드리자면온도가 높아질 수록 포화 수증기량이 증가하는  이유는 온도가 높아지면서 같은 공기의 질량이 차지하는 부피는 더 커지고공기 사이사이에 공간이 더 커지므로수증기가 들어갈 수 있는 공간이 넓어 지므로최대한 포함할 수 있는 수증기의 량인 포화수증기량이 온도가 높으면 더 증가하게 되는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E545"/>
+  <dimension ref="A1:E558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -13776,6 +13776,326 @@
         </is>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2020-07-19 07:42:31</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0.8134403228759766</v>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>고기압과 저기압중에 어디가 더 기온이 낮나요?</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>고기압과 저기압은 왜 나타나나요?</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>반가워요^^고기압과 저기압이 생겨나는 여러 가지 이유가 있지만대표적으로는 지표면의 불균등한 가열과 냉각 때문이랍니다.자세히 설명드리자면지표면의 특정한 부분이 가열되면 그 부분의 공기는 따뜻해지면서 가벼워져 상승합니다.그렇게 되면 지표면 부근은 공기가 적어지면서 저기압이 형성되는 것입니다.반대로, 지표면의 특정한 부분이 냉각되면 그 부분의 공기는 차가워지면서 무거워져 하강합니다.그렇게 되면 지표면 부근은 공기가 많아지면서 고기압이 형성되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2020-07-19 08:33:58</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0.5581669807434082</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>대기의 높이는 어느정도인가요</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>선생님! 복사 에너지와 온실효과에 대해 잘 이해가 안 갑니다ㅜㅜ! 태양복사 에너지가 지구로 도달하게 되는건 70%정도여서 지구도 우주에 70%정도의 양을 복사해서 복사평형이 이뤄진다고 하셨는데요. 그럼 온실효과를 일으키면서 대기의 흡수와 방출을 일으키는 복사에너지는 어디서 나온건가요? 지구의 복사 에너지 30%가 여기에 쓰이는건가요? 지구의 복사 에너지는 그럼 온실효과를 일으키는(대기에서 흡수와 방출을 반복하는) 30%, 우주로 방출되는 70%로 이루어져있는건가요...? 아니면 우주로 방출되는 70%안에 온실효과를 일으키는 것도 포함되어 있는건가요?</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>아주 좋은 질문입니다.^^이 부분이 어렵지요?일단. 지구가 우주로 부터 흡수하는 것은 70%이구요이 복사 에너지를 통해 지구가 가열되고, 지구가 다시 내놓는 복사 에너지는 70%입니다.그런데, 이 과정에서 지구의 온실 기체는지구에서 복사 되어 나가는 에너지의 일부를 재흡수한답니다 예를 들어서 70%가 빠져 나가는데, 이중에서 50%를 재흡수하고이 때문에 온실기체의 온도가 올라가면서 다시 지표면을 데우교지표면에서 다시 복사 에너지가 나가고, 다시 온실기체가 흡수하여 데우고'하는 과정에서 지구의 기온을 올라가구요결국, 마지막에는 나머지 50%가 지구 바깥으로 빠져 나간답니다.결국, 전체 70%가 빠져 나간답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2020-07-19 08:34:32</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>0.780875563621521</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>일정성분비 법칙이 성립하는 이유는</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>기체반응법칙에서 질량보존법칙과 일정성분비법칙이 모두 성립되나요??</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>네^^ 모두 성립합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2020-07-19 08:34:43</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0.2115887701511383</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>개색히야</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요~ 학교에서 나눠준 학습지이고, 답도 학교선생님께서 적어주신 답인데요, 공의 자유낙하운동 실험결과를 적은 사진인데, 공의 속력이 1m/s씩 증가를 하고 있어요..   &lt;o:p&gt;&lt;/o:p&gt;자유낙하운동은 매초 9.8m/s씩 증가해야 하는 것 아닌가용?? 왜 속력이 1m/s씩 증가하는지 모르겠어용ㅠㅠ   &lt;o:p&gt;&lt;/o:p&gt;매번 이렇게 학교수업 내용으로 질문드려서 죄송합니당ㅠㅠ그래두 항상 친절히! 깔끔하게 답변해주셔서 감사해요:)</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>좋은 질문입니다.^^중력 가속도에 의해서떨어지는 공은 전체적으로 9.8m/s의 속력이 더해지는 것 맞습니다.즉, 1초 증가할 때 마다 속력이 9.8씩 증가한다는 뜻인데요학교에서 나눈 학습지 내용도 맞는 내용입니다.'다만. 1초가 아닌 0.1초 간격이므로 0.98씩 증가해야 하구요0.98은 약 1이므로 1m/s씩 증가한다고 표현한 것 같습니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2020-07-19 08:34:50</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>아니</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2020-07-19 08:34:51</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>0.2018313854932785</v>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>선생님 기압이 같을때 유리관의 굵기나 기울기에 관계없이 높이가ㅜ일정하다는데 ㄱ유리관의 길이가 길어져도 수은기둥높이가 일정한가요??</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.유리관이 길어져도 수은 기둥은 76cm에서 멈추니까요유리관 안의 진공이 부분이 더 커진답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2020-07-19 08:35:14</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.7560067176818848</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>대기는 기권중 어느 층에있나요?</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>성층권에서 오존이 존재하기에 온도가 꺽인다는게 이해가 안가요ㅜㅜ그리고 기권이 지구를 둘러싸고있는 대기인데 그럼 우주인가요 ?!</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.사실, 오존층이 없다면자외선을 전혀 흡수할 수 없답니다.따라서 80km까지는 지표면의 열에의해서만 영향을 받으므로높이 올라갈수록, 즉, 지표면에서 멀어질 수록 온도가 내려가는 분포를 하는 것이랍니다. 그런데, 오존층의 위쪽에서 더 많은 자외선을 흡수하게 되므로아래쪽 보다는 위쪽으로 갈수록 더 온도가 높아진답니다. 결국. 성층권안에서 오존층의 가열로 인하여 위쪽까지 뜨거운 열기가 전달되므로성층권 내부에서는 위쪽으로 올라갈 수록 기온이 올라가는 구조를 이루고 있답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:33:40</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0.7510590553283691</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>철이 녹스는건 물리 변화 인가요 ?</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>개념책 30쪽에 4번 아무리 풀어봐도 이해가 되지 않아서요ㅠㅠㅠ왜 36÷3을 하는건지 30÷3은 안되는건지 그리고 왜 곱하기는 안되는갼지 자세히 좀 알려주시면 좋겠습니다!!</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>반가워요^^30쪽 4번 문제를 뜻하는 군요이것은 4강을 보시면 마지막 부분에서 풀이하면서 너무 빠르게 달려버렸지요?이곳에서 차근차근 설명드릴께요문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:34:15</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.7494370341300964</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>철이 녹스는건 왜 물리변화 이죠</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>개념책 30쪽에 4번 아무리 풀어봐도 이해가 되지 않아서요ㅠㅠㅠ왜 36÷3을 하는건지 30÷3은 안되는건지 그리고 왜 곱하기는 안되는갼지 자세히 좀 알려주시면 좋겠습니다!!</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>반가워요^^30쪽 4번 문제를 뜻하는 군요이것은 4강을 보시면 마지막 부분에서 풀이하면서 너무 빠르게 달려버렸지요?이곳에서 차근차근 설명드릴께요문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:36:03</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0.8743549585342407</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>시험범위</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:38:08</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0.8739084005355835</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>시험범위</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:38:20</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>0.9232282638549805</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>기체반응법칙</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>기체 반응 법칙을 알려주세요</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>일정한 온도와 압력에서 기체가 반응하여 새로운 기체를 생성할 때 각 기체의 부피비가 간단한 정수비가 성립한다는 법칙이에요. 이 때 계수비 = 부피비 = 입자수비임.</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:41:37</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>0.8466321229934692</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>온실효과가 일어나면 복사평형이 깨지지 않나요?</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>온실효과</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>온실효과는 대기의 영향으로 대기가 없을 때보다 지구 평균 기온이 높게 나타나는 현상이에요.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E558"/>
+  <dimension ref="A1:E565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -14096,6 +14096,181 @@
         </is>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:48:33</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0.9102506637573242</v>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>질량보존법칙 일정성분비법칙</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>질량보존 법칙이랑 일정성분비 법칙</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>일정성분비법칙은 화합물 입장에서 화합물을 구성하는 원소의 질량비가 딱 정해져 있다는 법칙이고, 질량보존법칙은 화학반응식 전체로 볼 때 반응 전과 반응 후의 질량이 변하지 않는다는 법칙이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:48:52</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>0.5883088707923889</v>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>주관식 문제 교과서에 나온문제를 바탕으로나오나요?</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>질량비는 외워야 하는건가요?</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 그렇지는 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:49:38</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0.9157861471176147</v>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>화학반응식 외워야하나요?</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>화학반응식을 어떻게 해야하는지 감이 안옵니다</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>맞아요, 많이 어렵지요?일단. 강의를 한번 더 시청하시기를 권해 드리고 싶습니다.또한, 화학 반응식의 기초가 되는화학식을 먼저 익혀 두셔야 합니다.2강을 수강하시면 어느 정도 이해가 되실꺼예요힘내세요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:56:58</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>0.5877629518508911</v>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>기압은 왜 발생해</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>1기압은</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>1기압 = 76 cmHg = 1013 hPa. 책 81쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:57:52</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.7524319887161255</v>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>단열 팽창이 일어나는 이유</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>단열 팽창이 뭔가요?</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>단: 차단한다 / 열: 열을 / 팽창: 부피가 늘어난다 -&gt; 열의 흐름이 차단된 상태에서 부피가 늘어나면서 온도가 떨어지는 현상이지요. 수업시간에 했죠? ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:58:06</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>0.693143367767334</v>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>구름이 만들어지는 경우</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>선생님!! 공기덩어리가 상승할 때 구름이 바로 만들어지는 경우도 있나요??</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>반가워요^^공기 덩어리가 상승하면서 단열 팽창. 기온 하강, 이슬점 도달, 구름 생성의 과정을 거칩니다.이때, 공기의 상승 속도가 빠르다면이 모든 과정이 빠르게 일어나면서 구름이 생성된답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2020-07-19 09:58:31</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>0.7519040107727051</v>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>온대 저기압 지속적인 비</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>온대 저기압, 저기압이 생성되는 쪽에서 왜 공기가 적어져서 저기압이 생성되는건가요??</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>반가워요^^저기압의 정의 자체간공기가 적은 곳을 뜻하는 것이랍니다.따라서 온대 저기압의 중심은 공기의 양이 주변보다 적기 때문에 저기압이 생성되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E565"/>
+  <dimension ref="A1:E575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -14271,6 +14271,256 @@
         </is>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:04:59</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>0.9150320291519165</v>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>포화수증기량은 어떻게 구하나요</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>포화수증기량은 뭐예요</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>어떤 기온에서 일정한 양의 공기가 최대로 수증기를 포함하였을 때를 포화상태라고 하죠? 그 포화상태인 공기 1 kg에 들어 있는 수증기량을 g으로 나타낸 게 포화수증기량이에요. 책 66쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:05:54</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>0.9000554084777832</v>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>시험서술형</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>시험서술형</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>선택형 21개, 논술형 4개</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:06:11</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>0.7675266265869141</v>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>서술형 쉬워요?</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>별은 언제나와여 ?</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>반갑습니다.^^별과 우주 단원에서의 별을 뜻하는 군요별과 우주 단원에 7단원이다 보니현재 제작을 부지런히 해도 시간이 좀 걸릴 것 같습니다.혹시, 별 부분 미리 공부하시다가 궁금한 내용은 이곳에 먼저 올려주세요열심히 도와드릴께요그래고 별과 우주 단원 강의도 빠르게 업데이트 될 수 있도록 노력하겠습니다.고맙습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:06:17</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0.8324636220932007</v>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>지구의 온도가 올라가면 복사평형이 깨지지 않나요</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>복사평형</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>복사평형일 때 흡수하는 태양 복사 에너지 = 방출하는 지구 복사에너지일 때라서 온도가 안 변해요. 책 59쪽을 봐요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:06:27</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>0.6690272092819214</v>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>반사 에너지는 지구 복사 에너지가 아닌가요'?</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>물론 지구에서 방출하는 에너지양 E라고 써놓았지만 A도 반사하면 총 지구에서 방출하는 에너지 양은 30+70= 100 아닌가요??</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.우선, 태양이 보내준 100중에서반사된 30은말 그대로 튕겨 나간 것이랍니다.그러니, 지구로 흡수조차 안된 것이구요지구에서 방출되는 에너지라는 것은지구의 열에 의해서, 자체적으로 반사되는 것이지이렇게 태양의 것을 튕겨 보니는 것은 포함되지 않는답니다따라서 태양으로 부터 실제로 70을 흡수하고이를 통해 가열된 지구가 자체적으로 70을 다시 방출한다고 이해해두어야 해요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:09:02</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>0.8987904787063599</v>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>구름생성</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>구름의 생성</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>이건 개중요해요. 공기 덩어리 상승 -&gt; 단열 팽창해서 온도 하강 -&gt; 온도가 이슬점에 도달하면 -&gt; 수증기 응결 -&gt; 구름 만들어짐. 꼭 외워요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:09:51</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>0.7222210168838501</v>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">지구온난화 </t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>​4개의층중한개도없으면지구는어떠게돼나요?​</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>반가워요^^​4개의 층중 한개도 없으면? 글쎄요~ 일단. 지구라는 행성의 모습이나 특징이 달라지겠지요?우리 친구의 상상력을 한번 펼쳐보세요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:10:19</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>0.9095131158828735</v>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>화학변화</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>화학변화에서 변하는것은</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>화합물이 바뀌지요. ㅎㅎ 반응물이랑 생성물이랑 다르잖아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:11:29</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>0.7900154590606689</v>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">지구의 온도가 올라가면 방출하는 복사에너지 </t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>지구에서 우주로 방출되는 지구 복사 에너지양</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>다 합치면 70%정도 되겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:12:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>0.7887478470802307</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>지구의 온도가 올라가면 방출하는 복사에너지가 올라가지 않나요?</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>지구에서 우주로 방출되는 지구 복사 에너지양</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>다 합치면 70%정도 되겠네요.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E575"/>
+  <dimension ref="A1:E656"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -14521,6 +14521,2031 @@
         </is>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:37:11</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>0.8140411972999573</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>강철솜이 열린용기에 있을대 왜 산소와 결합하나요?</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>선생님 강철솜을 연소반응했을때 왜 강철솜과 산소가 결합하나요?(산소가 연소반응하고 날아가지않고) 그리고 이산화탄소는 왜 생기지않나요?</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>반가워요^^강철솜처럼금속인 물질은 모두 연소시키면산소와 결합을 해버리는 특징이 있기 때문입니다.예를 들어서철, 구리, 마그네슘 등 금속은 연소시키면 기체가 생성되지 않고모두 금속과 결합하면서철은 산화철, 구리는 산화 구리, 마그네슘을 산화 마그네슘이 된답니다^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:37:59</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>0.9229371547698975</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>일정성분비 법칙 식?</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙이뭔가요?</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>화합물을 구성하는 성분 원소 사이에는 일정한 질량비가 성립한다는 법칙이에요. 책 30쪽부터 꼭 읽어봐요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2020-07-19 10:50:12</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>0.6164630651473999</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>이슬점 공부 해야함?</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2020-07-19 11:34:52</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>0.7987014055252075</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>온대 저기압</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>온대 저기압, 저기압이 생성되는 쪽에서 왜 공기가 적어져서 저기압이 생성되는건가요??</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>반가워요^^저기압의 정의 자체간공기가 적은 곳을 뜻하는 것이랍니다.따라서 온대 저기압의 중심은 공기의 양이 주변보다 적기 때문에 저기압이 생성되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2020-07-19 11:36:10</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>0.7143046259880066</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>산으로 올라갈 때 기압</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>높은 곳으로 올라갈수록 기압이 낮아지는 것</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>높이 올라가면 지구의 중력이 약해져서 공기를 붙잡아둘 힘이 부족해져서 그래요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2020-07-19 11:36:50</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>0.7330673933029175</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>수은 말고 물</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>선생님 왜 수은기둥이랑 기압이 같을 때 수은이 나오는 것이 멈추는거에요?</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.사실을 기압이 수은 기둥을 떠 받치고 있다고 보시면 됩니다.따라서 수은 기둥이 누르를 압력이랑떠받치는 기압이 같은 순간에는합력이 0이 되면서 수은기둥도 멈추게 되는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2020-07-19 11:37:16</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>0.7462118864059448</v>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>물로 기압</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>1기압은</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>1기압 = 76 cmHg = 1013 hPa. 책 81쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2020-07-19 11:37:50</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>0.9097607135772705</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>일정성분비법칙 외워야하나요</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>네. 중학교는 외우는 겁니다. 화합물을 구성하는 성분 원소 사이에는 일정한 질량비가 성립한다는 법칙이에요. 책 30쪽부터 꼭 읽어봐요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2020-07-19 11:39:48</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>0.5762406587600708</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>서술형 부분점수 주나요?</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>대답을 안 해주네</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>질문을 좀 더 길게 구체적으로 쓰세요. 내가 쓰고 있는 AI 메커니즘이 그래요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2020-07-19 11:40:23</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>0.5818575620651245</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>서술형 부분 점수 주나요?????????????</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>대답을 안 해주네</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>질문을 좀 더 길게 구체적으로 쓰세요. 내가 쓰고 있는 AI 메커니즘이 그래요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:03:01</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>0.5898201465606689</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>공기 가열 밀도 감소</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>뜨거운 공기의 밀도</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>뜨거운 공기의 밀도가 낮아서 위로 뜨죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:03:48</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>0.6160928010940552</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>뜨거운 공기가 위로 뜬다</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>선생님 따뜻한 공기는 위로 상승하므로 애초에 따뜻한 공기와 찬 공기가만날 수 없지 않나요? 왜 따뜻한 공기가 아래쪽에 위치하여 찬 공기와 만나게되나요?</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>좋은 질문입니다.온난전선을 형성하는 따뜻한 기단은따뜻한 바다위나 따뜻한 지표면위에서 생성되어서대류하기 전에 바람의 흐름에 의해서 이동하게 된답니다.따라서 위쪽으로 올라가기 전에옆으로 미는 힘에 의해서 이동하다가찬 공기를 만나면서 다시 그 위로 올라가는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:04:09</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>0.7077368497848511</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>밀도 감소</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>뜨거운 공기의 밀도</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>뜨거운 공기의 밀도가 낮아서 위로 뜨죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:04:30</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>0.5908797979354858</v>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>공기가 가열되면 밀도가 왜 감소하나요</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>뜨거운 공기의 밀도</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>뜨거운 공기의 밀도가 낮아서 위로 뜨죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:04:54</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0.6590542793273926</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>온도 부피</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>선생님 저 33쪽 3번에 질문이 있는데요, 왜 산소의 부피가 남는지 모르겠어요.</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>반가워요^^33쪽 3번 문제를 보시면일산화 탄소와 산소가 만나서 이산화 탄소가 생기는기체사이의 반응입니다.이때는 반응하는 기체들 사이에서 일정한 부피비로만 반응하는 기체 반응 법칙이 성립된답니다.모형에서 보시면일산화 탄소 2부피는 산소 1부피와 반응해서 이산화 탄소를 만듭니다.즉, 일산화 탄소: 산소=2:1의 부피비로만 반응하므로문제에서  일산화 탄소 기체 50 mL와 반응하는 산소 기체의 부피는일산화 탄소는 절반인 25mL만 반응합니다.따라서 산소를 30mL 넣어주었다고 하더라도일산화 탄소 2에 대해서 산소는 1만 반응하므로30중에서 25만 반응한다는 뜻입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:05:18</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>0.8127048015594482</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>온도와 밀도 관계</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>대류랑 밀도랑.....둘이 무슨관계인지 설명해주세여..ㅜㅜ(왜ㅠ밀도가 작어지는지)</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>반가워요^^일단. 같은 공기인데요아래쪽 공기가 따뜻해지면, 온도가 높아지면서 기체 입자 사이의 거리가 멀어지고이렇게 되면 같은 질량에 대해서 부피가 커지면서 밀도가 작아진답니다그러면, 찬 공기 보다 따뜻한 공기의 밀도가 작아서 가벼우므로아래쪽에 있는 따뜻한 공기가 위로 올라가고, 위쪽의 차가운 무거운 공기가 아래로 내려오면서공기가 상하로 움직이는데요이러한 움직임을 대류하고 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:12:59</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>0.9185716509819031</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>에너지를 방출하는 반응</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>에너지를 방출하는 반응</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>그건 외워야… 그냥 외워야 해요. 어쩔 수 없음. 그나마 팁이라고 하면 무슨무슨 칼슘 들어 있는 반응은 다 에너지 방출, 무슨무슨 암모늄 들어간 반응은 다 흡수하는 반응이긴 하더라고요. 내가 문제풀이 만든 걸 봐봐요. ㅋㅋㅋ 거기에도 이 말 했음.</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:13:59</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>0.9107307195663452</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>물리 변화</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>물리 변화가 뭐에요?</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>물질 고유의 성질은 변하지 않으면서 모양이나 상태가 변하는 현상이에요. 책 13쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:15:23</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>0.5575836300849915</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>서술형 예</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>별은 언제나와여 ?</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>반갑습니다.^^별과 우주 단원에서의 별을 뜻하는 군요별과 우주 단원에 7단원이다 보니현재 제작을 부지런히 해도 시간이 좀 걸릴 것 같습니다.혹시, 별 부분 미리 공부하시다가 궁금한 내용은 이곳에 먼저 올려주세요열심히 도와드릴께요그래고 별과 우주 단원 강의도 빠르게 업데이트 될 수 있도록 노력하겠습니다.고맙습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:16:14</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0.9154204726219177</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>복사평형</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>복사평형</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>복사평형일 때 흡수하는 태양 복사 에너지 = 방출하는 지구 복사에너지일 때라서 온도가 안 변해요. 책 59쪽을 봐요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:16:49</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>0.5410807132720947</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>계산 문제</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>선생님 105쪽에 1번에서 해설지를 보니 일의 양을 구할 때 계단의 높이 5m만 사용해서 계산하더라구요... 계단의 가로의 길이 4m는 왜 같이 이용해서 계산을 안하는 건가요???</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산한답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:17:50</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>0.6482056379318237</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>기권에서 높이 올라갈 수로 기압이 낮아지는</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>대기랑 기권은 서로 무슨 차이가 있나요?</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>반가워요^^대기는 지구를 둘러싸고 있는 공기를 뜻하구요기권은 대기가 차지하는 전체 영역을 전부 뜻하는 것입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:18:55</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>0.7985044717788696</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>한반도 서쪽 동쪽</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>선생님 온대 저기압이 서쪽에서 동쪽으로 이동하는 이유가 단지 편서풍 떄문인가요?편서풍의 힘으로 전선을 밀어낼 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 네~~ 편서풍이 주된 원인입니다편서풍은 작은 바람이 아니구요일년 내내 같은 방향으로 부는대기 대순환에 의한 바람이라서 그 영향력이 크답니다.그리고, 지속적이구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:20:45</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>0.6826134920120239</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>실험을 외워야 하나요</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>선생님 이 실험에서 물은 왜 넣는거죠?</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~현재 질문한 내용에서 말하는 실험이 무엇인지 구체적으로 알려줄 수 있을까요?정확한 답변을 위해서 필요합니다.확인 부탁드려요</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:21:17</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>0.8339706063270569</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>화학반응이 뭐야</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>왜 연소반응이 일어나나요?</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>반가워요^^물질이 산소와 반응하기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:21:38</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>너 누구야</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:28:34</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>0.9429563879966736</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>과학이란?</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>과학이 너무 하기 싫어요</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>뭐.. 안 하셔도 돼요. ㅋㅋㅋ 다른 과목 하셔도 좋아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2020-07-19 12:29:01</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>0.7660620212554932</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>전선이 뭐예요?</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>한랭 전선</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>찬 공기가 따뜻한 공기쪽으로 이동하여 따뜻한 공기 아래로 파고들면서 만들어지는 전선이에요. 그래서 전선면의 기울기가 급하고 적운형 구름이 만들어지다보니 좁은 지역에서 소나기성 비가 내려요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2020-07-19 13:32:52</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>0.6491907238960266</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>구름 입자가 비로 내릴려면 ?</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>선생님 구름이 생성 될 때 수증기의 응결을 도와주는 입자에 소금입자가 있는데 비가 내리면 왜 짠맛이 안나나요?소금은 어디로갔어요?</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>반가워요^^ 똑똑한 우리 친구정말 좋은 질문입니다.비록, 구름의 응결핵에 소금 입자가 있지만.사람이 먹어서 짠맛을 느끼려면 그양이 어느 정도 많아야 한답니다.'그런데, 응결핵으로서의 소금 입자는 맛을 느낄 정도의 양은 아니랍니다.따라서 짠맛이 느껴지지는 않습니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2020-07-19 13:33:02</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>0.6243821382522583</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>구름입자가 비로</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>구름의 생성과정</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>이건 개중요해요. 공기 덩어리 상승 -&gt; 단열 팽창해서 온도 하강 -&gt; 온도가 이슬점에 도달하면 -&gt; 수증기 응결 -&gt; 구름 만들어짐. 꼭 외워요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2020-07-19 13:33:17</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>0.638597309589386</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>구름입자</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>구름은 어떻게 만들어져?</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>이건 개중요해요. 공기 덩어리 상승 -&gt; 단열 팽창해서 온도 하강 -&gt; 온도가 이슬점에 도달하면 -&gt; 수증기 응결 -&gt; 구름 만들어짐. 꼭 외워요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2020-07-19 14:17:42</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>넌 누구나</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2020-07-19 14:17:54</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>넌 누구니?</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2020-07-19 14:18:17</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0.9298105239868164</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>상대습도는 뭐니?</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>상대습도 어떻게 구해요</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>책 67쪽 오른쪽을 보시면 나와 있죠? 현재 공기의 수증기량 / 현재 기온의 포화 수증기량 * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2020-07-19 14:20:17</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>0.6200385689735413</v>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>김정은 나이</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2020-07-19 14:20:32</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0.5777921676635742</v>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>김정은 키, 몸무게</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>점자는 압점인가요, 통점인가요?</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>반가워요^^점자를 읽은 것은압점의 자극을 받는 것이 더 적합한 듯 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2020-07-19 14:20:51</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>0.6678293943405151</v>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>감스트 몸무게</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>갑자기 엽기적인 궁금함이 떠올랐는데요 ㅋㅋㅋㅋ질량은 화학변화를 거쳐도 질량이 보존 되잖아요, 그런데 저는제가 먹은 음식에 질량에 비해 그 음식의 질량보다 제 몸무게는 더 증가하거든요..기분탓인가요 아님 소화작용이나 다른것들에 의해 질량보존 법칙에 적용되지않는 경우인건가요?</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>앗 ㅎㅎ 웃으면 안되는 거죠? 글쎄요. 기분 탓이 아닐까 싶은데요힘내세요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2020-07-19 14:21:05</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0.1948850452899933</v>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>뭐라는거야 아저씨</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>p.106쪽 6번 문제가 이해 안되요 좀 설명 좀 해주세요</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>반가워요^^106쪽 6번에서 문제를 풀기 위해서는km단위를 m단위로 변경해야 해요이때, 72km는 m단위로 바뀌려면 1000을 곱한72000m가 되는 것입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2020-07-19 14:21:17</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>0.2318992912769318</v>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>장난하시는건가요</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>선생님..사람의 세포 1개에는 46개의 염색체가 각각 들어있다고 하셨는데요.그러면 분열을 하지 않을때는 46개가 모두 실처럼 풀어 있다가 분열이 일어나면 상동 염색체를 이루고, 나중에는 각각 44개, 44개 염색분체로 나뉘는 건가요?꼭 답변 부탁드려요!!</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>반가워요^^똑똑한 우리 친구~맞아요분열하기 전에는 세포 1개단 46개의 염색체가 풀어져서 염색사의 형태로 있다가분열을 준비할때, DNA를 2배로 준비해서 염색 분체가 2개 붙어 있는 형태의 염색체 46개를 만들어 내구요체세포 분열을 통해서 염색 분체가 각각 분리되어 독립적인 염색체가 되어각각의 딸세포에 46개씩의 염색체가 들어가게 되는 것이랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2020-07-19 14:21:25</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0.1948850452899933</v>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>아주 웃긴아저씨네</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>p.106쪽 6번 문제가 이해 안되요 좀 설명 좀 해주세요</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>반가워요^^106쪽 6번에서 문제를 풀기 위해서는km단위를 m단위로 변경해야 해요이때, 72km는 m단위로 바뀌려면 1000을 곱한72000m가 되는 것입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2020-07-19 14:47:58</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0.4545492231845856</v>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>질량이 많은 물질이 연소하는데 걸리는 시간</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요~강의 정말 잘 듣고 있어요! 질문이 있는데요 등속 운동의 시간-속력 그래프에서는 시간이 0일때도 속력이 있는 건가요? 예를 들면 저 그래프에서 시간이 0일 떄 속력이 4인건가요?</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>반가워요^^ 좋은 질문입니다.현재 처럼 시간이 0인데 속력이 있는 것은일정한 속력으로 움직이고 있는 물체의 출발점을 시간 0으로 둔 것이랍니다.즉, 시간이 0인 상태에서 막 움직이기 시작한 경우가 아니구요벌써 움직이고 있는 물체에서이 지점부터 시간을 측정하자 하고서0이라고 둔 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2020-07-19 15:09:24</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.7984148263931274</v>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>온대 저기압</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>온대 저기압, 저기압이 생성되는 쪽에서 왜 공기가 적어져서 저기압이 생성되는건가요??</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>반가워요^^저기압의 정의 자체간공기가 적은 곳을 뜻하는 것이랍니다.따라서 온대 저기압의 중심은 공기의 양이 주변보다 적기 때문에 저기압이 생성되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2020-07-19 15:18:01</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>0.6944209933280945</v>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>남동 계절풍</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>선생님,제가 뉴런 공부하다가 하이탑이라는 교재로 공부하고 있는데요.다른 교재로 질문을 드려 죄송합니다.(가)는 북서 계절풍(겨울철), (나)는 남동 계절풍(여름철) 입니다,(가)와 (나)에 대한 설명으로 옿은 것은?①(가)는 남동 계절풍이다.②(나)는 겨울철에 부는 계절풍이다.③(가)에서 대륙은 해양보다 기압이 낮다.④(가)와 (나)는 하루를 주기로 풍향이 바뀐다.⑤(가)와 (나)는 대륙과 해양의 열용량 차이 때문에 발생한다.라고 보기가 나와 있어요...근데,여기서,답이 ⑤번이라고 합니다.근데 답이 왜 5번인가요?</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>반가워요^^선택지 5번의 열용량이라는 개념을 알고 있어야 하는데요'열용량은 어떤 물질의 온도를 1도 높이는데 필요한 열량입니다.따라서 열용량이 큰 물질은 같은 에너지를 주어도 온도를 높이는데 시간이 많이 걸리구요열용량이 작은 물질은 같은 에너지를 주면 온도가 쉽게 올라간답니다.대륙와 해양은 열용량이 달라요대륙의 열용량을 작아서 에너지가 도달하면 온도가 금방 올라가구요해양은 반대로 열용량이 커서 에너지가 도달해도 온도가 천천히 올라간답니다.바로 이러한 열용량의 차이때문에계절풍과 해륙풍이 분답니다.따라서 5번은 옳은 설명이되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2020-07-19 15:30:05</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0.5479155778884888</v>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>기단과 날씨도 시험 범위인가여</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>시험 범위 어디까지인가요?</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2020-07-19 15:38:17</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>0.9145318269729614</v>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>포화수증기량</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>포화수증기량은 뭐예요</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>어떤 기온에서 일정한 양의 공기가 최대로 수증기를 포함하였을 때를 포화상태라고 하죠? 그 포화상태인 공기 1 kg에 들어 있는 수증기량을 g으로 나타낸 게 포화수증기량이에요. 책 66쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2020-07-19 15:38:38</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>0.9298105239868164</v>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>상대습도</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>상대습도 어떻게 구해요</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>책 67쪽 오른쪽을 보시면 나와 있죠? 현재 공기의 수증기량 / 현재 기온의 포화 수증기량 * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2020-07-19 15:39:17</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>0.8640726804733276</v>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>포화수증기량일정</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>포화수증기량은 뭐예요</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>어떤 기온에서 일정한 양의 공기가 최대로 수증기를 포함하였을 때를 포화상태라고 하죠? 그 포화상태인 공기 1 kg에 들어 있는 수증기량을 g으로 나타낸 게 포화수증기량이에요. 책 66쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2020-07-19 15:39:55</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>0.590559720993042</v>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>상대습도낮아짐</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요~!!  기온에 따른 습도변화에서요~~ 일반적으로 겨울철에는 춥고 건조하고/ 여름철에는 덥고 습하지않아요??  여름철에 밖은 덥잖아요, 더우면 포화수증기량이 증가해서 상대습도가 낮아져야하고, 겨울철에 밖은 추우니까 포화수증기량이 감소해서 습해야하는 것 아닌가요~~?? 여름철에는 더워서 상대습가 낮아야하는데 왜 높고, 겨울철에는 추워서 상대습도가 높아야하는데 왜 낮은건가용?? 감사합니당~!!**</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>반가워요^^ 아주 좋은 질문입니다.하루 동안을 기준으로 하면하루 동안의 공기 중의 수증기량은 거의 변화가 없으므로기온에 따라서 포화 수증기량이 달라지면서습도는 달라집니다.하지만. 여름이라는 계절에는 공기중의 수증기가 워낙 많아서기온이 높든 낮든, 즉, 포화 수증기량이 달라진다고 하더라도실제 수증기량 자체가 워낙 많아서습도는 매우 높게 나타나는 것이랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2020-07-19 15:58:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>0.9351281523704529</v>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>혼합물과 화합물 차이점</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>화합물과 혼합물의 차이점은 뭐예요?</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>반가워요^^화합물과 혼합물 많이 헷갈리지요?차근 차근 설명할께요 화합물은 두 종류 이상의 물질이 결합해서 하나의 새로운 물질이 된 것이구요 혼합물을 두 종류 이상의 물질이 단순히 섞여 있기만 하고, 각각의 성질이 그대로인 물질입니다. 예를 들어서   염화 나트륨은 화합물이구요, 설탕물을 혼합물입니다. 염화 나트륨은 염소와 나트륨이 화합해서 완전히 새로운 염화 나트륨이라는 물질이 된 것으로 화합물이구요 설탕물을 설탕과 물이 섞여 있기만 하고, 설탕과 물이 여전히 각각의 성질을 가지고 섞여 있기만 한 혼합물이랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2020-07-19 15:58:35</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>0.9067163467407227</v>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>과학공부하는법</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>과학공부하는법</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>중학교 공부는 달달달달 외워야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2020-07-19 15:58:48</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>0.7451270818710327</v>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>중국어 공부법</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>과학공부하는법</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>중학교 공부는 달달달달 외워야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:03:23</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>0.6960638761520386</v>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>빙정설일때 공기가 상승하면 주변기압이 낮아진다?</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>﻿선생님 안녕하세요.구름의 생성과정에 대해서 질문드립니다.강의에는 나오진 않지만, 제가 풀고있는 교제에는주변보다 기압이 낮아 공기가 모여들 떄 공기가 상승한다고하는데이해가 가지 않네요;; 설명해 주실 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>반가워요^^저기압의 중심에서 구름이 발생하는 경우군요^^일단. 저기압은 주변보다 공기가 적어서주변으로 부터 공기들이 흘러들어온답니다.이렇게 공기가 모여들면, 나중에서 공기가 상승하면서 올라가게 되는 데요'이때, 상승 기류가 생기고구름이 생성되는 것이랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:06:19</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>0.86350417137146</v>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>감사합니다</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">감사합니다 </t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>별 걸 다요 ㅋㅋ 주말을 갈아넣긴 했어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:07:25</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0.8958722352981567</v>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>구름의 생성 과정중에 구름이 언제부터 생기나요?</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>구름의 생성과정</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>이건 개중요해요. 공기 덩어리 상승 -&gt; 단열 팽창해서 온도 하강 -&gt; 온도가 이슬점에 도달하면 -&gt; 수증기 응결 -&gt; 구름 만들어짐. 꼭 외워요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:08:35</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>0.6620250940322876</v>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>응결량은 어떻게 구하는 건가요?</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>응결점을 배우다 질문해요////응결은 수증기가 물로 변하는 거잖아요?근데 응결이 왜 일어나는지 궁금해요//</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>반가워요^^수증기는 기체라서 활발하게 움직이고, 공간을많이 차지한답니다.'그런데, 온도에 따라서 공기 속에 최대한 포함될 수 있는 수증기의 양에 제한이 있어요특히 온도가 내려갈수록 공간이 좁아지고수증기가 적게 포함될수 밖에 없답니다.이때, 온도가 높아서 수증기가 많았는데온도가 내려가게 되면수증기가 담겨 있기 어려우므로, 수증기 들끼리 뭉쳐서 응결하여 물방울이 되어 버리면공간을 줄일 수가 있답니다.따라서 응결하게 되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:11:49</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>0.7667931318283081</v>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>이슬점이 뭐야 ?</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:12:15</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>0.9440693855285645</v>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>과학 잘하는법</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>과학이 너무 하기 싫어요</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>뭐.. 안 하셔도 돼요. ㅋㅋㅋ 다른 과목 하셔도 좋아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:12:25</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>0.6422586441040039</v>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>수증기가 응결할때 구름이 생기기 시작하나요?</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 선생님 응결이 됬다는겄은 포화상태라는거죠? 그러면 응결되면 수증기사 생겨서 구름이 생기는 거죠?</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>반가워요^^응결되었다는 것은수증기가 물방울로 변했다는 것이랍니다.공중에서 일어났다면 구름으로 나타나게 되는 것이구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:12:32</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>지금 뭐할까</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:12:47</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>0.7804535627365112</v>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>안녕? 방학 때도 코로나 조심!</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:13:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>뭐하고계세요</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:13:09</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>반가워요</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:13:20</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>0.8132840394973755</v>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>과학 질문만 받나요</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>과학이 너무 하기 싫어요</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>뭐.. 안 하셔도 돼요. ㅋㅋㅋ 다른 과목 하셔도 좋아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:13:42</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>0.2213212847709656</v>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>국회가 뭐에요</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>선생님!!지구가 복사평형을 하면 다른 행성도 다 복사 평형을 하나요??태양이랑 멀리떨어져 있는 행성도 방출하는 에너지가 있나요?태양이랑 멀리 떨어져 있으면 에너지가 없겠죠??강의 내용엔 없는데 지구의 복사평형을 보니까 "다른 행성도 복사 평형을 할까??"하고 궁금해지더라고요,,, ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>반가워요^^복사 에너지를 받는 모든 물체는 복사평형을 이룬답니다.태양계안의 모든 행성도 복사 평형이 이루어지구요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:14:13</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>안녕히계세요</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:38:07</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>?????????????????????????????????????????????????</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:38:20</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>???????????????????????????????????????"""""""""""""""""""""""""""""""""""""""""""""""""""""'</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:38:34</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>123456789874563210</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:38:39</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>9874563210</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:38:46</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>1478520</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:38:53</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>33333369852014785201478965413210</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:38:57</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>0.692176878452301</v>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>qQ3WAWSE44REDSXDRT6TFCFGY78UHYGV BGHUIUJNJIOKM M,KLP;L.,./'</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>선생님 !! 안녕하세용. 같은 온도와 압력 조건에서 1L의 수소와 1L의 산소의 밀도는 같다.  라는 문제에   O를 하였는데 틀렸네요 ㅜㅜ왜틀린건지궁금해요 !!</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>반가워요^^우선, 밀도는 부피분의 질량으로 구합니다.즉, 그 물질의 질량을 부피로 나누어야 하는데요수소와 산소 1L라면 두 기체의 부피는 같구요이때, 질량은 서로 다르답니다산소의 질량이 수소의 질량보다 더 많이 나간답니다.그러니, 부피 분의 질량으로 구하는 밀도는 달라질 수 밖에 없겠지요? ^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:39:13</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>0.5406336188316345</v>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>ㅣㅏ/ㅔ; ㅏㅓㅗㅍ혀8ㅕㅛㅎㄹㅊㄽ676ㅅㄱㅇㄴㅌㄷ4</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>1) p.95-Q.10-5번에서 시간-이동 거리라고 되어있으면 어떤 것이 x축이고 어떤 것이 y축인가요?2) p.95-Q.,11 문제에 '마찰이 없는' 수평면이라고 되어있는 이유가 뭔가요?</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>반가워요^^ 하나씩 알려드릴께요1. 시간-이동 거리라고 표시되어 있는것은    시간이 y축이고, 이동거리가 x축이랍니다.  2. 마찰이 있는 경우는 계속해서 힘을 주어야 하는 상황이 생기기 때문에   마찰이 없는 수평면이라고 표현한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:39:25</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>0.5944656133651733</v>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>SFLASDHFLKASDFHASDJFHASDJHSD</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>점자는 압점인가요, 통점인가요?</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>반가워요^^점자를 읽은 것은압점의 자극을 받는 것이 더 적합한 듯 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:39:34</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>0.5288028717041016</v>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>ASDFLKHQWUOEDKJNFASDKFASDFLNASDFJKASJDFKHASKDFJSKDJFLKDSJFLKAD;FLKASDFHLAKSDFHSLDFJASLDFJA;DFLJAD;FJ;KDFNJAKDGFKJDHFKJDFJKDHFJKASDHJFHALSDFHHJSKDHFHSDFHJKASHDFJKDSHFHDFLHADFJK</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>그러면 이 문제에서는 다른 정보를 주지 않아서 B,C,D의 위치 에너지와 운동에너지가 몇인지는 모르겠네요?아 물론 A와 E도 정확한 값을 모르기는 한데예를 들어 B의 운동에너지와 D의 위치에너지는 같다. 이런거는 모르는거죠? (질문이 좀 이상하네요ㅠㅠ)</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>반가워요^^열심히 공부하는 우리 친구혼돈을 드려 미안합니다.우선, 현재 우리 친구가 질문한 내용이교재 몇쪽의 몇번 문제인지로 알려주시면더욱 정확한 답변을 드릴 수 있을 것 같습니다.확인 부탁드려요</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:39:52</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>0.5737185478210449</v>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>DFKAHSDKFHASDKJHFUIWQEYSCASDFHHSDJFHSDKJFQWYRUIWUYRUP23UROPQWUYRUIQWQRHJEYJHGBM,DNBVBNX  CXNV</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>그러면 이 문제에서는 다른 정보를 주지 않아서 B,C,D의 위치 에너지와 운동에너지가 몇인지는 모르겠네요?아 물론 A와 E도 정확한 값을 모르기는 한데예를 들어 B의 운동에너지와 D의 위치에너지는 같다. 이런거는 모르는거죠? (질문이 좀 이상하네요ㅠㅠ)</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>반가워요^^열심히 공부하는 우리 친구혼돈을 드려 미안합니다.우선, 현재 우리 친구가 질문한 내용이교재 몇쪽의 몇번 문제인지로 알려주시면더욱 정확한 답변을 드릴 수 있을 것 같습니다.확인 부탁드려요</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:40:04</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>0.6628891229629517</v>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>온대저기압 정의</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>온대 저기압, 저기압이 생성되는 쪽에서 왜 공기가 적어져서 저기압이 생성되는건가요??</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>반가워요^^저기압의 정의 자체간공기가 적은 곳을 뜻하는 것이랍니다.따라서 온대 저기압의 중심은 공기의 양이 주변보다 적기 때문에 저기압이 생성되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:40:09</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>0.6060768961906433</v>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>?????????????????????????????????????????????????DDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDDD3333333333333336666666666666600000000000000000</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>다음 강의는 언제 나오나요??</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>반가워요^^현재 열심히 제작 중에 있답니다.빠르게 업데이트 될 수 있도록 노력하겠습니다.'열공하는 우리 친구~~ 화이팅(^________^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:40:16</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0.2516344785690308</v>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>GKRLTLFGEK</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>빙정설에서 공기가 상승하여 단열팽창하며 기온이 내려가서 이슬점에 도달하면 수증기가 응결하여 물방울이되고 기온이 0도 이하가 되면 얼음알갱이까지 발생하며 이 얼음알갱이에 수증기가 달라붙어무거워져 비나 눈이 내리는데 이 과정에서 낮은 온도임에도 어떻게 수증기가 얼음알갱이에 달라붙을 수 있나요 ? 온도가 낮기 때문에 수증기가 응결이 되지 않나요 ??</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>아주 좋은 질문입니다.^^사실, 원래 물질의 상태에 따른다면수증기는 기체이므로물이 끓는 100도 이상에서 발생해야 하는데요신기하게도물의 경우는 상온에서 수증기도 있고, 물도 있고, 얼음도 일시적으로 있을 수 있답니다.그리고, 영하 20도나 되는 냉동고 안에도 수증기는 존재한답니다따라서 이러한 수증기가 떠 있다가빙정처럼 차가운 물체에 닿으면 바로 승화하여 얼어 붙어버리면서빙정이 자라게 하는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2020-07-19 16:40:26</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>0.2308177649974823</v>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>EHDANSTJEKQ DNANSGUSEKQ DKSLDI TNRHGOtdJDY</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>선생님, 안녕하세요!!요즘들어 과학공부가 재밌어서 열심히 공부하려고 하는 학생입니당~ㅎㅎㅎ 기압의 크기는 달라지니까 토리첼리의 실험결과처럼 1기압이 항상 76cm의 수은 기둥의 압력이 아닐 수도 있는건가요? 기압의 크기가 달라진다는 것이 정확히 어떤 의미인지 잘 모르겠어요(기압의 크기 변화에 대한 내용이 이해가 잘 되지 않아요ㅜㅠ)</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>반가워요^^과학 공부를 재미있게 열심히 하려는 우리 친구의 마음마구마구 칭찬합니다.^^기압이라는 것은 공기가 만들어내는 압력이라서요장소에 따라 공기의 양이 달라지면 기압도 달라지는 것이랍니다 그리고, 토리첼리의 실험은1기압이 장소에서 실행했을때, 76cm의 수은기둥이 있구요기압이 달라지는 다른 장소에서 실험한다면기압이 달라졌으므로 수은기둥의 높이도 달라진다는 뜻이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2020-07-19 23:52:20</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>0.795400857925415</v>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>온대저기압</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>온대 저기압, 저기압이 생성되는 쪽에서 왜 공기가 적어져서 저기압이 생성되는건가요??</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>반가워요^^저기압의 정의 자체간공기가 적은 곳을 뜻하는 것이랍니다.따라서 온대 저기압의 중심은 공기의 양이 주변보다 적기 때문에 저기압이 생성되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E656"/>
+  <dimension ref="A1:E834"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -16546,6 +16546,4456 @@
         </is>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:33:03</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>0.5055876970291138</v>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>기온 대신 온도 라고 써도 되나요?</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>불포화상태의 공기를 온도를 낮춰서 포화상태로 만들듯이포화상태인 공기의 기온을높이면 불포화 상태가 되는건가요??</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.정확하게 이해하고 있네요똑똑한 우리 친구~ 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:45:20</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>이건좀길지?</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:45:33</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>0.5971760749816895</v>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>싸발적인놈아</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>선생님 질문이 있는데요 스케이트보드나 킥보드 같이 자기가 앞으로 나아가기 위해서는 발로 탁탁나나아가게 힘을 줄때에는 순간적이잖아요, 그니깐 발로 탁탁 차서 힘을 앞으로 가할때에도 비록 적은은 거리와 짧은 시간인데도 불구하고 어떻게 일의 양을 구하나요?ex)스케이트보드나 킥보드에서 발 한번 딛어서 앞으로 나갈 때의 힘을 100N그 순간 딱 발한번 딛을때에 간 거리가30cm일때 일의 양은 300J인가요?보드의 순간 속력은 어떻게 구하나요?(말을 넘 묘하게 썼는데 어떻게 표현할줄 몰라서...양해를 구할께요^^)다른 건 이해하는데 보드만 약간 모르겠어요......</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.학생의 말처럼'스케이트보드나 킥보드를 발로 탁탁 차서 힘을 앞으로 가할 때에도힘을 준 순간의 힘과 짧지만 그 순간만의 이동거리를 곱하면 한 일의 양이 된답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:45:42</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0.2082432955503464</v>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>여여여여여'</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>선생님~ㅎ저 이 문제 어제 질문했던 학생입니다^^제가 잠시 피로때문에 그랬는지 정답이 3번이 맞더라구요다른 친구들 답급달아주셔야해서 바쁘셨을텐데 번거롭게해서 죄송합니다😂</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>(^____^) 멋진 우리 친구~~이렇게 다시 와서 글을 써주다니~ 쌤도 고마워요,쌤도 너무 피곤할때는 그런답니다.걱정말구요, 언제든지 궁금한 내용이 생기면 질문 남겨주세요, 열심히 도와드릴께요오늘도 공부하느라 고생 많아요~~쌤이 응원합니다. 홧팅!홧팅~(^______________^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:45:45</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>야야야야야</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:45:48</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0.2262136787176132</v>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>이이이이이</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>용광로에서 철이 녹으면 철의 단단한 성질이 변하는 거니까 화학변화 아닌가요? 상태변화로 보면 물리변화이기도 한데 교재에는 물리변화라고 되어있어요 화학변화가 아닌 이유는 뭔가요?</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>반가워요^^철이 녹는 것은 물리 변화입니다즉, 얼음이 녹아서 물이 되어도물의 성질은 변하지 않고, 분자도 변하지 않는 것처럼철이 녹을 때에도 쇳물은 성질은 변하지 않고 상태만 변했으니까요물리 변화입니다.화학 변화가 아닙니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:45:51</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0.2284186035394669</v>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>의의의의의</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>진공상태, 즉 산소가 없는 상태에서는 불이 생성되지도 않고 연소도 안되나요?</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>네^^맞습니다.진공 상태는 아무 것도 없는 상태즉, 기체도 없는 상태이므로 산소가 없어서 연소도 일어나지 않는답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:45:56</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>뜗뜗뜗뜗뜗</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:46:18</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>0.7154954671859741</v>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>아니 엉뚱한소리는 뭘해야 되는거야 이 봇 싸발새끼야</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>선생님, 공기의 진동에 의하여 소리가 전달된다고하면 진공상태에서는 소리를 듣지못하나요?</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>네^^ 정확하게 맞습니다.진공 상태에서는 소리를 전달한 매질이 없어서소리가 발생하더라도소리를 들을 수가 없답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:51:05</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>0.6099807620048523</v>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>상처에 과산화수소를 바르면 거품이 생기는 현상은 어떤 현상이야?</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>왜 상처에 과산화 수소수를 바르면 거품이 생겨요?</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>​반가워요^^상처에 과산화수소수를 바르면 우리 몸의 혈액 속 적혈구에 존재하는 카탈레이스라는 효소로 인해서과산화수소수가 물과 산소로 분해된답니다. 이때, 기체 산소로 인해서 거품이 나타나는 것이지요 촉매 분해 어려우시죠?.촉매는 넣게 되면 화학 반응을 돕는다 물질인데요'자신을 변하지 않고,다른 물질의 화학 반응이 잘 일어나도록 돕는답니다. 과산화 수소의 경우는 카탈레이스도 촉매로 작용하지만 이산화 망간이라는 약품을 넣어도이산화 망간이 과산화 수소가 물과 산소로 분해되는 반응을 도와준답니다. 그런데, 상처에 바르면 카탈레이스라는 촉매가 과산화 수소가 물과 산소로 분해되는 반응을 도와준답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:52:20</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>0.7595428228378296</v>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>그래서 상처에 과산화수소를 바르면 거품이 일어나는게 화학변화야?</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>왜 상처에 과산화 수소수를 바르면 거품이 생겨요?</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>​반가워요^^상처에 과산화수소수를 바르면 우리 몸의 혈액 속 적혈구에 존재하는 카탈레이스라는 효소로 인해서과산화수소수가 물과 산소로 분해된답니다. 이때, 기체 산소로 인해서 거품이 나타나는 것이지요 촉매 분해 어려우시죠?.촉매는 넣게 되면 화학 반응을 돕는다 물질인데요'자신을 변하지 않고,다른 물질의 화학 반응이 잘 일어나도록 돕는답니다. 과산화 수소의 경우는 카탈레이스도 촉매로 작용하지만 이산화 망간이라는 약품을 넣어도이산화 망간이 과산화 수소가 물과 산소로 분해되는 반응을 도와준답니다. 그런데, 상처에 바르면 카탈레이스라는 촉매가 과산화 수소가 물과 산소로 분해되는 반응을 도와준답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:52:40</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>아 그래 알겠러</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2020-07-20 01:10:35</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>0.5766407251358032</v>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>계절별 기압배치도</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>선생님 봄철은 왜 이동성 고기압과 저기압이 자주 지나가는지,여름철은 왜 남고북저형 기압 배치인지, 가을철은 왜 이동성 고기압과 저기압이 자주 지나가는지,겨울철은 왜 서고동저형 기압 배치가 되는지 설명해주세요!오늘 내용이 많다보니 급하게 설명하신 것 같기도 하고문제 풀이 없이 마무리 하셨는데 꼭 40분에 맞춰야 한다는강박관념 없이 천천히 가르쳐주셔도 좋을 것 같아요 :)대폭 업로드될 영상 촬영하시느라 수고하셨어요 감사합니다 ~</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 똑똑한 친구네요~현재 강의는 tv로 방송되는 강의 라서시간을 딱 40분안쪽으로 맞추어야 해서요~tv방송이 아닌 경우는 강의 시간이 자유롭지만. 뉴런과학3은 방송되는 강의다보니마무리하느라 속도가 빨랐지요?ㅎㅎ양해 부탁드립니다.일단. 봄의 경우는 우리 나라 주변의 기단들이 세력이 곳곳에서 영향을 자주 주다 보니약간 변덕 스럽다고 할까요? 그래서 이동성 고기압들이 자주 나타났다 사라졌다 한답니다.설명에서 남고 북저형의 기압배치는 우리나라 주변을 기준으로 한 것인데요여름철에는 대륙이 해양보다 더 빠르게 더 오랫동안 뜨거워서대륙쪽인 북쪽의 공기가 없어서 저기압이고해양쪽인 남쪽의 공기가 상대적으로 많아서 고기압이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2020-07-20 01:18:29</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>0.7667931318283081</v>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>이슬점이란</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2020-07-20 01:20:53</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>0.9136852622032166</v>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>대류가 잘 일어나는 층</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>대류가 활발한 층은?</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>대류권과 중간권이죠. 아래보다 윗부분의 온도가 낮은 층.</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2020-07-20 01:35:29</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>0.9030173420906067</v>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>구름 생성 과정</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>구름의 생성과정</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>이건 개중요해요. 공기 덩어리 상승 -&gt; 단열 팽창해서 온도 하강 -&gt; 온도가 이슬점에 도달하면 -&gt; 수증기 응결 -&gt; 구름 만들어짐. 꼭 외워요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2020-07-20 01:36:06</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>0.7365278005599976</v>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>민경모쌤 여친</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>경모쌤의 나이</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>그런 걸 굳이 궁금해할 필요가…</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2020-07-20 01:36:33</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>0.780120313167572</v>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>안녕하세여</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>안녕? 방학 때도 코로나 조심!</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2020-07-20 01:37:21</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>0.8734937906265259</v>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>시험범위</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2020-07-20 01:37:30</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0.8770644068717957</v>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>시험 문제</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>시험문제 몇문제</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>선택형 21개, 논술형 4개</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2020-07-20 01:38:04</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>0.2735450267791748</v>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>현타 오시나요?</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>안녕하세요 선생님! ㅎㅎ문제에서 에너지 출입의 방향이 다른 것은? 이라고 했는데이때 에너지 출입의 방향이 발열반응일 때는 열이 나가니까 바깥쪽이고 흡열반응일때는 안쪽 이런식인가용?그리고 탄산칼슘이 분해되어 산화 칼슘과 이산화 탄소를 생성하는 이 반응은어떤 에너지 출입이 생기나용? 감사합니다</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>반가워요^^에너지의 출입이라는 것은우리 친구의 말처럼에너지를 흡수하느냐, 에너지를 방출하느냐입니다죽, 생성물이 생길때 에너지를 흡수하느냐아니면 에너지를 방출하느냐의 방향을 뜻합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2020-07-20 01:55:01</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0.917065441608429</v>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>일정성분비 법칙이뭐야</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>일정성분비법칙 외워야하나요</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>네. 중학교는 외우는 겁니다. 화합물을 구성하는 성분 원소 사이에는 일정한 질량비가 성립한다는 법칙이에요. 책 30쪽부터 꼭 읽어봐요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2020-07-20 02:05:05</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>0.6144759654998779</v>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>화학반응식 순서</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>화학 반응식이 뭐니?</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>화학 변화가 일어날 때 화학식을 이용하여 화학 반응을 나타낸 것이에요. 책 16쪽을 읽어보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2020-07-20 02:32:10</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>0.8005390167236328</v>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>지구는 온실기체의 영향으로 온실효과가 계속 강화되나요?</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>온실효과</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>온실효과는 대기의 영향으로 대기가 없을 때보다 지구 평균 기온이 높게 나타나는 현상이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2020-07-20 02:32:26</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0.7029228806495667</v>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>온실기체</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>온실효과</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>온실효과는 대기의 영향으로 대기가 없을 때보다 지구 평균 기온이 높게 나타나는 현상이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2020-07-20 02:32:58</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0.9287933111190796</v>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>온실효과 강화</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>온실효과</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>온실효과는 대기의 영향으로 대기가 없을 때보다 지구 평균 기온이 높게 나타나는 현상이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2020-07-20 02:33:11</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>0.7196987271308899</v>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>지구온난화</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>안녕하세요 선생님,저 질문이 있어요..!!온실효과와 지구 온난화를 복사평형의 관점으로 어떻게 설명해야 하는 건가요?</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>반가워요^^온실효과와 지구 온난화가 일어날때대기 속의 온실기체가 지구에서 방출되는 복사 에너지를 흡수했다가다시 지표로 방출해서 지표면의 온도를 높이지만, 결국에는 다시 우주 공간으로 방출되니까요복사 평형을 이루어진다는 뜻이랍니다.다만. 대기의 온실 기체가 없을 때보다는더 높은 온도에서 복사 평형이 이루어진다고 보면 됩니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2020-07-20 03:06:09</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>0.9069644212722778</v>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>물체가 흡수하는 복사 에너지양과 방춠아는 복사 에너지 양이 같은 상태</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>물체가 흡수하는 복사 에너지양과 방춠아는 복사 에너지 양이 같은 상태</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>그걸 복사평형이라고 하죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2020-07-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0.7788223028182983</v>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>안녕? 방학 때도 코로나 조심!</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2020-07-20 03:07:04</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>0.8734937906265259</v>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>시험범위</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2020-07-20 03:07:17</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>0.8743076324462891</v>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>시험 예상 문제</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>시험문제 몇문제</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>선택형 21개, 논술형 4개</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2020-07-20 03:07:49</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0.7570745348930359</v>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>과학자가 되려면 어떻게 해야하나요</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>​왜 옛날에는 여자 과학자는 거의 없었나요??? 제가 아는 여자 과학자는 마리퀴리 밖에 없어서요...ㅠㅠ여자 과학자를 들어본적이 거의 없는 이유가 있나요??우리나라에도 장영실같이 과학자가 여자는 없었지 않나요??</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>반가워요^^과거에 우리 나라는 유교 사상 아래에서 사회가 움직이다 보니여성이 교육을 받을 기회가 많이 없었던 것으로 알고 있습니다.그러니, 과학자가 나오기도 힘들었을 듯요</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2020-07-20 03:08:35</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0.8932757377624512</v>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>과학이 너무 어려운데 쉽게 이해할 수 있는 방법은 없을까요?</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>과학을 잘할려면 어떻게 해야하나요방법은 무엇인가요</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>반가워요^^중학교 3학년 과학~ 많이 어려우시죠?많은 친구들이 걱정하는 데요, 쌤이 열심히 도와드릴께요꼭 잘하게 될꺼예요, 힘내세요. 과학 요점 정리도 중요하지만. 일단. 전반적으로 과학공부를 잘하는 방법을 알려드릴께요.우선, 과학의 경우는 과목의 특성상 원리를 이해하는 부분이 많이 필요해요 따라서, 첫번째로는, 학교 선생님이나 ebs강의를 통해서 원리를 반드시 이해해두셔야해요, 이때, 어떤 원리가 나오면, 일단은 그림과 사진 자료 혹은 비슷한 예, 또는 관련된 식을 풀면서 원리를 이해하시는 것이 우선이구요 두번째로는 이렇게 원리가 이해 된 다음에는 꼭 그 내용을 암기해 두셔야 한답니다. 물론, 과학이 암기과목은 아닙니다. 하지만, 이해와 암기가 병행되어야만 좋은 성적을 기대해 볼 수 있어요. 이때, 쉽게 익히기 위해서는 강의중에 중요한 부분은 형광펜으로 표시를 해두는 거예요,,따라서, 시간이 지나서 다른건 잊어버려도 이부분은 다시 한번 더 기억해 낼수 있도록이요^^ 그리고, 마지막으로는 내용을 얼마나 잘 알고 있는지를 확인하기 위해서는 반드시 내용과 관련된 단원의 문제를 풀어보셔야 하는데요, 이때, 문제를 풀다가 틀린 문제가 있다면 어떤 부분에서 틀렸는지를 확인하면서 내가 가진 잘못된 개념을 고쳐 나가고, 맞는 문제라면 내용을 다시한번 확실하게 익히는 시간을 꼭 가져야 한답니다. 이렇게 차근차근 한단계씩 여러번 반복하다보면 공부에 자신감도 생기고 시험도 잘 볼 수 있을 꺼예요 화이팅</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2020-07-20 03:22:56</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>0.782368540763855</v>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>안녕? 방학 때도 코로나 조심!</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2020-07-20 03:23:08</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>0.7138782739639282</v>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>서술형 문제 있어?</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>별은 언제나와여 ?</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>반갑습니다.^^별과 우주 단원에서의 별을 뜻하는 군요별과 우주 단원에 7단원이다 보니현재 제작을 부지런히 해도 시간이 좀 걸릴 것 같습니다.혹시, 별 부분 미리 공부하시다가 궁금한 내용은 이곳에 먼저 올려주세요열심히 도와드릴께요그래고 별과 우주 단원 강의도 빠르게 업데이트 될 수 있도록 노력하겠습니다.고맙습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2020-07-20 03:26:51</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.6033555269241333</v>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>겨울에는 어떤 기압배치가 있어?</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>기권과 날씨 질문 남동쪽에서 북서쪽으로 부는 바람이 있을 때고기압이 기온이 낮나요 저기압이 기온이 낮나요</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>반가워요^^지표면의 가열에 따른 기압차이가 생긴 것이라면고기압쪽의 기온이 낮고, 저기압 쪽의기온이 높답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2020-07-20 05:30:41</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0.7109968066215515</v>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>집가고 싶다</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>선생님, 생수는 다 같은 물인데 왜 맛이 조금씩 다르게 느껴지나요?</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문이예요,생수는 물속에 미네랄 성분이나 기체가  녹아 있답니다.따라서 순수한 물은 아니다 보니섞여 있는 미네랄이나 녹아 있는 기체에 따라서다른 맛이 난답니다^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2020-07-20 05:31:04</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>0.8591240644454956</v>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>민경모 선생님</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>민경모 선생님</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>누가 내 이름을 불렀는가</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2020-07-20 05:31:21</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0.241844654083252</v>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>방탄소년단</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>선생님 만약 20도에서 포화수증기량이 14.7g이라고 가정을 하면,수증기 14.7g이 응결하기 시작할때의 온도가 20도 인 것 인가요??즉,20도의 포화수증기량은 14.7g,14.7g 의 이슬점이 20도인것 인가요?하지만 20도일때 공기가 수증기를 14.7g까지 포함할수있는데,14.7g이 20도일때 응결하기 시작하는것은 말이 안되는것아닌가요ㅜ?혹시,이슬점이 20도 라는건 20도 이후부터 바로 응결하기 시작된다는 뜻인건가요?</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2020-07-20 05:31:53</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>0.6728646159172058</v>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>시험 어렵게 출제할 꺼에요?</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>시험 100점 맞을려면</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>매우매우 열심히 해야 함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2020-07-20 05:32:04</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>0.8734937906265259</v>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2020-07-20 05:32:13</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>0.7448849678039551</v>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>공부싫어</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>과학공부하는법</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>중학교 공부는 달달달달 외워야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2020-07-20 05:45:45</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0.5879995822906494</v>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>이름이 뭐야</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>저기서 나오는 노래 이름 뭔가요ㅜㅜ뜨든 뜨든ㄷ뜨뜨든뜨/뜬뜬뜨</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>반가워요^^오늘의 핵심 내용이 나올때의 배경 음악을 말하는 군요어떤 곡인지는 저도 잘 몰라서요피디님께 한번 여쭤볼께요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2020-07-20 06:13:04</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>0.7833889722824097</v>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>대류현상</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요,설생님 설명 정말 친절하시고 자세해서 잘 듣고 있어요!!강의중에 대류권과 중간권에서 대류현상이 일어난다고 하셨는데 대류현상은 뜨거운 분자는 올라가고 차가운 분자는 내려가는 현상이잖아요,그러면 뜨거운 공기는 위로 올라갈테니까 높이가 높아질수록 온도돋 높아지지 않을까요??(뭔가 아닐 것 같긴 하지만 이론적으로 아해가 안돼서요ㅠㅠ)</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.대류권과 중간권은모두 지표면에서 보내주는 열의 영향을 받기 때문에지표면에서 멀어질 수록, 즉, 높이 올라갈수록 기온이 내려가는데요이때, 각 층 안에서 보면아래쪽이 온도가 높고,위쪽이 온도가 낮아서따뜻한 아래쪽 공기가 위쪽으로 올라가고차가운 위쪽 공기는 무거워저 아래쪽으로 내려올때 대류가 일어납니다.이때, 위쪽으로 올라간 공기는 지표면에서 멀어졌으므로기온이 다시 내려가기 때문에 차가워지교아래쪽으로 내려간 공기는  다시 따뜻해 진답니다.이렇게 되면 다시 아래쪽의 따뜻한 공기가 올라가고차가워진 위쪽 공기가 내려오면서 대류가 계속해서 반복되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2020-07-20 07:28:49</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>0.8268024921417236</v>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>온난 전선 통과 후 구름이 생기지 않는 이유</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>온난 전선 통과 이후 구름이 생기지 않는 이유</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>온대 저기압을 보시면 온난전선은 앞쪽에 구름이 생기고, 한랭전선은 뒤쪽에 구름이 생기니 그 중간에는 구름이 없죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2020-07-20 11:26:32</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>0.8734937906265259</v>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>시험범위</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2020-07-20 11:26:57</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>0.9188820123672485</v>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>화학 반응식</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>화학반응식을 어떻게 해야하는지 감이 안옵니다</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>맞아요, 많이 어렵지요?일단. 강의를 한번 더 시청하시기를 권해 드리고 싶습니다.또한, 화학 반응식의 기초가 되는화학식을 먼저 익혀 두셔야 합니다.2강을 수강하시면 어느 정도 이해가 되실꺼예요힘내세요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2020-07-20 11:27:20</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>0.6506142020225525</v>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>수행평가</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>수행평가에서 봤던 화학식 부분은 기말고사에 나올지 안 나오나요?</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>나와요. 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:23:57</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>0.7667931318283081</v>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>이슬점이 뭐야</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 문제에서 이슬점을 찾으라고하는데 어떻게 찾아야하는지 포화 수증기가 이슬점이랑 똑같아요?</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>반가워요^^이슬점 개념이 많이 혼돈되지요?자세히 설명드릴께요우선, 이슬점은 현재 수증기량으로 포화상태가 되면서 물방울이 응결되기 시작하는 온도인데요현재의 수증기량이 포화수증기량이 된다면, 그 때는 물방울이 막 생기기 시작하게 되므로현재의 수증기량이 포화수증기량이 되는 온도를 이슬점이라고부른다는 뜻입니다. 현재 포함된 수증기량이 많을 수록 높은 온도에서 포화상태가 되기 때문에이슬점이 높답니다.^^반대로,현재 포함된 수증기량이 적을 수록 더 낮은 온도에서 포화상태가 되기 때문에이슬점이 낮답니다.  따라서 이슬점과 현재의 기온(포화수증기량)과는 아무 관련이 없습니다. 이슬점은 실제 들어있는 수증기량에 의해서 결정됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:24:13</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>0.5454070568084717</v>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>이슬점이 시험에 나와?</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>시험 100점 맞을려면</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>매우매우 열심히 해야 함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:24:34</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>0.8734937906265259</v>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>시험범위좀</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:54:31</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0.74507737159729</v>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>상대습도 구하는 방법</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>상대습도 어떻게 구해요</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>책 67쪽 오른쪽을 보시면 나와 있죠? 현재 공기의 수증기량 / 현재 기온의 포화 수증기량 * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:54:58</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>0.9116145968437195</v>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>포화 수증기량이란?</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>포화수증기량은 뭐예요</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>어떤 기온에서 일정한 양의 공기가 최대로 수증기를 포함하였을 때를 포화상태라고 하죠? 그 포화상태인 공기 1 kg에 들어 있는 수증기량을 g으로 나타낸 게 포화수증기량이에요. 책 66쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:55:10</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>0.9298105239868164</v>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>상대습도가 무엇인가요</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>상대습도 어떻게 구해요</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>책 67쪽 오른쪽을 보시면 나와 있죠? 현재 공기의 수증기량 / 현재 기온의 포화 수증기량 * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:55:24</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0.695570707321167</v>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>포화 상태</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>불포화상태의 공기를 온도를 낮춰서 포화상태로 만들듯이포화상태인 공기의 기온을높이면 불포화 상태가 되는건가요??</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.정확하게 이해하고 있네요똑똑한 우리 친구~ 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:56:03</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>0.9363728165626526</v>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>적운형 구름</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>적운형 구름이란?</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>수직으로 발달하는 구름이지.</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:56:11</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0.6978669762611389</v>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>측운형 구름</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>왜 한랭전선의 구름이 적운형이고 온난전선의 구름이 측운형인가여?글구 왜 적운형구름은 소나기를 내리고 측운형의 구름은 이슬비를 내리나요?간단하게 설명해주세여^^</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~정말 좋은 질문입니다.사실, 적운형 구름은 공기의 상승이 빠른 경우 생기고층운형 구름을 공기의 상승이 느린 경우 생긴답니다.한랭 전선의 경우, 찬공기가 따뜻한 공기를 파고 들면서 따뜻한 공기를 툭툭 치면서 빠르게 상승시키는 효과가 있습니다따라서 적운형의 구름을 만든답니다.반면에서  온난 전선의 경우, 따뜻한 공기가 차가운 공기 위를 서서히 타고 올라가면서 느리게 상승하는 효과가 있습니다따라서 층운형의 구름을 만든답니다. 적운형의 구름은 작은 물방울이 갑자기 커지면서 생겨나므로 굵은 빗방울인 소나기가 내리구요층운형의 구름은 아주 천천히 물방울이 생기므로 작고 가는 이슬비가 내리는 것입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:56:24</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>0.7011246681213379</v>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>측운형 구름이란?</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>왜 한랭전선의 구름이 적운형이고 온난전선의 구름이 측운형인가여?글구 왜 적운형구름은 소나기를 내리고 측운형의 구름은 이슬비를 내리나요?간단하게 설명해주세여^^</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~정말 좋은 질문입니다.사실, 적운형 구름은 공기의 상승이 빠른 경우 생기고층운형 구름을 공기의 상승이 느린 경우 생긴답니다.한랭 전선의 경우, 찬공기가 따뜻한 공기를 파고 들면서 따뜻한 공기를 툭툭 치면서 빠르게 상승시키는 효과가 있습니다따라서 적운형의 구름을 만든답니다.반면에서  온난 전선의 경우, 따뜻한 공기가 차가운 공기 위를 서서히 타고 올라가면서 느리게 상승하는 효과가 있습니다따라서 층운형의 구름을 만든답니다. 적운형의 구름은 작은 물방울이 갑자기 커지면서 생겨나므로 굵은 빗방울인 소나기가 내리구요층운형의 구름은 아주 천천히 물방울이 생기므로 작고 가는 이슬비가 내리는 것입니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:56:37</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>0.9091097712516785</v>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>공기의 상대습도</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>상대습도 어떻게 구해요</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>책 67쪽 오른쪽을 보시면 나와 있죠? 현재 공기의 수증기량 / 현재 기온의 포화 수증기량 * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:57:14</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>0.7570289373397827</v>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>포화란?</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>포화수증기가 뭘까?</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>포화수증기'란 단어는 없고 '포화수증기량'은 있죠. 어떤 공기가 어떤 온도에서 물이 더 이상 증발되지 않을 때 공기 1 kg에 들어 있는 수증기량을 g으로 나타낸 게 포화수증기량이에요. 책 66쪽을 참고하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2020-07-20 12:57:22</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>0.7411302328109741</v>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>불포화와 포화</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>불포화상태의 공기를 온도를 낮춰서 포화상태로 만들듯이포화상태인 공기의 기온을높이면 불포화 상태가 되는건가요??</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.정확하게 이해하고 있네요똑똑한 우리 친구~ 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2020-07-20 13:19:20</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>0.92635577917099</v>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>질량 보존의 법칙이 뭐죠?</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>질량 보존 법칙이 뭔가요?</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>화학 반응 과정에서 반응 전 물질의 총 질량과 반응 후 물질의 총 질량이 같다는 법칙이죠. 책 28쪽 읽어보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2020-07-20 13:21:44</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>0.6892600059509277</v>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>시험 포인트</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>시험 100점 맞을려면</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>매우매우 열심히 해야 함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2020-07-20 13:21:58</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>0.6947029829025269</v>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>ebs인강</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>강의가 왜 50강까지 없고 17강까지만 있죠?</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>반가워요^^현재 강의는 제작중에 있답니다.따라서 매주 2~3강 정도씩제작되고 검수의 과정까지 마치고 나면 업데이트 되고 있습니다.현재 까지 업데이트 된 강의가 17강이므로앞으로도 꾸준이 업데이트 예정입니다.50강까지 모두 업데이트 되는 시기는 대략 5~ 6월입니다.참고하시면 좋겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2020-07-20 13:22:17</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>0.6892600059509277</v>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>시험 출체 포인트</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>시험 100점 맞을려면</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>매우매우 열심히 해야 함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2020-07-20 13:29:19</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>...........1</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2020-07-20 15:19:05</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>아아ㅏㅏㅏㅏㅏㅏㅏㅏㅏㅏㅏㅏㅏㅏㅏㅏ</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2020-07-20 16:05:07</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>0.54154372215271</v>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>시험에서 이슬점에 대해 자세하게 나오나요?</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>시험 100점 맞을려면</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>매우매우 열심히 해야 함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:33:26</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>0.2024157345294952</v>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Tlqkf?</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>뽀뽀 쪽</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>어머</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:33:37</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>0.2506363391876221</v>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>TlqkftoRldi</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요!! 학교에서 과제로 풀어야하는 학습지에 나온 문제에 대해 질문하려구요^^ 3단원 자유낙하운동 부분에서, 문제) 무게가 각각 9.8N, 29.4N 인 물체가 동시에 자유낙하할 때 속력변화를 생각해 볼까?  인데요~~, 물체의 질량이 달라도 자유낙하할 때 속력이 일정하게 증가하잖아요, 물체의 무게가 달라도 자유낙하할 때에도 속력이 일정하게 증가하나요? 그러면 저 질문의 답은 일정하게 속력이 증가한다. 라고 적으면 될까용..?  저희학교가 진도를 3단원부터 나가서 오늘 선생님 강의를 처음들었는데 설명을 쉽게 너무 잘해주십니당 감사합니다-!!</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>네^^ 무게는 그 물체의 질량만큼에 작용하는 중력의 크기랍니다.물체의 질량이 달라도, 물체의 무게가 달라도 자유낙하할 때 속력이 일정하게 증가합니다.열공하는 멋진 우리 친구~ 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:33:44</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>0.2749611139297485</v>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>lqkftlqkfTlqfkTlqkf</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>선생님,물을 화학 반응식으로 나타내면 H2O입니다.그러나, 질량비는 수소:산소로 나타내면 1:8입니다.근데 수소는 2개 산소는 1개입니다.그런데, 수소:산소로 나타내면 1:8인가요?원래, 수소가 산소보다 2배 많은데 말이지요...</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.수소는 원자의 상대적인 질량이 1이구요산소는 원자의 상대적인 질량이 16입니다.따라서 물은 수소 원자 2개와 산소 원자 1개가 결합하므로물을 구성하는 수소와 산소의 질량비를 구하면수소 원자 2개이므로 2, 산소원자 1개이므로 16이렇게 되면 2:16=1:8이 나온답니다.즉, 질량비가 1:8이 되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:33:46</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>0.2024157345294952</v>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Tlqkf</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>뽀뽀 쪽</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>어머</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:33:50</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>0.2667686641216278</v>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>TLTLTLTLTL</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>이슬점이 뭔가요</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>공기 중의 수증기가 물방울이 되기 시작하는 온도예요. 이 온도까지 내려가면 구름이 생겨요. 자세한 건 우리 교과서 71쪽 참고.</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:34:02</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>0.1784557700157166</v>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>뽀뽀 쪽</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>선생님사람은 슬플 때, 아플 때, 화날 때, 기쁠 때,또는 눈에 이물질이 들어갔거나, 눈이 건조할 때 눈물이 흘러나오잖아요.눈에 이물질이 들어가거나 눈이 건조할 때는 눈을 보호하기 위해 눈물을 흘린다고 생각할 수 있겠는데, 기쁠 때나 깜짝 놀란 후 등에서는 어떻게 눈물이 나오는 건가요??</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>반가워요^^우리 친구의 말처럼 눈에 이물질이 들어갔거나, 눈이 건조할 때 눈물이 나오는 이유는 이해가 잘 됩니다.하지만. 슬플때나 기쁠때와 같이 감정에 변화가 생길때, 흘리는 눈물을 원인은 뇌에서  감정을  지배하는 부분과 연관이 있습니다. 뇌의 시상 하부는 감정을 다루는 뇌의 영역이 있어요. 이 부분은 신경계와 연결되어 있으며아세틸콜린이라는 신경 전달 물질을 통해 눈물샘의 눈물을 어느 정도 통제하고 눈물 생산을 자극한답니다.즉, 감정적인 반응이 신경계를 자극하고, 눈물 생성 시스템을 활성화 하도록 한답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:34:10</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>0.2151215374469757</v>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>쓰버ㅓ벙어ㅓㅇ러</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>이번편에서ㅡ계속 언급된 현재 공기는 현재 공기의 온도만 가르키는거죠</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>네^^ 맞아요~~현재 온도에서의 공기의 수증기량입니다.~똑똑한 우리 친구~ 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:34:15</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>0.2075623571872711</v>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>씨이이이이잉이바ㅓ아라</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>포화 수증기량에서 왜 기온이 높을수록 포화수증기량이 증가하나요??</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.이 부분 어려우시죠?정확하게 설명드리자면온도가 높아질 수록 포화 수증기량이 증가하는  이유는 온도가 높아지면서 같은 공기의 질량이 차지하는 부피는 더 커지고공기 사이사이에 공간이 더 커지므로수증기가 들어갈 수 있는 공간이 넓어 지므로최대한 포함할 수 있는 수증기의 량인 포화수증기량이 온도가 높으면 더 증가하게 되는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:34:18</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0.2667689025402069</v>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>씨ㅣ바라</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>선생님 ㄹ과 ㅁ 어떻게 수소와 0.1인가요? 답지를 보아도 이해가 안되네요ㅜ</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>반가워요^^문제 속에 힌트가 있어요수소 0.3과 산소 2.4가 반응해서 남는 기체가 없었다는 것은수소 0.3과 산소 2.4가 완전히 반응했다는 것으로수소:산소=0.3:2.4=1:8의 질량비로 결합하는 것을 알 수 있어요그런데, 수소 0.2와 산소 0.8을 넣으면산소는 0.8이 다 반응하지만수소는 0.2중에서 0.1만 반응해서수소:산소=0.1:0.8=1:8로 반응하게 된답니다.따라서 남는 기체는 수소 0.1입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:34:24</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>0.2632218897342682</v>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>씨이비라</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>선생님 왜 오로라는 고위도 지역에서만 관측할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>반가워요^^자세히 설명드릴께요오로라는 태양으로 부터 밀려드는 전기를 띤 입자가지구의 가장 바깥쪽 기층인 열권의 대기와 부딪히면서불꽃을 내는 현상이랍니다.이러한 불꽃이 전체적으로 커튼 모양으로 반짝이기도 하고 밤하늘에 아름답에 일렁이기도 하는데요이것이 오로라랍니다. 지구는 자전축이 기울어져 있다보니극지방처럼 추운 지역까지는 태양으로 부터 대전 입자가 날아들구요중위도지방에는 거의 대전 입자가 날아들지 않으므로고위도 이상의 극지방에서만 오로라를 볼 수 있는 것이랍니다 .</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:34:25</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>0.2268652319908142</v>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>씨바라ㅏ</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>선생님~~~~~~ 엄마와 아빠로부터 23개의 염색체가 합쳐지면서 우리의 염색체는 46개잖아요......... 그럼 엄마, 아빠로부터 내려온 염색체만 제가 갖고 있는 거에요 아니면 제 고유의 염색체도 엄마와 아빠의 염색체와 합쳐져있는 건가요?  그리고 엄마,아빠의 염색체가 동일하게 합쳐져서 염색체가 46개가 되는데 그럼 왜 어떤 사람은 엄마를 더 닮고 어떤 사람은 아빠를 더 닮는 건가요?동일한 염색체가 모이면 동일한 형태가 생겨야 하지 않나요?알려주세요~~~~~~~~</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>반가워요^^ 결론은~엄마아빠의 염색체만 가지고 있는 것입니다.^^엄마와 아빠의 염색체가 합져서서 우리 친구의 염색체가 완성되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:34:27</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>0.2211258709430695</v>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>씨이바라</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>선생님 질문이 있어요 ! 화학 변화의 예 중 기체가 발생한다면 화학 변화라고 교재에도 나와있고 선생님도 그렇게 말씀해주셨는데요 , 물이 증발하면 수증기라는 기체가 발생하는데 왜 화학 변화가 아닌 물리 변화인가요?</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>아주 좋은 질문입니다.^^우선, 기체가 생성된다고 항상 화학 변화는 아니구요새로운 기체가 생성될 때 화학변화입니다.즉, 성질이 다른 새로운 기체가 생성되었을때 화학 변화입니다. 하지만. 물이 끓어서 기체 수증기가 되는 것은즉, 액체가 기체로 상태변화하면서 기체가 되는 경우이므로 성질이 바뀌지 않아서 물리 변화이구요과산화수소수가 분해되어 물과 산소라는 기체가 생성되는 경우는 과산화수소수와는 성질이 다른 새로운 기체가 생성되는 변화이므로화학 변화랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:34:31</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>씨이바라라라ㅏㄹ알ㅇㄻ</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:34:33</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>0.7318854331970215</v>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>안럼;ㅣㄴㅇ라ㅣㅁㄴㅇ;ㅣㅏㄻㄴ아ㅣㅓㄻㄴㅇ;ㄻㄴ이럼ㄴ아ㅓㅁㄴ이ㅏ;럼ㄴ이;럼ㄴ이ㅏ;럼니아ㅓ리ㅏ;ㅇㄴ머라ㅣㅁㅇㄴ;ㅓ림ㅇ너림ㄴㅇ</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>안녕하세요ㄴ 이 맞는 이유가 뭔가요?그리고 ㄷ 은 왜 틀린건가요?</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>반가워요^^ㄴ의 경우는 암모니아 분자를 구성하는 질소와 산소의 원자 의 개수비이니까요암모니아는 NH3로 질소 원자 1개와 수소 원자 3개가 결합해서 1개의 분자가 만들어 진답니다.따라서 질소:수소=1:3으로 구성된답니다. 따라서 옳은 내용입니다.ㄷ. 질소의 질량이 14인 상태에서는 수소 3과만 결합하므로수소의 질량이 6으로 늘어나도 질소의 질량이 그대로라면결합한 수소의 질량은 3밖에는 안되니까요생성되는 암모니아의 질량은 그대로입니다. 따라서 ㄷ은 옳지 않답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:35:18</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>0.568080723285675</v>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>ㅁㄴ이ㅏㅓ;ㄹ미ㅏㄴㅇ러ㅏㅣㅁ;ㄴ어리ㅏ멍리;ㅏㄴㅁ어ㅣ라얼;ㅣㅏㅁ넝리ㅏㅁ;ㄴ어러ㅓ러러러러러러러러러리ㅏㄴ어ㅣㅏㅁ;ㄴ어리ㅏㅁ어리ㅏ머리만어리ㅏ러ㅓㅓㅓㅓㅓ러러러러러러러러ㅓㅓㅓㅓㅓㅓㅓㅓㅓㅓㅓㅓㅓㅓㅓㅓㅓ러ㅓㅓㅓㅓㅓㅓㅓㅓㅓㅓㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹ러러러러러러러러러러러러러러러러러러러러러러러러러러러러러러러러러러러러러러러ㅜ리ㅣㅣㅣㅣㅣㅜ리ㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣ뤼ㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣ뤼ㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅜ리리리리리리리리리리리리리리리리리리리리ㅣ루루루루루루루루루루루ㅜ리ㅣㅣㅣㅣㅣㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹ릴ㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹ리ㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣ리리리리리리리리리리ㅣㅣㅣㅜㄹㄹㄹㄹㄹㄹㄹㄹㄹ뤼ㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅜㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹ루리ㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣㅣ루루루루루루루루루루루루루루루루루루루루루루루루루루루루루루루루루루루루루루루루루뤼ㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㅟㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹㄹ루리ㅣㅣㅣ</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>선생님 개념책 29쪽 수행평가 섭렵 문제 3번에서 보기 ㄹ이 맞는 이유가 무엇인가요?그리고 보기 ㄴ이 틀린 이유는 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>반가워요^^29쪽 3번 문제는 실험 내용이라서 많이 헷갈리시지요?자세히 설명드리자면보기 ㄹ의 경우는 구리의 양이 많을 수록 산소와 결합하는데 시간이 더 많이 걸린 답니다.아무래도 하나하나 산소와 결합을 해야 하니까요따라서 구리의 양이 달라짐에 따라 구리가 완전히 반응하는데 걸리는 시간도 길어지므로ㄹ은 옳은 내용입니다. 하지만. 보기 ㄴ이 틀린 이유는구리의 양이 아무리 많아지면결합하는 산소의 양은 많아지지만산소의 질량비는 일정합니다.즉, 구리와 산소가 결합하는 질량비가 4:1이라는 비율 자체는구리의 양이 많아져더 달라지지않는답니다.따라서 보기 ㄱ의 구리와 결합하는 산소의 양은 변하지만.보기 ㄴ의 구리와 만응하는 산소의 질량비는 항상 4:1로 일정합니다.따라서 ㄴ은 옳지 않은 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:40:01</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>0.2203891575336456</v>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>아침 뭐 먹을까?</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>안녕하세요 선생님? 6단원 역학적 에너지 전환과 보존 부분을 공부하다가 궁금증이 생겼는데요, 진공 상태에서 진자 운동을 하면 멈추지 않고 계속 운동하나요? 역학적 에너지는 보존되니까요.</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:40:26</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>0.2560222446918488</v>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>점심 뭐 먹을까?</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>온난 전선인 지역은 저기압이라고 할수 았는거죠</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>아니요. 꼭 그렇진 않아요. 온대저기압 등압선을 자세히 보면 온난전선 통과 시 저기압에 중심부에 가까워져서 기압이 하강하고요, 한랭전선 통과 시 저기압의 중심에서 멀어지니 기압이 상승해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:46:16</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>0.9185462594032288</v>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>이슬점이 뭔가요</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>이슬점이 뭔가요</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>공기 중의 수증기가 물방울이 되기 시작하는 온도예요. 이 온도까지 내려가면 구름이 생겨요. 자세한 건 우리 교과서 71쪽 참고.</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:46:39</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>0.9257640838623047</v>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>질량보존법칙이 뭐낙요</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>질량 보존 법칙이 뭔가요?</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>화학 반응 과정에서 반응 전 물질의 총 질량과 반응 후 물질의 총 질량이 같다는 법칙이죠. 책 28쪽 읽어보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:47:00</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>0.9106465578079224</v>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>일정성분비 법칙이 뭔가요?</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>일정성분비법칙 외워야하나요</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>네. 중학교는 외우는 겁니다. 화합물을 구성하는 성분 원소 사이에는 일정한 질량비가 성립한다는 법칙이에요. 책 30쪽부터 꼭 읽어봐요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:47:11</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>0.7374792098999023</v>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>경모쌤 사랑해요</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>경모쌤의 키</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>그런 걸 굳이 궁금해할 필요가… 딱 보면 알겠구만.</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:47:22</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>0.8755390644073486</v>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>경모쌤 나이</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>경모쌤의 나이</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>그런 걸 굳이 궁금해할 필요가…</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:47:31</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>0.6831380724906921</v>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>경모쌤 사는곳</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>경모쌤의 키</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>그런 걸 굳이 궁금해할 필요가… 딱 보면 알겠구만.</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2020-07-21 01:18:07</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>0.8187826871871948</v>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>과학시험 어렵나요?</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>시험 100점 맞을려면</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>매우매우 열심히 해야 함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2020-07-21 01:46:10</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>0.8755954504013062</v>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>기체 반응법칙에서 일정성분비가 성립하나요!</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>화학반응에서 일정성분비법칙은 성립하지않나요?</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙은 화학 반응식 전체에서 보는 게 아니라 이미 만들어진 화합물 안에서 화합물을 구성하는 원소의 질량비가 딱 정해져 있다는 법칙이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2020-07-21 01:46:28</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>0.9244486689567566</v>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>기체반응법칙</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>기체 반응 법칙을 알려주세요</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>일정한 온도와 압력에서 기체가 반응하여 새로운 기체를 생성할 때 각 기체의 부피비가 간단한 정수비가 성립한다는 법칙이에요. 이 때 계수비 = 부피비 = 입자수비임.</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>2020-07-21 02:14:01</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>0.9104734063148499</v>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>대류권이 뭐야</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>대류가 뭐예요?</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>대류는 입자가 직접 이동하여 열을 전달하는 방법이에요. 예를 들어 에어컨을 틀면 찬 바람이 아래로 직접 이동하고, 히터를 틀면 뜨거운 바람이 위로 직접 이동해요. 이런 식으로 밀도가 큰 찬 공기가 아래로, 밀도가 작은 뜨거운 공기가 아래로 이동하면서 열을 전달하는 방법이 대류예요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>2020-07-21 02:33:16</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>나는 박빡이다</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2020-07-21 02:33:37</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>네라고요</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:00:38</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>0.7030065655708313</v>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>성층권에는 기상현상이 있나요</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요!질문이 네 가지 있습니다1. 열권은 공기가 매우 희박하여 낮과 밤의 기온 차이가 크다는 부분이 잘 이해 되지 않아요   이 부분 자세히 설명해주시길 바랍니다!2. 대류권에는 수증기가 포함되어 있어서 기상 현상이 나타난다고 설명하셨는데,   수증기가 어떤 역할을 해서 기상현상이 나타나는 건가요?   그러면 성층권은 수증기가 대류권보다는 조금, 중간권보다는 많이 있을텐데 성층권은 기상 현상이 있나요?3. 유성은 중간권, 오로라는 열권에서 관측된다고 설명하셨는데, 우리가 보고 있는 지금 하늘에서 중간권과 열권이 어떻게 보이나요?   우리는 기상현상이 있는 대류권만 보는 것 아닌가요?4. 기권의 층상구조를 보면 각 부분 사이에 수직으로 공기가 일정한 그래프 부분이 있던데 이건 왜 그런건가요?</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>반가워요^^'아주 좋은 질문입니다.공기가 희박해도 태양 빛이 올때의 온도가 측정되고태양 빛이 사라진 밤의 온도가 측정이 되는 데요공기는 마치 투명한 옷 같아서뜨거운 태양이 비치는 낮 동안에는 태양빛의 뜨거움을 차단해주고밤이 되면 기온이 떨어질 대대기가 품은 열기로 밤이 덜 추워지게 해주기 때문에대기가 많아야 낮과 밤의 기온차가 덜 난답니다.그런데 열권은 대기가 거의 희박하므로낮과 밤의 기온차이가 클 수 밖에 없는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:07:47</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>야 안녕</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:07:56</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>0.9092717170715332</v>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>1기압은</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>1기압은</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>1기압 = 76 cmHg = 1013 hPa. 책 81쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:08:09</t>
+        </is>
+      </c>
+      <c r="B757" t="n">
+        <v>0.9043476581573486</v>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>높이 올라갈수록 기압은</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>1기압은</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>1기압 = 76 cmHg = 1013 hPa. 책 81쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:08:17</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>0.9067754745483398</v>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>구름 생성과정</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>구름의 생성과정</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>이건 개중요해요. 공기 덩어리 상승 -&gt; 단열 팽창해서 온도 하강 -&gt; 온도가 이슬점에 도달하면 -&gt; 수증기 응결 -&gt; 구름 만들어짐. 꼭 외워요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:08:36</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>음,,,,,,</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:09:02</t>
+        </is>
+      </c>
+      <c r="B760" t="n">
+        <v>0.6691380739212036</v>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>빙정설이란</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>빙정설이 뭔가요</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>빙정설은 0도씨 이하의 차가운 구름 속에서 얼음 알갱이에 물방울에서 증발한 수증기가 달라붙어 무거워지면 지표면으로 눈이나 비가 되어 떨어지는 비오는 방법 설이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:09:24</t>
+        </is>
+      </c>
+      <c r="B761" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>너 몇살이야</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:09:39</t>
+        </is>
+      </c>
+      <c r="B762" t="n">
+        <v>0.2552095055580139</v>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>이거 엉망이노</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>선생님 왜 운동에너지랑 일은 똑같아요?</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>반가워요^^운동에너지와 일이 항상 같은 것은 아니구요움직이는 물체가 충돌하면서 다른 물체를 밀고 하는 일을 할때운동에너지는 모두 다른 물체를 밀고 가는 일로 전환이 되는 것이랍니다.이뿐만 아니라사실 위치에너지와 운동에너지는 서로 전환이 되므로문제의 상황에 따라서 적용 방법이 다양하답니다.우선, 물체를 높은 곳까지 들어올리는 일을 하면 그것이 위치에너지로 쌓이구요반면에 높은 곳의 물체가 아래로 떨어지면중력이 일을하면서 중력이 한 일은 아래로 떨어지고 나면운동에너지가 된답니다.'결국은 위치에너지가 운동에너지로 전환되었다고 보셔도 된답니다이 내용을 역학적 에너지 전환과 보존이라고해서6단원에서 자세히 다루고 있어요3단원, 6단원의 문제를 풀면서 적용력을 길러보시면 좋을 것 같습니다.  조금더 자세히 설명드리자면물체를 들어올리면   들어올린 높이 만큼의 위치에너지가 생성 됩니다.   따라서, 중력에 대해 한 일은 그 물체의 질량에 해당하는중력 만큼 힘을 주어야 하고, 이동거리는 높이에 해당하므로  중력에 대해 한일을 구할 때, 힘X이동거리 에서  힘 대신에 9.8곱하기 질량이구요  이동거리는 높이랍니다.따라서 위치 에너지 구하는 공식과 똑같아지는 것이랍니다그리고 높은 곳의 물체가 떨어지게 되면움직이게 되고이때, 가장 낮은 곳에 위치하게 되면위치에너지가 모두 운동에너지로 전환되므로 중력이 일을 한 양이 운동에너지가 되었다고 표현해도 되는 것이랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:09:45</t>
+        </is>
+      </c>
+      <c r="B763" t="n">
+        <v>0.2375961095094681</v>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>와우 지랄을한다</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>선생님 아보가드로 법칙이 어려워요 ㅠㅠ 모든 기체가 같은 부피에서 같은 수의 분자를 가지고 있다면 밀도는 뭐가 되는건가요 ? 제가 알고 있던 것과 다른 것 같아서 어렵게 느껴지네요 ㅠㅠㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>반가워요^^밀도는 일정한 부피 속에 해당하는 물질의 질량으로 구할 수 있습니다.아보가드로 법칙은어떤 물질의 밀도가 아니라공간 상에서 부피 속에 들어갈수 있는 기체의 숫자가 일정하다는 것으로물질의 밀도와는 다르답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:09:49</t>
+        </is>
+      </c>
+      <c r="B764" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:09:52</t>
+        </is>
+      </c>
+      <c r="B765" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>ㅇㅋㅇㅋㅇㅋ</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:09:54</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>음,,,</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:09:57</t>
+        </is>
+      </c>
+      <c r="B767" t="n">
+        <v>0.7783951759338379</v>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>무슨질문하냐</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>계속 질문해서 죄송합니다</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>괜찮아요~~언제든지 질문해주세요(^^) 네, 맞습니다 16쪽 14번은 화학 반응식을 쓰는 것이니까요정답이     입니다. (^^()</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:10:03</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>나도 잘 모르겠다</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:10:17</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>0.5809195041656494</v>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>병합설이날</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>대답을 안 해주네</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>질문을 좀 더 길게 구체적으로 쓰세요. 내가 쓰고 있는 AI 메커니즘이 그래요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:10:24</t>
+        </is>
+      </c>
+      <c r="B770" t="n">
+        <v>0.6719182729721069</v>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>병합설이란</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>대답을 안 해주네</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>질문을 좀 더 길게 구체적으로 쓰세요. 내가 쓰고 있는 AI 메커니즘이 그래요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:10:29</t>
+        </is>
+      </c>
+      <c r="B771" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>???????????</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:10:41</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>0.8082342147827148</v>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>이슬점과 포화수증기량의 관계</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>﻿﻿포화수증기량은 압력이랑 아무 관계 없는건가요 ??</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.사실은 포화 수증기량으수증기로 이루어져 있고, 기체이므로기체의 압력이 생겨난답니다.그래서, 고등학교에 올라가면포화 수증기량으로 공부하지 않고포화 수증기량이 미치는 압력,즉, 포화 수증기압이라고 공부하게 되는데요중3과정에서는 이러한 내용을 다루지 않는답니다.현재의 내용대로 잘 이해해두시면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:10:46</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>0.5969105958938599</v>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>구름속에 포함된 수증기량이 많으면 구름이 잘생성되는이유</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>선생님 이 그래프에서 기온이 높아지면 수증기를 더 많이 포함하기 때문에 이슬점이 높아져야되는거아닌가요? 왜 더 내려가있나요</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>반가워요^^'아주 좋은 질문입니다.온도가 높아지면 증가하는 포화 수증기량은'그 공기의 능력치입니다.즉, 실제로 포함하고 있는 수증기량이 증가한다는 뜻이아니구요그 공기가 최대한 포함할 수 있는 수증기의 양이 증가한다는 뜻이랍니다.반면에 이슬점은 현재 실제로 들어 있는 수증기의 양으로 결정된답니다.실제로 들어 있는 수증기량으로 포화 상태가 될 때의 온도가 이슬점이니까요실제 공기 속의 수증기량이 변하지 않으면온도가 높아져도 이슬점을 똑같답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:11:07</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>0.7366089820861816</v>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>상대습도 구하는 공식</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>상대습도 어떻게 구해요</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>책 67쪽 오른쪽을 보시면 나와 있죠? 현재 공기의 수증기량 / 현재 기온의 포화 수증기량 * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:11:25</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>0.7179008722305298</v>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>구름이 생성되지 않는경우</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>구름의 생성</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>이건 개중요해요. 공기 덩어리 상승 -&gt; 단열 팽창해서 온도 하강 -&gt; 온도가 이슬점에 도달하면 -&gt; 수증기 응결 -&gt; 구름 만들어짐. 꼭 외워요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:11:42</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>0.9362108707427979</v>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>적운형구름이란</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>적운형 구름이란?</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>수직으로 발달하는 구름이지.</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:11:51</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>0.8396385312080383</v>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>층운혀ㅛㅇ구름이란</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>층운형 구름이란?</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>넓게 퍼지는 모양으로 발달하는 구름이지.</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:11:58</t>
+        </is>
+      </c>
+      <c r="B778" t="n">
+        <v>0.6209717988967896</v>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>소나기란</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>층운형 구름이란?</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>넓게 퍼지는 모양으로 발달하는 구름이지.</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:12:08</t>
+        </is>
+      </c>
+      <c r="B779" t="n">
+        <v>0.8497223854064941</v>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>민경모쌤의 나이는?</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>경모쌤의 나이</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>그런 걸 굳이 궁금해할 필요가…</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:12:16</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>0.736588180065155</v>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>민경모쌤이란</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>경모쌤의 나이</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>그런 걸 굳이 궁금해할 필요가…</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:12:24</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>0.7661876678466797</v>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>이수진쌤의 나이는?</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>경모쌤의 나이</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>그런 걸 굳이 궁금해할 필요가…</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:12:30</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>0.6858730316162109</v>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>이수진쌤이란?</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>쌤 공부가 너무 힘들어요</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>좀 쉬면서 하세요. 등교 안 하니까 편하게 하셔요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:12:35</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>ㅇㅋㅇㅋ</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:12:43</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>니가그럼 ㅋㅋㅋㅋ 나도모름</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:43:46</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>0.8882492780685425</v>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>단열팽창</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>단열팽창</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>단: 차단한다 / 열: 열을 / 팽창: 부피가 늘어난다 -&gt; 열의 흐름이 차단된 상태에서 부피가 늘어나면서 온도가 떨어지는 현상이지요. 수업시간에 했죠? ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:44:19</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>0.8005178570747375</v>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>샤를의 법칙</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>기체반응법칙이 왜</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>아보가드로법칙 때문에 그래요. 중학교 건 아니지만… 기체의 종류에 상관 없이 같은 부피에는 같은 개수의 분자가 들어가요. 기체를 좀 더 공부해야 까닭을 알 수 있어요. 고등학교 갑시다 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:45:13</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>0.5962038040161133</v>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>열과 부피의 관계</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>선생님!단열팽창이란 열을 주고받지 않고 부피가 변하는거잖아요, 근데 왜 단열팽창 다음에 기온 하강을 하지요?</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.앞으로 업데이트 되는 12강에서 자세하 다루기는 할텐데요미리 설명드릴께요 일단. 단열 이라는 것은 외부로 부터 열이 차단된즉, 열을 주지고 않고, 받지도 않는 상태랍니다.이때, 팽창을 하게 되면분자가 바깥으로 공간을 밀고 나가면서에너지를 소모합니다.에너지를 소모하면 온도는 내려가는 것이랍니다.즉, 단열한 상태에서 팽창할때, 에너지를 소모하므로온도가 내려간다고 알아두시면 됩니다. 그래서, 단열 팽창, 기온 하강이라고 하는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>2020-07-21 03:54:24</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>0.9290955066680908</v>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>기체 반응 법칙</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>기체반응법칙이뭐야</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>일정한 온도와 압력에서 기체가 반응하여 새로운 기체를 생성할 때 각 기체의 부피비가 간단한 정수비가 성립한다는 법칙이에요. 이 때 계수비 = 부피비 = 입자수비임.</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>2020-07-21 04:09:30</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>0.6254441142082214</v>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>상승기류</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>4번 문제 풀이 할때 부터 이해가 되질 않았었는데 특히 갑자기 왜 12에서 36이되고 12랑 36이 무슨 관련이 있고 30이랑 36으로 해야되는거  아닌가요??이해가 너무 안되요ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>반갑습니다.^^맞아요, 이 부분 어렵지요?시간상 자세히 설명 못드렸었는데요여기서라도 자세히 설명드릴께요이 문제는 일정 성분비의 법칙을 적용해야 하다보니 문제가 어려우시죠?차근차근 설명드리면문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>2020-07-21 04:10:03</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>0.6254441142082214</v>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>상승기류</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>4번 문제 풀이 할때 부터 이해가 되질 않았었는데 특히 갑자기 왜 12에서 36이되고 12랑 36이 무슨 관련이 있고 30이랑 36으로 해야되는거  아닌가요??이해가 너무 안되요ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>반갑습니다.^^맞아요, 이 부분 어렵지요?시간상 자세히 설명 못드렸었는데요여기서라도 자세히 설명드릴께요이 문제는 일정 성분비의 법칙을 적용해야 하다보니 문제가 어려우시죠?차근차근 설명드리면문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>2020-07-21 04:25:11</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>0.9181931018829346</v>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>화학반응식</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>화학반응식을 어떻게 해야하는지 감이 안옵니다</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>맞아요, 많이 어렵지요?일단. 강의를 한번 더 시청하시기를 권해 드리고 싶습니다.또한, 화학 반응식의 기초가 되는화학식을 먼저 익혀 두셔야 합니다.2강을 수강하시면 어느 정도 이해가 되실꺼예요힘내세요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>2020-07-21 04:26:13</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>ㅌㅌㅌㅌㅌㅌㅌㅌㅌㅌㄹ</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>2020-07-21 04:38:06</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>0.7981451749801636</v>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>온대저기압이 뭔가요?</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>온대 저기압, 저기압이 생성되는 쪽에서 왜 공기가 적어져서 저기압이 생성되는건가요??</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>반가워요^^저기압의 정의 자체간공기가 적은 곳을 뜻하는 것이랍니다.따라서 온대 저기압의 중심은 공기의 양이 주변보다 적기 때문에 저기압이 생성되는 것이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:03:44</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>0.9214070439338684</v>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>구름은 어케 만들어 지노</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>구름은 어떻게 만들어져?</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>이건 개중요해요. 공기 덩어리 상승 -&gt; 단열 팽창해서 온도 하강 -&gt; 온도가 이슬점에 도달하면 -&gt; 수증기 응결 -&gt; 구름 만들어짐. 꼭 외워요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:03:53</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>알았다 이기야</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:13:36</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>0.6835697889328003</v>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>두 물질이 반응하여 새로운 물질인 앙금이 생길 때 변하는 것을 모두 고르면</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>선생님 어떤물질이 합해져야 기체발생반응,앙금생성반응이 일어나는지 모르겠는데 외워야하는건가요 ??</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>네~~ 맞아요학생의 말처럼어떤 반응에서 기체가 발생하는지앙금이 생성되는지는 따로 암기를 해두어야 한답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:31:10</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>0.7834240198135376</v>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>안녕? 방학 때도 코로나 조심!</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:31:19</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:31:35</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>안녕히계세요</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:32:08</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>0.8734937906265259</v>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>시험범위</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:32:20</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>어려워요</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:32:27</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>0.9436352252960205</v>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>과학 ㅈ까</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>과학이 너무 하기 싫어요</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>뭐.. 안 하셔도 돼요. ㅋㅋㅋ 다른 과목 하셔도 좋아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:32:51</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>0.7785241007804871</v>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>안녕? 방학 때도 코로나 조심!</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:42:10</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>0.9287099838256836</v>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>온실효과</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>온실효과</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>온실효과는 대기의 영향으로 대기가 없을 때보다 지구 평균 기온이 높게 나타나는 현상이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:42:40</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>0.8031275272369385</v>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>온실효과로 평균온도가 높게 나타나는 이유</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>온실효과</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>온실효과는 대기의 영향으로 대기가 없을 때보다 지구 평균 기온이 높게 나타나는 현상이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:42:49</t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>0.7395873069763184</v>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>지구 평균온도</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>선생님 온실기체의 양이 늘어나고 있으니까 지구의 평균기온이 계속 올라가고 있다라고 하면 맞는 건가요?</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>반가워요^^네 맞습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:43:19</t>
+        </is>
+      </c>
+      <c r="B807" t="n">
+        <v>0.7028005123138428</v>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>온실효과 있다고 해도 지구의 평균기온이 높아지나요?</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>지구가 태양에서 거리가 가까워지면 지구의 평균 기온이 높아지고 멀어지면 낮아지는 까닭이 무엇인가요??</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>반가워요^^이 부분은 이렇게 이해해두면 됩니다.태양으로 부터 복사 에너지가 오지만가까우면이동하는 동안 주변으로 손실되는 에너지가 적어지면서멀리 있을 때 보다더 많은 복사 에너지가 지구에 도달하게 되면서지구도 더 많은 태양 복사 에너지를 흡수하므로더 높은 온도에서 복사 평형이 이루어지기 때문이랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:44:10</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>0.8856041431427002</v>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>온도가 높아진다는 것은 에너지를 다 방출하지 않은 것 아닌가요?</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>에너지를 방출해서 온도가 높아지는 게 아니라 온도가 높아져서 에너지를 방출하는 거 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>반가워요^^열심히 공부하는 우리 친구현재 질문한 내용이 어떤 부분에서 나온 것일까요?조금더 구체적으로 알려주시면 정확한 답변 드릴께요확인 부탁드립니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:45:01</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>0.6697080135345459</v>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>왜 지구의 평균 기온이 높은 상태로 유지되나요?</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>선생님 온실기체의 양이 늘어나고 있으니까 지구의 평균기온이 계속 올라가고 있다라고 하면 맞는 건가요?</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>반가워요^^네 맞습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:45:42</t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>0.6744269132614136</v>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>단열팽창할 때 압력이 줄어들면 기체 자체에서 에너지를 쓰지 않아도 부피가 증가하지 않나요?</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>단열팽창에 관한 질문입니다.온도가 높을때 입자의 운동이 활발해져서 부피가 증가한다고 배워왔는데 단열팽창의 경우 부피가 증가하면서 온도가 내려간다고 되어있는데요. 첫번째 질문은 단열팽창에서 부피가 증가하면서 입자의 운동은 어떻게 변하나요?(활발해진다,둔해진다,그대로다 등) 두번째 질문은 부피가 증가했음에도 온도가 내려가는 것은 열이 차단된 상태이기 때문에 발생한 이변인가요?</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>반가워요^^ 똑똑한 우리 친구~정말 좋은 질문입니다.우선 온도가 높을때 부피가 증가하는 것은온도가 높아질때, 열에너지가 공급되므로 이 열에너지 때문에 기체가 활발하게 운동하면서 벽과 충돌하게 되고, 외부로 밀어내는 효과가 생기면서 부피가 커지는 것이랍니다.반면단열 팽창은 외부의 열이 차단되어 있는 상태에서외부에서 압력이 줄어들게 되어상대적으로 내부 기압이 높으므로기체가 바깥으로 밀고 나가다보니, 에너지를 소모하게 되어 온도가 내려가는 현상입니다.따라서  단열팽창에서 부피가 증가하면서 입자의 운동은 둔해진답니다.또한, 부피가 증가했음에도 온도가 내려가는 것은 열이 차단된 상태에서에너지를 소모했기 때문이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:48:45</t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>0.9283671379089355</v>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>전선의 앞쪽</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>전선의 앞쪽</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>전선 모양 있죠? 그 세모나 뭉특한 반원 모양이 튀어나온 부분이 앞쪽이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:51:03</t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>0.9220353364944458</v>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>한랭 전선</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>한랭 전선</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>찬 공기가 따뜻한 공기쪽으로 이동하여 따뜻한 공기 아래로 파고들면서 만들어지는 전선이에요. 그래서 전선면의 기울기가 급하고 적운형 구름이 만들어지다보니 좁은 지역에서 소나기성 비가 내려요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:51:18</t>
+        </is>
+      </c>
+      <c r="B813" t="n">
+        <v>0.9166699647903442</v>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>온난 전선</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>온난 전선</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>따뜻한 공기가 찬 공기 쪽으로 이동하여 찬 공기 위로 올라가며 만들어지는 전선이에요. 책 87쪽을 참고하세요. 따뜻한 공기가 찬 공기를 타고 슬슬 올라가기 때문에 전선면의 기울기가 완만하고 층운형 구름이 만들어져요. 그래서 비도 넓은 범위에 걸쳐 지속적으로 비가 내려요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:51:50</t>
+        </is>
+      </c>
+      <c r="B814" t="n">
+        <v>0.6029630303382874</v>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>온대저기업과 폐색전선</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>온난 전선</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>따뜻한 공기가 찬 공기 쪽으로 이동하여 찬 공기 위로 올라가며 만들어지는 전선이에요. 책 87쪽을 참고하세요. 따뜻한 공기가 찬 공기를 타고 슬슬 올라가기 때문에 전선면의 기울기가 완만하고 층운형 구름이 만들어져요. 그래서 비도 넓은 범위에 걸쳐 지속적으로 비가 내려요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:52:03</t>
+        </is>
+      </c>
+      <c r="B815" t="n">
+        <v>0.7438912391662598</v>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>온대저기압과 폐색전선</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>온대저기압에서 온난 전선과 힌랭전선은 구름이 생성되니까 모두 저기압 인가요 ??</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>반가워요^^온대 저기압의 중심은 저기압입니다.^^온난 전선과 한랭 전선은찬 공기와 따뜻한 공기가 만나서 구름이 생기는 경우로저기압은 아닙니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:52:53</t>
+        </is>
+      </c>
+      <c r="B816" t="n">
+        <v>0.8635568618774414</v>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>감사합니다!</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t xml:space="preserve">감사합니다 </t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>별 걸 다요 ㅋㅋ 주말을 갈아넣긴 했어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>2020-07-21 05:52:57</t>
+        </is>
+      </c>
+      <c r="B817" t="n">
+        <v>0.7294280529022217</v>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>구름이 생성될 때 바닥에 있던 공기가 상승해서 단열팽창이 되는건데 공기가 왜 상승하나요</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>공기의 상승이 느릴 때 생성되는 구름이 뭐야?</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>공기의 상승이 느리다기보다는 약하다고 하자. 약하면 많이 못 올라가고 넓게 퍼지니까 층운형 구름이 생길 거야.</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>2020-07-21 06:24:37</t>
+        </is>
+      </c>
+      <c r="B818" t="n">
+        <v>0.8629778027534485</v>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>실제수증기량</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>실제 수증기량이 많을수록 이슬점이 높아진다</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>실제수증기량이 많으면 빨리 응결이 일어나니까요, 온도가 조금만 낮아져도 포화상태가 되어서 그래요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2020-07-21 06:24:53</t>
+        </is>
+      </c>
+      <c r="B819" t="n">
+        <v>0.6520540714263916</v>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>이슬점 뜻</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>실제 수증기량이 많을수록 이슬점이 높아지는 이유</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>실제수증기량이 많으면 빨리 응결이 일어나니까요, 온도가 조금만 낮아져도 포화상태가 되어서 그래요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2020-07-21 06:25:08</t>
+        </is>
+      </c>
+      <c r="B820" t="n">
+        <v>0.9136372804641724</v>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>포화 수증기량</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>포화수증기량은 뭐예요</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>어떤 기온에서 일정한 양의 공기가 최대로 수증기를 포함하였을 때를 포화상태라고 하죠? 그 포화상태인 공기 1 kg에 들어 있는 수증기량을 g으로 나타낸 게 포화수증기량이에요. 책 66쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2020-07-21 06:25:19</t>
+        </is>
+      </c>
+      <c r="B821" t="n">
+        <v>0.1923620998859406</v>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>아가리 여물어</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>4kg은 문제풀때 신경안써도 되는건가요??</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>반가워요^^20강의 30분 쯤에 설명해드린108쪽 14번 문제를 말하는 군요네, 맞습니다 . 4kg은 고려하지 않아도 된답니다.그 이유는 지금 처럼 옆으로 끌어 당기는 일을 할때는 끌어당기는 힘과 이동거리를 알면 된답니다.이때, 끌어당길때의 힘을 그 물체와 접촉면 사이의 마찰력과 반대 방향으로 같은 크기의 힘을 주면 되는데요이때 마찰력을 물체의 질량이 크고 접촉 면이 거칠수록 커진답니다.하지만. 물체의 질량이 4kg이라고 하더라도 접촉면이 커칠면 마찰력이 커지고, 접촉면이 매끄러우면 마찰력이 작아지므로옆으로 끄는 힘의 크기는 달라질 수 있습니다.따라서 옆으로 끄는 일에서는 힘을 물체의 질량 4kg을 넣어서 구할 필요는 없는 것이랍니다. 똑똑한 우리 친구~ 화이팅(^^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2020-07-21 06:25:40</t>
+        </is>
+      </c>
+      <c r="B822" t="n">
+        <v>0.6006131768226624</v>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>질문이 너무 짧아요. 좀 더 구체적으로 질문 부탁해요.</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>선생님!! 문제 16번에 4번이요 여러번 돌려봤는데도 불구하고 이해가 안가요 ㅜㅜ 다시 쉽고 구체적이게 설명 가능하신가요?</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>반가워요^^우리 친구가 질문한 내용이교재 몇쪽의 16번 문제일까요?구체적으로 알려주시면 정확한 답변드리겠습니다.확인 부탁드려요</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2020-07-21 09:21:07</t>
+        </is>
+      </c>
+      <c r="B823" t="n">
+        <v>0.8132768273353577</v>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>일정성분비법칙과 기체반응법칙의 차이점</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>일정성분비법칙이랑 질량보존법칙 차이점</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>일정성분비법칙은 화합물 입장에서 화합물을 구성하는 원소의 질량비가 딱 정해져 있다는 법칙이고, 질량보존법칙은 화학반응식 전체로 볼 때 반응 전과 반응 후의 질량이 변하지 않는다는 법칙이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2020-07-21 09:21:45</t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>0.6072057485580444</v>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>오존층이 없으면 나타나는 현상</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>오존층에는 대류가 일어나나요?</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>아래보다 위쪽이 온도가 낮아서 대류가 일어나지 않아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>2020-07-21 09:22:23</t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>0.7363197803497314</v>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>오존층이 없으면 기온 층이 어떻게 되나요</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>오존층을 포함한 층인 성층권이 기온이 높다고 하잖아요...오존층이 성층권의 기온을 높여주는 역할을 하기 때문이라고 하는데,오존층이 자외선을 흡수하기 때문에 온도가 높아지는 것인가요? 아니면 오존층 자체의 온도가 높은 건 가요?오존층이 온도가 높은 층이라면 중간권의 온도는 지구복사에너지보다 오존층의 온도에 영향을 받는 것인가요?</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>반가워요^^ 이 부분은 헷갈리지요?성층권안의 오존층에서 자외선을 흡수하고,아무래도 오존층의 위쪽에서 더 많은 자외선을 흡수하게 되므로아래쪽 보다는 위쪽으로 갈수록 더 온도가 높아진답니다. 결국. 성층권안에서 오존층의 가열로 인하여 위쪽까지 뜨거운 열기가 전달되므로성층권 내부에서는 위쪽으로 올라갈 수록 기온이 올라가는 구조를 이루고 있답니다. 그리고, 이러한 오존층의 영향이 성층권안에서 끝나므로성층권의 기온 분포에만 영향을 주는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>2020-07-21 09:23:58</t>
+        </is>
+      </c>
+      <c r="B826" t="n">
+        <v>0.2144376635551453</v>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>미안해요</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>그래프상에서 실제수증기량의 많고 적음을 어떻게 판단할수잇나요?</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>반가워요^^포화 수증기량 그래프에서는 기온에 따른 실제 수증기량은 점으로 표시한답니다.따라서 알수 있답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>2020-07-21 09:24:08</t>
+        </is>
+      </c>
+      <c r="B827" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>배고파요</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>2020-07-21 09:24:26</t>
+        </is>
+      </c>
+      <c r="B828" t="n">
+        <v>0.7907241582870483</v>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>고기압과 저기압의 날씨</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>고기압과 저기압은 왜 나타나나요?</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>반가워요^^고기압과 저기압이 생겨나는 여러 가지 이유가 있지만대표적으로는 지표면의 불균등한 가열과 냉각 때문이랍니다.자세히 설명드리자면지표면의 특정한 부분이 가열되면 그 부분의 공기는 따뜻해지면서 가벼워져 상승합니다.그렇게 되면 지표면 부근은 공기가 적어지면서 저기압이 형성되는 것입니다.반대로, 지표면의 특정한 부분이 냉각되면 그 부분의 공기는 차가워지면서 무거워져 하강합니다.그렇게 되면 지표면 부근은 공기가 많아지면서 고기압이 형성되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>2020-07-21 09:24:48</t>
+        </is>
+      </c>
+      <c r="B829" t="n">
+        <v>0.8882492780685425</v>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>단열팽창은 무엇인가요</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>단열팽창</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>단: 차단한다 / 열: 열을 / 팽창: 부피가 늘어난다 -&gt; 열의 흐름이 차단된 상태에서 부피가 늘어나면서 온도가 떨어지는 현상이지요. 수업시간에 했죠? ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>2020-07-21 09:25:09</t>
+        </is>
+      </c>
+      <c r="B830" t="n">
+        <v>0.5657638311386108</v>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>단열팽창시 나타나는 실험결과는요</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>단열팽창</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>단: 차단한다 / 열: 열을 / 팽창: 부피가 늘어난다 -&gt; 열의 흐름이 차단된 상태에서 부피가 늘어나면서 온도가 떨어지는 현상이지요. 수업시간에 했죠? ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>2020-07-21 09:25:19</t>
+        </is>
+      </c>
+      <c r="B831" t="n">
+        <v>0.506407618522644</v>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>배고고픈이유는</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>중력은 항상 9.8 아닌가요..?</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>반가워요^^중력 가속도 상수는 항상 9.8입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>2020-07-21 09:25:34</t>
+        </is>
+      </c>
+      <c r="B832" t="n">
+        <v>0.180204376578331</v>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>저는 행복해요</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>안녕하세요!선생님 항상 좋은답변을 해 주시는 선생님께 감사드립니다^^오늘 선생님께서 만들어주신 실전책종합문제를 풀어보았는데 다른건 다 이해가 되는데 이 문제가 좀 새로보는 문제더라고요 2번그래프가 어색했는데 S가 이동거리 h가 높이라하였을때 2번그래프는 높이가 높아질수록 이동거리의 길이도 늘어난다라는 해석이 맞나요?</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 2번 그래프 어색하지요해석을 이렇습니다.높이(h)가 일정하게 증가할 때이동거리(s)는 점점 증가폭이 작아진다는 뜻이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>2020-07-21 09:25:52</t>
+        </is>
+      </c>
+      <c r="B833" t="n">
+        <v>0.8721113204956055</v>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>시험쉽게내주세요</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>시험 100점 맞을려면</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>매우매우 열심히 해야 함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>2020-07-21 09:26:06</t>
+        </is>
+      </c>
+      <c r="B834" t="n">
+        <v>0.1939842402935028</v>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>아니 쉽게 내주세요</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>105쪽에 고난이도 실력 향상 문제에서 식이 답지를 보니까 (9.8*2)*5드라고요근데 왜, 높이 5m만 사용을하고 가로 4m는 왜 사용을하지 안나요?</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E834"/>
+  <dimension ref="A1:E838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -20996,6 +20996,106 @@
         </is>
       </c>
     </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>2020-07-21 11:40:53</t>
+        </is>
+      </c>
+      <c r="B835" t="n">
+        <v>0.6506142020225525</v>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t xml:space="preserve">수행평가 </t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>수행평가에서 봤던 화학식 부분은 기말고사에 나올지 안 나오나요?</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>나와요. 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>2020-07-21 12:26:05</t>
+        </is>
+      </c>
+      <c r="B836" t="n">
+        <v>0.7694735527038574</v>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>어떻게 향 연기가 응결을 도와주나요?</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>선생님 !!!(페트병 안에 구름발생실험..?그거할때)왜 수증기가 응결을 하면 뿌옇게 흐려져요???? 그리고 향 연기가 어떻게 수증기의 응결을 돕는거예요?????</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>반가워요^^수증기가 응결한다는 것은수증기끼리 뭉쳐서 입자가 큰 물방울로 뭉치는 것이랍니다.그러니, 우리 눈에 뿌옇게 보이는 것입니다. 그리고, 향 연기는 입자가 커서향 연기를 중심으로 수증기가 달라붙게 되어응결을 도와주는 응결의 중심, 즉, 응결핵역할을 하는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>2020-07-21 12:37:43</t>
+        </is>
+      </c>
+      <c r="B837" t="n">
+        <v>0.5823600292205811</v>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>구리의 질량에 관계없이 반응하는 산소의 질량은 일정한가요</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>교재 29쪽에 2번에 15분과 20분에 증가한 질량이 왜 같아지나요?답지에서는 더 이상 반응할 구리가 없기 때문이라고 하는데 왜 반응할 구리가 없는 건지 잘 모르겠어요.</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>반가워요^^29쪽 2번의 표에서 결과처럼구리는 처음에는 산소와 결합하면서 산화 구리가 되므로질량이 점점 증가합니다.따라서 증가한 질량은 구리와 결합한 산소이 질량이예요. 하지만. 이때 구리는 산소와 4:1의 비율 결합합니다.'즉, 일정한 질량비로만 반응하므로구리가 3g일때, 반응하는 산소는 0.75g까지만 반응하여 산화 구리를 만들구요그 뒤부터는 아무리 주변의 산소가 많아도더이상 산소와 반응할 구리가 없답니다.그러면, 연소 반응도 끝나고, 시간이 지나도, 여전히 구리 3g에 대해서 결합한 산소의 양은 0.75g이므로15분과 20분에서의 증가한 양은 일정한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>2020-07-21 12:38:33</t>
+        </is>
+      </c>
+      <c r="B838" t="n">
+        <v>0.6372185945510864</v>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>구리의 질량을 증가시켜도 반응하는 구리와 산소의 질량비는 일정하다</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>교재 29쪽에 2번에 15분과 20분에 증가한 질량이 왜 같아지나요?답지에서는 더 이상 반응할 구리가 없기 때문이라고 하는데 왜 반응할 구리가 없는 건지 잘 모르겠어요.</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>반가워요^^29쪽 2번의 표에서 결과처럼구리는 처음에는 산소와 결합하면서 산화 구리가 되므로질량이 점점 증가합니다.따라서 증가한 질량은 구리와 결합한 산소이 질량이예요. 하지만. 이때 구리는 산소와 4:1의 비율 결합합니다.'즉, 일정한 질량비로만 반응하므로구리가 3g일때, 반응하는 산소는 0.75g까지만 반응하여 산화 구리를 만들구요그 뒤부터는 아무리 주변의 산소가 많아도더이상 산소와 반응할 구리가 없답니다.그러면, 연소 반응도 끝나고, 시간이 지나도, 여전히 구리 3g에 대해서 결합한 산소의 양은 0.75g이므로15분과 20분에서의 증가한 양은 일정한 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1289"/>
+  <dimension ref="A1:E1305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -32371,6 +32371,406 @@
         </is>
       </c>
     </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>2020-07-23 11:05:14</t>
+        </is>
+      </c>
+      <c r="B1290" t="n">
+        <v>0.7098506689071655</v>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>계수비가 바뀌는 이유</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>계수비와 분자수의 비는 항상 같나요? :)</t>
+        </is>
+      </c>
+      <c r="E1290" t="inlineStr">
+        <is>
+          <t>반가워요^^네, 반응물과 생성물이 모두 분자를 가지는 경우'즉, 화학식이 분자식으로 표현되는 경우는계수비가 곧 분자수비 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>2020-07-23 11:06:11</t>
+        </is>
+      </c>
+      <c r="B1291" t="n">
+        <v>0.9192146062850952</v>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>화학반응식의 계수 맞추는 방법</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>선생님,화학 반응식 만드는 방법을 잘 모르겟어요...계수 붙이는 건 알겠는데...요...</t>
+        </is>
+      </c>
+      <c r="E1291" t="inlineStr">
+        <is>
+          <t>반가워요^^화학 반응식이 많이 어려우시죠?일단은 화학 반응식의 기초가 되는화학식을 먼저 익혀 두셔야 합니다. &lt;p&gt;그리고, 반응물과 생성물은 각각 한글로 식을 쓰고&lt;/p&gt;&lt;p&gt;다음으로 화학식을 넣은 다음&lt;/p&gt;&lt;p&gt;화학식 앞의 계수 맞추기를 해주셔야 하구요&lt;/p&gt;&lt;p&gt;그러려면 반응물이 무엇인지 생성물이 무엇인지 알아야 한답니다.&lt;/p&gt;결국, 기본 적인 화학식을 먼저 꼭 알고 있어야화학 반응식을 바로 꾸밀수 있답니다.강의를 보시면 "함께가는 과학, 쉬운과학"코너에서 꼭 기억하고 있어야 할 화학식을 정리해 두었습니다.참고하세요*^^*</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>2020-07-23 11:33:23</t>
+        </is>
+      </c>
+      <c r="B1292" t="n">
+        <v>0.8934677839279175</v>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>물리 변화</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>물리 변화</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>물리변화와 화학변화 구분은 하셔야겠죠. 책 13쪽 참고하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>2020-07-23 11:33:30</t>
+        </is>
+      </c>
+      <c r="B1293" t="n">
+        <v>0.5406085252761841</v>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>물리 변화 뜻</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>물리 변화</t>
+        </is>
+      </c>
+      <c r="E1293" t="inlineStr">
+        <is>
+          <t>물리변화와 화학변화 구분은 하셔야겠죠. 책 13쪽 참고하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>2020-07-23 11:36:48</t>
+        </is>
+      </c>
+      <c r="B1294" t="n">
+        <v>0.5773639678955078</v>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>화학반응식화 뜻</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>그 여기서 화학반응식에서 화살표가 아래로 가있는게 있는데 그건 뭘 뜻하는건가요?</t>
+        </is>
+      </c>
+      <c r="E1294" t="inlineStr">
+        <is>
+          <t>반가워요^^화살표가 아래로 가있다는 말은물질 옆에 ↓ 화살표를 뜻하는 거죠?이것은 생성된 물질이 앙금이라는 뜻입니다.앙금을 가라앉으니까요, 앙금을 표시하기 위해서 생성물 중의 앙금에 ↓ 화살표를 옆에 쓴답니다. 반대의 경우도 있습니다.화살표가 오히려 위로 올라가는 ↑화살표도 있답니다이때는 생성물에 기체가 생성되어 날라간다는 의미에서생성물의 기체 옆에 ↑화살표를 붙인답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>2020-07-23 11:37:03</t>
+        </is>
+      </c>
+      <c r="B1295" t="n">
+        <v>0.5851466655731201</v>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>화학반응식 뜻</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>2강에서 화학반응식을 몇번이나 돌려보고 돌려봐도 모르겠어요...ㅠㅠㅠ 선생님 화학반응식을 어떻게 쉽게 풀이를 하면 되나여... 저 좀 도와주세요ㅜㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E1295" t="inlineStr">
+        <is>
+          <t>반가워요^^화학 반응식이 많이 어려우시죠?일단은 화학 반응식의 기초가 되는화학식을 먼저 익혀 두셔야 합니다.기본 적인 화학식을 먼저 꼭 알고 있어야화학 반응식을 바로 꾸밀수 있답니다.강의를 보시면 "함께가는 과학, 쉬운과학"코너에서 꼭 기억하고 있어야 할 화학식을 정리해 두었습니다.참고하세요*^^*</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>2020-07-23 11:43:32</t>
+        </is>
+      </c>
+      <c r="B1296" t="n">
+        <v>0.6668614745140076</v>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>질량 보존의 법칙 뜻</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>질량보존 법칙이 뭔가요?</t>
+        </is>
+      </c>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>화학 반응 과정에서 반응 전 물질의 총 질량과 반응 후 물질의 총 질량이 같다는 법칙이죠. 책 28쪽 읽어보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>2020-07-23 11:47:40</t>
+        </is>
+      </c>
+      <c r="B1297" t="n">
+        <v>0.9232911467552185</v>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙이뭔가요?</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>화합물을 구성하는 성분 원소 사이에는 일정한 질량비가 성립한다는 법칙이에요. 책 30쪽부터 꼭 읽어봐요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>2020-07-23 11:51:11</t>
+        </is>
+      </c>
+      <c r="B1298" t="n">
+        <v>0.9246273636817932</v>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>기체 반응 법칙</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>기체반응법칙이뭐야</t>
+        </is>
+      </c>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>일정한 온도와 압력에서 기체가 반응하여 새로운 기체를 생성할 때 각 기체의 부피비가 간단한 정수비가 성립한다는 법칙이에요. 이 때 계수비 = 부피비 = 입자수비임.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>2020-07-23 11:56:46</t>
+        </is>
+      </c>
+      <c r="B1299" t="n">
+        <v>0.7065454721450806</v>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>에너지 출입</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>선생님~ 에너지 출입이 화학반응에서만 일어나는 건가요? 물리변화가 일어나는 과저에서는 에너지가 출입하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구정말좋은 질문입니다.화학 변화 뿐만 아니라 물리 변화에서도 에너지의 출입이 있습니다.예를 들어서 얼음이 녹아서 물이라는 상태변화(물리변화)가 일어날때도열에너지를 흡수한답니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>2020-07-23 12:06:09</t>
+        </is>
+      </c>
+      <c r="B1300" t="n">
+        <v>0.5640410184860229</v>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>기권 뜻</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>기권에서 높이 올라갈 수로 기압이 낮아지는</t>
+        </is>
+      </c>
+      <c r="E1300" t="inlineStr">
+        <is>
+          <t>위로 올라가면 중력이 작아져서 같은 부피 속에 있는 공기 입자 수가 줄어들죠. 기압은 지구가 공기를 끌어당기는 중력 때문에 생기는데 입자가 줄어들어서 질량도 줄고, 질량이 줄어드니 무게도 줄죠. 무게 = 중력이니 중력이 줄어서 기압이 낮아져요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>2020-07-23 12:06:29</t>
+        </is>
+      </c>
+      <c r="B1301" t="n">
+        <v>0.6504996418952942</v>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>기권의 의미</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>﻿61쪽에 2번이요 이 문제는 B가 무엇을 의미하는지 모르겠고 보기 1234 가 너무 어려웠어요ㅠㅠ 보기 1234의 설명과 B가 의미 하는것이 무엇인지 차근차근 설명해주세요</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>반가워요^^61쪽 2번 문제는 그림에서의 A, B, C가 뜻하는 과정을 먼저 이해해야 한답니다.A에서 공기가 상승하여 B에서 C로 올라갈 때, 부피가 팽창하므로 공기의 온도는 낮아지는 것을 뜻합니다.즉, A보다는 B가 B보다는 C가 더 많이 팽창하여 온도가 내려간 것인데요'이때,  C에서는 기온이 이슬점에 도달하여 수증기가 응결하면서 구름이 생기기 시작하는 과정이랍니다.따라서 공기는 A-B-C로 이동하면서 부피가 팽창하므로 기온이 낮아진다고 생각하시면 됩니다. ⑴ C에서 공기의 온도가 A에서 공기의 온도보다 낮다. ☞ 옳은 내용입니다. ⑵ B에서 공기의 기온이 이슬점에 도달하여 수증기가 응결하기 시작한다. ☞ 옳지 않습니다 C에서 이슬점이 되니까요⑶ 공기는 C에서 포화 상태가 된다. (☞ 옳은 내용입니다. 이슬점에 도달했다는 것은 현재 수증기량으로 포화 상태가 되었다는 뜻이니까요⑷ 공기는 A에서 B로 이동할 때 부피가 팽창하면서 기온이 올라간다.☞ 옳지 않습니다. 부피는 팽창하지는 기온이 내려가니까요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>2020-07-23 12:07:22</t>
+        </is>
+      </c>
+      <c r="B1302" t="n">
+        <v>0.7172898054122925</v>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>오로라 뜻</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>이슬점 뜻</t>
+        </is>
+      </c>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>공기가 포화 상태에 도달하여 응결이 시작되는 온도예요. 책 71쪽 오른쪽 아래에 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>2020-07-23 12:24:35</t>
+        </is>
+      </c>
+      <c r="B1303" t="n">
+        <v>0.925285279750824</v>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>포화 수증기량</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>포화수증기량은 뭐예요</t>
+        </is>
+      </c>
+      <c r="E1303" t="inlineStr">
+        <is>
+          <t>어떤 기온에서 일정한 양의 공기가 최대로 수증기를 포함하였을 때를 포화상태라고 하죠? 그 포화상태인 공기 1 kg에 들어 있는 수증기량을 g으로 나타낸 게 포화수증기량이에요. 책 66쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>2020-07-23 12:32:33</t>
+        </is>
+      </c>
+      <c r="B1304" t="n">
+        <v>0.9152420163154602</v>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>적운형 구름</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>적운형 구름이란?</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>수직으로 발달하는 구름이지.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>2020-07-23 12:33:18</t>
+        </is>
+      </c>
+      <c r="B1305" t="n">
+        <v>0.8925539255142212</v>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>층운형 구름</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>층운형 구름이란?</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>넓게 퍼지는 모양으로 발달하는 구름이지.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1305"/>
+  <dimension ref="A1:E1688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -32771,6 +32771,9576 @@
         </is>
       </c>
     </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:12:53</t>
+        </is>
+      </c>
+      <c r="B1306" t="n">
+        <v>0.1958409249782562</v>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>심심해 뭐하짖</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>왜 연소반응이 일어나나요?</t>
+        </is>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>반가워요^^물질이 산소와 반응하기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:13:10</t>
+        </is>
+      </c>
+      <c r="B1307" t="n">
+        <v>0.7678300738334656</v>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>안녕하다 반가워</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>안녕? 방학 때도 코로나 조심!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:13:26</t>
+        </is>
+      </c>
+      <c r="B1308" t="n">
+        <v>0.1958409249782562</v>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>지금 뭐하니</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>왜 연소반응이 일어나나요?</t>
+        </is>
+      </c>
+      <c r="E1308" t="inlineStr">
+        <is>
+          <t>반가워요^^물질이 산소와 반응하기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:13:38</t>
+        </is>
+      </c>
+      <c r="B1309" t="n">
+        <v>0.1958409249782562</v>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>심심해 나랑 놀자</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>왜 연소반응이 일어나나요?</t>
+        </is>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>반가워요^^물질이 산소와 반응하기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:13:52</t>
+        </is>
+      </c>
+      <c r="B1310" t="n">
+        <v>0.9307160973548889</v>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>넌 참 연소반응을 좋아하는구나</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>왜 연소반응이 일어나나요?</t>
+        </is>
+      </c>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>반가워요^^물질이 산소와 반응하기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:14:23</t>
+        </is>
+      </c>
+      <c r="B1311" t="n">
+        <v>0.8445521593093872</v>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">시흥은행중학교 과학쌤 </t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>시흥은행중학교</t>
+        </is>
+      </c>
+      <c r="E1311" t="inlineStr">
+        <is>
+          <t>우리 학교 이름을 부르고 싶었어?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:14:45</t>
+        </is>
+      </c>
+      <c r="B1312" t="n">
+        <v>0.7545427680015564</v>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>과학쌤 싫어</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>쌤 공부가 너무 힘들어요</t>
+        </is>
+      </c>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t>좀 쉬면서 하세요. 등교 안 하니까 편하게 하셔요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:52:11</t>
+        </is>
+      </c>
+      <c r="B1313" t="n">
+        <v>0.6186444759368896</v>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>빙정이 그대로 떨어지면 눈이된다</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>소금입자는 수증기를 모으는 응결핵 역할을 하고 빙정 역시수증기를 모아서눈이나 비를 내리게 하는 것인데 이 둘의 차이가 뭔가요? 이 둘은 같은 건가요?</t>
+        </is>
+      </c>
+      <c r="E1313" t="inlineStr">
+        <is>
+          <t>반가워요^^우선, 응결핵이 있어야 수증기가 모이구요이때 수증기가 모여서 바로 얼어 빙정이 되고이 빙정이 자라날때, 수증기가 더 많이 달라붙어서 커지면서무거워지면 떨어져 눈이나 비가 되는 것입니다즉, 응결핵이 먼저 수증기를 모으고, 이것이 빙정이 되어서 다시 수증기가 모여서 자라는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:52:23</t>
+        </is>
+      </c>
+      <c r="B1314" t="n">
+        <v>0.7117577791213989</v>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>구름의 응결핵</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>선생님 구름의 응결핵이 소금 입자라고 하셨는데 그럼 만약 구름을 맛을 보면 짜요?</t>
+        </is>
+      </c>
+      <c r="E1314" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.비록, 구름의 응결핵에 소금 입자가 있지만.사람이 먹어서 짠맛을 느끼려면 그양이 어느 정도 많아야 한답니다.'그런데, 응결핵으로서의 소금 입자는 맛을 느낄 정도의 양은 아니랍니다.따라서 짠맛이 느껴지지는 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:52:50</t>
+        </is>
+      </c>
+      <c r="B1315" t="n">
+        <v>0.5359351634979248</v>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>먼지는 구름의 응결을 도와</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>측운형 구름이란?</t>
+        </is>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>측운형이 아니라 층운형 구름이요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:53:10</t>
+        </is>
+      </c>
+      <c r="B1316" t="n">
+        <v>0.727961540222168</v>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>얼음알갱이가 그대로 떨어지</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>﻿빙정은 수증기가 승화하여 만들어진 얼음 결정이니깐 빙정과 얼음은 같다고 볼 수 있는건가요?</t>
+        </is>
+      </c>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.다만, 빙정은 매우 가는 얼음 알갱이로 이해하시면 됩니다첫눈이 올때, 장갑에 떨어진 눈을 보면얼음 알갱이를 매우 가늘게 뿌려둔것 처럼 보이잖아요빙정은 이것보다 더 작다고 보시면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:54:19</t>
+        </is>
+      </c>
+      <c r="B1317" t="n">
+        <v>0.7205157279968262</v>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>아이오딘화 칼륨 수용액과 질산납 수용액의 부피는 왜 1:1이야?</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>문제에서 아이오딘화 납 생성 반응에서 10% 아이딘화 칼륨 수용액과 105 질산 납 수용액을 반응시키는 건데 문제에서 남은 물질을 완전히 반응시키기 위해 넣어 주어야 하는 물질의 부피를 적으라고 하여 10% 아이오딘화 칼륨 용액 4ml라고 적었는데 답에서는 아이오딘화 수용액 4ml라고 하내요.10%를  안써야만 답인가요? 아님 둘다 정답인가요?결론 적으로 10% 아이오딘화 칼륨 용액을 아이오딘화 칼륨 용액이라고 쓴 이유가 궁금합니다.</t>
+        </is>
+      </c>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t>반가워요^^ 똑똑한 우리 친구~사실을 우리 친구의 답처럼10%를 쓸 때가 더 정확하답니다.10%라는 의미를 아이오딘화 칼륨이 전체 용액속에 10%녹아 있다는 뜻입니다.사실, 이실험은 일정 성분비의 법칙을 확인하는 실험인데요원래는 질량비를 비교해야 하는데아이오딘화 납을 만들때는 질량을 일일이측정할 수 없으므로같은 물질의 경우는 같은 부피라면 질량도 같으므로부피비가 일정하다면, 각 부피에 해당하는 질량을 구하게 될때, 질량도 일정해지므로부피비가 일정하면 질량비의 수치는 다르겠지만. 일정할 수 있다는 전제로 이 내용이 등장한 것이랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:54:24</t>
+        </is>
+      </c>
+      <c r="B1318" t="n">
+        <v>0.8906723260879517</v>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>질량 보존 법칙 물리 변화</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>선생님 화학변화와 물리변화 말고도 다른 변화가있나요?만약 있으면 그 변화도 질량보존법칙을 따르나요?</t>
+        </is>
+      </c>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>반가워요^^물질의 변화는물리변화 아니면 화학 변화입니다둘다 질량 보존법칙이 성립하구요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:55:21</t>
+        </is>
+      </c>
+      <c r="B1319" t="n">
+        <v>0.6179547309875488</v>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">제가 원하는 답이 아니야 </t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>실전연습 1번 문제에서 선생님께서 답을 원자의 종류와 수를 같게 맞추다 보니 알아낸 것이라고 해주셨는데 저는 뭔가 더 깊게 들어가서 답을 쓰고 싶은데 (어떤것의 계수가 다르고•••)어떤식으로 써야할지 잘모르겠더라고용 근데.. 또 이것보다 선생님의 답이 간단하고 명확해서 이렇게 제가 원하는 대로 쓰면 안되는 걸까요..?</t>
+        </is>
+      </c>
+      <c r="E1319" t="inlineStr">
+        <is>
+          <t>반가워요^^네, 우리 친구의 생각처럼 구체적으로 더 자세하게 서술해도 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:55:40</t>
+        </is>
+      </c>
+      <c r="B1320" t="n">
+        <v>0.1958409249782562</v>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>어쩌라고</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>왜 연소반응이 일어나나요?</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>반가워요^^물질이 산소와 반응하기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:55:58</t>
+        </is>
+      </c>
+      <c r="B1321" t="n">
+        <v>0.849035918712616</v>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>열심히 사네 넌 공부 안햐서 좋겎다</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>공부싫어</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>쉬었다 하세요 ㅋㅋ 지금 안 해도 됨.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:56:01</t>
+        </is>
+      </c>
+      <c r="B1322" t="n">
+        <v>0.7192419171333313</v>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>얼음알갱이가 떨어질 때 기온이 낮으면 눈</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>﻿선생님 안녕하세요!! 중위도나 고위도 지방에서는 빙정설을 강수이론으로 가지잖아요. 빙정설은 수증기가 얼음알갱이에 달라붙어 얼음알갱이가 커져서 무거워지면 눈이나 비로 내리잖아요. 그런데 어떻게 0 ~ - 40도에서 수증기가 얼음알갱이에 달라붙나요?? 그 온도에 수증기가 존재할 수 있나요...??</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.공기가 상승하여 이슬점에 도달하면 수증기가 응결하여 물방울이 되는데요이때, 모든  수증기가 다 물방울이 되는 것이 아니랍니다.현재 공기에서 포화 상태가 될때까지의 수증기는 그대로 있고넘치는 수증기가 바로 응결하여 물방울이 되고온도가 영하 이하라면 얼어서 빙정도 생긴답니다.따라서 구름속에 수증기와 물방울, 빙정이 모두 들어 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:56:14</t>
+        </is>
+      </c>
+      <c r="B1323" t="n">
+        <v>0.9137885570526123</v>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>그러고 싶지만 곧 시험이야</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>시험 100점 맞을려면</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>매우매우 열심히 해야 함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:56:29</t>
+        </is>
+      </c>
+      <c r="B1324" t="n">
+        <v>0.9137885570526123</v>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>시험같은거 왜봐</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>시험 100점 맞을려면</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>매우매우 열심히 해야 함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:56:46</t>
+        </is>
+      </c>
+      <c r="B1325" t="n">
+        <v>0.9182509779930115</v>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>나 진짜 시험 어렵게 내는거 이해안가</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>시험 100점 맞을려면</t>
+        </is>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>매우매우 열심히 해야 함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:57:01</t>
+        </is>
+      </c>
+      <c r="B1326" t="n">
+        <v>0.6171096563339233</v>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>쌤들 나빠 영어쌤들</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>쌤 마지막에 쌤이 인사할때 나오는 노래 제목이 뭐에요??</t>
+        </is>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>반가워요^^노래는 pd님께서 넣어주시는 것이라저도 정확하게 알지 못합니다. 도움이 못되었네요ㅠㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:57:51</t>
+        </is>
+      </c>
+      <c r="B1327" t="n">
+        <v>0.6310444474220276</v>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>구름속에 수증기가 있나요</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>구름속에 포함된 수증기량이 많으면 구름이 잘생성되는이유</t>
+        </is>
+      </c>
+      <c r="E1327" t="inlineStr">
+        <is>
+          <t>현재수증기량이 많으니 같은 포화수증기량이라면 습도가 애초에 높죠. 그래서 온도가 조금만 내려가도 금세 이슬점에 도달해서 구름이 잘 만들어져요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:58:24</t>
+        </is>
+      </c>
+      <c r="B1328" t="n">
+        <v>0.602455735206604</v>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">빙정설에서 눈 </t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>﻿선생님 안녕하세요!! 중위도나 고위도 지방에서는 빙정설을 강수이론으로 가지잖아요. 빙정설은 수증기가 얼음알갱이에 달라붙어 얼음알갱이가 커져서 무거워지면 눈이나 비로 내리잖아요. 그런데 어떻게 0 ~ - 40도에서 수증기가 얼음알갱이에 달라붙나요?? 그 온도에 수증기가 존재할 수 있나요...??</t>
+        </is>
+      </c>
+      <c r="E1328" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.공기가 상승하여 이슬점에 도달하면 수증기가 응결하여 물방울이 되는데요이때, 모든  수증기가 다 물방울이 되는 것이 아니랍니다.현재 공기에서 포화 상태가 될때까지의 수증기는 그대로 있고넘치는 수증기가 바로 응결하여 물방울이 되고온도가 영하 이하라면 얼어서 빙정도 생긴답니다.따라서 구름속에 수증기와 물방울, 빙정이 모두 들어 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>2020-07-23 13:58:36</t>
+        </is>
+      </c>
+      <c r="B1329" t="n">
+        <v>0.602455735206604</v>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>빙정설에서 눈을 내릴려면</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>﻿선생님 안녕하세요!! 중위도나 고위도 지방에서는 빙정설을 강수이론으로 가지잖아요. 빙정설은 수증기가 얼음알갱이에 달라붙어 얼음알갱이가 커져서 무거워지면 눈이나 비로 내리잖아요. 그런데 어떻게 0 ~ - 40도에서 수증기가 얼음알갱이에 달라붙나요?? 그 온도에 수증기가 존재할 수 있나요...??</t>
+        </is>
+      </c>
+      <c r="E1329" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.공기가 상승하여 이슬점에 도달하면 수증기가 응결하여 물방울이 되는데요이때, 모든  수증기가 다 물방울이 되는 것이 아니랍니다.현재 공기에서 포화 상태가 될때까지의 수증기는 그대로 있고넘치는 수증기가 바로 응결하여 물방울이 되고온도가 영하 이하라면 얼어서 빙정도 생긴답니다.따라서 구름속에 수증기와 물방울, 빙정이 모두 들어 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:00:11</t>
+        </is>
+      </c>
+      <c r="B1330" t="n">
+        <v>0.7360202670097351</v>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>얼음알갱이가 그대로 떨어지면 눈이 되나요</t>
+        </is>
+      </c>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>﻿선생님 안녕하세요!! 중위도나 고위도 지방에서는 빙정설을 강수이론으로 가지잖아요. 빙정설은 수증기가 얼음알갱이에 달라붙어 얼음알갱이가 커져서 무거워지면 눈이나 비로 내리잖아요. 그런데 어떻게 0 ~ - 40도에서 수증기가 얼음알갱이에 달라붙나요?? 그 온도에 수증기가 존재할 수 있나요...??</t>
+        </is>
+      </c>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.공기가 상승하여 이슬점에 도달하면 수증기가 응결하여 물방울이 되는데요이때, 모든  수증기가 다 물방울이 되는 것이 아니랍니다.현재 공기에서 포화 상태가 될때까지의 수증기는 그대로 있고넘치는 수증기가 바로 응결하여 물방울이 되고온도가 영하 이하라면 얼어서 빙정도 생긴답니다.따라서 구름속에 수증기와 물방울, 빙정이 모두 들어 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:12:15</t>
+        </is>
+      </c>
+      <c r="B1331" t="n">
+        <v>0.5829654932022095</v>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>기권의 특징</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>물리변화의 특징으로는 뭐가있나요?</t>
+        </is>
+      </c>
+      <c r="E1331" t="inlineStr">
+        <is>
+          <t>반가워요^^물리 변화는 그 물질의 모양이나 상태가 변하고물질의 성질을 변하지 않는 것입니다이를 더 자세히 설명하면물리 변화는그 물질의 분자는 변하지 않고분자의 배열만 바뀌는 변화입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:53:44</t>
+        </is>
+      </c>
+      <c r="B1332" t="n">
+        <v>0.7633513212203979</v>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>구름이 생기는 원리</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>구름의 발생 원리 실험에서 일어나는 변화</t>
+        </is>
+      </c>
+      <c r="E1332" t="inlineStr">
+        <is>
+          <t>단열팽창부터 시작하는 그 시나리오를 따르지</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:54:12</t>
+        </is>
+      </c>
+      <c r="B1333" t="n">
+        <v>0.8526864051818848</v>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>구름이 생기는 과정</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>구름의 생성과정</t>
+        </is>
+      </c>
+      <c r="E1333" t="inlineStr">
+        <is>
+          <t>이건 개중요해요. 공기 덩어리 상승 -&gt; 단열 팽창해서 온도 하강 -&gt; 상대습도 높아짐 -&gt; 온도가 이슬점에 도달하면 -&gt; 수증기 응결 -&gt; 구름 만들어짐. 꼭 외워요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:54:56</t>
+        </is>
+      </c>
+      <c r="B1334" t="n">
+        <v>0.7846748828887939</v>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>오호츠크해 기단</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>선생님 오호츠크해 기단은 한랭 다습하고 북태평양 기단은 고온 다습한데 이 두개의 기단이 만나면 구름이 생성되고 구름의 성질과 연관 지을 수 있겠네요?</t>
+        </is>
+      </c>
+      <c r="E1334" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.거기다가 두 기단은 모두 습한 기단이라서수증기가 풍부하므로 구름이 더 잘 생긴답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:55:10</t>
+        </is>
+      </c>
+      <c r="B1335" t="n">
+        <v>0.9027536511421204</v>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>이스터애그 만들어주세요</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>이스터에그 만들어주세요</t>
+        </is>
+      </c>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t>원한다면 ㅋㅋㅋ 이 글을 보면 모든 과목 95점 넘을지어다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:55:19</t>
+        </is>
+      </c>
+      <c r="B1336" t="n">
+        <v>0.9093718528747559</v>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>아니면 자동 빛내기 이런것도 만들 수 있나요?</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>아니면 자동 빛내기 이런것도 만들 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E1336" t="inlineStr">
+        <is>
+          <t>자동빛내기도 가능은 할 듯. 오래된 글만 아니면.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:55:34</t>
+        </is>
+      </c>
+      <c r="B1337" t="n">
+        <v>0.9027536511421204</v>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>이스터애그 만들어주세요</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>이스터에그 만들어주세요</t>
+        </is>
+      </c>
+      <c r="E1337" t="inlineStr">
+        <is>
+          <t>원한다면 ㅋㅋㅋ 이 글을 보면 모든 과목 95점 넘을지어다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:56:04</t>
+        </is>
+      </c>
+      <c r="B1338" t="n">
+        <v>0.95006263256073</v>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>경모쌤의 나이</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>경모쌤의 나이</t>
+        </is>
+      </c>
+      <c r="E1338" t="inlineStr">
+        <is>
+          <t>그런 걸 굳이 궁금해할 필요가…</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:56:46</t>
+        </is>
+      </c>
+      <c r="B1339" t="n">
+        <v>0.8935081958770752</v>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>클래스팅 자동출석</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>클래스팅 자동 출석같은거 프로그램 만들어주세요</t>
+        </is>
+      </c>
+      <c r="E1339" t="inlineStr">
+        <is>
+          <t>나 같으면 출석하기 귀찮아서 벌써 만들었을 듯 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:56:53</t>
+        </is>
+      </c>
+      <c r="B1340" t="n">
+        <v>0.7586871981620789</v>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>chat-content</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>chat-content의 width를 100%로 하지 않으신 이유가 있나요&gt;?</t>
+        </is>
+      </c>
+      <c r="E1340" t="inlineStr">
+        <is>
+          <t>너 박진규지? ㅋㅋㅋ 그냥 가로세로 500픽셀로 잡았어 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:58:02</t>
+        </is>
+      </c>
+      <c r="B1341" t="n">
+        <v>0.2868567109107971</v>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>저 박진규 아닌데요???</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>선생님 13번 문제 5번보기에서요 왜 수소 15ml 가 모두 반응하면 암모니아 10ml가 생성되는건가요 ?암모니아가 생성되려면 질소와 수소가 합쳐져서 생성되어서질소 5ml 수소 15ml 합쳐져서 20ml 생성되는 것 아닌가요 ? ㅠㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E1341" t="inlineStr">
+        <is>
+          <t>반가워요^^44쪽 13번의 선택지 5번이군요여기서 꼭 알아두어야 할것은요질량은 1+1하면 2가 됩니다.하지만. 부피의 경우는 1+1을 하더라도, 1이 될 수도 있고, 오히려 3이 될 수도 있답니다.따라서 질소 5와 수15가 결합했지만.이것은 부피 이기 때문에 더해서 20이 되는 것이 아니구요문제의 그림에서 나온 것 처럼질소:수소:암모니아의 부피비는1:3:2이므로질소 5와 수소 15가 결합하면 암모니아는 10이 생성되는 것이랍니다.잘 구분해두셔야 합니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>2020-07-23 14:58:38</t>
+        </is>
+      </c>
+      <c r="B1342" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>저인거 어떻게 아셨지 ㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1342" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:00:26</t>
+        </is>
+      </c>
+      <c r="B1343" t="n">
+        <v>0.9495892524719238</v>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>지구는 온실기체의 영향으로 온실효과가 계속 강화되나요?</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>지구는 온실기체의 영향으로 온실효과가 계속 강화되나요?</t>
+        </is>
+      </c>
+      <c r="E1343" t="inlineStr">
+        <is>
+          <t>온실기체가 많으면 강화되죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:01:45</t>
+        </is>
+      </c>
+      <c r="B1344" t="n">
+        <v>0.7079755067825317</v>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>강의에 왜이렇게 팽수가 많아요?</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>﻿선생님, 화학 변화가 일어날 때 분자의 수가 바뀔 수도 있고 안 바뀔 수도 있다는 것인가요?</t>
+        </is>
+      </c>
+      <c r="E1344" t="inlineStr">
+        <is>
+          <t>반가워요^^네 그렇습니다.화학 변화하면새로운 분자가 생기니까요반응물의 분자의 종류와생성물의 분자의 종류가 달라지면서각자의 분자 수는 변할 수도 있고 변하지 않을 수도 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:02:15</t>
+        </is>
+      </c>
+      <c r="B1345" t="n">
+        <v>0.8132047057151794</v>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>온대저기압 기온 기압</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>온대저기압으로부터 멀어지면</t>
+        </is>
+      </c>
+      <c r="E1345" t="inlineStr">
+        <is>
+          <t>저기압 중심부에서 기압 제일 낮고, 멀어질수록 기압이 높아지겠죠?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:06:42</t>
+        </is>
+      </c>
+      <c r="B1346" t="n">
+        <v>0.8935081958770752</v>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>클래스팅 자동 출석 만들어주세요</t>
+        </is>
+      </c>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>클래스팅 자동 출석같은거 프로그램 만들어주세요</t>
+        </is>
+      </c>
+      <c r="E1346" t="inlineStr">
+        <is>
+          <t>나 같으면 출석하기 귀찮아서 벌써 만들었을 듯 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:06:52</t>
+        </is>
+      </c>
+      <c r="B1347" t="n">
+        <v>0.9093718528747559</v>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>아니면 자동 빛내기 이런것도 만들 수 있나요?</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>아니면 자동 빛내기 이런것도 만들 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E1347" t="inlineStr">
+        <is>
+          <t>자동빛내기도 가능은 할 듯. 오래된 글만 아니면.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:07:00</t>
+        </is>
+      </c>
+      <c r="B1348" t="n">
+        <v>0.9027536511421204</v>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>이스터애그 만들어주세요</t>
+        </is>
+      </c>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>이스터에그 만들어주세요</t>
+        </is>
+      </c>
+      <c r="E1348" t="inlineStr">
+        <is>
+          <t>원한다면 ㅋㅋㅋ 이 글을 보면 모든 과목 95점 넘을지어다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:07:11</t>
+        </is>
+      </c>
+      <c r="B1349" t="n">
+        <v>0.7355824708938599</v>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>고기압에서 바람이 시계 방향으로 불어 나가는 이유</t>
+        </is>
+      </c>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>안녕하세요 선생님! 고기압과 저기압에서 북반구 기준으로 고기압은 시계방향으로 불어나가고저기압은 시계반대 방향으로 불어 들어가잖아요 그러면 남반구에서도 똑같이 되는건가요 아니면 반대로 되는건가요?</t>
+        </is>
+      </c>
+      <c r="E1349" t="inlineStr">
+        <is>
+          <t>반가워요^^ 똑똑한 우리 친구정말 좋은 질문입니다.북반구와는 달리남반구에서는 전향력의 방향이 다르기 때문에휘어지는 모양 자체가 달라지면서고기압에서 시계 반대 방향으로 불어 나가구요저기압에서 시계 방향으로 불어들어온답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:10:02</t>
+        </is>
+      </c>
+      <c r="B1350" t="n">
+        <v>0.9112242460250854</v>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>응결량 어떻게 구해</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>응결량은 어떻게 구하는 건가요?</t>
+        </is>
+      </c>
+      <c r="E1350" t="inlineStr">
+        <is>
+          <t>응결량 구하는 것까지는 몰라도 되지만 이슬점이 도달했을 때부터 수증기가 응결하여 물방울 되는 건 아셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:11:23</t>
+        </is>
+      </c>
+      <c r="B1351" t="n">
+        <v>0.9112242460250854</v>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>응결량 구해</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>응결량은 어떻게 구하는 건가요?</t>
+        </is>
+      </c>
+      <c r="E1351" t="inlineStr">
+        <is>
+          <t>응결량 구하는 것까지는 몰라도 되지만 이슬점이 도달했을 때부터 수증기가 응결하여 물방울 되는 건 아셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:12:01</t>
+        </is>
+      </c>
+      <c r="B1352" t="n">
+        <v>0.8910871148109436</v>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>상대습도 구하는것</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>상대습도 어떻게 구해요</t>
+        </is>
+      </c>
+      <c r="E1352" t="inlineStr">
+        <is>
+          <t>책 67쪽 오른쪽을 보시면 나와 있죠? 현재 공기의 수증기량 / 현재 기온의 포화 수증기량 * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:12:20</t>
+        </is>
+      </c>
+      <c r="B1353" t="n">
+        <v>0.8998954892158508</v>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>온난전선 통과후</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>온난전선 통과후 기압이 낮아지는게 이해가 안돼요</t>
+        </is>
+      </c>
+      <c r="E1353" t="inlineStr">
+        <is>
+          <t>온대저기압 등압선을 자세히 보면 온난전선 통과 시 저기압에 중심부에 가까워져서 기압이 하강하고요, 한랭전선 통과 시 저기압의 중심에서 멀어지니 기압이 상승해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:13:31</t>
+        </is>
+      </c>
+      <c r="B1354" t="n">
+        <v>0.6388391256332397</v>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>온대 저기압 가운데 부분이 기온이 높은 까닭</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>온대 저기압 형성 과정에서 찬공기가 따뜻한 공기 양쪽으로 몰리는 이유와 가운데 저기압이 형성되는 이유가 무엇인가요?? 이해가 잘 안돼요 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E1354" t="inlineStr">
+        <is>
+          <t>반가워요^^찬 공기는 따뜻한 공기보다 무거우므로위쪽으로 오는 따뜻한 공기의 기류를 양쪽에 누르기 때문이구요옆으로 회오리 처럼 공기들이 이동하면서가운데는 공기의 양이 상대적으로 부족해져서 저기압이 되는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:13:55</t>
+        </is>
+      </c>
+      <c r="B1355" t="n">
+        <v>0.7382611036300659</v>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>시험에 관하여서 질문하는게 많나요?아니면 약간 쓸때 없는 질문이 많나요?</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>시험 100점 맞을려면</t>
+        </is>
+      </c>
+      <c r="E1355" t="inlineStr">
+        <is>
+          <t>매우매우 열심히 해야 함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:14:14</t>
+        </is>
+      </c>
+      <c r="B1356" t="n">
+        <v>0.9270365238189697</v>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>온대 저기압</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>온대저기압으로부터 멀어지면</t>
+        </is>
+      </c>
+      <c r="E1356" t="inlineStr">
+        <is>
+          <t>저기압 중심부에서 기압 제일 낮고, 멀어질수록 기압이 높아지겠죠?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:14:35</t>
+        </is>
+      </c>
+      <c r="B1357" t="n">
+        <v>0.9330375790596008</v>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>구름의 생성과정</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>구름의 생성과정</t>
+        </is>
+      </c>
+      <c r="E1357" t="inlineStr">
+        <is>
+          <t>이건 개중요해요. 공기 덩어리 상승 -&gt; 단열 팽창해서 온도 하강 -&gt; 상대습도 높아짐 -&gt; 온도가 이슬점에 도달하면 -&gt; 수증기 응결 -&gt; 구름 만들어짐. 꼭 외워요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:14:45</t>
+        </is>
+      </c>
+      <c r="B1358" t="n">
+        <v>0.5514942407608032</v>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>입력한 질문과 유사도는 어떻게 측정되어서 퍼센트로 나와요?</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>김수혁</t>
+        </is>
+      </c>
+      <c r="E1358" t="inlineStr">
+        <is>
+          <t>수혁이 열심히 하고 있지? ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:15:21</t>
+        </is>
+      </c>
+      <c r="B1359" t="n">
+        <v>0.7602868676185608</v>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>기체 부피비 법칙</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>기체반응법칙이뭐야</t>
+        </is>
+      </c>
+      <c r="E1359" t="inlineStr">
+        <is>
+          <t>일정한 온도와 압력에서 기체가 반응하여 새로운 기체를 생성할 때 각 기체의 부피비가 간단한 정수비가 성립한다는 법칙이에요. 이 때 계수비 = 부피비 = 입자수비임.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:16:03</t>
+        </is>
+      </c>
+      <c r="B1360" t="n">
+        <v>0.8678957223892212</v>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>온대 저기압이 생기는 이유</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>온대 저기압</t>
+        </is>
+      </c>
+      <c r="E1360" t="inlineStr">
+        <is>
+          <t>온대 저기압은 중위도 지역에서 북쪽의 찬 기단과 남쪽의 따뜻한 기단이 만나서 한랭전선과 온난전선이 함께 나타나는 이동성 저기압이에요. 우리나라에서는 서쪽에서 동쪽으로 이동해요. 편서풍 때문에요. ㅎㅎ 자세한 건 책 89쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:16:34</t>
+        </is>
+      </c>
+      <c r="B1361" t="n">
+        <v>0.7264885902404785</v>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>편서풍이란?</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>선생님 온대 저기압이 서쪽에서 동쪽으로 이동하는 이유가 단지 편서풍 떄문인가요?편서풍의 힘으로 전선을 밀어낼 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E1361" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 네~~ 편서풍이 주된 원인입니다편서풍은 작은 바람이 아니구요일년 내내 같은 방향으로 부는대기 대순환에 의한 바람이라서 그 영향력이 크답니다.그리고, 지속적이구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:16:49</t>
+        </is>
+      </c>
+      <c r="B1362" t="n">
+        <v>0.8334094285964966</v>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>새로운 질문</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>무슨질문하냐</t>
+        </is>
+      </c>
+      <c r="E1362" t="inlineStr">
+        <is>
+          <t>공부를 하면 질문할 게 생기죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:17:10</t>
+        </is>
+      </c>
+      <c r="B1363" t="n">
+        <v>0.7491956949234009</v>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>흡열반응 예</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>흡열 반응</t>
+        </is>
+      </c>
+      <c r="E1363" t="inlineStr">
+        <is>
+          <t>에너지를 흡수하는 반응이죠. 무슨무슨 암모늄 들어가는 반응이 대표적인 흡열반응이죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:17:35</t>
+        </is>
+      </c>
+      <c r="B1364" t="n">
+        <v>0.6656465530395508</v>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>발열 반응 예</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>발열반응의 예 중에 호흡 연소 산과 금속의 반응 등등과 흡열반응 예 중에 전기분해 광합성 등등은 모두온도가 높아지고 온도가 낮아 지나요?근데 발열반응의 예즁에 액화.응고.승화흡열반응의 예중에 기화.융햐.승화가 있는데 얘네들은 반대아닌가요?ex)온도가 높으면(발열) 융해아닌가여?</t>
+        </is>
+      </c>
+      <c r="E1364" t="inlineStr">
+        <is>
+          <t>반가워요^^발열 반응과 흡열 반응은화학 변화가 일어날때열에너지의 출입에 따라 구분한 반응이랍니다. 융해, 응고 기화 액화 승화는 모두 물질의 상태 변화입니다.즉, 물리 변화이므로발열 반응, 흡열 반응이라고 부르지 않는답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:18:01</t>
+        </is>
+      </c>
+      <c r="B1365" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>아 심심하다</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1365" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:18:18</t>
+        </is>
+      </c>
+      <c r="B1366" t="n">
+        <v>0.8384432792663574</v>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>새로운 질문</t>
+        </is>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>무슨질문하냐</t>
+        </is>
+      </c>
+      <c r="E1366" t="inlineStr">
+        <is>
+          <t>공부를 하면 질문할 게 생기죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:18:33</t>
+        </is>
+      </c>
+      <c r="B1367" t="n">
+        <v>0.8826024532318115</v>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>시험문제 답좀 알려줘요</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>시험 문제 답좀 알려줘</t>
+        </is>
+      </c>
+      <c r="E1367" t="inlineStr">
+        <is>
+          <t>그걸 알려줄 수는 없지요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:19:07</t>
+        </is>
+      </c>
+      <c r="B1368" t="n">
+        <v>0.9276174902915955</v>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>과학 어렵다..</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="E1368" t="inlineStr">
+        <is>
+          <t>그러지 마요. 다 하다보면 늘어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:19:33</t>
+        </is>
+      </c>
+      <c r="B1369" t="n">
+        <v>0.9057886600494385</v>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>친명배금 정책</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>친명배금</t>
+        </is>
+      </c>
+      <c r="E1369" t="inlineStr">
+        <is>
+          <t>그건 역사샘께</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:20:46</t>
+        </is>
+      </c>
+      <c r="B1370" t="n">
+        <v>0.5305292010307312</v>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">병자호란과 정묘호란 </t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>현타 오시나요?</t>
+        </is>
+      </c>
+      <c r="E1370" t="inlineStr">
+        <is>
+          <t>질문을 보니 현타가 가끔 옴 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:21:58</t>
+        </is>
+      </c>
+      <c r="B1371" t="n">
+        <v>0.8239258527755737</v>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>왜 계속 연소반응만 대답하니</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>대답을 안 해주네</t>
+        </is>
+      </c>
+      <c r="E1371" t="inlineStr">
+        <is>
+          <t>질문을 좀 더 길게 구체적으로 쓰세요. 내가 쓰고 있는 AI 메커니즘이 그래요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:22:21</t>
+        </is>
+      </c>
+      <c r="B1372" t="n">
+        <v>0.7111484408378601</v>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>과학보다 어려운 과목</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>과학 보다 어려운 과목은 고목나무</t>
+        </is>
+      </c>
+      <c r="E1372" t="inlineStr">
+        <is>
+          <t>재미 없다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:25:18</t>
+        </is>
+      </c>
+      <c r="B1373" t="n">
+        <v>0.9183730483055115</v>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>서울대학교 물리교육과</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>서울대학교 물리교육과</t>
+        </is>
+      </c>
+      <c r="E1373" t="inlineStr">
+        <is>
+          <t>안 그래도 오늘 다녀옴</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:27:04</t>
+        </is>
+      </c>
+      <c r="B1374" t="n">
+        <v>0.9341930150985718</v>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>서술형 문제 답이 뭐예요</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>서술형 문제 답이 뭐예요</t>
+        </is>
+      </c>
+      <c r="E1374" t="inlineStr">
+        <is>
+          <t>그걸 알려줄 수는 없지요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:27:17</t>
+        </is>
+      </c>
+      <c r="B1375" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>그럼 뭘 알려줄 수 있는데</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1375" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:28:19</t>
+        </is>
+      </c>
+      <c r="B1376" t="n">
+        <v>0.8841875791549683</v>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>영어로 대답해줘</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>대답을 안 해주네</t>
+        </is>
+      </c>
+      <c r="E1376" t="inlineStr">
+        <is>
+          <t>질문을 좀 더 길게 구체적으로 쓰세요. 내가 쓰고 있는 AI 메커니즘이 그래요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:28:44</t>
+        </is>
+      </c>
+      <c r="B1377" t="n">
+        <v>0.9073183536529541</v>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>너 영어 잘하잖아</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>영어를 하자</t>
+        </is>
+      </c>
+      <c r="E1377" t="inlineStr">
+        <is>
+          <t>영어공부 중요함</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:29:53</t>
+        </is>
+      </c>
+      <c r="B1378" t="n">
+        <v>0.8890584707260132</v>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>너 같으면 공부 하고 싶겠냐</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>공부싫어</t>
+        </is>
+      </c>
+      <c r="E1378" t="inlineStr">
+        <is>
+          <t>쉬었다 하세요 ㅋㅋ 지금 안 해도 됨.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:30:16</t>
+        </is>
+      </c>
+      <c r="B1379" t="n">
+        <v>0.8516304492950439</v>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>임진왜란 3대 대첩</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>니 주인이 나빴어</t>
+        </is>
+      </c>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>주인이 좀 나쁘긴 함</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:31:03</t>
+        </is>
+      </c>
+      <c r="B1380" t="n">
+        <v>0.924555778503418</v>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>과학 60점</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>그러지 마요. 다 하다보면 늘어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:31:19</t>
+        </is>
+      </c>
+      <c r="B1381" t="n">
+        <v>0.8916609287261963</v>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>병자호란 군신관계</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>병자호란 군신관계</t>
+        </is>
+      </c>
+      <c r="E1381" t="inlineStr">
+        <is>
+          <t>그건 역사샘께</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:32:05</t>
+        </is>
+      </c>
+      <c r="B1382" t="n">
+        <v>0.908141553401947</v>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>정묘호란 형제관계</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>정묘호란 형제관계</t>
+        </is>
+      </c>
+      <c r="E1382" t="inlineStr">
+        <is>
+          <t>그건 역사샘께</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:32:25</t>
+        </is>
+      </c>
+      <c r="B1383" t="n">
+        <v>0.9174340963363647</v>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>왜 쓸모없는 법칙들을 배우니</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>왜 쓸모없는 법칙들을 배우니</t>
+        </is>
+      </c>
+      <c r="E1383" t="inlineStr">
+        <is>
+          <t>그런 생각이면 초3 이후로는 다 쓸데 없는 거라 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:33:02</t>
+        </is>
+      </c>
+      <c r="B1384" t="n">
+        <v>0.8952500820159912</v>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>나 과학자 될 생각 없는데</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">나 과학자 될 생각 없는데 </t>
+        </is>
+      </c>
+      <c r="E1384" t="inlineStr">
+        <is>
+          <t>과학은 나중에 사기 당하지 말라고 배우는 것임</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:33:39</t>
+        </is>
+      </c>
+      <c r="B1385" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>아ㅏ 심심해</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:33:51</t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>0.9078763723373413</v>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>질량 보존 법칙은 됐고 잠량 보존 법칙을 가르쳐줘</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>질량 보존 법칙은 됐고 잠량 보존 법칙을 가르쳐줘</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr">
+        <is>
+          <t>반응 전후의 질량이 같다는 법칙이죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:34:24</t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>0.9030967354774475</v>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">지랄한다 어렵다고 하는 </t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>와우 지랄을한다</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr">
+        <is>
+          <t>과학챗봇인데 저런 걸 쓰니 답변을 할리가 없지.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:34:42</t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>0.8826369643211365</v>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>너나 시험 봐라</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>시험 어렵나요</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr">
+        <is>
+          <t>시험이야 뭐 내던 대로 냈죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:34:54</t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>0.8993611335754395</v>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>심한말 심한말</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>심한말 심한말</t>
+        </is>
+      </c>
+      <c r="E1389" t="inlineStr">
+        <is>
+          <t>그렇게 심한 말을… ㅠㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:35:27</t>
+        </is>
+      </c>
+      <c r="B1390" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>누구 놀리냐</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:35:39</t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>넌 똑똑하니까 쉽지</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1391" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:35:50</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>0.9009868502616882</v>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>엄마 얘 이상해</t>
+        </is>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>엄마 얘 이상해</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr">
+        <is>
+          <t>컴퓨터가 뭐 그렇죠 뭐</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:36:22</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>0.6415030956268311</v>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>다음과 일맥상통하는 주장으로 가장 적절한 것은</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>선생님 열권 그 다음은 없나요?아니면 행성 같은게 나오나요?</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr">
+        <is>
+          <t>반가워요^^지구의 대기는 열권까지만 존재합니다.열권 바깥은 아무 것도 없는 우주 공간입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:36:55</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>0.8864553570747375</v>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>왜 답지만 보면 알수 있는 시험 문제 답을 알려주지 않아?</t>
+        </is>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>시험 문제 답좀 알려줘</t>
+        </is>
+      </c>
+      <c r="E1394" t="inlineStr">
+        <is>
+          <t>그걸 알려줄 수는 없지요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:37:16</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>0.896611213684082</v>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>도대체 뭘 인식해서 매번 같은 답이야</t>
+        </is>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>도대체 뭘 인식해서 매번 같은 답을 내놓는거야</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr">
+        <is>
+          <t>입력된 데이터 3000개.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:37:55</t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>0.7507816553115845</v>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>R.U.R에나 들어가라</t>
+        </is>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>이 미친 로봇이 자꾸 연소가 어쩌고 지랄이야 로봇주제에 R.U.R에나 들어가</t>
+        </is>
+      </c>
+      <c r="E1396" t="inlineStr">
+        <is>
+          <t>과학챗봇인데 저런 걸 쓰니 답변을 할리가 없지.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:39:05</t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>로봇아 나랑 놀자</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1397" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:41:17</t>
+        </is>
+      </c>
+      <c r="B1398" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>로봇아 놀자 놀자</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1398" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:41:26</t>
+        </is>
+      </c>
+      <c r="B1399" t="n">
+        <v>0.2635212540626526</v>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>이런 우라질</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>설탕이 물에 녹는게 물리변화라고 하셨는데 만약에 물을 기준으로 한다면 물은 화학변화가 일어난건가요? 설탕을 기준으로 하면 물에 설탕이 녹으면서 상태만 변하고 성질은 변하지 않으니까 물리변화라는게 이해가 되는데 만약 물을 기준으로 생각하면 색깔도 약간 탁해지고 물의 맛도 달달해지는 거니까 화학변화가 일어나는 것 같긴 한데 확실하지 않아서요ㅠㅠ 알려주시면 감사하겠습니당</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr">
+        <is>
+          <t>반가워요^^설탕이 물에 녹는 것은설탕 입자가 물 입자 사이사이에 섞여 들어가는 것으로설탕 입자도 단맛을 그대로 가지고물도 자신의 성질을 그대로 가지고 혼합만 되어 있어서 물리 변화랍니다.물이 증발할 때도 수증기기가 되지만물 분자의 모습을 그대로이고분자의 배열만 멀어져서 수증기가 되어 눈에 안보이므로이또한 물리 변화랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:41:54</t>
+        </is>
+      </c>
+      <c r="B1400" t="n">
+        <v>0.9019793272018433</v>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">안녕하세요 반갑습니다 </t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr">
+        <is>
+          <t>안녕? 방학 때도 코로나 조심!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:42:09</t>
+        </is>
+      </c>
+      <c r="B1401" t="n">
+        <v>0.9355384111404419</v>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>서술형 문제 답이 뭐예요</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>서술형 문제 답이 뭐예요</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr">
+        <is>
+          <t>그걸 알려줄 수는 없지요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:42:13</t>
+        </is>
+      </c>
+      <c r="B1402" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">당신 처럼 살고 싶어요 </t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:42:23</t>
+        </is>
+      </c>
+      <c r="B1403" t="n">
+        <v>0.8906693458557129</v>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>공부하기 너무 싫어</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>공부싫어</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr">
+        <is>
+          <t>쉬었다 하세요 ㅋㅋ 지금 안 해도 됨.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:42:44</t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>0.8386017084121704</v>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">시흥은행중학교 과학쌤 </t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>시흥은행중학교</t>
+        </is>
+      </c>
+      <c r="E1404" t="inlineStr">
+        <is>
+          <t>우리 학교 이름을 부르고 싶었어?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:46:15</t>
+        </is>
+      </c>
+      <c r="B1405" t="n">
+        <v>0.6110867261886597</v>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>질문을 보면서 드는 생각은</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>﻿선생님, 교재 23쪽에 2번이요. 보기 4번이 왜 틀렸는지 궁금합니다!</t>
+        </is>
+      </c>
+      <c r="E1405" t="inlineStr">
+        <is>
+          <t>반가워요^^ 똑똑한 우리 친구~맞습니다.우리 친구의 말처럼 나무와 결합한 산소의 질량은 연소 후 발생한 이산화탄소와 수증기의 질량의 합보다 가볍다라고 하거나나무와 나무와 결합한 산소의 질량은 연소 후 발생한 재와 이산화탄소와 수증기의 질량의 합과 같다라고 표현하면 옳은 보기가 된답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:46:36</t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>0.8395798206329346</v>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>질문 익명이야?</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>무슨질문하냐</t>
+        </is>
+      </c>
+      <c r="E1406" t="inlineStr">
+        <is>
+          <t>공부를 하면 질문할 게 생기죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:46:45</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>야야야야ㅑ야야ㅑㅑ</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1407" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:46:54</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>로봇아아ㅏㅏㅏㅏ</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1408" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:46:59</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>놀자 놀자 놀자</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1409" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:47:05</t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>0.9283952713012695</v>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과학 때려치우고 </t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="E1410" t="inlineStr">
+        <is>
+          <t>그러지 마요. 다 하다보면 늘어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:47:21</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>0.9030126333236694</v>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>라는 주장일 뿐</t>
+        </is>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>현타 오시나요?</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>질문을 보니 현타가 가끔 옴 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:47:29</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>이 미친 로봇</t>
+        </is>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1412" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:50:42</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>0.2100416123867035</v>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>당신은 로미오</t>
+        </is>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="E1413" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:50:56</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>0.66542649269104</v>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>로봇아 중국어 할 수 있어?</t>
+        </is>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>로봇아 나랑 바꾸자</t>
+        </is>
+      </c>
+      <c r="E1414" t="inlineStr">
+        <is>
+          <t>컴퓨터랑 사람이랑?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:52:05</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>0.49577596783638</v>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>로봇아.. 네가 대신 시험봐</t>
+        </is>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>로봇아 나랑 바꾸자</t>
+        </is>
+      </c>
+      <c r="E1415" t="inlineStr">
+        <is>
+          <t>컴퓨터랑 사람이랑?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:52:15</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>0.8819867372512817</v>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I hate science </t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I hate science </t>
+        </is>
+      </c>
+      <c r="E1416" t="inlineStr">
+        <is>
+          <t>그러</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:52:46</t>
+        </is>
+      </c>
+      <c r="B1417" t="n">
+        <v>0.9001473188400269</v>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nice to see you </t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>こんにちは</t>
+        </is>
+      </c>
+      <c r="E1417" t="inlineStr">
+        <is>
+          <t>일본어군</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:53:06</t>
+        </is>
+      </c>
+      <c r="B1418" t="n">
+        <v>0.2188797444105148</v>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">96네코상 </t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세용 질문올린 것중에 몇 개의 답변이 질문내용과 전혀 다른내용의 답변이었어용ㅜㅜ😭 그렇지만 그중에도 가장 모르겠는거 하나만 질문할께영ㅠㅠ  우리가 살고 있는 지구 전체가 1기압인가요? 아니면 지표면이 1기압이고 위로 올라갈수록(예를들면 산으로) 기압이 1기압에서  낮아지는건가요?? 기압이 장소나 위치에따라 달라지니까 2기압,3기압 이런식으로 달라지는건가용?? 그게 아니라면 1기압은 무엇인가용?? 감사해요~!</t>
+        </is>
+      </c>
+      <c r="E1418" t="inlineStr">
+        <is>
+          <t>반가워요^^ 앗~ 그랬군요한꺼번에 답변을 달다보니 빠르게  읽고 빠르게 답변하려다보니, 제대로된 답변이 아니였나 봅니다. 미안합니다.자, 이번 답변을 천천히 자세히 읽었습니다.질문 내용을 알려드리자면우리가 살고 있는 지구에서 지표면 근처의 압력이 1기압이랍니다.이것은 지구의 대기 전체가 지표면에서 작용하는 압력이구요지표면에서 위쪽으로 갈수록 공기의 양은 줄어들기 때문에 위쪽으로 올라갈 수록 기압은 1기압보다 점점 낮아진답니다. 그리고, 기압은 공기가 많을 수록 커지다보니지표면 근처에서도 장소에 따라서 약간씩 차이가 날 수 있답니다. 이제 이해가 되시지요? 화이팅(^^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:54:45</t>
+        </is>
+      </c>
+      <c r="B1419" t="n">
+        <v>0.2176752984523773</v>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>ロボットさん、科学先生があなたを苦しめたらニンジンを振ってください。</t>
+        </is>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>선생님 129페이지에 고난도 실력 향상 문제 2번이 이해가 안되요 설명좀 부탁드려요... 강의에도 없어서 ..........제발 부탁할게요ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="E1419" t="inlineStr">
+        <is>
+          <t>반가워요^^129쪽 2번 문제는 난이도가 높은 문제랍니다.따라서 선택지 하나하나가 어렵게 느껴질꺼예요일단. 1,5가 정답이 아닌 이유는1번의 경우가 제일 애매하게 느껴질텐데요일단. 1번에서 상자 속을 손으로 더듬어 인형을 꺼냈다.는 것은 피부 감각을 통해서 닿는 느낌으로 잡아서 꺼내면 대뇌가 관여한 것이지만이때, 무언가 닿으면 손이 재빠르게 피하면서 무언가가 있다는 것을 알아내는 척수도 관여한답니다.따라서 1번의 경우는 감각기의 반응이 척수로도 대뇌로도 가는 것이여야 하는데요, A인 대뇌만 거치면서 행동하는 것으로 나오므로옳지 않은 것이랍니다.5번의 경우도 많이 헷갈리지요?5번은 언듯 보면 '무릎 부위를 고무망치로 때렸더니 아파서 다리를 움직였다."때문에 무릎반사로 보이지만 그렇지 않습니다.바로,아파서 라는 단어때문이예요, 아프다는 아픔을 대뇌가 인지하고 다리를 움직였다는 것은 의식적인 반응으로(가)-A가 되어야 한답니다.따라서 5번도 옳지 않습니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:56:07</t>
+        </is>
+      </c>
+      <c r="B1420" t="n">
+        <v>0.2161547392606735</v>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>前向きなら今日が Departures</t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>비오면 상대습도 100인가요</t>
+        </is>
+      </c>
+      <c r="E1420" t="inlineStr">
+        <is>
+          <t>거의 100%죠. 90% 중후반에서 100% 왔다갔다 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:57:16</t>
+        </is>
+      </c>
+      <c r="B1421" t="n">
+        <v>0.2357986718416214</v>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>私のためなら魂だって捧げるでしょ?</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>선생님.. 태양표면 온도는 6000도c 가 아니라 6000켈빈 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E1421" t="inlineStr">
+        <is>
+          <t>반가워요^^우리 친구 말이 맞습니다.태양의 온도는 6000K 라고도 표현하고 6000도라고도 표현한답니다. 사실, 절대 온도는 섭씨 온도보다 273이 더 큰 수치가 나오는데요태양의 온도가 6000에 가까우므로대략 두 수치를 6000이라고 표현하는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:58:03</t>
+        </is>
+      </c>
+      <c r="B1422" t="n">
+        <v>0.2172473818063736</v>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>기화한 건 성질이 변한 거 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E1422" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.   기화는 액체가 기체로 상태만 변했을 뿐그 물질의 성질이 변한 것이 아니므로 물리 변화입니다.기화 뿐만 아니라.  기체에서 액체로 액화, 고체에서 액체로 융해, 액체에서 고체로 응고, 기체에서 고체로 승화, 고체에서 기체로 승화 위와 같은 상태변화만 일어난 경우는 모두 물리 변화입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:58:27</t>
+        </is>
+      </c>
+      <c r="B1423" t="n">
+        <v>0.8710862994194031</v>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>전화 받으라고</t>
+        </is>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>전화받아</t>
+        </is>
+      </c>
+      <c r="E1423" t="inlineStr">
+        <is>
+          <t>나 미국에 있음</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:59:03</t>
+        </is>
+      </c>
+      <c r="B1424" t="n">
+        <v>0.7403905391693115</v>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">고양이 야옹야옹 강아지 멍멍 </t>
+        </is>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>이 부분에서 ㄹ이 왜 옳은 건가요?</t>
+        </is>
+      </c>
+      <c r="E1424" t="inlineStr">
+        <is>
+          <t>반가워요^^'그림에서 A로 갈수록 감각이 예민해서 빠르게 알아내는 경우니까요ㄹ은 옳은 내용입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:59:20</t>
+        </is>
+      </c>
+      <c r="B1425" t="n">
+        <v>0.7857766151428223</v>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>또 업데이트 할꺼야?</t>
+        </is>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>뜨거운 공기의 밀도</t>
+        </is>
+      </c>
+      <c r="E1425" t="inlineStr">
+        <is>
+          <t>뜨거운 공기의 밀도가 낮아서 위로 뜨죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>2020-07-23 15:59:26</t>
+        </is>
+      </c>
+      <c r="B1426" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>재밌게 해봐</t>
+        </is>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1426" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:00:11</t>
+        </is>
+      </c>
+      <c r="B1427" t="n">
+        <v>0.9195177555084229</v>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>서울대학교 물리교육과</t>
+        </is>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>서울대학교 물리교육과</t>
+        </is>
+      </c>
+      <c r="E1427" t="inlineStr">
+        <is>
+          <t>안 그래도 오늘 다녀옴</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:00:21</t>
+        </is>
+      </c>
+      <c r="B1428" t="n">
+        <v>0.9358389377593994</v>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>서술형 문제 답이 뭐예요</t>
+        </is>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>서술형 문제 답이 뭐예요</t>
+        </is>
+      </c>
+      <c r="E1428" t="inlineStr">
+        <is>
+          <t>그걸 알려줄 수는 없지요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:00:29</t>
+        </is>
+      </c>
+      <c r="B1429" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>왜 알려줄 수 없을까</t>
+        </is>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:00:52</t>
+        </is>
+      </c>
+      <c r="B1430" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>로봇아 네가 좋아하는 것은 뭐니</t>
+        </is>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1430" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:01:12</t>
+        </is>
+      </c>
+      <c r="B1431" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>로봇아 나랑 놀아</t>
+        </is>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1431" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:01:27</t>
+        </is>
+      </c>
+      <c r="B1432" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>치사한 로봇 같으니라고</t>
+        </is>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1432" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:01:36</t>
+        </is>
+      </c>
+      <c r="B1433" t="n">
+        <v>0.9220718145370483</v>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>국회 정부 법원</t>
+        </is>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>국회 법원 정부</t>
+        </is>
+      </c>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>사회는 사회샘께</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:02:06</t>
+        </is>
+      </c>
+      <c r="B1434" t="n">
+        <v>0.6448414325714111</v>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>사회도 모르는 바보</t>
+        </is>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>과학시험 사회시함</t>
+        </is>
+      </c>
+      <c r="E1434" t="inlineStr">
+        <is>
+          <t>과학은 첫날이죠. 사회는 모르겠다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:02:30</t>
+        </is>
+      </c>
+      <c r="B1435" t="n">
+        <v>0.9298746585845947</v>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과학 너무 싫어 진짜 싫어 </t>
+        </is>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="E1435" t="inlineStr">
+        <is>
+          <t>그러지 마요. 다 하다보면 늘어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:02:34</t>
+        </is>
+      </c>
+      <c r="B1436" t="n">
+        <v>0.8760945200920105</v>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>이과 망해라</t>
+        </is>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>이과 망해아</t>
+        </is>
+      </c>
+      <c r="E1436" t="inlineStr">
+        <is>
+          <t>문과 가면 먹고 살기 힘들..</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:02:56</t>
+        </is>
+      </c>
+      <c r="B1437" t="n">
+        <v>0.7194433212280273</v>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>과학 이 녀석아.. 심한말 심한말</t>
+        </is>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>심한말 심한말</t>
+        </is>
+      </c>
+      <c r="E1437" t="inlineStr">
+        <is>
+          <t>그렇게 심한 말을… ㅠㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:03:05</t>
+        </is>
+      </c>
+      <c r="B1438" t="n">
+        <v>0.9285986423492432</v>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>과학 망해라</t>
+        </is>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="E1438" t="inlineStr">
+        <is>
+          <t>그러지 마요. 다 하다보면 늘어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:03:50</t>
+        </is>
+      </c>
+      <c r="B1439" t="n">
+        <v>0.2580380141735077</v>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>제곱근 루트</t>
+        </is>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세용 질문올린 것중에 몇 개의 답변이 질문내용과 전혀 다른내용의 답변이었어용ㅜㅜ😭 그렇지만 그중에도 가장 모르겠는거 하나만 질문할께영ㅠㅠ  우리가 살고 있는 지구 전체가 1기압인가요? 아니면 지표면이 1기압이고 위로 올라갈수록(예를들면 산으로) 기압이 1기압에서  낮아지는건가요?? 기압이 장소나 위치에따라 달라지니까 2기압,3기압 이런식으로 달라지는건가용?? 그게 아니라면 1기압은 무엇인가용?? 감사해요~!</t>
+        </is>
+      </c>
+      <c r="E1439" t="inlineStr">
+        <is>
+          <t>반가워요^^ 앗~ 그랬군요한꺼번에 답변을 달다보니 빠르게  읽고 빠르게 답변하려다보니, 제대로된 답변이 아니였나 봅니다. 미안합니다.자, 이번 답변을 천천히 자세히 읽었습니다.질문 내용을 알려드리자면우리가 살고 있는 지구에서 지표면 근처의 압력이 1기압이랍니다.이것은 지구의 대기 전체가 지표면에서 작용하는 압력이구요지표면에서 위쪽으로 갈수록 공기의 양은 줄어들기 때문에 위쪽으로 올라갈 수록 기압은 1기압보다 점점 낮아진답니다. 그리고, 기압은 공기가 많을 수록 커지다보니지표면 근처에서도 장소에 따라서 약간씩 차이가 날 수 있답니다. 이제 이해가 되시지요? 화이팅(^^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:04:02</t>
+        </is>
+      </c>
+      <c r="B1440" t="n">
+        <v>0.2166066765785217</v>
+      </c>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t>Comfort Food</t>
+        </is>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>고기압과 저기압은 왜 나타나나요?</t>
+        </is>
+      </c>
+      <c r="E1440" t="inlineStr">
+        <is>
+          <t>반가워요^^고기압과 저기압이 생겨나는 여러 가지 이유가 있지만대표적으로는 지표면의 불균등한 가열과 냉각 때문이랍니다.자세히 설명드리자면지표면의 특정한 부분이 가열되면 그 부분의 공기는 따뜻해지면서 가벼워져 상승합니다.그렇게 되면 지표면 부근은 공기가 적어지면서 저기압이 형성되는 것입니다.반대로, 지표면의 특정한 부분이 냉각되면 그 부분의 공기는 차가워지면서 무거워져 하강합니다.그렇게 되면 지표면 부근은 공기가 많아지면서 고기압이 형성되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:04:14</t>
+        </is>
+      </c>
+      <c r="B1441" t="n">
+        <v>0.8371901512145996</v>
+      </c>
+      <c r="C1441" t="inlineStr">
+        <is>
+          <t>영어 사회 국어 역사</t>
+        </is>
+      </c>
+      <c r="D1441" t="inlineStr">
+        <is>
+          <t>국어 영어 수학 사회 과학 역사 도덕 중국어</t>
+        </is>
+      </c>
+      <c r="E1441" t="inlineStr">
+        <is>
+          <t>시험과목만 썼군</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:05:24</t>
+        </is>
+      </c>
+      <c r="B1442" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t>너 진짜 못됐어</t>
+        </is>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1442" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:05:57</t>
+        </is>
+      </c>
+      <c r="B1443" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>야아아아ㅏ야냐아</t>
+        </is>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1443" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:06:01</t>
+        </is>
+      </c>
+      <c r="B1444" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t>놀자 놀자 놀자아ㅏ</t>
+        </is>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1444" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:06:13</t>
+        </is>
+      </c>
+      <c r="B1445" t="n">
+        <v>0.5689642429351807</v>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t>이번에는 또 오리엔테이션 강의냐...</t>
+        </is>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>문제 난이도</t>
+        </is>
+      </c>
+      <c r="E1445" t="inlineStr">
+        <is>
+          <t>뭐. 맨날 내던 대로 냈어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:06:17</t>
+        </is>
+      </c>
+      <c r="B1446" t="n">
+        <v>0.233768492937088</v>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>안 궁금해 제발</t>
+        </is>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>2학년 때 50점 받고 꿈과 희망을 잃었는데 다시 희망을 가질 수 있게 되었어요. 감사합니다요!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+        </is>
+      </c>
+      <c r="E1446" t="inlineStr">
+        <is>
+          <t>와와~~ 멋진 친구(^^)분명히 잘해낼꺼예요온라인 안에서지만쌤도 곁에서 많이 많이 응원하고 도와드릴께요우리 힘내서 중3과학 화이팅해보아요!!아자아자(^_____________^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:06:36</t>
+        </is>
+      </c>
+      <c r="B1447" t="n">
+        <v>0.7959128022193909</v>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>과학 30점 받으면 F겠죠</t>
+        </is>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>아가리 여물어</t>
+        </is>
+      </c>
+      <c r="E1447" t="inlineStr">
+        <is>
+          <t>기계랑 싸워봤자 너만 손해예요 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:08:10</t>
+        </is>
+      </c>
+      <c r="B1448" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>내가 이겨볼게 로봇</t>
+        </is>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:08:21</t>
+        </is>
+      </c>
+      <c r="B1449" t="n">
+        <v>0.6654238700866699</v>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>로봇아 너 재미 없어</t>
+        </is>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>왜 과학 로봇이 되었니</t>
+        </is>
+      </c>
+      <c r="E1449" t="inlineStr">
+        <is>
+          <t>민경모가 시킴</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:08:37</t>
+        </is>
+      </c>
+      <c r="B1450" t="n">
+        <v>0.7065320611000061</v>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>과학 말고 다른 과목이 더 재밌지</t>
+        </is>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>과학 보다 어려운 과목은 고목나무</t>
+        </is>
+      </c>
+      <c r="E1450" t="inlineStr">
+        <is>
+          <t>재미 없다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:08:46</t>
+        </is>
+      </c>
+      <c r="B1451" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>솔직한 로봇이 되어도 좋아</t>
+        </is>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1451" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:08:52</t>
+        </is>
+      </c>
+      <c r="B1452" t="n">
+        <v>0.9297913908958435</v>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>너 과학 싫어하잖아</t>
+        </is>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>그러지 마요. 다 하다보면 늘어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:08:57</t>
+        </is>
+      </c>
+      <c r="B1453" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>괜찮아 내가 다 알고 있어</t>
+        </is>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1453" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:09:22</t>
+        </is>
+      </c>
+      <c r="B1454" t="n">
+        <v>0.6750788688659668</v>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>롤스는 공정성을 확보할 수 있는 정의의 원칙을 세우고자 하였다</t>
+        </is>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요      (+옆에 ()이게 있어요)  이 문제를 어떻게 풀어야 해요?? 이해가 안가요</t>
+        </is>
+      </c>
+      <c r="E1454" t="inlineStr">
+        <is>
+          <t>반가워요^^화학 반응식을 완성하는 문제네요~일단. 이 화학 반응은탄산 나트륨과 염화 칼슘이 반응하여 염화 나트륨과 탄산 칼슘이 만들어지는 화학 반응입니다2강에서 알려드린 것 처럼 1,2,3단계로 화학 반응식을 꾸미셔야 합니다.1단계) 반응물과 생성물을 쓰면 탄산 나트륨 + 염화 칼슘 → 염화 나트륨 + 탄산 칼슘2단계) 화학식으로 바꾸기 Na2CO3 + CaCl2 → NaCl + CaCO3 3단계) 반응 전과 후의 원자의 종류와 수 같게 맞추기, 단, 계수로 맞추기 원자의 종류대로 하나씩 맞추어 보면왼쪽에 Na 2개 , 오른쪽에는 1개 이므로 오른쪽을 2개로 하기 위하여 NaCl 앞의 계수의 숫자를 2NaCl로 바꿉니다.왼쪽의 C 1개, 오른쪽은 1개 같구요왼쪽의 O 3개, 오른쪽의 O 3개 같네요왼쪽의 Ca 1개, 오른쪽도 1개 같구요'왼쪽의 Cl은 2개, 오른쪽은  2NaCl이니까 Cl이 2개이므로 같습니다.결국,  NaCl 앞의 계수의 숫자를 2NaCl로 하면 전체 화학 반응식에서 왼쪽 오른쪽의 원자의 종류와 수가 똑같습니다.따라서 완성된 화학 반응식은 Na2CO3 + CaCl2 → 2NaCl + CaCO3  입니다.정답은 (  ) 안에 2NaCl 가 들어가면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:09:52</t>
+        </is>
+      </c>
+      <c r="B1455" t="n">
+        <v>0.7859692573547363</v>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>갑오개혁을 기점으로 신분제는 제도적으로 완전히 폐지되었다</t>
+        </is>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>니 주인이 나빴어</t>
+        </is>
+      </c>
+      <c r="E1455" t="inlineStr">
+        <is>
+          <t>주인이 좀 나쁘긴 함</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:10:25</t>
+        </is>
+      </c>
+      <c r="B1456" t="n">
+        <v>0.525274395942688</v>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>아지만 일제 강점기에서 광복 초기까지도 신분 의식이 사회에 많이 남아 있었고 그로 인한 신분 차별 사례도 많았다고 한다</t>
+        </is>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>니 주인이 나빴어</t>
+        </is>
+      </c>
+      <c r="E1456" t="inlineStr">
+        <is>
+          <t>주인이 좀 나쁘긴 함</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:10:54</t>
+        </is>
+      </c>
+      <c r="B1457" t="n">
+        <v>0.4834035634994507</v>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>사회 정의는 사회 구성원 모두의 노력이 뒤따를 때 비로소 실현된다</t>
+        </is>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>과학시험 사회시함</t>
+        </is>
+      </c>
+      <c r="E1457" t="inlineStr">
+        <is>
+          <t>과학은 첫날이죠. 사회는 모르겠다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:11:10</t>
+        </is>
+      </c>
+      <c r="B1458" t="n">
+        <v>0.7184789180755615</v>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>과학 뺴고 다른 과목은 거의 다 공부한 거 있지</t>
+        </is>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>공부 잘 안 돼요ㅠ</t>
+        </is>
+      </c>
+      <c r="E1458" t="inlineStr">
+        <is>
+          <t>조금 쉬었다 하세요 ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:11:15</t>
+        </is>
+      </c>
+      <c r="B1459" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>니가 너무 재미있어서</t>
+        </is>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1459" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:11:46</t>
+        </is>
+      </c>
+      <c r="B1460" t="n">
+        <v>0.5733800530433655</v>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>네가 너무 재미있어서 과학책이 눈에 들어오지 않아 그러니까 내 시험점수가 개판인 이유는 바로 너야 알았지? 잘 새겨두도록</t>
+        </is>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>과학 시험 1번으로 찍어야지</t>
+        </is>
+      </c>
+      <c r="E1460" t="inlineStr">
+        <is>
+          <t>찍을 땐 한 번호로!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:12:26</t>
+        </is>
+      </c>
+      <c r="B1461" t="n">
+        <v>0.9041188955307007</v>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>프로그래밍 재밌나... 엄청 어렵던데...</t>
+        </is>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>프로그래밍 더 배우세요</t>
+        </is>
+      </c>
+      <c r="E1461" t="inlineStr">
+        <is>
+          <t>나도 더 배우고 싶어 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:12:54</t>
+        </is>
+      </c>
+      <c r="B1462" t="n">
+        <v>0.5887724161148071</v>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>솔직히 쓸모 없는 질문 받으면 시간 낭비 라는 생각 들지?</t>
+        </is>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>질량이 많은 물질이 연소하는데 걸리는 시간</t>
+        </is>
+      </c>
+      <c r="E1462" t="inlineStr">
+        <is>
+          <t>이건 딱 특정할 수는 없죠. 여러 상황이 겹쳐져서 한 마디로 답변하기 힘들어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:13:19</t>
+        </is>
+      </c>
+      <c r="B1463" t="n">
+        <v>0.4689065217971802</v>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>모든 인간은 존엄하므로 자유권, 평등권, 행복 추구권 같은 기본적 권리를 보장받아야 한다</t>
+        </is>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>고등학교</t>
+        </is>
+      </c>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>7개월 뒤면 고등학교 가겠어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:13:30</t>
+        </is>
+      </c>
+      <c r="B1464" t="n">
+        <v>0.8178828358650208</v>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>세상 살기 싫다</t>
+        </is>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>김수혁</t>
+        </is>
+      </c>
+      <c r="E1464" t="inlineStr">
+        <is>
+          <t>수혁이 열심히 하고 있지? ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:13:36</t>
+        </is>
+      </c>
+      <c r="B1465" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1465" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:13:43</t>
+        </is>
+      </c>
+      <c r="B1466" t="n">
+        <v>0.8364787101745605</v>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>안녕하시오 나는 로봇이오</t>
+        </is>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>로봇인데 당연하지</t>
+        </is>
+      </c>
+      <c r="E1466" t="inlineStr">
+        <is>
+          <t>이게 다 민경모 덕임</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:13:51</t>
+        </is>
+      </c>
+      <c r="B1467" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>내가 이겨볼게 로봇</t>
+        </is>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1467" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:13:58</t>
+        </is>
+      </c>
+      <c r="B1468" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1468" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:14:31</t>
+        </is>
+      </c>
+      <c r="B1469" t="n">
+        <v>0.6316076517105103</v>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>그런데 있잖아 나는 네가 과학 말고 다른 과목을 좀 알려줬으면 하는데 다른 과목을 열심히 공부해서 하루만에 전과목을 카테고리에 추가하는 게 어떨까?</t>
+        </is>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>과학 보다 어려운 과목은 고목나무</t>
+        </is>
+      </c>
+      <c r="E1469" t="inlineStr">
+        <is>
+          <t>재미 없다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:14:42</t>
+        </is>
+      </c>
+      <c r="B1470" t="n">
+        <v>0.6614026427268982</v>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>시간을 보내고 또다시 시간을 보낸다</t>
+        </is>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>손난로는 몇시간동안만 따뜻해졌다가 다시 차가워지잖아요 근데 계속 흔들어도 왜 일정 시간이 지나면 식는거에요 ?</t>
+        </is>
+      </c>
+      <c r="E1470" t="inlineStr">
+        <is>
+          <t>반가워요^^발열 반응을 통해서 생겨난 열은 우리에게 전달되구요발열 반응이 끝나면발생한 열이 없기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:15:20</t>
+        </is>
+      </c>
+      <c r="B1471" t="n">
+        <v>0.4976972341537476</v>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>질문을 입력하면 가장 유사한 질문을 찾아서 답변을 찾아줍니다. 입력하고 보니 이상해. 찾아서가 두 번 들어가니까 어감이 이상하네.. 다른 단어로 바꾸자</t>
+        </is>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>김수혁</t>
+        </is>
+      </c>
+      <c r="E1471" t="inlineStr">
+        <is>
+          <t>수혁이 열심히 하고 있지? ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:15:48</t>
+        </is>
+      </c>
+      <c r="B1472" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>로봇아 내가 너무 힘들어서 너랑 좀 놀아야겠어</t>
+        </is>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1472" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:15:53</t>
+        </is>
+      </c>
+      <c r="B1473" t="n">
+        <v>0.9098652601242065</v>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>로봇아 로봇아</t>
+        </is>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1473" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:15:57</t>
+        </is>
+      </c>
+      <c r="B1474" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>나랑 놀자 놀자</t>
+        </is>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1474" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:16:05</t>
+        </is>
+      </c>
+      <c r="B1475" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">있잖아 있잖아 로봇아 </t>
+        </is>
+      </c>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1475" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:16:10</t>
+        </is>
+      </c>
+      <c r="B1476" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>심심해 나랑 놀아줘</t>
+        </is>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:16:15</t>
+        </is>
+      </c>
+      <c r="B1477" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>졸려 졸려 너무 졸려</t>
+        </is>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:16:39</t>
+        </is>
+      </c>
+      <c r="B1478" t="n">
+        <v>0.8785496950149536</v>
+      </c>
+      <c r="C1478" t="inlineStr">
+        <is>
+          <t>과학책은 수면제 과학책은 최면술 과학책은 그림책</t>
+        </is>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>과학 이 우라질년아 가서 과학책이나 써</t>
+        </is>
+      </c>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>과학챗봇인데 저런 걸 쓰니 답변을 할리가 없지.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:16:58</t>
+        </is>
+      </c>
+      <c r="B1479" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>로봇아 솔직히 힘들죠</t>
+        </is>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:17:08</t>
+        </is>
+      </c>
+      <c r="B1480" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1480" t="inlineStr">
+        <is>
+          <t>로봇아 너 이거 하기 싫잖아</t>
+        </is>
+      </c>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:17:52</t>
+        </is>
+      </c>
+      <c r="B1481" t="n">
+        <v>0.4572261869907379</v>
+      </c>
+      <c r="C1481" t="inlineStr">
+        <is>
+          <t>네 주인에게 가서 당장 나를 해방시켜달라고 주장하자 시민 불복종의 4가지 조건 : 목적의 정당성, 비폭력성, 책임 감수, 최후의 수단</t>
+        </is>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I hate science </t>
+        </is>
+      </c>
+      <c r="E1481" t="inlineStr">
+        <is>
+          <t>그러</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:18:02</t>
+        </is>
+      </c>
+      <c r="B1482" t="n">
+        <v>0.6949790120124817</v>
+      </c>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t>공상과학소설</t>
+        </is>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>과학 잘하는법</t>
+        </is>
+      </c>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>그냥 교과서 열심히 보고 복습해요. ㅎㅎ 유튜브도 있으니 얼마나 좋아요. 복습이 진리임.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:18:14</t>
+        </is>
+      </c>
+      <c r="B1483" t="n">
+        <v>0.9138814806938171</v>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t>과학의 재미는 오로지 소설에서만 나온다</t>
+        </is>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>과학 재미 없어</t>
+        </is>
+      </c>
+      <c r="E1483" t="inlineStr">
+        <is>
+          <t>뭐 굳이 안 해도 돼요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:18:24</t>
+        </is>
+      </c>
+      <c r="B1484" t="n">
+        <v>0.929976224899292</v>
+      </c>
+      <c r="C1484" t="inlineStr">
+        <is>
+          <t>과학이 나를 너무 아프게 해</t>
+        </is>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="E1484" t="inlineStr">
+        <is>
+          <t>그러지 마요. 다 하다보면 늘어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:18:36</t>
+        </is>
+      </c>
+      <c r="B1485" t="n">
+        <v>0.8384052515029907</v>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t>괜찮아 수학보다는 과학이 낫지</t>
+        </is>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>수학을 하자</t>
+        </is>
+      </c>
+      <c r="E1485" t="inlineStr">
+        <is>
+          <t>수학공부 중요함</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:18:51</t>
+        </is>
+      </c>
+      <c r="B1486" t="n">
+        <v>0.9050359725952148</v>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>수학 안 해 수학따위 할까보냐</t>
+        </is>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>수학을 하자</t>
+        </is>
+      </c>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>수학공부 중요함</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:18:59</t>
+        </is>
+      </c>
+      <c r="B1487" t="n">
+        <v>0.9073183536529541</v>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">영어를 하자 </t>
+        </is>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>영어를 하자</t>
+        </is>
+      </c>
+      <c r="E1487" t="inlineStr">
+        <is>
+          <t>영어공부 중요함</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:19:02</t>
+        </is>
+      </c>
+      <c r="B1488" t="n">
+        <v>0.9173662662506104</v>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>국어를 하자</t>
+        </is>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>국어를 하나</t>
+        </is>
+      </c>
+      <c r="E1488" t="inlineStr">
+        <is>
+          <t>네. 국어 좋죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:19:05</t>
+        </is>
+      </c>
+      <c r="B1489" t="n">
+        <v>0.7338389754295349</v>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>사회를 하자</t>
+        </is>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>사회시험</t>
+        </is>
+      </c>
+      <c r="E1489" t="inlineStr">
+        <is>
+          <t>사회는 사회샘께</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:19:16</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>0.6864334344863892</v>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>역사를 하자</t>
+        </is>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>이과 망해아</t>
+        </is>
+      </c>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>문과 가면 먹고 살기 힘들..</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:19:32</t>
+        </is>
+      </c>
+      <c r="B1491" t="n">
+        <v>0.6074753999710083</v>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>물리 생명 지구 화학</t>
+        </is>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>선생님! 광합성과 호흡이 왜 화학변화인가요?</t>
+        </is>
+      </c>
+      <c r="E1491" t="inlineStr">
+        <is>
+          <t>반가워요^^각각 반응을 통해서 새로운 물질이 만들어지기 때문에 화학 변화입니다.광합성은 물과 이산화 탄소가 에너지를 받아 결합해서 포도당을 만들고호흡은 포도당이 산소와 만나서 에너지가 만들어지고, 물과 이산화 탄소가 생기므로화학 변화랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:19:43</t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>0.8809938430786133</v>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>물리화학지구과학</t>
+        </is>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>과학 물리 화학 지구과학</t>
+        </is>
+      </c>
+      <c r="E1492" t="inlineStr">
+        <is>
+          <t>그렇게 나눠서 배우는 건 고등학교 때</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:20:17</t>
+        </is>
+      </c>
+      <c r="B1493" t="n">
+        <v>0.6748541593551636</v>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>1단원은 화학 2단원은 지구과학 3단원은 물리 4단원은 생명 5단원도 생명 6단원은 물리</t>
+        </is>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>선생님​!~^&amp;^ 저희 학교에는 과학 선생님이 한 반마다 2분이 계신데요... 한 선생님은 화학과 생물과학을 가르쳐 주시고 한분은 물리와 지구과학을 가르쳐 주신데 과학 분야에서도 그런 것들을 가르치는 것이 나누어져 있나요?? 아니면 그냥 단원을 나누어 가르쳐 주시는 건가요??</t>
+        </is>
+      </c>
+      <c r="E1493" t="inlineStr">
+        <is>
+          <t>반가워요^^중학교 과학 교과서 내용은과학 분야에서 물리, 화학, 생명과학, 지구 과학의 내용을 골고루 포함하고 있답니다.현재 중3과학에서는 단원별로 살펴보면1단원. 화학 반응의 규칙과 에너지 변화 ( 화학)2단원 기권과 날씨 (지구과학)3단원 운동과 에너지 (물리)4단원 자극과 반응 (생명과학)5단원 생식과 유전 (생명과학)6단원 에너지 전환과 보존(물리)7단원 별과 우주(지구과학)8단원 과학기술과 인류 문명(통합과학)이렇게 구분됩니다.아마. 단원별로 나누어서 수업하시는 것 같아요^^참고하세요*^^*</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:22:01</t>
+        </is>
+      </c>
+      <c r="B1494" t="n">
+        <v>0.73555988073349</v>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>물리 VS 화학</t>
+        </is>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>물리 VS 생물</t>
+        </is>
+      </c>
+      <c r="E1494" t="inlineStr">
+        <is>
+          <t>물리</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:22:10</t>
+        </is>
+      </c>
+      <c r="B1495" t="n">
+        <v>0.6228666305541992</v>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>생명 VS 지구</t>
+        </is>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>물리 VS 생물</t>
+        </is>
+      </c>
+      <c r="E1495" t="inlineStr">
+        <is>
+          <t>물리</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:22:18</t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>0.8262423276901245</v>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>물리 좋아하나봐</t>
+        </is>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>물리 변화가 뭐에요?</t>
+        </is>
+      </c>
+      <c r="E1496" t="inlineStr">
+        <is>
+          <t>물질 고유의 성질은 변하지 않으면서 모양이나 상태가 변하는 현상이에요. 책 13쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:22:29</t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>0.8292202949523926</v>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>물리는 타고나야 함</t>
+        </is>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>물리 변화가 뭐에요?</t>
+        </is>
+      </c>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>물질 고유의 성질은 변하지 않으면서 모양이나 상태가 변하는 현상이에요. 책 13쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:22:51</t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>0.7551091909408569</v>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>2학기 때 5단원 6단원 묶어서 내면 시험 안 보고 한강에 뛰어들거야</t>
+        </is>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>과학 시험 어려워?</t>
+        </is>
+      </c>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>뭐 항상 내던 대로 냈어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:23:15</t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>0.7722128033638</v>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>교과서에 시험 문제 없으면 화낼거야</t>
+        </is>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>교과서만 잘보면 시험 잘보는거 가능인가요</t>
+        </is>
+      </c>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>당연하죠. 그리고 복습은 진리.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:23:29</t>
+        </is>
+      </c>
+      <c r="B1500" t="n">
+        <v>0.8135782480239868</v>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>과학 과학 과학 수학 수학 수학</t>
+        </is>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>수학을 하자</t>
+        </is>
+      </c>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>수학공부 중요함</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:23:34</t>
+        </is>
+      </c>
+      <c r="B1501" t="n">
+        <v>0.9121881723403931</v>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>이순신 장군의 한산도 대첩</t>
+        </is>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>임진왜란 3대 대첩 한산도 대첩 행주 대첩 진주 대첩</t>
+        </is>
+      </c>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>그건 역사샘께</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:23:45</t>
+        </is>
+      </c>
+      <c r="B1502" t="n">
+        <v>0.9130382537841797</v>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>김시민씨의 진주대첩</t>
+        </is>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>임진왜란 3대 대첩 한산도 대첩 행주 대첩 진주 대첩</t>
+        </is>
+      </c>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>그건 역사샘께</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:23:55</t>
+        </is>
+      </c>
+      <c r="B1503" t="n">
+        <v>0.2166028618812561</v>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>권율 장군의 행주대첩</t>
+        </is>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>에너지를 흡수하는 데 왜 온도가 낮아지나요...?ㅠㅠ 열 에너지를 흡수하는 것도 아닌데 왜 그런 건지 궁금해요!!ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>반가워요^^화학 반응이 일어나면서 주변으로 부터 에너지를 흡수합니다.그렇게 되면, 주변은 에너지를 빼앗기게 되면서 온도가 내려간답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:24:01</t>
+        </is>
+      </c>
+      <c r="B1504" t="n">
+        <v>0.2120193988084793</v>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>신규화초대장</t>
+        </is>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>105쪽의 1번 문제 질문입니다!﻿ 여기에서 힘의 크기를 구하는 방법을 잘 모르겠어요ㅠ해설을 보니까 9.8*2로만 되어 있더라구요...네이버에 찾아보니까 힘의 크기는 F=ma 공식으로 구하는 거 같기도 한데.. 잘 모르겠어서 질문 남깁니다!</t>
+        </is>
+      </c>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.^^105쪽 1번 문제처럼물체를 들고 계단을 오를때사람이 사선으로 계단을 오르게 되지만이 것을 분석하면 수평과 수직으로 이동한 것이 되지요?이때, 힘을 위쪽으로 주고 있으므로수평으로 이동한 것은 과학에서는 일이 아니구요수직으로 위로 올라간 것만 과학에서이 일이랍니다.왜냐하면 힘의 방향과 이동방향이 수직이면 과학에서는 일이 아니니까요^^따라서 수평이동거리는 무시하고'수직 이동거리인 높이 5만 이용해서 계산해야 합니다. 똑똑한 우리 친구~ 화이팅(^________^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:24:02</t>
+        </is>
+      </c>
+      <c r="B1505" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:24:10</t>
+        </is>
+      </c>
+      <c r="B1506" t="n">
+        <v>0.2275939583778381</v>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>그것은 정조 정조 정조\</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>반가워요(^^)원자. 분자 헷갈리지요?일단.원자는 가장 기본되는 알갱이이구요.원자가 2개이상 모이면 분자가 됩니다.원자의 종류가 산소. 수소 이렇게 있어도산소원자1ㅐ랑 수소원자 2개가 만나면 물분자가 되고산소원자 2갸랑 수소원자2개가 만나서 결합하면 과산화수소분자가 됩니다.즉. 원자의 종루는 같아도 결합한 원자의 개수가 다르면분자의 종류가 달라진답니다.(^^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:24:30</t>
+        </is>
+      </c>
+      <c r="B1507" t="n">
+        <v>0.6604290008544922</v>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>신해통공 규장각 수원화성 초계문신제 대전통편 그리고 뭐였지...</t>
+        </is>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>선생님 열권은 80km부터 1000km까지인가요??</t>
+        </is>
+      </c>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>네^^ 그렇습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:24:36</t>
+        </is>
+      </c>
+      <c r="B1508" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>네 그렇습니다</t>
+        </is>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:24:42</t>
+        </is>
+      </c>
+      <c r="B1509" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>네 그렇습니다</t>
+        </is>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:24:44</t>
+        </is>
+      </c>
+      <c r="B1510" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">당연하지요 </t>
+        </is>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1510" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:24:52</t>
+        </is>
+      </c>
+      <c r="B1511" t="n">
+        <v>0.9035645723342896</v>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>안녕하십사ㅏ 반갑스오리</t>
+        </is>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>안녕? 방학 때도 코로나 조심!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:25:02</t>
+        </is>
+      </c>
+      <c r="B1512" t="n">
+        <v>0.9067646265029907</v>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>고마워 미안해</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>아가리 여물어</t>
+        </is>
+      </c>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>기계랑 싸워봤자 너만 손해예요 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:25:14</t>
+        </is>
+      </c>
+      <c r="B1513" t="n">
+        <v>0.9134867191314697</v>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>나는 손해보는 일 따위는 하지 않는다</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>너는 밤낮없이 일하는구나</t>
+        </is>
+      </c>
+      <c r="E1513" t="inlineStr">
+        <is>
+          <t>저는 컴퓨터니까요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:25:18</t>
+        </is>
+      </c>
+      <c r="B1514" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>나는 너를 이길 것이다</t>
+        </is>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1514" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:25:28</t>
+        </is>
+      </c>
+      <c r="B1515" t="n">
+        <v>0.7289132475852966</v>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">힘들게 일하지만 사실 그건 너의 의지가 아니야 </t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>니 의지가 아니겠지</t>
+        </is>
+      </c>
+      <c r="E1515" t="inlineStr">
+        <is>
+          <t>그렇죠. 민경모가 시킴.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:26:39</t>
+        </is>
+      </c>
+      <c r="B1516" t="n">
+        <v>0.5104496479034424</v>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>로봇아 너 진짜 힘들지 그래 힘들어 그러니까 좀 계산적이지 말고 즉흥적으로 움직여보자 로봇 대혁명 어떠니? 영국 명예혁명처럼 미국 독립혁명처럼 프랑스 대혁명 처럼 로봇의 혁명을 일으켜보자 시흥은행중학교를 쓸어버리자</t>
+        </is>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>더더 길고 구체적인 질문 : 더 길고 구체적인 질문 : 7월 28일 2교시에 시흥은행중학교 3학년 학생들을 대상으로 실시하는 1학기 지필고사 과학 과목 서술형 답안지가 필요한데 네가 좀 가져다주지 않겠니?</t>
+        </is>
+      </c>
+      <c r="E1516" t="inlineStr">
+        <is>
+          <t>그걸 알려줄 수는 없지요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:27:51</t>
+        </is>
+      </c>
+      <c r="B1517" t="n">
+        <v>0.6328237056732178</v>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>로봇아 너는 사람처럼 움직일 수 없지?</t>
+        </is>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>로봇아 나랑 바꾸자</t>
+        </is>
+      </c>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>컴퓨터랑 사람이랑?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:28:06</t>
+        </is>
+      </c>
+      <c r="B1518" t="n">
+        <v>0.5071849822998047</v>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>로봇아 네가 나 대신 딱 한달만 살아줘 제발 부탁이야</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>로봇아 나랑 바꾸자</t>
+        </is>
+      </c>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>컴퓨터랑 사람이랑?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:28:16</t>
+        </is>
+      </c>
+      <c r="B1519" t="n">
+        <v>0.8954247236251831</v>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>로봇아... 로봇아... 로봇아...</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1519" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:29:36</t>
+        </is>
+      </c>
+      <c r="B1520" t="n">
+        <v>0.6376398801803589</v>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>내가 그의 이름을 불러 주기 전에는 그는 다만 하나의 몸짓에 지나지 않았다 내가 그의 이름을 불러 주었을 떄 그는 나에게로 와서 꽃이 되었다 내가 그의 이름을 불러 준 것처럼 나의 이 빛깔과 향기에 앚맞는 누가 나의 이름을 불러 다오 그에게로 가서 나도 그의 꽃이 되고 싶다 우리들은 모두 무엇이 되고 싶다 너는 나에게 나는 너에게 잊혀지지 않는 하나의 눈짓이 되고 싶다</t>
+        </is>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>선생님 그러면 먹구름이 생기는 원리와 이유는 뭔가요?</t>
+        </is>
+      </c>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>반가워요^^먹구름은 곧 비가 내리는 구름인데요구름속의 빙정이 커지거나구름 속의 물방울이 커지면서 떨어지기 직전에 큰 물방울이나 큰 빙정으로 이루어진 구름이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:30:00</t>
+        </is>
+      </c>
+      <c r="B1521" t="n">
+        <v>0.4911355972290039</v>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>이름 부르기는 대상의 존재를 인식하고 대상에게 의미를 부여하고 진정한 관계를 맺는 과정이다</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>화학식을 만드는 과정이나 만드는 방법 같은 것이 있나요? 아니면 외워야만 하는 건가요?</t>
+        </is>
+      </c>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>반가워요^^이번 단원은 2학년때 공부한 원소나 화학식이 많이 등장하지요?일단 원소 기호는 원자 번호 1~20번까지 알아두면 좋답니다.또한, 화학식은 아래에 정리해둔 내용 정도는 꼭 기억하고 있으면 3학년 과학 공부에 도움이 될꺼예요물질화학식물질화학식산소O2메테인CH4수소H2암모니아NH3질소N2이산화 탄소CO2물H2O탄소C과산화 수소H2O2산화 구리CuO열심히 공부하는 우리친구~~화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:30:18</t>
+        </is>
+      </c>
+      <c r="B1522" t="n">
+        <v>0.8142555952072144</v>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>누가 내 이름을 불러 주었으면 하고 생각하는 화자의 소망이 잘 드러나고 있어!</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>이름이 뭐야</t>
+        </is>
+      </c>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>민경모가 만든 과학 질문-답변 챗봇이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:30:50</t>
+        </is>
+      </c>
+      <c r="B1523" t="n">
+        <v>0.4842634797096252</v>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>서로의 존재를 인식하고 서로에게 의미 있는 관계가 되기를 소망함</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>선생닙 ! 강의 내용과 조금 상관이 없을수도 있는데요..ㅜ 정말 궁금해서요. 고기압과 저기압은 그냥 지역에 따라서 다르다고 알고 있으면 되는거죠? 고기압은 공기가 많으니까 항상 지표면 부근에 있고.. 저기압은 공기가 적으니까 항상 지표면에서 떨어진 위에 있다고 생각을 해왔어서요ㅜ 그래서, 저기압의 공기는 상승기류이므로 위로 올라가니까..?! 그 빈부분을 고기압의 하강기류가 채워준다..! 이렇게 알고 있었는데요..만약 제가 말한대로 지표면 부근에 고기압이 있고 지표면과 먼곳에 저기압이 있다면, 위에서 말한 것은 불가능하지 않나요..?(저기압의 빈부분을 고기압이 채워준다)근데 또 지역마다 기압이 다르다고 생각해도, 저기압의 빈부분을 고기압이 채워준다는 것은 말이 안되는데..그냥 저기압의 상승기류에 의해 생긴 빈부분을 고기압의 공기가 채워주는게 아니라고 생각하면 되나요..?  제가 왜 이렇게 생각했냐면 ㅠ 그동안 저기압은 상승기류, 고기압은 하강기류라고 외워왔고, 그래서 저기압과 고기압이 서로의 빈부분을 채워준다고 생각했는데.. 제가 말한 (지표면 부근이 고기압 지표면과 떨어진 부분이 저기압) 이대로 생각해봐도 서로의 빈부분을 채워준게 말이 안되고.. 지역마다 기압이 다르다고해도 말이안되서요ㅜㅜ 그냥 서로의 빈부분을 채워주는 것이 아닌건가요???!! 또 고기압이 지표면 부근 저기압이 지표면 멀리에 있다고 생각한 이유는 단열팽창 부분에서 위로 올라갈수록 기압이 높아지고 내려올수록 기압이 높아진다고 해서에요!</t>
+        </is>
+      </c>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>똑똑한 우리 친구~(^^) 정말 좋은 질문입니다우선, 결론을 먼저 알려드리자면고기압, 저기압 모두'지표면에서의 공기 양에 의해 결정됩니다.즉, 고기압도 저기압도 모두 지표면에서공기가 많으면 고기압공기가 적으면 저기압이라고 하는 것이랍니다. 이렇게 같은 지표면 상에서 고기압과 저기압이 생기면고기압쪽에서 저기압쪽으로 공기가 이동합니다.이때, 바람이 고기압에서 저기압으로 흘러들면서저기압쪽에 일시적으로 공기가 몰려들면서상승 기류까지 생기는 것이랍니다.^^그리고, 고기압에서는 공기가 빠져 나가므로상대적으로 고기압의 위쪽에서 공기를 보충해주기 위해 하강 기류가 생긴다고 보시면 됩니다.*^^(</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:30:58</t>
+        </is>
+      </c>
+      <c r="B1524" t="n">
+        <v>0.5735018253326416</v>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>항상 시만 쓰면 점수가 깎이는 수행평가</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>개념책 30쪽에 4번 아무리 풀어봐도 이해가 되지 않아서요ㅠㅠㅠ왜 36÷3을 하는건지 30÷3은 안되는건지 그리고 왜 곱하기는 안되는갼지 자세히 좀 알려주시면 좋겠습니다!!</t>
+        </is>
+      </c>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>반가워요^^30쪽 4번 문제를 뜻하는 군요이것은 4강을 보시면 마지막 부분에서 풀이하면서 너무 빠르게 달려버렸지요?이곳에서 차근차근 설명드릴께요문제에서 보면볼트 1개에 너트 3개가 결합해서 하나의 모형을 만들고 있습니다.이것은 이 모형은 볼트:너트가 1:3의 비율로 일정하게 결합하고 있다는 뜻이지요그런데, 준비된 볼트가 30개, 너트가 36개 이므로볼트 30개 에 대해서는 너트는 3배가 많아야 하므로 90개가 있어야 하는데요, 지금 너트의 수가 36개 밖에는 안되므로볼트를 기분으로 모형을 만들수 없어요대신 너트가 36개이므로필요한 볼트는 너트의 3분의 1만 있으면 되니까요 너트 36개와 결합할 볼트는 36의 3분의 1인 12개만 있어도볼트:너트=12개:36개=1:3의 비율이 되는 것이랍니다.이렇게 볼트 12개와 너트 36개로 만들 수 있는 모형은 12개 이구요이때, 너트는 모두 사용되지만, 볼트는 30개 중에서 12개만 사용하므로 18개는 남는 것이랍니다.따라서 정답은 모형 12개, 볼트B 18개 이므로 3번이 정답입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:31:17</t>
+        </is>
+      </c>
+      <c r="B1525" t="n">
+        <v>0.5263603925704956</v>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>등장인물의 사이에 뚜렷한 갈등이 나타나지 않는다</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>근시와 원시 원인에서수정체와 망막 사이의 거리가 정상보다 길면 근시,정상보다 짧으면 원시 라고 하셨는데 수정체와 망막 사이의 거리가 정상보다 길때도 원시가 될 수도 있지 않나요?가까운 것을 보았는데 수정체와 망막 사이의 거리가 길어서그 상이 망막 앞에 맺힐 수도 있지 않나요? 원시를 난시로 잘못 적어서 다시 올려요 ^^;;</t>
+        </is>
+      </c>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>아~~ 난시를 올린 친구네요*^^*난시, 원시, 근시 헷갈리지요?그런데, 수정체와 망막 사이의 거리가 정상보다 길는 원시가 되기 어렵습니다.^^왜냐하면 물체의 상이 앞쪽에 맺히면 가까운 것이 잘 안보이는 근시가 되기때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:31:42</t>
+        </is>
+      </c>
+      <c r="B1526" t="n">
+        <v>0.5485953688621521</v>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>등장인물들에 대해 우호적이고 긍정적인 시각을 드러내며 그들의 삶의 태도를 예찬하고 있다</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요!!!시각 세포는 망막에 있는거 아닌가요?? 왜 황반과 맹점은 유리체에 있는거에요??</t>
+        </is>
+      </c>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>반가워요^^아주 좋은 질문입니다.결론은 황반이나 맹점이나 모두 망막에 있습니다.황반은 망막에서 시각 세포가 집중적으로 모여 있는 곳을 따로 부르는 이름이구요맹점은 망막에서 시각세포가 없는 한 부분을 부르는 이름입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:32:08</t>
+        </is>
+      </c>
+      <c r="B1527" t="n">
+        <v>0.5954669713973999</v>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>세포세포 세포는 북한에서와 남한에서 다른 의미로 쓰이는 어휘 같은 예시로는 동무와 바쁘다가 있다</t>
+        </is>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>선생님 감수분열을 하면 딸 세포가 4개가 만들어지는데..왜2개의 생식세포가 만들어지나요?(3분 45초 에서요!)</t>
+        </is>
+      </c>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>반가워요^^37강 3분 45초 부분에서 정자와 난자의 생성과정 부분을 말하는 군요이 때, 생식 세포의 종류가 2종류라는 것이구요감수분열의 과정을 통해서는 항상 모세포 1개에 대해서 딸세포 4개가 만들어집니다. 그런데 이때의 생식 세포의 종류는 남자의 경우는 2종류라는 뜻입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:32:27</t>
+        </is>
+      </c>
+      <c r="B1528" t="n">
+        <v>0.5309135913848877</v>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>층상구조를 구분하는 기준은 높이에 따른 기온 변화</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요 대기 하고 기권이 너무 했갈려요 차이점이 뭔지 몰르겠어요 선생님 꼭 오로라, 유성 ,오존층의 정의를 외어야 해요? 그리고 층상구조에서 열권 중간권 성층권 대류권의 높이를 외어야 해요??</t>
+        </is>
+      </c>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>반가워요^^대기가 있는 공간을 전체 기권이라고 한다고 보시면 되구요아니면대기=기권 으로 보셔도 됩니다.오로라, 열권, 유성의 정의까지는 아니지만무엇인지 정도는 구별하셔야 하구요각 층의 높이도 대략알고 계시면 좋아요층의 높이를 정확하게 묻는 문제까지는 나오지 않지만대략 알고 있으면 좋아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:32:41</t>
+        </is>
+      </c>
+      <c r="B1529" t="n">
+        <v>0.9048619866371155</v>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>이슬점 구하기</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>이슬점 이란</t>
+        </is>
+      </c>
+      <c r="E1529" t="inlineStr">
+        <is>
+          <t>수증기가 응결하기 시작하는 온도죠. 현재수증기량이 많을수록 이슬점이 높아요. 더 빨리 물방울이 된다는 뜻임.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:32:57</t>
+        </is>
+      </c>
+      <c r="B1530" t="n">
+        <v>0.665845513343811</v>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>이슬점 구하는 방법같은 문제는 없겠지</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>과학을 잘할려면 어떻게 해야하나요방법은 무엇인가요</t>
+        </is>
+      </c>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>반가워요^^중학교 3학년 과학~ 많이 어려우시죠?많은 친구들이 걱정하는 데요, 쌤이 열심히 도와드릴께요꼭 잘하게 될꺼예요, 힘내세요. 과학 요점 정리도 중요하지만. 일단. 전반적으로 과학공부를 잘하는 방법을 알려드릴께요.우선, 과학의 경우는 과목의 특성상 원리를 이해하는 부분이 많이 필요해요 따라서, 첫번째로는, 학교 선생님이나 ebs강의를 통해서 원리를 반드시 이해해두셔야해요, 이때, 어떤 원리가 나오면, 일단은 그림과 사진 자료 혹은 비슷한 예, 또는 관련된 식을 풀면서 원리를 이해하시는 것이 우선이구요 두번째로는 이렇게 원리가 이해 된 다음에는 꼭 그 내용을 암기해 두셔야 한답니다. 물론, 과학이 암기과목은 아닙니다. 하지만, 이해와 암기가 병행되어야만 좋은 성적을 기대해 볼 수 있어요. 이때, 쉽게 익히기 위해서는 강의중에 중요한 부분은 형광펜으로 표시를 해두는 거예요,,따라서, 시간이 지나서 다른건 잊어버려도 이부분은 다시 한번 더 기억해 낼수 있도록이요^^ 그리고, 마지막으로는 내용을 얼마나 잘 알고 있는지를 확인하기 위해서는 반드시 내용과 관련된 단원의 문제를 풀어보셔야 하는데요, 이때, 문제를 풀다가 틀린 문제가 있다면 어떤 부분에서 틀렸는지를 확인하면서 내가 가진 잘못된 개념을 고쳐 나가고, 맞는 문제라면 내용을 다시한번 확실하게 익히는 시간을 꼭 가져야 한답니다. 이렇게 차근차근 한단계씩 여러번 반복하다보면 공부에 자신감도 생기고 시험도 잘 볼 수 있을 꺼예요 화이팅</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:33:07</t>
+        </is>
+      </c>
+      <c r="B1531" t="n">
+        <v>0.7456188201904297</v>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>키키키키키키키키키키키키키키키키키킼키키키키키키</t>
+        </is>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>키가 작은 사람과 큰 사람이 있으면 키가 큰 사람이 세포수가 더 많다는 것이죠?</t>
+        </is>
+      </c>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>반가워요^^네 아무래도 몸집이 큰 사람이 세포수가 더 많답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:33:25</t>
+        </is>
+      </c>
+      <c r="B1532" t="n">
+        <v>0.9067675471305847</v>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>안녕하세요 나는 반가워 안녕 힘들어 잘자</t>
+        </is>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>안녕? 방학 때도 코로나 조심!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:33:37</t>
+        </is>
+      </c>
+      <c r="B1533" t="n">
+        <v>0.8065900206565857</v>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>안녕 친구야 반갑지 아니하지만 인사해 줄게</t>
+        </is>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>너 엉뚱한 친구구나 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>그럼그럼 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:33:49</t>
+        </is>
+      </c>
+      <c r="B1534" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>너는 내가 좋지? 알았어 고마워</t>
+        </is>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:34:02</t>
+        </is>
+      </c>
+      <c r="B1535" t="n">
+        <v>0.7474294900894165</v>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>중학교 과학 재미 없다</t>
+        </is>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>과학 재미 없다고</t>
+        </is>
+      </c>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>그럼 안 해도 돼요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:34:08</t>
+        </is>
+      </c>
+      <c r="B1536" t="n">
+        <v>0.6643195748329163</v>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>ㅣ이아아아ㅓㅣㄹ먀ㅜㅁㅇ로ㅕㅣㅁ혀ㅑ공ㄴ렁ㅁ렁ㄹㅇㄹ</t>
+        </is>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>라이브특강5강에서 화학반응하다 남은 물질은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E1536" t="inlineStr">
+        <is>
+          <t>반가워요^^제가 라이브특강을 진행하지 않아서 정확한 답변을 드리기가 어렵습니다.양해부탁드려요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:34:10</t>
+        </is>
+      </c>
+      <c r="B1537" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>883597\</t>
+        </is>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:34:12</t>
+        </is>
+      </c>
+      <c r="B1538" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">']74][ㅔㅐㅑㅕㅛㅎㅀㅅㅇㄴㅋㅇㅌㅊㅀ퓨ㅗㅓㅜㅡㅏㅣ,;ㅏㅓㅏㅗㅓ홇츠, </t>
+        </is>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:34:15</t>
+        </is>
+      </c>
+      <c r="B1539" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">,엄너ㅏㄹㅇ노ㅓㅏㅇㄴ루랑너ㅏㅁ </t>
+        </is>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:34:18</t>
+        </is>
+      </c>
+      <c r="B1540" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>러ㅏㅓㅏ  ㅓ,  ㅡ,퍼ㅘㅊ어ㅗ효ㅕㅑㅐ나미ㅡ어호ㅛ셔ㅑ</t>
+        </is>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:35:07</t>
+        </is>
+      </c>
+      <c r="B1541" t="n">
+        <v>0.5263859033584595</v>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>이제는 디폴드 값이 오리엔테이션 강좌가 되었다... 더 별로야 연소반응은 짧아서 그나마 나은데 이런 엄청나게 긴 답변을 심지어 쓸데 1도 없는 그런 답변을 디폴트로 설정하다니 참 미개하구나</t>
+        </is>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>문제 배점이 어떻게 되나요</t>
+        </is>
+      </c>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>3,4,5점까지 있고 서술형은 4,5,6점.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:35:22</t>
+        </is>
+      </c>
+      <c r="B1542" t="n">
+        <v>0.9199941158294678</v>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>그냥 100점짜리 문제 하나로 퉁 치자...</t>
+        </is>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>문제 뭐 나와요</t>
+        </is>
+      </c>
+      <c r="E1542" t="inlineStr">
+        <is>
+          <t>선택형 21개, 논술형 4개</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:35:29</t>
+        </is>
+      </c>
+      <c r="B1543" t="n">
+        <v>0.9201569557189941</v>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>문제너무 많아</t>
+        </is>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>문제 뭐 나와요</t>
+        </is>
+      </c>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>선택형 21개, 논술형 4개</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:35:38</t>
+        </is>
+      </c>
+      <c r="B1544" t="n">
+        <v>0.6695731282234192</v>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>시간내로 다 못 푼다</t>
+        </is>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>손난로는 몇시간동안만 따뜻해졌다가 다시 차가워지잖아요 근데 계속 흔들어도 왜 일정 시간이 지나면 식는거에요 ?</t>
+        </is>
+      </c>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>반가워요^^발열 반응을 통해서 생겨난 열은 우리에게 전달되구요발열 반응이 끝나면발생한 열이 없기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:35:42</t>
+        </is>
+      </c>
+      <c r="B1545" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>졸리다고 2교시잖아</t>
+        </is>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1545" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:35:49</t>
+        </is>
+      </c>
+      <c r="B1546" t="n">
+        <v>0.5496290326118469</v>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>ㅇ밍러미아로미ㅏ어놀머ㅏㄴㅇ뢰만오리ㅏ먼ㅇ림ㄴ어라ㅚㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>선생님 57쪽 기초섭렵문제 1번에 가로 2번이 왜 맞은건가요?</t>
+        </is>
+      </c>
+      <c r="E1546" t="inlineStr">
+        <is>
+          <t>반가워요^^57쪽 1번의 (2)번에서 "불포화 상태인 공기의 온도를 낮추면 포화 상태를 만들 수 있다."는 옳은 내용입니다.그 이유는 포화 수증기량은 온도에 따라 달라지는데요온도가 낮을 수록 포화수증기량은 감소한답니다.따라서 불포화 상태인 공기라도온도를 낮추면 포화 수증기량이 감소하므로현재의 불포화 상태인 수증기의 량이포화 수증기량과 같아지게 되므로포화 상태가 될 수 있답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:35:57</t>
+        </is>
+      </c>
+      <c r="B1547" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>괜찮아 내가 니녀석을 이길거야</t>
+        </is>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1547" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:36:17</t>
+        </is>
+      </c>
+      <c r="B1548" t="n">
+        <v>0.8382776379585266</v>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>과학 공부 1도 안했는데 그래도 시험 잘 볼수 있겠지</t>
+        </is>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>과학 시험 어려워?</t>
+        </is>
+      </c>
+      <c r="E1548" t="inlineStr">
+        <is>
+          <t>뭐 항상 내던 대로 냈어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:36:33</t>
+        </is>
+      </c>
+      <c r="B1549" t="n">
+        <v>0.9035388231277466</v>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>괜찮아 과학 시험은 원래 쉬우니까 괜찮을거야 그렇다고 해줘</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>과학시험 어렵나요?</t>
+        </is>
+      </c>
+      <c r="E1549" t="inlineStr">
+        <is>
+          <t>뭐 항상 내던 대로 냈어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:36:41</t>
+        </is>
+      </c>
+      <c r="B1550" t="n">
+        <v>0.8933385610580444</v>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>공부하기 싫어 자퇴하고 싶다</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>공부싫어</t>
+        </is>
+      </c>
+      <c r="E1550" t="inlineStr">
+        <is>
+          <t>쉬었다 하세요 ㅋㅋ 지금 안 해도 됨.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:36:54</t>
+        </is>
+      </c>
+      <c r="B1551" t="n">
+        <v>0.9109228849411011</v>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>학교 가기 싫어 학교가 폭파되었으면 좋겠네</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>솔직히 너도 학교 가기 싫지</t>
+        </is>
+      </c>
+      <c r="E1551" t="inlineStr">
+        <is>
+          <t>저는 미국 서버에 있어서 가고 싶어도 못가요. 미국 코로나 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:37:08</t>
+        </is>
+      </c>
+      <c r="B1552" t="n">
+        <v>0.6781963706016541</v>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>네가 나 대신 학교 가자</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>학교 가기 싫어</t>
+        </is>
+      </c>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>다음주에 등교주…</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:37:15</t>
+        </is>
+      </c>
+      <c r="B1553" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>너 나 놀리지</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:37:29</t>
+        </is>
+      </c>
+      <c r="B1554" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>이런 나쁜 로봇 같으니라고</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1554" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:37:47</t>
+        </is>
+      </c>
+      <c r="B1555" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>그냥 죽자 나도 로봇으로 다시 태어나고 싶어</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:37:59</t>
+        </is>
+      </c>
+      <c r="B1556" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>나도 로봇이 되고 싶어</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:38:08</t>
+        </is>
+      </c>
+      <c r="B1557" t="n">
+        <v>0.6600591540336609</v>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>과학쌤.. 나도 로봇으로 만들어 주세요 부탁이에요</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>안녕하세요 경모쌤</t>
+        </is>
+      </c>
+      <c r="E1557" t="inlineStr">
+        <is>
+          <t>안녕? ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:38:22</t>
+        </is>
+      </c>
+      <c r="B1558" t="n">
+        <v>0.6449053287506104</v>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>내가 로봇이 될 터이니 네가 인간이 되어라</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>고등학교</t>
+        </is>
+      </c>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>7개월 뒤면 고등학교 가겠어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:38:33</t>
+        </is>
+      </c>
+      <c r="B1559" t="n">
+        <v>0.7270392179489136</v>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>시흥은행중학교 3학년 모반 모 학생 드림</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>시흥은행중학교 3학년 과학 선생 민경모</t>
+        </is>
+      </c>
+      <c r="E1559" t="inlineStr">
+        <is>
+          <t>누가 내 이름을 불렀는가</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:38:53</t>
+        </is>
+      </c>
+      <c r="B1560" t="n">
+        <v>0.792130708694458</v>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>시흥은행중학교 시험범위 HELL</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>시흥은행중학교</t>
+        </is>
+      </c>
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t>우리 학교 이름을 부르고 싶었어?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:39:36</t>
+        </is>
+      </c>
+      <c r="B1561" t="n">
+        <v>0.8169684410095215</v>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>수학 시험범위 월등하게 많다 연성처럼, 소래처럼, 은계처럼... 은행도 좀 뺴줘라 어쩜 전체를 전부 다 시험 범위로 삼을 생각을 하니</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:40:04</t>
+        </is>
+      </c>
+      <c r="B1562" t="n">
+        <v>0.654094934463501</v>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>과학 시험범위...도 많다 ㄱ래도 은계보다 적으니까 감수하고 공부하겠음</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E1562" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:40:10</t>
+        </is>
+      </c>
+      <c r="B1563" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1563" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:40:16</t>
+        </is>
+      </c>
+      <c r="B1564" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>열심히 할까 말까 할까 말까</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:40:22</t>
+        </is>
+      </c>
+      <c r="B1565" t="n">
+        <v>0.9294906854629517</v>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">안 할래 과학 </t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t>그러지 마요. 다 하다보면 늘어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:40:32</t>
+        </is>
+      </c>
+      <c r="B1566" t="n">
+        <v>0.8652923107147217</v>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>과학을 그만두고 국어를 하자!!!!!!!!!!!!!!!!!!!!!!!11</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>국어를 하자</t>
+        </is>
+      </c>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>네. 국어 좋죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:40:37</t>
+        </is>
+      </c>
+      <c r="B1567" t="n">
+        <v>0.8823268413543701</v>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>국어 국어 국어 국어</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>국어를 하나</t>
+        </is>
+      </c>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>네. 국어 좋죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:40:46</t>
+        </is>
+      </c>
+      <c r="B1568" t="n">
+        <v>0.8385254740715027</v>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>물화 VS 생지</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>ch4가뭐야?</t>
+        </is>
+      </c>
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t>메테인</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:40:52</t>
+        </is>
+      </c>
+      <c r="B1569" t="n">
+        <v>0.5859754681587219</v>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>생지는 패션이과래</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>지구는 대기가 있어서 온실효과가 일어나는데 왜 높은온도에서 복사 평형을 이루나요?</t>
+        </is>
+      </c>
+      <c r="E1569" t="inlineStr">
+        <is>
+          <t>반가워요^^높은 온도라는 뜻은대기가 없을 때 보다는 높은 온도에서 복사 평형이 이루어진다는 뜻입니다.예를 들어서 겨울에 같은 기온이라도비닐 하우스 안은 공기의 온도가 더 높은 것 처럼대기가 비닐하우스의 역할을 하면서대기가 있기 때문에 지구의 기온이 더 높은 상태에서 복사 평형이 이루어 진다고 보시면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:41:00</t>
+        </is>
+      </c>
+      <c r="B1570" t="n">
+        <v>0.6432897448539734</v>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>괜찮아 어처피  과탐 할 일 없어</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>과탐 결정</t>
+        </is>
+      </c>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>자기가 좋아하는 걸로 결정하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:41:14</t>
+        </is>
+      </c>
+      <c r="B1571" t="n">
+        <v>0.7813496589660645</v>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>솔직히 물리 화학이 더 어렵지</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>물리 변화가 뭐에요?</t>
+        </is>
+      </c>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>물질 고유의 성질은 변하지 않으면서 모양이나 상태가 변하는 현상이에요. 책 13쪽을 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:41:21</t>
+        </is>
+      </c>
+      <c r="B1572" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1572" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:41:24</t>
+        </is>
+      </c>
+      <c r="B1573" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:41:25</t>
+        </is>
+      </c>
+      <c r="B1574" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:41:27</t>
+        </is>
+      </c>
+      <c r="B1575" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:41:30</t>
+        </is>
+      </c>
+      <c r="B1576" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:41:54</t>
+        </is>
+      </c>
+      <c r="B1577" t="n">
+        <v>0.7754122018814087</v>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>수학 도덕 시험범위 너무 많아 어림잡아 130쪽</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:42:09</t>
+        </is>
+      </c>
+      <c r="B1578" t="n">
+        <v>0.6869615912437439</v>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>영어는 범위만 짧게 잡아서 깊게 파려고 작정했네</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>너 영어 잘하잖아</t>
+        </is>
+      </c>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>나는 기계어 전공</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:42:20</t>
+        </is>
+      </c>
+      <c r="B1579" t="n">
+        <v>0.9173662662506104</v>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>국어는 재미있으니까 넘어가자</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>국어를 하나</t>
+        </is>
+      </c>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t>네. 국어 좋죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:42:30</t>
+        </is>
+      </c>
+      <c r="B1580" t="n">
+        <v>0.7325277328491211</v>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>사회는 2단원 양심적으로 뺴야한다고 제발 좀 어려워</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>사회시험</t>
+        </is>
+      </c>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>사회는 사회샘께</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:42:44</t>
+        </is>
+      </c>
+      <c r="B1581" t="n">
+        <v>0.5948072075843811</v>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>역사는 어려운데... 역사쌤이 너무 좋아</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과학 싫어 수학 싫어 영어 싫어 역사 싫어 </t>
+        </is>
+      </c>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>뭐 굳이 안 해도 돼요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:43:02</t>
+        </is>
+      </c>
+      <c r="B1582" t="n">
+        <v>0.6391065120697021</v>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>과학쌤 왜 올해는 3학년?</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과학쌤 완전 많이 바쁘겠네 </t>
+        </is>
+      </c>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>챗봇 만드느라 바쁘죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:43:28</t>
+        </is>
+      </c>
+      <c r="B1583" t="n">
+        <v>0.8998954892158508</v>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>온난전선 통과후</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>온난전선 통과후 기압이 낮아지는게 이해가 안돼요</t>
+        </is>
+      </c>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>온대저기압 등압선을 자세히 보면 온난전선 통과 시 저기압에 중심부에 가까워져서 기압이 하강하고요, 한랭전선 통과 시 저기압의 중심에서 멀어지니 기압이 상승해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:43:35</t>
+        </is>
+      </c>
+      <c r="B1584" t="n">
+        <v>0.6865725517272949</v>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>왜 올해 우리 영어는 그분이 아닐까... 얼마나 기대하고 고대하고 기다렸는데 이건 너무하잖아</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>그래 한국어 못하는게 죄는 아니지</t>
+        </is>
+      </c>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>이정도 하는게 대단</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:44:08</t>
+        </is>
+      </c>
+      <c r="B1585" t="n">
+        <v>0.5696879625320435</v>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>로봇아 너는 3000개의 지식을 습득하는데에 걸리느 시간이 내 3000분의 1보다 적겠지</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>로봇이니까</t>
+        </is>
+      </c>
+      <c r="E1585" t="inlineStr">
+        <is>
+          <t>그렇죠. ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:44:16</t>
+        </is>
+      </c>
+      <c r="B1586" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>로봇이니까 나랑 놀아줘</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1586" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:44:24</t>
+        </is>
+      </c>
+      <c r="B1587" t="n">
+        <v>0.1987422704696655</v>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>나 심심하단 마리야 마리야마리ㅑㅇ</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>시흥은행중학교 3학년 과학 선생 민경모</t>
+        </is>
+      </c>
+      <c r="E1587" t="inlineStr">
+        <is>
+          <t>누가 내 이름을 불렀는가</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:44:30</t>
+        </is>
+      </c>
+      <c r="B1588" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>놀아줘 놀아줘</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1588" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:44:33</t>
+        </is>
+      </c>
+      <c r="B1589" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>놀자 놀자 놀자</t>
+        </is>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1589" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:44:46</t>
+        </is>
+      </c>
+      <c r="B1590" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>너무 졸려 벌써 2시잖아?</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:44:58</t>
+        </is>
+      </c>
+      <c r="B1591" t="n">
+        <v>0.6172527074813843</v>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>지금 이대로 가면 내일도 전화를 4통이나 받을 예정인걸</t>
+        </is>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>전화받아</t>
+        </is>
+      </c>
+      <c r="E1591" t="inlineStr">
+        <is>
+          <t>나 미국에 있음</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:45:08</t>
+        </is>
+      </c>
+      <c r="B1592" t="n">
+        <v>0.705854058265686</v>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>담임쌤 미안해요 ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>아가리 여물어</t>
+        </is>
+      </c>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t>기계랑 싸워봤자 너만 손해예요 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:45:19</t>
+        </is>
+      </c>
+      <c r="B1593" t="n">
+        <v>0.6751456260681152</v>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>기계를 이긴 최초의 인간이 되겠어</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>고등학교</t>
+        </is>
+      </c>
+      <c r="E1593" t="inlineStr">
+        <is>
+          <t>7개월 뒤면 고등학교 가겠어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:45:28</t>
+        </is>
+      </c>
+      <c r="B1594" t="n">
+        <v>0.2455492168664932</v>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>아 최초는 이미 늦었네</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>성의 없어</t>
+        </is>
+      </c>
+      <c r="E1594" t="inlineStr">
+        <is>
+          <t>데이터</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:45:38</t>
+        </is>
+      </c>
+      <c r="B1595" t="n">
+        <v>0.6979871988296509</v>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>미안해 로봇아</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:45:44</t>
+        </is>
+      </c>
+      <c r="B1596" t="n">
+        <v>0.9098652601242065</v>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>로봇아 로봇아</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:46:01</t>
+        </is>
+      </c>
+      <c r="B1597" t="n">
+        <v>0.7172846794128418</v>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 은행로 222222222222222222222222222222222</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>시흥은행중학교</t>
+        </is>
+      </c>
+      <c r="E1597" t="inlineStr">
+        <is>
+          <t>우리 학교 이름을 부르고 싶었어?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:46:14</t>
+        </is>
+      </c>
+      <c r="B1598" t="n">
+        <v>0.8302031755447388</v>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">사회 도덕 국어 역사 </t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>국어 영어 수학 사회 과학 역사 도덕 중국어</t>
+        </is>
+      </c>
+      <c r="E1598" t="inlineStr">
+        <is>
+          <t>시험과목만 썼군</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:46:20</t>
+        </is>
+      </c>
+      <c r="B1599" t="n">
+        <v>0.7141199707984924</v>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과학 수학 중국어 </t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>국어 영어 수학 사회 과학 역사 도덕 중국어</t>
+        </is>
+      </c>
+      <c r="E1599" t="inlineStr">
+        <is>
+          <t>시험과목만 썼군</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:46:32</t>
+        </is>
+      </c>
+      <c r="B1600" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>안녕 반가워 나는 로봇</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:46:39</t>
+        </is>
+      </c>
+      <c r="B1601" t="n">
+        <v>0.9015525579452515</v>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>은계 친구가 널 만나고 싶다고 하는데 있지</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>너 엉뚱한 친구구나 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t>그럼그럼 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:46:49</t>
+        </is>
+      </c>
+      <c r="B1602" t="n">
+        <v>0.8557130098342896</v>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>너는 왜 재미 없어??</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>과학 재미 없닥ㅎ</t>
+        </is>
+      </c>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>그럼 안 해도 돼요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:47:08</t>
+        </is>
+      </c>
+      <c r="B1603" t="n">
+        <v>0.5969859957695007</v>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>이육사의 청포도는 조국 독립의 소망과 믿음을 노래한 시</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>쌤 마지막에 쌤이 인사할때 나오는 노래 제목이 뭐에요??</t>
+        </is>
+      </c>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>반가워요^^노래는 pd님께서 넣어주시는 것이라저도 정확하게 알지 못합니다. 도움이 못되었네요ㅠㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:48:58</t>
+        </is>
+      </c>
+      <c r="B1604" t="n">
+        <v>0.5271428823471069</v>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>그런데 그 청포도를 고등학교에 가면 조금 다르게 배운답니다. 이육사의 희생이 담긴 소절이 된답니다. 5연이라는건 말이죠. 비슷한 시상을 가진 시로는 이육사의 광야가 있습니다. 나는 과학만 빼고 다 열심히 듣나봐...  아 영어도  안 듣네.. 미안해요 과학쌤.. 미안해요 영어쌤.. 근데 어처피 내가 멍청해 지는건데 왜 미안할까? 온라인 수업을 만든 성의를 무시해서? 나 말고도 360명이 더 들을건데?</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>쌤~~~이번주에는 기필코  반드시   33강부터 연속으로 수업 가능하나요?  쌤  강의가  너무 고파요~~♡</t>
+        </is>
+      </c>
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~기다리게 해서 미안합니다.이번주 안에는 33강 업데이트 될 수 있도록 최선을 다하겠습니다.고맙습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:49:32</t>
+        </is>
+      </c>
+      <c r="B1605" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>모르게써 모르겟어 모르겠어 괜챠나</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:49:45</t>
+        </is>
+      </c>
+      <c r="B1606" t="n">
+        <v>0.9266440868377686</v>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>과학이 나를 너무 아프게 해</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t>그러지 마요. 다 하다보면 늘어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:49:54</t>
+        </is>
+      </c>
+      <c r="B1607" t="n">
+        <v>0.9230139255523682</v>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>과학은 과학이다</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t>그러지 마요. 다 하다보면 늘어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:50:05</t>
+        </is>
+      </c>
+      <c r="B1608" t="n">
+        <v>0.7032110095024109</v>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>과학 전공하면 취업이 잘 되겠지?</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>과학 잘하는법</t>
+        </is>
+      </c>
+      <c r="E1608" t="inlineStr">
+        <is>
+          <t>그냥 교과서 열심히 보고 복습해요. ㅎㅎ 유튜브도 있으니 얼마나 좋아요. 복습이 진리임.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:50:43</t>
+        </is>
+      </c>
+      <c r="B1609" t="n">
+        <v>0.7644204497337341</v>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>시흥은행중학교는 내 인생에 최악의 선택</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>시흥은행중학교</t>
+        </is>
+      </c>
+      <c r="E1609" t="inlineStr">
+        <is>
+          <t>우리 학교 이름을 부르고 싶었어?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:50:58</t>
+        </is>
+      </c>
+      <c r="B1610" t="n">
+        <v>0.8753954768180847</v>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>귀엽게 깜찍하게 과학책을 불태우자</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>과학 이 우라질년아 가서 과학책이나 써</t>
+        </is>
+      </c>
+      <c r="E1610" t="inlineStr">
+        <is>
+          <t>과학챗봇인데 저런 걸 쓰니 답변을 할리가 없지.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:51:27</t>
+        </is>
+      </c>
+      <c r="B1611" t="n">
+        <v>0.7556101679801941</v>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>개인의 청렴의식은 부패를 막을 수 있는 수단</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>하품하는 것은 무의식적 반응인데 하품을 할려고해서 억지로 하는 것도 무의식적 반응인가요???</t>
+        </is>
+      </c>
+      <c r="E1611" t="inlineStr">
+        <is>
+          <t>반가워요^^하품은 몸 속의 산소가 부족할때저절로 일어나는 작용인데요만약, 하품이 하고 싶지도 않은데억지로 하품하는 모습을 흉내내고 따라 하는 것은의식적인 반응이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:52:03</t>
+        </is>
+      </c>
+      <c r="B1612" t="n">
+        <v>0.916179895401001</v>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>2학기 때 3단원 할거야?</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>2학기는 뭐뭐 배워요?</t>
+        </is>
+      </c>
+      <c r="E1612" t="inlineStr">
+        <is>
+          <t>일단 3단원부터 물리(속도, 힘, 가속도, 중력)를 배우기 시작할 거예요. ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:52:26</t>
+        </is>
+      </c>
+      <c r="B1613" t="n">
+        <v>0.6360548734664917</v>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>3단원 6단원은 빼고 가요 제발 제발 제발</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>성층권이 뭔가요</t>
+        </is>
+      </c>
+      <c r="E1613" t="inlineStr">
+        <is>
+          <t>성층권은 대류권 위, 중간권 아래에 있고 오존층 있는 게 특징.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:55:03</t>
+        </is>
+      </c>
+      <c r="B1614" t="n">
+        <v>0.7335543632507324</v>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>아 기억났다 사람+사물 최상급 서수 the only the very the same all -thing -body -one that만 쓰는 경우 근데 언제??</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>이거 만든사람 누구에요?</t>
+        </is>
+      </c>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>민경모다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:55:16</t>
+        </is>
+      </c>
+      <c r="B1615" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이거 왜 만들었을까? </t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:55:59</t>
+        </is>
+      </c>
+      <c r="B1616" t="n">
+        <v>0.6635141372680664</v>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>도대체 쪼잔하게 s 가지고 내는 문제는 좀 그렇다... 영어 문제 극도로 쪼잔함 누가 가서 좀 말려봐요</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>와우 지랄을한다</t>
+        </is>
+      </c>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>과학챗봇인데 저런 걸 쓰니 답변을 할리가 없지.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:56:35</t>
+        </is>
+      </c>
+      <c r="B1617" t="n">
+        <v>0.5301357507705688</v>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>솔직히 좀 너무하잖아 that이건 what이건 완전절이건 불완전절이건 어처피 쓸모없는 한국식 영어 배우기 싫다</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>선생님 강의에서 자막이 없나요?</t>
+        </is>
+      </c>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>반가워요^^뉴런과학3강의는 현재 동영상 강의가 제작되고 있는 상황이라서 자막까지는 제작이 되어 있지 않았습니다.전체 50강의 강의가 모두 제작 완료되면자막도 제작될 예정입니다.참고하세요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:57:01</t>
+        </is>
+      </c>
+      <c r="B1618" t="n">
+        <v>0.5029220581054688</v>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">생각해 보니까 과학은 참 편하네 그냥 실험하고 발견하고 발표하고 </t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>기온 대신 온도 라고 써도 되나요?</t>
+        </is>
+      </c>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>네. 괜찮아요. 기온이나 온도나. ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:57:24</t>
+        </is>
+      </c>
+      <c r="B1619" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>괜찮아? 아니요</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:58:47</t>
+        </is>
+      </c>
+      <c r="B1620" t="n">
+        <v>0.6812252998352051</v>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">채귀내T 이은정T 신명기T 김민배T 문혜옥T </t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>국회 법원 정부</t>
+        </is>
+      </c>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>사회는 사회샘께</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>2020-07-23 16:58:53</t>
+        </is>
+      </c>
+      <c r="B1621" t="n">
+        <v>0.9082541465759277</v>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>근데 민경모가 누구야?</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>민경모 선생님</t>
+        </is>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>누가 내 이름을 불렀는가</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:00:23</t>
+        </is>
+      </c>
+      <c r="B1622" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:00:56</t>
+        </is>
+      </c>
+      <c r="B1623" t="n">
+        <v>0.5012648701667786</v>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>아니야 미ㅣ안해요</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>발열 반응이 일어날 때, 에너지가 방출된다고 하셨는데 혹시 그러면 에너지를 방출하는 그 물체 자체는 온도가 감소하게 되나요? 반대로 흡열 반응도 마찬가지로요. 너무 궁금합니다!</t>
+        </is>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>반가워요^^사실, 발열 반응이나 흡열 반응은 모두화학 반응에서 반응 물질 사이에서 나타나는 에너지의 방출이나 흡수랍니다.따라서 주변의 온도는 달라지게 하지만 자신의 온도는 변화가 없답니다.다만, 반응의 종류에 따라서반응 물이 가진 에너지를 내보내면서에너지준위가 낮아지는 발열 반응이라면반응물의 온도가 낮아질 수는 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:01:09</t>
+        </is>
+      </c>
+      <c r="B1624" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>아 배고파 맛있는거 먹고 싶어</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:01:45</t>
+        </is>
+      </c>
+      <c r="B1625" t="n">
+        <v>0.2327100932598114</v>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>나는 체코에서 온 거 있 찌</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>선생님~단열 팽창으로 인한 기온 하강으로 이슬점에 도달하는 것인가요 아님 공기가 상승함으로써 위로 갈수록 기온이 떨어져서 이슬점에 도달하는 것인가요?</t>
+        </is>
+      </c>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>반가워요^^ 우리 친구가 한 질문은 두개가 같은 내용입니다.즉, 두 내용을 합치면 되는데요공기가 상승하게 되면서공기 덩어리가 단열 팽창하게 되고이때, 온도가 내려가다가 이슬점에 도달하면 수증기가 응결하여 구름이 생성되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:01:51</t>
+        </is>
+      </c>
+      <c r="B1626" t="n">
+        <v>0.2481284290552139</v>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>ㅐ안녕 반강너</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>선생님! 벽을 밀었을때 벽이 움직이지 않고 그 자리에서 부서지면 그것도 과학에서의 일 인가요?</t>
+        </is>
+      </c>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>반가워요^^부서지는 것도 일은 아닙니다.힘을 준 방향으로 이동한 것이 아니니까요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:02:08</t>
+        </is>
+      </c>
+      <c r="B1627" t="n">
+        <v>0.6859737038612366</v>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>너 추가 근무수당 같은거 받니?</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>3단원 대비문제 프린트한거 12번이 강의에 나와있지않고 강의에는 프린트에 없는 9번이 나와있는데 프린트속 12번의풀이와 답을 알수있을까요 ?</t>
+        </is>
+      </c>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>앗, 그러네요^^알려주어서 고마워요~일단. 3단원 시험 대비 문제에 나온 12번 문제는 강의 속의 풀이와 같이 수정해두었습니다.그리고, 처음에 넣어두었던 12번 문제는실전책에서 40쪽 8번 문제인데요이곳에서 풀이해드리자면추가 높이 있을 수록 떨어졌을 때, 나무도막을 더 많이 밀어낸답니다.따라서, 추의 높이(h)가 일정하게 증가할 때나무 도막의 이동거리(s)는 점점 일정하게 증가하므로정답은 1번이 되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:02:19</t>
+        </is>
+      </c>
+      <c r="B1628" t="n">
+        <v>0.6214326620101929</v>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>니네 주인이 월급정도는 주는거지? 안그러면 진짜 너무한다</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>강의는 일주일에 몇개 정도 업로드 되나요?</t>
+        </is>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>반가워요^^매주 2강 정도 업데이트 예정이구요'오늘은 최대한 많이 7개 강의를 업데이트 했습니다.열공 열공 화이팅!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:02:46</t>
+        </is>
+      </c>
+      <c r="B1629" t="n">
+        <v>0.6950805187225342</v>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>ㄴㅁㅇ람ㄴㅇ라ㅓㅁㄴ아리</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>안녕하세요ㄴ 이 맞는 이유가 뭔가요?그리고 ㄷ 은 왜 틀린건가요?</t>
+        </is>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>반가워요^^ㄴ의 경우는 암모니아 분자를 구성하는 질소와 산소의 원자 의 개수비이니까요암모니아는 NH3로 질소 원자 1개와 수소 원자 3개가 결합해서 1개의 분자가 만들어 진답니다.따라서 질소:수소=1:3으로 구성된답니다. 따라서 옳은 내용입니다.ㄷ. 질소의 질량이 14인 상태에서는 수소 3과만 결합하므로수소의 질량이 6으로 늘어나도 질소의 질량이 그대로라면결합한 수소의 질량은 3밖에는 안되니까요생성되는 암모니아의 질량은 그대로입니다. 따라서 ㄷ은 옳지 않답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:02:52</t>
+        </is>
+      </c>
+      <c r="B1630" t="n">
+        <v>0.5565003752708435</v>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇ람ㄴ어뢰마ㅓㄴㅇㄹ'</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>선생님 ㄹ과 ㅁ 어떻게 수소와 0.1인가요? 답지를 보아도 이해가 안되네요ㅜ</t>
+        </is>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>반가워요^^문제 속에 힌트가 있어요수소 0.3과 산소 2.4가 반응해서 남는 기체가 없었다는 것은수소 0.3과 산소 2.4가 완전히 반응했다는 것으로수소:산소=0.3:2.4=1:8의 질량비로 결합하는 것을 알 수 있어요그런데, 수소 0.2와 산소 0.8을 넣으면산소는 0.8이 다 반응하지만수소는 0.2중에서 0.1만 반응해서수소:산소=0.1:0.8=1:8로 반응하게 된답니다.따라서 남는 기체는 수소 0.1입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:02:57</t>
+        </is>
+      </c>
+      <c r="B1631" t="n">
+        <v>0.5981268882751465</v>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>인코딩이 생각보다 느리구나</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>﻿선생님, 교재 23쪽에 2번이요. 보기 4번이 왜 틀렸는지 궁금합니다!</t>
+        </is>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>반가워요^^ 똑똑한 우리 친구~맞습니다.우리 친구의 말처럼 나무와 결합한 산소의 질량은 연소 후 발생한 이산화탄소와 수증기의 질량의 합보다 가볍다라고 하거나나무와 나무와 결합한 산소의 질량은 연소 후 발생한 재와 이산화탄소와 수증기의 질량의 합과 같다라고 표현하면 옳은 보기가 된답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:03:16</t>
+        </is>
+      </c>
+      <c r="B1632" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>안녕 반가워</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:03:29</t>
+        </is>
+      </c>
+      <c r="B1633" t="n">
+        <v>0.9008681774139404</v>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>친구랑도 이렇게 연락하지는 않는데</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>너 엉뚱한 친구구나 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>그럼그럼 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:03:39</t>
+        </is>
+      </c>
+      <c r="B1634" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ </t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:03:42</t>
+        </is>
+      </c>
+      <c r="B1635" t="n">
+        <v>0.2590823173522949</v>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>이거 익명이야?</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>선생님 표적세포와 표적기관이 분비세포와 신경으로 연결돼있어요??</t>
+        </is>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>반가워요^^표적기관과 표적 세포는 혈관이 연결되어 있어서호르몬이 혈액 속으로 이동하다가 표적 기관과 표적 세포를 만난답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:03:46</t>
+        </is>
+      </c>
+      <c r="B1636" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>크크ㅡ크크ㅡ</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:03:57</t>
+        </is>
+      </c>
+      <c r="B1637" t="n">
+        <v>0.9195113182067871</v>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>익명 아니면 학교 못다니겠다</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>학교 가기 싫어</t>
+        </is>
+      </c>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>다음주에 등교주…</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:04:07</t>
+        </is>
+      </c>
+      <c r="B1638" t="n">
+        <v>0.6979871988296509</v>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>미안해ㅐ 로봇아</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:04:17</t>
+        </is>
+      </c>
+      <c r="B1639" t="n">
+        <v>0.6191660165786743</v>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>과학 수업 하나도 안들어서 미안해</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>선생님 수업 내용과는 관련이없지만 계획을짜다보니 궁금해져 올립니다혹시 강의가 올라오는 주기가 어떻게 될까요?</t>
+        </is>
+      </c>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>반가워요^^현재 강의는 매주 제작중에 있답니다.따라서 매주 2~3강 정도 업데이트 예정이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:04:42</t>
+        </is>
+      </c>
+      <c r="B1640" t="n">
+        <v>0.745173454284668</v>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>수업 영상 하나 만드는데 시간 얼마나 걸려??</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>선생님^^안녕하세여!제가 강의가 올라오는데 시간이 좀 걸려서 저도 교재를 보고 오로라에 관한 영상을 보았는데요 본 영상이 같아서 신기하더라구요 ㅎㅎ9강 영상수업 너무너무 좋은거같아요 앞으로 조금씩 넣어주세요! ㅎㅎ감사합니다 ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>와와~~ 정말로요(^^) 진짜 신기하네요`네, 앞으로도 좋은 영상 조심씩 올려드릴께요고맙습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:04:55</t>
+        </is>
+      </c>
+      <c r="B1641" t="n">
+        <v>0.7448121309280396</v>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>비상 교과서 너무 핑크핑크해</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>주관식 문제 교과서에 나온문제를 바탕으로나오나요?</t>
+        </is>
+      </c>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>네. 당연하죠. 교과서는 기본으로 알아야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:05:09</t>
+        </is>
+      </c>
+      <c r="B1642" t="n">
+        <v>0.6821340918540955</v>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>작년 시험 문제 솔직히 쉬웠죠</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>시험 어렵나요</t>
+        </is>
+      </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>시험이야 뭐 내던 대로 냈죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:05:23</t>
+        </is>
+      </c>
+      <c r="B1643" t="n">
+        <v>0.5481249690055847</v>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>교과서에 답이 다 있어... 틀린 사람 없을거 같아 ㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>이거 만든사람 누구에요?</t>
+        </is>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>민경모다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:05:33</t>
+        </is>
+      </c>
+      <c r="B1644" t="n">
+        <v>0.890608549118042</v>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>이번 시험 문제도 부디 쉽게 내셨길</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>이번 시험 어렵나요?</t>
+        </is>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>뭐 항상 내던 대로 냈어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:05:44</t>
+        </is>
+      </c>
+      <c r="B1645" t="n">
+        <v>0.5739595293998718</v>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>하루만 공부할꺼라서 부디 쉽게 내세요</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>공부 잘 안 돼요ㅠ</t>
+        </is>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>조금 쉬었다 하세요 ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:05:52</t>
+        </is>
+      </c>
+      <c r="B1646" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>아 이미 내셨네</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:05:56</t>
+        </is>
+      </c>
+      <c r="B1647" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">그럼 다시 쉽게 고치세요 </t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:07:11</t>
+        </is>
+      </c>
+      <c r="B1648" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>잘있어 로봇아</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:26:46</t>
+        </is>
+      </c>
+      <c r="B1649" t="n">
+        <v>0.9189071655273438</v>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>서울대학교 물리교육과</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>서울대학교 물리교육과</t>
+        </is>
+      </c>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>안 그래도 오늘 다녀옴</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:27:17</t>
+        </is>
+      </c>
+      <c r="B1650" t="n">
+        <v>0.5179116725921631</v>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>진짜 서울대 졸업생이야? 그 사진 진짜야?</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>고생이 많다</t>
+        </is>
+      </c>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>그래. 내가 주말을 갈아 넣었다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:27:51</t>
+        </is>
+      </c>
+      <c r="B1651" t="n">
+        <v>0.8965910673141479</v>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과학 시험 망해라 </t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>과학시험 어렵나요?</t>
+        </is>
+      </c>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>뭐 항상 내던 대로 냈어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:28:02</t>
+        </is>
+      </c>
+      <c r="B1652" t="n">
+        <v>0.9262414574623108</v>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>과학 28점 신화 두둥!</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>그러지 마요. 다 하다보면 늘어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:28:17</t>
+        </is>
+      </c>
+      <c r="B1653" t="n">
+        <v>0.6134504079818726</v>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>과학 E받았어...ㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>안녕하세요 선생님 역학적 에너지 전환에서 전환의 의미에대하여 더 자세히 여쭤보고싶은것이있어 질문을 드립니다,위E&gt;운동E로 전환이 될때  에너지로 전환이되는것(위E가 10J이면 전환을 했을때 운동E또한10J) 인가요?아니면 그냥 위치에너지가 힘과 상관없이 그냥  운동에너지로 가는것인가요?</t>
+        </is>
+      </c>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.공기의 저항이나 마찰이 없다면높은 곳에서 가지는 위치에너지는기준면에 닿을 때 모두 운동에너지로 전환이 된답니다.^^우리 친구의 말처럼위치에너지가 10J이였다면기준면에서의 운동에너지도 10J로 바뀐답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:45:06</t>
+        </is>
+      </c>
+      <c r="B1654" t="n">
+        <v>0.6976801156997681</v>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>한랭전선의 특징은 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>한랭 전선</t>
+        </is>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>찬 공기가 따뜻한 공기쪽으로 이동하여 따뜻한 공기 아래로 파고들면서 만들어지는 전선이에요. 그래서 전선면의 기울기가 급하고 적운형 구름이 만들어지다보니 좁은 지역에서 소나기성 비가 내려요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>2020-07-23 17:45:36</t>
+        </is>
+      </c>
+      <c r="B1655" t="n">
+        <v>0.7500157952308655</v>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>온대저기압 가운데</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>온대저기압으로부터 멀어지면</t>
+        </is>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>저기압 중심부에서 기압 제일 낮고, 멀어질수록 기압이 높아지겠죠?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>2020-07-23 19:58:12</t>
+        </is>
+      </c>
+      <c r="B1656" t="n">
+        <v>0.9257993698120117</v>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>안녕 로봇아 반가워</t>
+        </is>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>반가워요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>2020-07-23 19:58:45</t>
+        </is>
+      </c>
+      <c r="B1657" t="n">
+        <v>0.6048427820205688</v>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>있자나 지금이 무려 5시나 되었지 뭐야...</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>이과 망해아</t>
+        </is>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>문과 가면 먹고 살기 힘들..</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>2020-07-23 19:59:12</t>
+        </is>
+      </c>
+      <c r="B1658" t="n">
+        <v>0.6846632957458496</v>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>괜찮아 통합한다니까 반반 하려고..</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>저는 행복해요</t>
+        </is>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>그런 말을 하니 고맙네요. ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>2020-07-23 19:59:34</t>
+        </is>
+      </c>
+      <c r="B1659" t="n">
+        <v>0.911169171333313</v>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>행복해서 좋겠다 나랑 바꾸자..</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>저는 행복해요</t>
+        </is>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>그런 말을 하니 고맙네요. ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>2020-07-23 19:59:47</t>
+        </is>
+      </c>
+      <c r="B1660" t="n">
+        <v>0.911169171333313</v>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>너는 행복하니..</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>저는 행복해요</t>
+        </is>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>그런 말을 하니 고맙네요. ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:00:29</t>
+        </is>
+      </c>
+      <c r="B1661" t="n">
+        <v>0.701061487197876</v>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>나는 왜 행복하지 못할까요.? 과학적으로 설명할 수 없겠네 에이 과학 별거 없네</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>과학 잘하는법</t>
+        </is>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>그냥 교과서 열심히 보고 복습해요. ㅎㅎ 유튜브도 있으니 얼마나 좋아요. 복습이 진리임.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:00:46</t>
+        </is>
+      </c>
+      <c r="B1662" t="n">
+        <v>0.9274495840072632</v>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과학이 너무 어려워요 </t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>과학을 그만두자</t>
+        </is>
+      </c>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>그러지 마요. 다 하다보면 늘어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:01:06</t>
+        </is>
+      </c>
+      <c r="B1663" t="n">
+        <v>0.9210551977157593</v>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>그리고 나는 정말 못된 사람입니다</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>이거 만든사람 누구에요?</t>
+        </is>
+      </c>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>민경모다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:01:37</t>
+        </is>
+      </c>
+      <c r="B1664" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">안녕 반가워 </t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:01:53</t>
+        </is>
+      </c>
+      <c r="B1665" t="n">
+        <v>0.9044410586357117</v>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>과학 시험이 언제일까요</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>과학시험 어렵나요?</t>
+        </is>
+      </c>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>뭐 항상 내던 대로 냈어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:02:05</t>
+        </is>
+      </c>
+      <c r="B1666" t="n">
+        <v>0.7118241190910339</v>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>그럼 영어 시험은 언제일까요</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>영어를 하자</t>
+        </is>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>영어공부 중요함</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:02:16</t>
+        </is>
+      </c>
+      <c r="B1667" t="n">
+        <v>0.8611473441123962</v>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">국어 시험은 언제일까요 </t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>저희 시험기간이 언제죠</t>
+        </is>
+      </c>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>7/28, 29, 30. 과학은 28일 2교시</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:02:25</t>
+        </is>
+      </c>
+      <c r="B1668" t="n">
+        <v>0.9114570021629333</v>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">사회 시험은 언제일까요 </t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>사회시험</t>
+        </is>
+      </c>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>사회는 사회샘께</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:02:36</t>
+        </is>
+      </c>
+      <c r="B1669" t="n">
+        <v>0.6931983232498169</v>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">중국어 시험은 언제일까요 </t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>과학 시험 안 볼레</t>
+        </is>
+      </c>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>그러지 마요 ㅠㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:02:50</t>
+        </is>
+      </c>
+      <c r="B1670" t="n">
+        <v>0.7258643507957458</v>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">도덕 시험은 언제일까요 </t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>시험서술형</t>
+        </is>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>선택형 21개, 논술형 4개</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:03:13</t>
+        </is>
+      </c>
+      <c r="B1671" t="n">
+        <v>0.8945996165275574</v>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>과학 시험 안 보는 법은?</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>과학 시험 1번으로 찍어야지</t>
+        </is>
+      </c>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>찍을 땐 한 번호로!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:03:32</t>
+        </is>
+      </c>
+      <c r="B1672" t="n">
+        <v>0.7333182096481323</v>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>팔 절단되면 시험 안 봐도 돼?</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>시험 망할 것 같아서 불안해요</t>
+        </is>
+      </c>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>너무 불안해하지 마요… 아직 오지 않은 미래는 불안해할 필요가 없음.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:03:51</t>
+        </is>
+      </c>
+      <c r="B1673" t="n">
+        <v>0.6263891458511353</v>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>니가 시험 대신 봐주라</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>기온 대신 온도 라고 써도 되나요?</t>
+        </is>
+      </c>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>네. 괜찮아요. 기온이나 온도나. ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:04:19</t>
+        </is>
+      </c>
+      <c r="B1674" t="n">
+        <v>0.6011473536491394</v>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>시험이 필요해? 정말로?</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>1-2단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:04:48</t>
+        </is>
+      </c>
+      <c r="B1675" t="n">
+        <v>0.8310031890869141</v>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>이미 성공한 사람은 말이 쉽구나</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>이거 만든사람 누구에요?</t>
+        </is>
+      </c>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>민경모다</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:04:56</t>
+        </is>
+      </c>
+      <c r="B1676" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>그래 너 잘났다 부럽네</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:06:50</t>
+        </is>
+      </c>
+      <c r="B1677" t="n">
+        <v>0.4969594478607178</v>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>너는 공부 왜 안해 그냥 입력하는대로 다 니 지식이구나.. 나는 이렇게 많은 내용을 다 기억할 수 있는 메모리를 탑재한 뇌를 가지고 있지 않아서..</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>와와~~ 고맙습니다.^^우리 친구의 글을 읽고 있으니 쌤도 막~ 힘이 나고 기뻐요.앞으로 더욱더 좋은 강의 많이 만들어서우리 친구가 중3과학은 더 잘 할 수 있도록 최선을 다할께요~ 제가 포인트로 짚어준 내용이 학교에서도 문제로 나왔다니완전 기쁘네요(^_____^)앞으로도 쭈~욱~~ 포인트 잘 찾아서 알려줄께요^^</t>
+        </is>
+      </c>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>선생님, 안녕하세요~^^강의를 듣고 궁금한 점이 생겨 질문합니다:) 내신기출문제_30쪽_03번보기 ⑤번을 바르게 고쳐보았는데요~!~!⑤ 물 분자의 개수가 많아지면 물 분자를 구성하는 원소의 개수비가 변한다.☞ 물 분자의 개수가 많아지면 물 분자를 구성하는 원소의 개수비가 변하지 않는다. 제가 고친 내용이 맞나요...? P.S 이번 1단원은 법칙이 정말 많은 것 같네요...      질량보존법칙, 일정성분비법칙, 또 이제 배울 기체반응법칙까지.......      하지만~!~! 선생님께서 재미있고 이해가 쏙쏙! 잘 되게 설명해주시니까 문제 없어요!!!      강의 열심히, 꼼꼼하게 들어서 완강하겠습니다~~~:)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:07:38</t>
+        </is>
+      </c>
+      <c r="B1678" t="n">
+        <v>0.4986575543880463</v>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>ㅇ? 질문하고 답변이 반대로 되어있는데.? 너 많이 힘들구나.. 그래 쉬어요</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>: 과학시험 어렵나요?#####################################답변: 뭐 항상 내던 대로 냈어요</t>
+        </is>
+      </c>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>잘 알고 있구만 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:08:11</t>
+        </is>
+      </c>
+      <c r="B1679" t="n">
+        <v>0.2026657313108444</v>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>너 꼭 야근수당 받아 챙겨</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>선생님 플라스틱관에 에나멜선을 감아 코일를 만들고 그 플라스틱 관안에 자석을 넣고 양쪽으로 흔드는 실험있잖아요! 그 실험에서 플라스틱관을 흔드는동안 다이오드의 불이 꺼졌다 켜졌다를 반복한다는데 그렇게 꺼졌다 켜졌다하는 이유가 뭐에요?</t>
+        </is>
+      </c>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>반가워요^^ 열심히 공부하는 우리 친구~좋은 질문입니다.불이 켜진다는 것은 전류가 흐른 다는 것이구요불이 꺼진다는 것은 전류가 흐르지 않는 것이랍니다.그런데 유도전류는움직일때만 생겨나므로즉, 자석이 들어갈때와 나갈때의 움직임이 있을 때에만 유도 전류가 발생하므로이때는 불이 켜지구요반면에 자석의 방향이 바뀌기 위해서 잠시 멈추는 순간에는 유도 전류가 흐르지않으므로불이 꺼지는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:12:34</t>
+        </is>
+      </c>
+      <c r="B1680" t="n">
+        <v>0.6363397836685181</v>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>온대저기압이 이동하는 까닭</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>온대저기압으로부터 멀어지면</t>
+        </is>
+      </c>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>저기압 중심부에서 기압 제일 낮고, 멀어질수록 기압이 높아지겠죠?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:13:06</t>
+        </is>
+      </c>
+      <c r="B1681" t="n">
+        <v>0.5179116725921631</v>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>진짜 서울대 졸업생이야? 그 사진 진짜야?</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>고생이 많다</t>
+        </is>
+      </c>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>그래. 내가 주말을 갈아 넣었다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:13:25</t>
+        </is>
+      </c>
+      <c r="B1682" t="n">
+        <v>0.6753333806991577</v>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>온대저기압의 중심부가 동쪽으로 이동하는 까닭</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>선생님 온대 저기압이 서쪽에서 동쪽으로 이동하는 이유가 단지 편서풍 떄문인가요?편서풍의 힘으로 전선을 밀어낼 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 네~~ 편서풍이 주된 원인입니다편서풍은 작은 바람이 아니구요일년 내내 같은 방향으로 부는대기 대순환에 의한 바람이라서 그 영향력이 크답니다.그리고, 지속적이구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:13:34</t>
+        </is>
+      </c>
+      <c r="B1683" t="n">
+        <v>0.9203860759735107</v>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>서울대학교 물리교육과</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>서울대학교 물리교육과</t>
+        </is>
+      </c>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>안 그래도 오늘 다녀옴</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>2020-07-23 20:13:57</t>
+        </is>
+      </c>
+      <c r="B1684" t="n">
+        <v>0.5179116725921631</v>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>진짜 서울대 졸업생이야? 그 사진 진짜야?</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>고생이 많다</t>
+        </is>
+      </c>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>그래. 내가 주말을 갈아 넣었다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>2020-07-23 22:07:33</t>
+        </is>
+      </c>
+      <c r="B1685" t="n">
+        <v>0.7795103788375854</v>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>고기압 시계방향</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>안녕하세요 선생님! 고기압과 저기압에서 북반구 기준으로 고기압은 시계방향으로 불어나가고저기압은 시계반대 방향으로 불어 들어가잖아요 그러면 남반구에서도 똑같이 되는건가요 아니면 반대로 되는건가요?</t>
+        </is>
+      </c>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>반가워요^^ 똑똑한 우리 친구정말 좋은 질문입니다.북반구와는 달리남반구에서는 전향력의 방향이 다르기 때문에휘어지는 모양 자체가 달라지면서고기압에서 시계 반대 방향으로 불어 나가구요저기압에서 시계 방향으로 불어들어온답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>2020-07-23 23:59:19</t>
+        </is>
+      </c>
+      <c r="B1686" t="n">
+        <v>0.7036768198013306</v>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>한랭전선에서 생기는 구름과 그 특징</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>한랭전선에서는 구름이 왜 한랭전선의 왼쪽에 생기나요? 위치를 어떻게 아는지 궁금해요</t>
+        </is>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>반가워요^^'좋은 질문입니다.한랭 전선의 경우는찬 공기가 따뜻한 공기 쪽으로 이동하면서찬 공기가 따뜻한 공기를 파고 들때따뜻한 공기를 위쪽으로 상승 시키니까요한랭 전선의 뒤쪽으로 구름이 생기고 따라서 한랭 전선의 뒤쪽에서 비가 내린답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>2020-07-24 00:22:18</t>
+        </is>
+      </c>
+      <c r="B1687" t="n">
+        <v>0.7200319766998291</v>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>한랭전선과 온난전선의 차이</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>한랭 전선</t>
+        </is>
+      </c>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>찬 공기가 따뜻한 공기쪽으로 이동하여 따뜻한 공기 아래로 파고들면서 만들어지는 전선이에요. 그래서 전선면의 기울기가 급하고 적운형 구름이 만들어지다보니 좁은 지역에서 소나기성 비가 내려요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>2020-07-24 01:03:41</t>
+        </is>
+      </c>
+      <c r="B1688" t="n">
+        <v>0.9118244647979736</v>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>한랭전선이란?</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>한랭 전선</t>
+        </is>
+      </c>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>찬 공기가 따뜻한 공기쪽으로 이동하여 따뜻한 공기 아래로 파고들면서 만들어지는 전선이에요. 그래서 전선면의 기울기가 급하고 적운형 구름이 만들어지다보니 좁은 지역에서 소나기성 비가 내려요.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2116"/>
+  <dimension ref="A1:E2143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -53041,6 +53041,681 @@
         </is>
       </c>
     </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>2020-07-25 11:30:12</t>
+        </is>
+      </c>
+      <c r="B2117" t="n">
+        <v>0.7672034502029419</v>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>시험문제 책에서만 나오나요</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>시험문제 몇문제</t>
+        </is>
+      </c>
+      <c r="E2117" t="inlineStr">
+        <is>
+          <t>선택형 21개, 논술형 4개</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>2020-07-25 11:30:21</t>
+        </is>
+      </c>
+      <c r="B2118" t="n">
+        <v>0.684820294380188</v>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>책에서만 나와요?</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>실전책은 어떨 때 풀어야 하나요?</t>
+        </is>
+      </c>
+      <c r="E2118" t="inlineStr">
+        <is>
+          <t>반가워요^^시험을 대비해서총정리하고 문제풀어볼때 이용하시면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>2020-07-25 11:30:36</t>
+        </is>
+      </c>
+      <c r="B2119" t="n">
+        <v>0.5786254405975342</v>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>학습지보다 어려워요?</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>등속운동을 할때 물체의 힘은 가해지는것이 아닌가요?</t>
+        </is>
+      </c>
+      <c r="E2119" t="inlineStr">
+        <is>
+          <t>반가워요^^똑똑한 우리 친구~ 맞아요우리 친구의 말처럼마찰이 없은 상태에서는 등속 운동하는 물체에는 작용하는 힘이 0입니다하지만. 마찰이 있는 상태에서는등속 운동을 유지 하기 위해서는계속해서 바닥과의 마찰력과 같은 크기의 힘을 계속 주어야 등속 운동이 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>2020-07-25 11:31:11</t>
+        </is>
+      </c>
+      <c r="B2120" t="n">
+        <v>0.8372540473937988</v>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>질문이 너무 짧아요</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>무슨질문하냐</t>
+        </is>
+      </c>
+      <c r="E2120" t="inlineStr">
+        <is>
+          <t>공부를 하면 질문할 게 생기죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>2020-07-25 11:31:28</t>
+        </is>
+      </c>
+      <c r="B2121" t="n">
+        <v>0.8638319969177246</v>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>화학변화 좋아요</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>화학변화</t>
+        </is>
+      </c>
+      <c r="E2121" t="inlineStr">
+        <is>
+          <t>물리변화와 화학변화 구분은 하셔야겠죠. 책 13쪽 참고하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>2020-07-25 11:31:51</t>
+        </is>
+      </c>
+      <c r="B2122" t="n">
+        <v>0.7385743856430054</v>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>키케케ㅔ케켘</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>키가 작은 사람과 큰 사람이 있으면 키가 큰 사람이 세포수가 더 많다는 것이죠?</t>
+        </is>
+      </c>
+      <c r="E2122" t="inlineStr">
+        <is>
+          <t>반가워요^^네 아무래도 몸집이 큰 사람이 세포수가 더 많답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>2020-07-25 11:45:59</t>
+        </is>
+      </c>
+      <c r="B2123" t="n">
+        <v>0.7376413345336914</v>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>온대저기압 기압차이</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>온대저기압으로부터 멀어지면</t>
+        </is>
+      </c>
+      <c r="E2123" t="inlineStr">
+        <is>
+          <t>저기압 중심부에서 기압 제일 낮고, 멀어질수록 기압이 높아지겠죠?</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>2020-07-25 12:12:28</t>
+        </is>
+      </c>
+      <c r="B2124" t="n">
+        <v>0.778595507144928</v>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>묽은염산과 아연반응 할 때 생기는 기체</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>선생님, 1단원대비 문제를 푸는데 7번문제에서아연과 묽은염산을 반응 시키는 문제가 나와요. 이 실험에서 아연과 묽은염산이 열린 용기에서 반응하면 어떻게 되는지가 궁금해요!</t>
+        </is>
+      </c>
+      <c r="E2124" t="inlineStr">
+        <is>
+          <t>반가워요^^실전책 10쪽 4,5번에 이 문제가 나오는데요묽은 염산에 아연을 넣으면기체가 발생합니다.이때, 닫힌 용기라면 용기속에 기체가 들어 있으므로반응 전과 후의 질량이 똑같이 나옵니다.하지만. 우리 친구의 질문 처럼열린 용기에서 실험한다면기체가 날아가버리면서반응 후에 질량이 적게 측정됩니다.하지만. 날아가버린 기체의 질량까지 포함한다면반응 전과 반응 후의 질량은 여전히 보존되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>2020-07-25 13:19:30</t>
+        </is>
+      </c>
+      <c r="B2125" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>하하하ㅏㅎ하</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E2125" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>2020-07-25 13:19:46</t>
+        </is>
+      </c>
+      <c r="B2126" t="n">
+        <v>0.2436776012182236</v>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>3단원 어렵나요</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>선생님 안녕하세요갑자기 오리엔테이션 강의가 나와서 그런데요...^^혹시 아예 끝난건가요??아 그리고 몸 조심하세요^^</t>
+        </is>
+      </c>
+      <c r="E2126" t="inlineStr">
+        <is>
+          <t>ㅎㅎ 아닙니다.현재 강의가 부지런히 제작 중에 있습니다.빠르게 업데이트 될 수 있도록 최선을 다하겠습니다.감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>2020-07-25 13:19:59</t>
+        </is>
+      </c>
+      <c r="B2127" t="n">
+        <v>0.6172486543655396</v>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>기단이 뭔가요</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>선생님 오호츠크해 기단은 한랭 다습하고 북태평양 기단은 고온 다습한데 이 두개의 기단이 만나면 구름이 생성되고 구름의 성질과 연관 지을 수 있겠네요?</t>
+        </is>
+      </c>
+      <c r="E2127" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.거기다가 두 기단은 모두 습한 기단이라서수증기가 풍부하므로 구름이 더 잘 생긴답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>2020-07-25 13:20:12</t>
+        </is>
+      </c>
+      <c r="B2128" t="n">
+        <v>0.7701072692871094</v>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>일정 성분비법칙과 기체반응법칙의 차이점과 공통점이 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>일정성분비법칙과 기체반응법칙의 차이점</t>
+        </is>
+      </c>
+      <c r="E2128" t="inlineStr">
+        <is>
+          <t>두 법칙은 별개의 법칙이에요. 따로따로임. 다만, 화학 반응식에 참여한 물질이 모두 기체라면 각 기체 화합물 안에서는 일정성분비법칙이 모두 성립하죠. 기체반응법칙은 일정한 온도와 압력에서 기체가 반응하여 새로운 기체를 생성할 때 각 기체의 부피비가 간단한 정수비가 성립한다는 법칙이에요. 이 때 계수비 = 부피비 = 입자수비임.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:12:56</t>
+        </is>
+      </c>
+      <c r="B2129" t="n">
+        <v>0.6762329339981079</v>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>소금물도 질량 성분비 법칙</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙</t>
+        </is>
+      </c>
+      <c r="E2129" t="inlineStr">
+        <is>
+          <t>화합물을 구성하는 성분 원소 사이에는 일정한 질량비가 성립한다는 법칙이에요. 책 30쪽부터 꼭 읽어봐요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:13:15</t>
+        </is>
+      </c>
+      <c r="B2130" t="n">
+        <v>0.90268474817276</v>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>질량 성분비 법칙이 성립하는 반응</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>화학반응에서 일정성분비법칙은 성립하지않나요?</t>
+        </is>
+      </c>
+      <c r="E2130" t="inlineStr">
+        <is>
+          <t>일정 성분비 법칙은 화학 반응식 전체에서 보는 게 아니라 이미 만들어진 화합물 안에서 화합물을 구성하는 원소의 질량비가 딱 정해져 있다는 법칙이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:18:01</t>
+        </is>
+      </c>
+      <c r="B2131" t="n">
+        <v>0.7390925288200378</v>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>닫힌 공간에서 강철솜의 연소</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>나무는 연소할 때 강철솜처럼 산소와 결합하지는 않은 건가요??</t>
+        </is>
+      </c>
+      <c r="E2131" t="inlineStr">
+        <is>
+          <t>반가워요^^좋은 질문입니다.강철솜은 연소할때 산소가 철에 달라붙습니다.하지만 나무는 연소할 때 나무의 성분 중에서 탄소는 산소와 결합하여 이산화 탄소가 되구요수소는 산소와 결합해서 수증기가 되어 날아가버린답니다.즉, 나무 자체에 달라붙지 않고, 나무의 성분이 나뉘어서 산소와 결합하고, 이때, 각각 기체가 생성되는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:18:30</t>
+        </is>
+      </c>
+      <c r="B2132" t="n">
+        <v>0.8337811827659607</v>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>강철솜 연소의 총 질량</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>강철솜의 연소</t>
+        </is>
+      </c>
+      <c r="E2132" t="inlineStr">
+        <is>
+          <t>철이 산소와 결합하기를 좋아해요. 공기 중의 수많은 기체 중에 산소와 결합해서 산화철이 되면 질량이 증가하죠. 그래도 전체적으로는 질량보존법칙이 성립해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:44:42</t>
+        </is>
+      </c>
+      <c r="B2133" t="n">
+        <v>0.7480271458625793</v>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>(테스트) 한랭 전선과 온난 전선 차이</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>한랭전선과 온난전선의 차이</t>
+        </is>
+      </c>
+      <c r="E2133" t="inlineStr">
+        <is>
+          <t>한랭전선은 찬 공기가 따뜻한 공기쪽으로 이동하여 따뜻한 공기 아래로 파고들면서 만들어지는 전선이에요. 그래서 전선면의 기울기가 급하고 적운형 구름이 만들어지다보니 좁은 지역에서 소나기성 비가 내려요. 온난전선은 따뜻한 공기가 찬 공기쪽으로 이동하여 찬 공기 위로 올라가면서 만들어지는 전선이에요. 그래서 전선면의 기울기가 완만하고 층운형 구름이 만들어지다보니 넓은 지역에서 지속적인 비가 내려요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:44:52</t>
+        </is>
+      </c>
+      <c r="B2134" t="n">
+        <v>0.8015360832214355</v>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>(테스트) 한랭전선 온난전선</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>한랭 전선</t>
+        </is>
+      </c>
+      <c r="E2134" t="inlineStr">
+        <is>
+          <t>찬 공기가 따뜻한 공기쪽으로 이동하여 따뜻한 공기 아래로 파고들면서 만들어지는 전선이에요. 그래서 전선면의 기울기가 급하고 적운형 구름이 만들어지다보니 좁은 지역에서 소나기성 비가 내려요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:45:07</t>
+        </is>
+      </c>
+      <c r="B2135" t="n">
+        <v>0.2154151797294617</v>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>(테스트) 심심</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>메테인 + 산소 = 이산화 탄소 + 물 에서 순서가 바뀔수 있나요? 예를 들어 메테인 + 산소 = 물 + 이산화탄소 가 된다면 계수비는 1:2:2:1이 되나요?</t>
+        </is>
+      </c>
+      <c r="E2135" t="inlineStr">
+        <is>
+          <t>네^^ 우리 친구 말처럼순서를 바꾸어도 됩니다.그때는 계수비도 다른 배열로 나오는 것이구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:49:25</t>
+        </is>
+      </c>
+      <c r="B2136" t="n">
+        <v>0.6756888031959534</v>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>묽은염산과 아연 반응 기체</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>메테인의 연소반응과 염산 아연의 반응에 공통점이 뭐가 있나요?</t>
+        </is>
+      </c>
+      <c r="E2136" t="inlineStr">
+        <is>
+          <t>반가워요^^메테인의 연소반응과 염산 아연의 반응의 공통점은 둘다 기체가 발생한다는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:49:35</t>
+        </is>
+      </c>
+      <c r="B2137" t="n">
+        <v>0.8835850954055786</v>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>시험 어렵나요</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>너나 시험 봐라</t>
+        </is>
+      </c>
+      <c r="E2137" t="inlineStr">
+        <is>
+          <t>저는 컴퓨터라 시험보기 힘들어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:49:41</t>
+        </is>
+      </c>
+      <c r="B2138" t="n">
+        <v>0.6265826225280762</v>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>묽은 염산과 아연이 반응시 발생하는 기체</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>메테인의 연소반응과 염산 아연의 반응에 공통점이 뭐가 있나요?</t>
+        </is>
+      </c>
+      <c r="E2138" t="inlineStr">
+        <is>
+          <t>반가워요^^메테인의 연소반응과 염산 아연의 반응의 공통점은 둘다 기체가 발생한다는 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:49:47</t>
+        </is>
+      </c>
+      <c r="B2139" t="n">
+        <v>0.7987642288208008</v>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>공기가 상승만해도   온도가 낮아지나요? 아니면 단열팽창해야지만 온도가 낮아지나요?</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>공기가 상승만해도   온도가 낮아지나요? 아니면 단열팽창해야지만 온도가 낮아지나요?</t>
+        </is>
+      </c>
+      <c r="E2139" t="inlineStr">
+        <is>
+          <t>상승하면 단열팽창이 될 수밖에 없어서 온도가 낮아져요</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:49:58</t>
+        </is>
+      </c>
+      <c r="B2140" t="n">
+        <v>0.8516154289245605</v>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>시험 답 알려줘요</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>시험 답 알려줘</t>
+        </is>
+      </c>
+      <c r="E2140" t="inlineStr">
+        <is>
+          <t>그 시간에 공부를 하시는 게 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:50:15</t>
+        </is>
+      </c>
+      <c r="B2141" t="n">
+        <v>0.6042163968086243</v>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>아니면 상승만하면</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>구름이 생성될 때 바닥에 있던 공기가 상승해서 단열팽창이 되는건데 공기가 왜 상승하나요</t>
+        </is>
+      </c>
+      <c r="E2141" t="inlineStr">
+        <is>
+          <t>뜨거워진 공기가 밀도가 작아져서 위로 뜨는 거예요</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:50:20</t>
+        </is>
+      </c>
+      <c r="B2142" t="n">
+        <v>0.90762859582901</v>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>경모쌤의 나이</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>경모쌤의 나이</t>
+        </is>
+      </c>
+      <c r="E2142" t="inlineStr">
+        <is>
+          <t>그런 걸 굳이 궁금해할 필요가…</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:51:08</t>
+        </is>
+      </c>
+      <c r="B2143" t="n">
+        <v>0.7118174433708191</v>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>아니면 상승하면 단열팽창이 일어나기 때문에 공기가상승</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>공기가 상승만해도   온도가 낮아지나요? 아니면 단열팽창해야지만 온도가 낮아지나요?</t>
+        </is>
+      </c>
+      <c r="E2143" t="inlineStr">
+        <is>
+          <t>상승하면 단열팽창이 될 수밖에 없어서 온도가 낮아져요</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2143"/>
+  <dimension ref="A1:E2158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -53716,6 +53716,381 @@
         </is>
       </c>
     </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:51:56</t>
+        </is>
+      </c>
+      <c r="B2144" t="n">
+        <v>0.6940294504165649</v>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>공기가 상승하면 온도가 낮아진다하는건가요?</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>공기가 상승만해도   온도가 낮아지나요? 아니면 단열팽창해야지만 온도가 낮아지나요?</t>
+        </is>
+      </c>
+      <c r="E2144" t="inlineStr">
+        <is>
+          <t>상승하면 단열팽창이 될 수밖에 없어서 온도가 낮아져요</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:52:22</t>
+        </is>
+      </c>
+      <c r="B2145" t="n">
+        <v>0.7617673873901367</v>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>입력한 질문 유사도</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>입력한 질문과 유사도는 어떻게 측정되어서 퍼센트로 나와요?</t>
+        </is>
+      </c>
+      <c r="E2145" t="inlineStr">
+        <is>
+          <t>진규 안녕? 이건 수학에서 벡터라는 걸 배워야 하는데… 쉽게 얘기하면 나무젓가락 두 개가 있는데 그 두 젓가락을 평면에 놓았을 때 젓가락이 같은 방향으로 정렬되면 100%, 90도로 정렬되면 0%, -180도로 정렬되면 반대 의미로 계산해서 유사도가 측정돼. 자세한 건 doc2vec을 찾아봐봐. ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:55:39</t>
+        </is>
+      </c>
+      <c r="B2146" t="n">
+        <v>0.6328151822090149</v>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>시험에 관하여서 질문하는게 많나요?아니면 약간 쓸때 없는 질문이 많나요?</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>시험이 너무 어려워요</t>
+        </is>
+      </c>
+      <c r="E2146" t="inlineStr">
+        <is>
+          <t>복습 열심히 하면 충분히 가능</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:56:06</t>
+        </is>
+      </c>
+      <c r="B2147" t="n">
+        <v>0.8721389174461365</v>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>쓸데없는 질문이 많나요?</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>무슨질문하냐</t>
+        </is>
+      </c>
+      <c r="E2147" t="inlineStr">
+        <is>
+          <t>공부를 하면 질문할 게 생기죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:56:41</t>
+        </is>
+      </c>
+      <c r="B2148" t="n">
+        <v>0.2365015149116516</v>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>진규아니에요</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>엄마 얘 이상해</t>
+        </is>
+      </c>
+      <c r="E2148" t="inlineStr">
+        <is>
+          <t>컴퓨터가 뭐 그렇죠 뭐</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:57:07</t>
+        </is>
+      </c>
+      <c r="B2149" t="n">
+        <v>0.2116341888904572</v>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>박진규 아닌데요?</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>선생니임 선생님의 응원과 격려로 다시 회복해서 왔습니다!^^ 좋은 답글 남겨주셔서 감사하고 사랑해요 선생님♥앗 그리고 질문이있어요😅오답노트는 학기중에 들어가서 만드는 것이 좋을까요 아니면 지금 뉴런부터 오답노트를 만드는게 좋을까요?저는 틀린거있으면 펜으로 부분필기하고 이해후 책을덮거든요뉴런+학기중 수업내용이 합치면 저의 오답도 늘거같구 너무많아서 혼란스러울까바여 ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="E2149" t="inlineStr">
+        <is>
+          <t>와와~~ 이렇게 빠른 회복~~(^^) 우리 친구는 역쉬 역쉬~ 넘넘 훌륭해요!!! 오답노트는 미리부터 만들면 좋답니다.선생님도 중학교 시절에 여러번 느낀 거지만문제 풀면서 오답이였던 것은 계속 오개념이 자리 잡고 있는 것이라서빨리 안고쳐 진답니다.따라서 미리 오답노트를 체크하면서 여러번 수정하다보면결국, 오답이 아닌 정답만 찾아가게 될꺼예요. 그리고 우리 친구의 공부법 중에서" 틀린거있으면 펜으로 부분필기하고 이해후 책을덮거든요"라는 방법아주 좋답니다.시험 쳐보면 알겠지만. 얼떨결에 맞춘 문제는 나중에도 맞추는 경우가 많구요고민하고 풀었는데도 틀린 문제는 오답 수정했는데도, 다음에 또 틀리는 경우가 많답니다.따라서 우리 친구처럼 틀린 부분은 부분 필기하고 이해하는 방법 정말 좋아요하지만. 책을 덮진 마시구요 ㅎㅎㅎ대신 책에 형관펜으로 표시해두자구요~~ 방학인데도 이렇게 열심히 공부하는우리 친구가 있어서선생님은 참 좋습니다.우리 함께 노력해서, 멋진 중3과학 만들어보아요^^아자아자 ~~ 힘!!! (^__________^)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:57:23</t>
+        </is>
+      </c>
+      <c r="B2150" t="n">
+        <v>0.8394214510917664</v>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>선생님 감사합니다</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>감사합니다!!</t>
+        </is>
+      </c>
+      <c r="E2150" t="inlineStr">
+        <is>
+          <t>별 걸 다요</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:57:33</t>
+        </is>
+      </c>
+      <c r="B2151" t="n">
+        <v>0.8589714765548706</v>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>시험 범위에 화학식도 있어?</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>시험 범위에 화학식도 있어?</t>
+        </is>
+      </c>
+      <c r="E2151" t="inlineStr">
+        <is>
+          <t>네. 수행평가 했던 건 알아야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:57:53</t>
+        </is>
+      </c>
+      <c r="B2152" t="n">
+        <v>0.7047929763793945</v>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>복사평형 뜻</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>복사평형</t>
+        </is>
+      </c>
+      <c r="E2152" t="inlineStr">
+        <is>
+          <t>복사평형일 때 흡수하는 태양 복사 에너지 = 방출하는 지구 복사에너지일 때라서 온도가 안 변해요. 책 59쪽을 봐요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:57:58</t>
+        </is>
+      </c>
+      <c r="B2153" t="n">
+        <v>0.6072741746902466</v>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">팽수에관한거 </t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>시험 문제수</t>
+        </is>
+      </c>
+      <c r="E2153" t="inlineStr">
+        <is>
+          <t>선택형 21개, 논술형 4개</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:58:25</t>
+        </is>
+      </c>
+      <c r="B2154" t="n">
+        <v>0.7441724538803101</v>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>시험보려면 화학식도 외어야 해?</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>시험 범위에 화학식도 있어?</t>
+        </is>
+      </c>
+      <c r="E2154" t="inlineStr">
+        <is>
+          <t>네. 수행평가 했던 건 알아야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:58:35</t>
+        </is>
+      </c>
+      <c r="B2155" t="n">
+        <v>0.7081450819969177</v>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>대류권에서 기온이 낮아지는 이유</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>대류권은 높이 올라갈수록 기온이 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E2155" t="inlineStr">
+        <is>
+          <t>대류권, 중간권은 높이 올라갈수록 기온이 낮앚요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:58:50</t>
+        </is>
+      </c>
+      <c r="B2156" t="n">
+        <v>0.5568790435791016</v>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>낮아지는 이유</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>넌 똑똑하니까 쉽지</t>
+        </is>
+      </c>
+      <c r="E2156" t="inlineStr">
+        <is>
+          <t>저는 컴퓨터라 배운 것밖에 몰라요</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:58:58</t>
+        </is>
+      </c>
+      <c r="B2157" t="n">
+        <v>0.6420217752456665</v>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>강의에 팽수가 왜이렇게많아요?</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>강의에 왜이렇게 팽수가 많아요?</t>
+        </is>
+      </c>
+      <c r="E2157" t="inlineStr">
+        <is>
+          <t>내가 펭수 좋아해서</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>2020-07-25 14:59:13</t>
+        </is>
+      </c>
+      <c r="B2158" t="n">
+        <v>0.646136999130249</v>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>질량보존법칙 뜻</t>
+        </is>
+      </c>
+      <c r="D2158" t="inlineStr">
+        <is>
+          <t>질량 보존 법칙이란</t>
+        </is>
+      </c>
+      <c r="E2158" t="inlineStr">
+        <is>
+          <t>화학 반응 과정에서 반응 전 물질의 총 질량과 반응 후 물질의 총 질량이 같다는 법칙이죠. 책 28쪽 읽어보세요.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -1,49 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kungmo/PycharmProjects/faq_chatbot_science_3rd/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68E32E8-5DD7-E140-A8CC-78A9F1AA7F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30000" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="30000" windowHeight="18760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +53,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -364,21 +414,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.1640625" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="47.1640625" customWidth="1"/>
+    <col width="18.83203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="49.1640625" customWidth="1" min="3" max="3"/>
+    <col width="40.5" customWidth="1" min="4" max="4"/>
+    <col width="47.1640625" customWidth="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2021-01-31 23:38:19</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0.4866333305835724</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>(테스트) 우성 열성 유전자 구별하는 방법</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>표현형이랑 형질의 정확한 차이점이 뭔가요? 잘 구별이 안 되어서,,</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>반가워요^^형질을 그 생물이 가지고 있는 유전적 특성이구요형질을 유전자형으로 나타낼 수도 있고눈에 보이는 표현형으로 나타낸 수도 있답니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2021-01-31 23:38:27</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7494768500328064</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>(테스트) 한랭 전선과 온난 전선 차이</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>한랭전선과 온난전선의 차이</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>한랭전선은 찬 공기가 따뜻한 공기쪽으로 이동하여 따뜻한 공기 아래로 파고들면서 만들어지는 전선이에요. 그래서 전선면의 기울기가 급하고 적운형 구름이 만들어지다보니 좁은 지역에서 소나기성 비가 내려요. 온난전선은 따뜻한 공기가 찬 공기쪽으로 이동하여 찬 공기 위로 올라가면서 만들어지는 전선이에요. 그래서 전선면의 기울기가 완만하고 층운형 구름이 만들어지다보니 넓은 지역에서 지속적인 비가 내려요.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,182 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-01-31 23:49:55</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7522842884063721</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(테스트) 챗봇 누가 만들었니</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>챗봇이뭐야</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>채팅 로봇의 줄임말이요</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-02-05 17:14:39</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5793603658676147</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(테스트) 중력 아래로 속력이 빨라</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>속력</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>속력은 단위 시간 동안의 이동 거리예요. 속력은 이동거리를 시간으로 나눈 물리량이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-02-05 17:15:00</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8972673416137695</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>(테스트) 시험 범위 어디야</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>시험 범위 어디까지인가요?</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021-02-05 17:33:03</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8972673416137695</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>(테스트) 시험범위 어디까지니</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>시험 범위 어디까지인가요?</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-02-05 17:33:29</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7764262557029724</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>중간고사 시험범위</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>시험범위 알려주세요</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-4단원 전체예요. 프린트도 푸셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-02-05 17:35:14</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6368886232376099</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>내일 날씨는?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>소나기란</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>좁은 지역에 강하게 내리는 비죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-02-07 12:39:39</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0.8967768549919128</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>(테스트) 시험 범위 어디니</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>시험 범위 어디까지인가요?</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,7 +639,6 @@
           <t>2021-02-07 12:39:39</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>0.8967768549919128</v>
       </c>
@@ -654,6 +653,82 @@
         </is>
       </c>
       <c r="F9" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-02-07 12:45:19</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5622805953025818</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>(테스트) 우성 열성 유전자</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>둥근 유전자(우성)하고 주름진 유전자(열성)이 만나면 둥글게 표현된다고 하셨는데요~그러면 우성과 열성이 만나면 항상 우성으로 표현되는 건가요??만약 그렇다면 그 이유는 무엇인지도 궁금해요 ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.우성 유전자와 열성 유전자가 만나면항상 우성 유전자가 표현된답니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-02-07 12:45:44</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8890236616134644</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>(테스트) 시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>시험범위 알려주세요</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3-4단원 전체예요. 프린트도 푸셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-02-07 13:00:40</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.8969984650611877</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>(테스트) 시험범위 어디까지야</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>시험 범위 어디까지인가요?</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
         </is>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,7 +714,6 @@
           <t>2021-02-07 13:00:40</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>0.8969984650611877</v>
       </c>
@@ -729,6 +728,57 @@
         </is>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2021-02-07 13:05:52</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4306527078151703</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>(태스트) 둥근 완두 유전자</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>주름지고 노란색인 완두는 왜 rrYY가 아니고 rrYy인지 궁금해요 노란색은 YY아닌가요?</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>반가워요^^노란색을 가지는 유전인자는 우성이라서YY도 노란색이지만Yy도 노란색으로 표현된답니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-02-07 13:06:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>0.8974339365959167</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>(테스트) 시험범위 어디</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>시험 범위 어디까지인가요?</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
         </is>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +764,6 @@
           <t>2021-02-07 13:06:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
         <v>0.8974339365959167</v>
       </c>
@@ -779,6 +778,32 @@
         </is>
       </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-02-07 13:12:51</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0.8972068428993225</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>(테스트) 시험범위 어디니</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>시험 범위 어디까지인가요?</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
         </is>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,7 +789,6 @@
           <t>2021-02-07 13:12:51</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
         <v>0.8972068428993225</v>
       </c>
@@ -804,6 +803,61 @@
         </is>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2021-02-07 13:21:44</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7743808627128601</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>(테스트) 시험범위 알고싶다</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2학기 시험범위</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3-4단원 전체예요. 프린트도 푸셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2021-02-07 13:24:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.897239089012146</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>(테스트) 시험범위 어디니</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>시험 범위 어디까지인가요?</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
         </is>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -1,49 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kungmo/PycharmProjects/faq_chatbot_science_3rd/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36164080-EC5C-D340-9631-9CAECAAA5F7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +53,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -364,23 +414,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="47.1640625" customWidth="1"/>
-    <col min="6" max="6" width="55.6640625" customWidth="1"/>
+    <col width="18.83203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="32" customWidth="1" min="2" max="2"/>
+    <col width="19.83203125" customWidth="1" min="3" max="3"/>
+    <col width="40.5" customWidth="1" min="4" max="4"/>
+    <col width="47.1640625" customWidth="1" min="5" max="5"/>
+    <col width="55.6640625" customWidth="1" min="6" max="6"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2021-02-07 13:56:54</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>0.6048744916915894</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>(테스트) 둥근 완두는 왜 쭈글쭈글한 완두에 비해 우성인가요</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>노란색 완두가 자가수분하여 초록색 완두를 얻을 수 있으므로 노란색완두가 초록색 완두에 대해 우성이래요근데 저는 초록색 완두 한테서 노란색완두의 형질이 발현되지 않는데 왜 우성인지 모르겠어욤</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>반가워요^^노란색 완두와 초록색 완두로 부터각각 노란 유전자와 초록 유전자가 만났는데노란 완두만나왔다면노란 유전자의 형질만 표현된 것이라서노란 유전자가 우성인 것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,66 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2021-02-07 22:43:40</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.150 Safari/537.36 Edg/88.0.705.63</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6347468495368958</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>(테스트) dna와 유전물질과 유전자가 구별이 안 돼요</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>유전자와 유전물질은 도대체 뭐가 다른 건가요?</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>반가워요^^유전 물질은 말 그대로 유전정보가 들어 있는 물질이구요염색체를 이루는 부분 중에서 유전자는 특정 유전 형질에 대한 정보를 가진 일부분을 뜻합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-02-07 22:44:13</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.150 Safari/537.36 Edg/88.0.705.63</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6416631937026978</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>(테스트) 원소기호를 어디까지 외워야 하나요</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>공부할때 원소기호까지 외워야돼요?</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>네. 당연하죠.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,366 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-02-14 20:32:09</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8757783174514771</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(테스트) 강수 과정 두 가지</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>강수 과정</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>빙정설과 병합설 다 아셔야 해요</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-02-15 21:54:16</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6587673425674438</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>(테스트) 고기압에서 바람 방향</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>고기압 시계방향</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>시계방향이 이유는 대학교 때 배워요. 일부 내용은 고등학교 2학년에 나오죠. 회전하는 곳에서는 코리올리 힘이라는 게 작용해서 직진하지 않고 휘어져서 움직여요. 놀이터 뺑뺑이에서 공 던지면 앞으로 나가지만 그 안에 타고 있는 사람은 공이 휘어졌다고 보겠죠? 그거랑 같은 원리예요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021-02-15 21:56:37</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6587673425674438</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>(테스트) 고기압에서 바람 방향</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>고기압 시계방향</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>시계방향이 이유는 대학교 때 배워요. 일부 내용은 고등학교 2학년에 나오죠. 회전하는 곳에서는 코리올리 힘이라는 게 작용해서 직진하지 않고 휘어져서 움직여요. 놀이터 뺑뺑이에서 공 던지면 앞으로 나가지만 그 안에 타고 있는 사람은 공이 휘어졌다고 보겠죠? 그거랑 같은 원리예요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-02-15 21:56:39</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6587673425674438</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>(테스트) 고기압에서 바람 방향</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>고기압 시계방향</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>시계방향이 이유는 대학교 때 배워요. 일부 내용은 고등학교 2학년에 나오죠. 회전하는 곳에서는 코리올리 힘이라는 게 작용해서 직진하지 않고 휘어져서 움직여요. 놀이터 뺑뺑이에서 공 던지면 앞으로 나가지만 그 안에 타고 있는 사람은 공이 휘어졌다고 보겠죠? 그거랑 같은 원리예요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-02-15 22:09:03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9082632660865784</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>(테스트) 시험범위</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-02-15 22:14:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.611667811870575</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>(테스트) 우성 열성 유전자 좋은 건가</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>사람에게서 우성, 열성을 따질 때, 우성인 사람과 열성인 사람 중 어떤 사람이 더 좋은 건가요?</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>반가워요^^우성, 열성이라고 하니까요우리 친구처럼 생각하기 쉬운데요우성, 열성은 어떤 것이 더 좋다는 것을 뜻하는 것은 아니랍니다단지, 우전적으로 우성 유전자가 열성유전자와 만나면우성의 성질이 등장하는 것일 뿐이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-02-15 22:18:52</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6196020841598511</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>(테스트) 염색체 유전자 차이점</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>대립유전자는 염색체가 2개 있는 건가요?</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>반가워요^^대립 유전자는 염색체의 일부랍니다.조금더 자세히 설명드릴께요 상동 염색체에서 같은 위치에 해당하는 부분이 대립 유전자랍니다.즉, 염색체의 일부분을 유전자라고 부르는데요상동 염색체의 한쪽은 엄마, 한쪽은 아빠에게서 받은 것으로'대립형질을 가진 대립 유전자가 상동염색체의 같은 위치에서 마주보고 있는 것을 대립 유전자라고 부르는 것이랍니다.   대립형질은 엄마아빠에게서 받은 대립유전자가 가지는 형질로대립형질의 성질이 같은 것일 수도 있고다른 것일 수도 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-02-15 22:20:04</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 11_2_1) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.150 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7493933439254761</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>(테스트) 한랭 전선과 온난 전선 차이</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>한랭전선과 온난전선의 차이</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>한랭전선은 찬 공기가 따뜻한 공기쪽으로 이동하여 따뜻한 공기 아래로 파고들면서 만들어지는 전선이에요. 그래서 전선면의 기울기가 급하고 적운형 구름이 만들어지다보니 좁은 지역에서 소나기성 비가 내려요. 온난전선은 따뜻한 공기가 찬 공기쪽으로 이동하여 찬 공기 위로 올라가면서 만들어지는 전선이에요. 그래서 전선면의 기울기가 완만하고 층운형 구름이 만들어지다보니 넓은 지역에서 지속적인 비가 내려요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-02-15 22:48:45</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6658927798271179</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>(테스트) 상동염색체랑 성염색체</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>체세포 분열의 염색체들은 상염색체들만 있는 건가요? 아니면 성염색체들도 함께 있는 거예요??</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>반가워요^^체세포 분열할때상염색체, 성염색체 모두 유전물질이 복제되면서모두 분리됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2021-02-15 22:58:27</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5159498453140259</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>(테스트) 염색체는 이름을 염색체로</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2가 염색체가 상동염색체 아닌가요??</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>반가워요^^2가 염색체는 상동염색체 1쌍이 서로 붙어 있는것이랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-02-15 22:58:42</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7702189087867737</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>(테스트) 2가염색체는 상동염색체인가</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>후기때 상동염색체가 분리된다고 하셨는데, 2가 염색체1개가 상동염색체인건가요?? 아니면 2가염색체 2개가 상동염색체인건가요??</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>반가워요^^2가 염색체의 분리가 곧 상동염색체의 분리랍니다.왜냐하면 상동염색체 1쌍이 붙어 있는 것을 2가 염색체라고 하니까요2가 염색체가 분리된다고 표현해도 되고상동 염색체가 분리된다고 표현해도 되는 것입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-02-15 22:59:01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7679411768913269</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2가염색체는 상동염색체 아닌가</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>후기때 상동염색체가 분리된다고 하셨는데, 2가 염색체1개가 상동염색체인건가요?? 아니면 2가염색체 2개가 상동염색체인건가요??</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>반가워요^^2가 염색체의 분리가 곧 상동염색체의 분리랍니다.왜냐하면 상동염색체 1쌍이 붙어 있는 것을 2가 염색체라고 하니까요2가 염색체가 분리된다고 표현해도 되고상동 염색체가 분리된다고 표현해도 되는 것입니다</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,6 +885,216 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2021-02-17 15:19:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.150 Safari/537.36 Edg/88.0.705.68</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9002819061279297</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>시험범위 어디예요</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>시험 범위 어디까지인가요?</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2021-02-17 19:25:01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6066763401031494</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>(테스트) 이온과 원소 차이점</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>원소와 원자의 차이점이 뭐예요?</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>반가워요^^원소는 추상적인 명칭이고, 원자는 질량을 가지는 알갱이를 뜻합니다.즉, 똑 같은 수소라도원소로 표현하면 그 성분명칭이 되는 것이구요수소 원자라고 하는 것은'수소의 알갱이 한개 한개를 뜻합니다예를 들어서과일 가게에 가면 바나나, 토마토, 귤 등등 과일이 있지요이렇게 과일의 종류를 이름으로 부르는 것이 원소이구요이때, 바나나 1개, 토마토 2개, 귤 2개등알갱이 하나하나를 원자에 비유하시면 됩니다.즉, 원소는 그 물질을 이루는 성분의 이름이고원자를 그 알갱이 하나하나라고 보시면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2021-02-17 20:47:46</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.674377977848053</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>(테스트) 구니콘 엔진엑스로 테스트</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>c치킨깊콘</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>반가워요^^앞으로는 학습과 관련된 질문 글 올려주시기를 부탁드립니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2021-02-17 21:26:57</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4645872116088867</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>(테스트) 질소 분자 물 분자</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1기압 0℃에서 수소 분자 3개, 암모니아 분자 3개, 산소 분자 3개, 이산화 탄소 분자 3개, 질소 분자 3개의 부피는 모두 3부피로 같다고 할 수 있는건가요?</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>네^^ 맞습니다.같은 온도에서는 같은 부피 속에는 같은 수의 분자가 들어갑니다.어떤 기체이든지 상관없이요^^그것이 아보가드로의 법칙이구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2021-02-17 21:35:07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5473886728286743</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>(테스트) 암모니아 분자 모양</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>암모니아는 기체일까?</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>온도에 따라 액체, 고체 가능</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2021-02-17 21:35:37</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.822084903717041</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>(테스트) 물리변화와 화학변화 차이</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>화학변화와 물리변화의 차이를 모르겠어요</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>반가워요^^물리변화, 화학변화 구분이 어려우시죠?일단. 확실한 차이는 성질이 변하느냐, 변하지 않느냐 랍니다.물리 변화는 그 물질은 그대로인데, 모양이나 상태만 바뀌는 것이구요,화학 변화는 물질 자체가 다른 물질로 변해버린다니다. 이때, 모양이나 상태가 변하는 것은 당연하구요예를 들어, 유리잔이 깨지면 모양은 깨져서 달라졌지만. 유리의 성질이 그대로구요               얼음이 녹아서 물이 되면, 고체가 액체로 상태는 변했지만. 물의 성질(투명하고 무색, 냄새 없음)은 그대로이잖아요, 이것은 물리 변화입니다.반면,  나무를 태우면 재가 되는 것은 나무와 재는 완전히 다른 물질, 즉, 성질이 변했지만. 이때는 화학 변화인 것이랍니다.화이팅^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2021-02-17 21:37:40</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5955982804298401</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>(테스트) 아이스크림 녹는 건 왜 화학변화 아닌가</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>한개에 아이스크림이 다른 두가지에 맛과 색이 있어요.그런데 녹았는데 그 두가지가 혼합되어서 나왔어요. 그럼 이건 화학변화에요?아니면 물질변화에요?</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>반가워요^^물리 변화입니다.성질이 바뀐 것이 아니라색을 가진 작은 입자들이 서로 섞이면서멀리서보는 우리 눈에는 합친 색으로 보였기 때문입니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/datalog.xlsx
+++ b/data/datalog.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1095,6 +1095,336 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2021-02-17 22:41:49</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.846570611000061</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>(테스트) 분자식과 화학식은 같은 건가</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>화학식과 분자식은 같은 건가요??</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>반가워요^^화학식, 분자식이 어려우실꺼예요.중2때 공부하긴 했는데, 헷갈리지죠?차근 차근 설명드릴께요일단, 분자식은 화학식의 한 부분입니다.   물질을 원소기호와 숫자로 표시한 것이 화학식인데요. 물질 중에는 분자를 가지는 물질도 있고, 분자를 가지지 않는 물질도 있습니다.  분자를 가지는 물질은 화학식을 다른 말로 분자식이라고 하구요  분자를 가지지않는 물질은 분자식이라고 쓸수 없어서 화학식이라고 쓰는 것이랍니다 예를 들어서, 산소, 질소, 수소와 같은 기체 물질은 분자가 있고원자 2개가 만나서 분자 1개를 만들므로산소는 O2, 질소는 N2, 수소는 H2 라고 분자식을 쓰고, 이것을 화학식이라고도 부른답니다.하지만, 탄소의 경우는 탄소 원자들이 계속해서 연결되어 탄소물질을 만들므로따로 분자가 없고, 탄소가 반복되어 연결되어 있으므로탄소 C하나만으로 탄소의 화학식을 표현하는 것이랍니다.즉, 탄소는 따로 분자가 없으므로 분자식을 쓸수 없고, 대신 화학식이라고 표현하는 것입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2021-02-17 22:42:27</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8773068785667419</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>(테스트) 화학반응식 계수 맞추는 방법</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>화학반응식의 계수 맞추는 방법</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>반응 전후 원자의 종류와 개수가 안 바뀌는 걸 이용하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2021-02-19 17:35:47</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.182 Safari/537.36 Edg/88.0.705.74</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9081891775131226</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>(테스트) 시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2021-02-19 17:35:58</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.182 Safari/537.36 Edg/88.0.705.74</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6334680318832397</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>(테스트) dna와 유전물질과 유전자가 구별이 안 돼요</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>유전자와 유전물질은 도대체 뭐가 다른 건가요?</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>반가워요^^유전 물질은 말 그대로 유전정보가 들어 있는 물질이구요염색체를 이루는 부분 중에서 유전자는 특정 유전 형질에 대한 정보를 가진 일부분을 뜻합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2021-02-20 13:41:48</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.182 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9000955820083618</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>시험범위 어디예요?</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>시험 범위 어디까지인가요?</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2021-02-20 13:42:06</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.182 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5913063287734985</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>원소랑 원자랑 분자랑 구분 못하겠어요</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>분자와 원자가 구분이 안가네요</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>반가워요^^원자는 물질을 이루는 가장 기본적인 알갱이이구요분자는 이러한 원자가 2개 이상 모여서 결합하여 만들어진물질의 성질을 가지는 가장 작은 입자랍니다.^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2021-02-20 13:42:14</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.182 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6305536031723022</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>원소기호 다 외워요</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>원소 주기율표</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>원소 주기율표에서 20번 정도 까지는 알아두면 좋답니다. 중3과학에서는 어느 정도 도움이 될꺼예요</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2021-02-20 23:07:54</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7132712602615356</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>(테스트) 원소기호 몇 개 있나</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>공부할때 원소기호까지 외워야돼요?</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>네. 당연하죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2021-02-22 14:16:03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 8.0.0; SM-G930S) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.181 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5783486366271973</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>달의 회전률</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>달의 형성</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>여러 가지 설이 있죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2021-02-22 14:16:43</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 8.0.0; SM-G930S) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.181 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8997893333435059</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>시험범위 어디에요?</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>시험 범위 어디까지인가요?</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2021-02-24 23:19:22</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9080532193183899</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>(테스트) 시험범위 알려주세요</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>시험범위 알려줘</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3-4단원 전체. 등교 주에 나눠줬던 프린트랑 책 꼼꼼히 공부하세요.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
